--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="699">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -1944,27 +1944,6 @@
   </si>
   <si>
     <t>by3d_act_xycb</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>3D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>捕鱼-幸运彩贝</t>
-    </r>
   </si>
   <si>
     <t>BY3DActXYCBManager</t>
@@ -2888,6 +2867,123 @@
   </si>
   <si>
     <t>3D捕鱼开炮送红包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_bossts</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss来了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYBossTSManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS来袭，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_flqcj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSFLQCJManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利抽奖券，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_016_XYXCWKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_016_xyxcwk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩卡，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼挑战任务</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D捕鱼挑战任务，永久</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_top_qh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼游戏上方区域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DTopQHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼游戏上方区域显示，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>捕鱼-幸运彩贝</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3340,13 +3436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I237"/>
+  <dimension ref="A1:I242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C213" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D233" sqref="D233"/>
+      <selection pane="bottomRight" activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3375,7 +3471,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -3387,7 +3483,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3413,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3439,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3465,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3491,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3517,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3543,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3569,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3595,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3621,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3647,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3673,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3699,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3725,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3751,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3777,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3803,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3829,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3855,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3881,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3907,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3933,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3959,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3985,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4011,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4037,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4048,7 +4144,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -4063,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4089,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4115,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4141,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4167,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4193,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4219,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4245,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4271,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4297,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4323,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4349,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4375,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4401,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4427,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4453,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4479,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4505,7 +4601,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4531,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4557,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4583,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4609,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4620,7 +4716,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -4635,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4661,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4687,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4711,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4737,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4763,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4771,7 +4867,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>163</v>
@@ -4789,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4815,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4841,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4867,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4893,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4919,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4945,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4971,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4997,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5023,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5049,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5075,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5101,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5127,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5153,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5179,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5205,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5231,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5257,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5283,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5291,7 +5387,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>222</v>
@@ -5309,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5335,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5361,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5387,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5413,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5439,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5465,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5491,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5517,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5543,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5569,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5595,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5621,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5647,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5673,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5699,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5725,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5751,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5777,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5803,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5829,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5855,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5881,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5907,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5933,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5959,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5985,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6002,16 +6098,16 @@
         <v>304</v>
       </c>
       <c r="E102" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>647</v>
+        <v>684</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6037,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6063,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6089,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6115,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6141,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6167,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6193,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6219,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6245,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6271,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6297,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6323,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6349,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6375,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6401,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6427,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6453,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6479,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6505,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6531,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6557,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6583,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6609,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6635,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6661,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="I127" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6687,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6713,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6739,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6765,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6791,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6817,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6843,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6869,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6895,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6921,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6947,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6973,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6999,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7025,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7051,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7068,16 +7164,16 @@
         <v>427</v>
       </c>
       <c r="E143" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7088,22 +7184,22 @@
         <v>428</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E144" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7114,11 +7210,11 @@
         <v>430</v>
       </c>
       <c r="C145" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>432</v>
-      </c>
       <c r="E145" s="5">
         <v>1</v>
       </c>
@@ -7128,8 +7224,8 @@
       <c r="G145">
         <v>1</v>
       </c>
-      <c r="I145" s="11" t="s">
-        <v>650</v>
+      <c r="I145" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7137,25 +7233,25 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="D146" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C146" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>434</v>
-      </c>
       <c r="E146" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>648</v>
+        <v>698</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7163,14 +7259,14 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>437</v>
-      </c>
       <c r="E147" s="5">
         <v>0</v>
       </c>
@@ -7181,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>648</v>
+        <v>698</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7189,14 +7285,14 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>440</v>
-      </c>
       <c r="E148" s="5">
         <v>0</v>
       </c>
@@ -7207,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7215,14 +7311,14 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>443</v>
-      </c>
       <c r="E149" s="5">
         <v>0</v>
       </c>
@@ -7233,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7241,14 +7337,14 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>446</v>
-      </c>
       <c r="E150" s="5">
         <v>0</v>
       </c>
@@ -7259,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7267,14 +7363,14 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="D151" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="E151" s="5">
         <v>0</v>
       </c>
@@ -7285,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7293,14 +7389,14 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>452</v>
-      </c>
       <c r="E152" s="5">
         <v>0</v>
       </c>
@@ -7311,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7319,14 +7415,14 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>455</v>
-      </c>
       <c r="E153" s="5">
         <v>0</v>
       </c>
@@ -7337,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7345,14 +7441,14 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>458</v>
-      </c>
       <c r="E154" s="5">
         <v>0</v>
       </c>
@@ -7363,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7371,14 +7467,14 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
@@ -7389,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7397,14 +7493,14 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="D156" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -7415,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7423,14 +7519,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>466</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -7441,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7449,14 +7545,14 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C158" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
@@ -7467,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7475,14 +7571,14 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
@@ -7493,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7501,14 +7597,14 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="D160" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>474</v>
-      </c>
       <c r="E160" s="5">
         <v>0</v>
       </c>
@@ -7519,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7527,14 +7623,14 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="D161" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>477</v>
-      </c>
       <c r="E161" s="5">
         <v>0</v>
       </c>
@@ -7545,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7553,14 +7649,14 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>480</v>
-      </c>
       <c r="E162" s="5">
         <v>0</v>
       </c>
@@ -7571,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7579,14 +7675,14 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>483</v>
-      </c>
       <c r="E163" s="5">
         <v>0</v>
       </c>
@@ -7597,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7605,14 +7701,14 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="D164" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>486</v>
-      </c>
       <c r="E164" s="5">
         <v>0</v>
       </c>
@@ -7623,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7631,13 +7727,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>488</v>
-      </c>
       <c r="D165" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E165" s="5">
         <v>1</v>
@@ -7649,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7657,14 +7753,14 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C166" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="D166" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="E166" s="5">
         <v>0</v>
       </c>
@@ -7675,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7683,14 +7779,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C167" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="E167" s="5">
         <v>1</v>
       </c>
@@ -7701,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7709,14 +7805,14 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="D168" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>496</v>
-      </c>
       <c r="E168" s="5">
         <v>0</v>
       </c>
@@ -7727,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7735,14 +7831,14 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="D169" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>499</v>
-      </c>
       <c r="E169" s="5">
         <v>0</v>
       </c>
@@ -7753,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7761,10 +7857,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -7777,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7785,10 +7881,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -7801,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7809,10 +7905,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C172" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -7825,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7833,10 +7929,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>663</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>664</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5">
@@ -7849,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="I173" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7857,14 +7953,14 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="D174" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>508</v>
-      </c>
       <c r="E174" s="5">
         <v>0</v>
       </c>
@@ -7875,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7883,10 +7979,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
@@ -7899,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7907,10 +8003,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
@@ -7923,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="I176" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7931,10 +8027,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5">
@@ -7947,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7955,14 +8051,14 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="D178" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>517</v>
-      </c>
       <c r="E178" s="5">
         <v>1</v>
       </c>
@@ -7973,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7981,14 +8077,14 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="D179" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>520</v>
-      </c>
       <c r="E179" s="5">
         <v>1</v>
       </c>
@@ -7999,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="I179" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8007,10 +8103,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C180" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>522</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5">
@@ -8023,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8031,10 +8127,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -8047,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8055,10 +8151,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -8071,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8079,10 +8175,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7">
@@ -8095,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8103,11 +8199,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>528</v>
+      </c>
+      <c r="C184" t="s">
         <v>529</v>
       </c>
-      <c r="C184" t="s">
-        <v>530</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -8118,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8126,11 +8222,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>530</v>
+      </c>
+      <c r="C185" t="s">
         <v>531</v>
       </c>
-      <c r="C185" t="s">
-        <v>532</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -8141,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8149,11 +8245,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>532</v>
+      </c>
+      <c r="C186" t="s">
         <v>533</v>
       </c>
-      <c r="C186" t="s">
-        <v>534</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -8164,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8172,11 +8268,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>534</v>
+      </c>
+      <c r="C187" t="s">
         <v>535</v>
       </c>
-      <c r="C187" t="s">
-        <v>536</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -8187,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8195,11 +8291,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>536</v>
+      </c>
+      <c r="C188" t="s">
         <v>537</v>
       </c>
-      <c r="C188" t="s">
-        <v>538</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -8210,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8218,11 +8314,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>538</v>
+      </c>
+      <c r="C189" t="s">
         <v>539</v>
       </c>
-      <c r="C189" t="s">
-        <v>540</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -8233,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8241,11 +8337,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>540</v>
+      </c>
+      <c r="C190" t="s">
         <v>541</v>
       </c>
-      <c r="C190" t="s">
-        <v>542</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -8256,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8264,11 +8360,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>542</v>
+      </c>
+      <c r="C191" t="s">
         <v>543</v>
       </c>
-      <c r="C191" t="s">
-        <v>544</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -8279,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8287,11 +8383,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>544</v>
+      </c>
+      <c r="C192" t="s">
         <v>545</v>
       </c>
-      <c r="C192" t="s">
-        <v>546</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -8302,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8310,11 +8406,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>546</v>
+      </c>
+      <c r="C193" t="s">
         <v>547</v>
       </c>
-      <c r="C193" t="s">
-        <v>548</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -8325,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8333,11 +8429,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>548</v>
+      </c>
+      <c r="C194" t="s">
         <v>549</v>
       </c>
-      <c r="C194" t="s">
-        <v>550</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -8348,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8356,11 +8452,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>550</v>
+      </c>
+      <c r="C195" t="s">
         <v>551</v>
       </c>
-      <c r="C195" t="s">
-        <v>552</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -8371,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8379,11 +8475,11 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>552</v>
+      </c>
+      <c r="C196" t="s">
         <v>553</v>
       </c>
-      <c r="C196" t="s">
-        <v>554</v>
-      </c>
       <c r="E196">
         <v>0</v>
       </c>
@@ -8394,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8402,11 +8498,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>554</v>
+      </c>
+      <c r="C197" t="s">
         <v>555</v>
       </c>
-      <c r="C197" t="s">
-        <v>556</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -8417,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8425,11 +8521,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>556</v>
+      </c>
+      <c r="C198" t="s">
         <v>557</v>
       </c>
-      <c r="C198" t="s">
-        <v>558</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -8440,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8448,11 +8544,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>558</v>
+      </c>
+      <c r="C199" t="s">
         <v>559</v>
       </c>
-      <c r="C199" t="s">
-        <v>560</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -8463,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8471,11 +8567,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>560</v>
+      </c>
+      <c r="C200" t="s">
         <v>561</v>
       </c>
-      <c r="C200" t="s">
-        <v>562</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -8486,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8494,11 +8590,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>562</v>
+      </c>
+      <c r="C201" t="s">
         <v>563</v>
       </c>
-      <c r="C201" t="s">
-        <v>564</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -8509,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8517,11 +8613,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>564</v>
+      </c>
+      <c r="C202" t="s">
         <v>565</v>
       </c>
-      <c r="C202" t="s">
-        <v>566</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -8532,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8540,11 +8636,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>566</v>
+      </c>
+      <c r="C203" t="s">
         <v>567</v>
       </c>
-      <c r="C203" t="s">
-        <v>568</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -8555,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8563,11 +8659,11 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
+        <v>568</v>
+      </c>
+      <c r="C204" t="s">
         <v>569</v>
       </c>
-      <c r="C204" t="s">
-        <v>570</v>
-      </c>
       <c r="E204">
         <v>0</v>
       </c>
@@ -8578,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8586,14 +8682,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C205" t="s">
+        <v>570</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C205" t="s">
-        <v>571</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>614</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -8604,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8612,14 +8708,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C206" t="s">
+        <v>571</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="C206" t="s">
-        <v>572</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>616</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -8630,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8638,14 +8734,14 @@
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="C207" t="s">
+        <v>572</v>
+      </c>
+      <c r="D207" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="C207" t="s">
-        <v>573</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>618</v>
-      </c>
       <c r="E207">
         <v>1</v>
       </c>
@@ -8656,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="I207" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8664,11 +8760,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>573</v>
+      </c>
+      <c r="C208" t="s">
         <v>574</v>
       </c>
-      <c r="C208" t="s">
-        <v>575</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -8679,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8687,11 +8783,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>575</v>
+      </c>
+      <c r="C209" t="s">
         <v>576</v>
       </c>
-      <c r="C209" t="s">
-        <v>577</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -8702,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8710,11 +8806,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>577</v>
+      </c>
+      <c r="C210" t="s">
         <v>578</v>
       </c>
-      <c r="C210" t="s">
-        <v>579</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -8725,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8733,11 +8829,11 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>579</v>
+      </c>
+      <c r="C211" t="s">
         <v>580</v>
       </c>
-      <c r="C211" t="s">
-        <v>581</v>
-      </c>
       <c r="E211">
         <v>0</v>
       </c>
@@ -8748,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8756,11 +8852,11 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>581</v>
+      </c>
+      <c r="C212" t="s">
         <v>582</v>
       </c>
-      <c r="C212" t="s">
-        <v>583</v>
-      </c>
       <c r="E212">
         <v>1</v>
       </c>
@@ -8771,7 +8867,7 @@
         <v>1</v>
       </c>
       <c r="I212" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8779,11 +8875,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>583</v>
+      </c>
+      <c r="C213" t="s">
         <v>584</v>
       </c>
-      <c r="C213" t="s">
-        <v>585</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -8794,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8802,11 +8898,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>585</v>
+      </c>
+      <c r="C214" t="s">
         <v>586</v>
       </c>
-      <c r="C214" t="s">
-        <v>587</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -8817,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8825,11 +8921,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>587</v>
+      </c>
+      <c r="C215" t="s">
         <v>588</v>
       </c>
-      <c r="C215" t="s">
-        <v>589</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -8840,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8848,11 +8944,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>589</v>
+      </c>
+      <c r="C216" t="s">
         <v>590</v>
       </c>
-      <c r="C216" t="s">
-        <v>591</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -8863,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8871,11 +8967,11 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>591</v>
+      </c>
+      <c r="C217" t="s">
         <v>592</v>
       </c>
-      <c r="C217" t="s">
-        <v>593</v>
-      </c>
       <c r="E217">
         <v>0</v>
       </c>
@@ -8886,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8894,11 +8990,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>593</v>
+      </c>
+      <c r="C218" t="s">
         <v>594</v>
       </c>
-      <c r="C218" t="s">
-        <v>595</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -8909,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8917,11 +9013,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>595</v>
+      </c>
+      <c r="C219" t="s">
         <v>596</v>
       </c>
-      <c r="C219" t="s">
-        <v>597</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -8932,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8940,11 +9036,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>597</v>
+      </c>
+      <c r="C220" t="s">
         <v>598</v>
       </c>
-      <c r="C220" t="s">
-        <v>599</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -8955,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8963,11 +9059,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>599</v>
+      </c>
+      <c r="C221" t="s">
         <v>600</v>
       </c>
-      <c r="C221" t="s">
-        <v>601</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -8978,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8986,11 +9082,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>601</v>
+      </c>
+      <c r="C222" t="s">
         <v>602</v>
       </c>
-      <c r="C222" t="s">
-        <v>603</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -9001,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9009,11 +9105,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>603</v>
+      </c>
+      <c r="C223" t="s">
         <v>604</v>
       </c>
-      <c r="C223" t="s">
-        <v>605</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -9024,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9032,11 +9128,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>605</v>
+      </c>
+      <c r="C224" t="s">
         <v>606</v>
       </c>
-      <c r="C224" t="s">
-        <v>607</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -9047,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9055,11 +9151,11 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>607</v>
+      </c>
+      <c r="C225" t="s">
         <v>608</v>
       </c>
-      <c r="C225" t="s">
-        <v>609</v>
-      </c>
       <c r="E225">
         <v>0</v>
       </c>
@@ -9070,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9078,10 +9174,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C226" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -9093,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="I226" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9101,13 +9197,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C227" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D227" s="9" t="s">
         <v>620</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>621</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -9124,13 +9220,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C228" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="D228" t="s">
         <v>624</v>
-      </c>
-      <c r="D228" t="s">
-        <v>625</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -9147,13 +9243,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C229" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="D229" s="9" t="s">
         <v>627</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>628</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -9170,13 +9266,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C230" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="D230" s="9" t="s">
         <v>630</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>631</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -9193,13 +9289,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="C231" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="D231" s="9" t="s">
         <v>636</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>637</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -9216,13 +9312,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C232" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="C232" s="9" t="s">
-        <v>634</v>
-      </c>
       <c r="D232" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -9239,13 +9335,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D233" s="9" t="s">
         <v>643</v>
-      </c>
-      <c r="C233" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="D233" s="9" t="s">
-        <v>644</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -9262,13 +9358,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="C234" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="D234" s="9" t="s">
         <v>659</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>660</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -9285,13 +9381,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="C235" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="D235" s="9" t="s">
         <v>667</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>668</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -9308,25 +9404,25 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="C236" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>672</v>
-      </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9334,25 +9430,155 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="C237" s="9" t="s">
+    </row>
+    <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A238" s="5">
+        <v>237</v>
+      </c>
+      <c r="B238" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="D237" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" s="9" t="s">
-        <v>674</v>
+      <c r="C238" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A239" s="5">
+        <v>238</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A240" s="5">
+        <v>239</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A241" s="5">
+        <v>240</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A242" s="5">
+        <v>241</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="9" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -9379,7 +9605,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="708">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -524,9 +524,6 @@
   </si>
   <si>
     <t>TYGiftManager</t>
-  </si>
-  <si>
-    <t>sys_stxt</t>
   </si>
   <si>
     <t>师徒系统</t>
@@ -2984,6 +2981,46 @@
   </si>
   <si>
     <t>关闭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_stxt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_022_qflb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>全返礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_022_QFLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_022_gzyl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注有礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_022_GZYLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3436,13 +3473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I242"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E173" sqref="E173"/>
+      <selection pane="bottomRight" activeCell="G244" sqref="G244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3471,7 +3508,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -3483,7 +3520,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3509,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3535,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3561,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3587,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3613,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3639,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3665,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3691,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3717,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3743,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3769,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3795,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3821,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3847,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3873,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3899,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3925,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3951,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3977,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4003,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4029,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4055,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4081,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4107,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4133,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4144,7 +4181,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -4159,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4185,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4211,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4237,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4263,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4289,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4315,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4341,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4367,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4393,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4419,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4445,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4471,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4497,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4523,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4549,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4575,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4601,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4627,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4653,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4679,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4705,7 +4742,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4716,7 +4753,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -4731,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4757,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4783,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4807,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4833,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4841,25 +4878,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="E54" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4867,14 +4904,14 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="E55" s="5">
         <v>1</v>
       </c>
@@ -4885,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4893,14 +4930,14 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="E56" s="5">
         <v>0</v>
       </c>
@@ -4911,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4919,14 +4956,14 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="E57" s="5">
         <v>1</v>
       </c>
@@ -4937,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4945,14 +4982,14 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="E58" s="5">
         <v>0</v>
       </c>
@@ -4963,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4971,14 +5008,14 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="E59" s="5">
         <v>1</v>
       </c>
@@ -4989,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4997,14 +5034,14 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="E60" s="5">
         <v>1</v>
       </c>
@@ -5015,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5023,14 +5060,14 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="E61" s="5">
         <v>1</v>
       </c>
@@ -5041,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5049,14 +5086,14 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="E62" s="5">
         <v>1</v>
       </c>
@@ -5067,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5075,14 +5112,14 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="E63" s="5">
         <v>0</v>
       </c>
@@ -5093,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5101,14 +5138,14 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="E64" s="5">
         <v>1</v>
       </c>
@@ -5119,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5127,14 +5164,14 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="E65" s="5">
         <v>0</v>
       </c>
@@ -5145,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5153,14 +5190,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="E66" s="5">
         <v>1</v>
       </c>
@@ -5171,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5179,14 +5216,14 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="E67" s="5">
         <v>1</v>
       </c>
@@ -5197,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5205,14 +5242,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="E68" s="5">
         <v>0</v>
       </c>
@@ -5223,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5231,14 +5268,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="E69" s="5">
         <v>0</v>
       </c>
@@ -5249,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5257,14 +5294,14 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="E70" s="5">
         <v>1</v>
       </c>
@@ -5275,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5283,14 +5320,14 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="E71" s="5">
         <v>1</v>
       </c>
@@ -5301,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5309,14 +5346,14 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="E72" s="5">
         <v>1</v>
       </c>
@@ -5327,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5335,14 +5372,14 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="E73" s="5">
         <v>1</v>
       </c>
@@ -5353,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5361,14 +5398,14 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E74" s="5">
         <v>1</v>
       </c>
@@ -5379,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5387,14 +5424,14 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="E75" s="5">
         <v>0</v>
       </c>
@@ -5405,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5413,14 +5450,14 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="E76" s="5">
         <v>1</v>
       </c>
@@ -5431,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5439,14 +5476,14 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>229</v>
-      </c>
       <c r="E77" s="5">
         <v>0</v>
       </c>
@@ -5457,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5465,14 +5502,14 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="E78" s="5">
         <v>0</v>
       </c>
@@ -5483,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5491,14 +5528,14 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="E79" s="5">
         <v>1</v>
       </c>
@@ -5509,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5517,14 +5554,14 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="E80" s="5">
         <v>0</v>
       </c>
@@ -5535,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5543,14 +5580,14 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="E81" s="5">
         <v>0</v>
       </c>
@@ -5561,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5569,14 +5606,14 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="E82" s="5">
         <v>0</v>
       </c>
@@ -5587,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5595,14 +5632,14 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="E83" s="5">
         <v>0</v>
       </c>
@@ -5613,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5621,14 +5658,14 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="E84" s="5">
         <v>0</v>
       </c>
@@ -5639,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5647,14 +5684,14 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="E85" s="5">
         <v>0</v>
       </c>
@@ -5665,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5673,14 +5710,14 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="E86" s="5">
         <v>1</v>
       </c>
@@ -5691,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5699,14 +5736,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
@@ -5717,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5725,14 +5762,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="E88" s="5">
         <v>1</v>
       </c>
@@ -5743,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5751,14 +5788,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>265</v>
-      </c>
       <c r="E89" s="5">
         <v>1</v>
       </c>
@@ -5769,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5777,14 +5814,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="E90" s="5">
         <v>0</v>
       </c>
@@ -5795,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5803,14 +5840,14 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>271</v>
-      </c>
       <c r="E91" s="5">
         <v>1</v>
       </c>
@@ -5821,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5829,14 +5866,14 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="E92" s="5">
         <v>0</v>
       </c>
@@ -5847,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5855,14 +5892,14 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="E93" s="5">
         <v>1</v>
       </c>
@@ -5873,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5881,14 +5918,14 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="E94" s="5">
         <v>0</v>
       </c>
@@ -5899,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5907,14 +5944,14 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>283</v>
-      </c>
       <c r="E95" s="5">
         <v>0</v>
       </c>
@@ -5925,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5933,14 +5970,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>286</v>
-      </c>
       <c r="E96" s="5">
         <v>0</v>
       </c>
@@ -5951,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5959,14 +5996,14 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="E97" s="5">
         <v>0</v>
       </c>
@@ -5977,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5985,14 +6022,14 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>292</v>
-      </c>
       <c r="E98" s="5">
         <v>0</v>
       </c>
@@ -6003,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6011,14 +6048,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="E99" s="5">
         <v>0</v>
       </c>
@@ -6029,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6037,14 +6074,14 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>298</v>
-      </c>
       <c r="E100" s="5">
         <v>0</v>
       </c>
@@ -6055,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6063,14 +6100,14 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>301</v>
-      </c>
       <c r="E101" s="5">
         <v>1</v>
       </c>
@@ -6081,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6089,14 +6126,14 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>304</v>
-      </c>
       <c r="E102" s="5">
         <v>0</v>
       </c>
@@ -6107,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6115,14 +6152,14 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>307</v>
-      </c>
       <c r="E103" s="5">
         <v>0</v>
       </c>
@@ -6133,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6141,14 +6178,14 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>310</v>
-      </c>
       <c r="E104" s="5">
         <v>1</v>
       </c>
@@ -6159,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6167,14 +6204,14 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="E105" s="5">
         <v>0</v>
       </c>
@@ -6185,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6193,14 +6230,14 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>316</v>
-      </c>
       <c r="E106" s="5">
         <v>0</v>
       </c>
@@ -6211,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6219,14 +6256,14 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>319</v>
-      </c>
       <c r="E107" s="5">
         <v>0</v>
       </c>
@@ -6237,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6245,14 +6282,14 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>322</v>
-      </c>
       <c r="E108" s="5">
         <v>0</v>
       </c>
@@ -6263,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6271,14 +6308,14 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>325</v>
-      </c>
       <c r="E109" s="5">
         <v>0</v>
       </c>
@@ -6289,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6297,14 +6334,14 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>328</v>
-      </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
@@ -6315,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6323,14 +6360,14 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>331</v>
-      </c>
       <c r="E111" s="5">
         <v>0</v>
       </c>
@@ -6341,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6349,14 +6386,14 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="E112" s="5">
         <v>0</v>
       </c>
@@ -6367,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6375,14 +6412,14 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>337</v>
-      </c>
       <c r="E113" s="5">
         <v>0</v>
       </c>
@@ -6393,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6401,14 +6438,14 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>340</v>
-      </c>
       <c r="E114" s="5">
         <v>0</v>
       </c>
@@ -6419,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6427,14 +6464,14 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="E115" s="5">
         <v>0</v>
       </c>
@@ -6445,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6453,14 +6490,14 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>346</v>
-      </c>
       <c r="E116" s="5">
         <v>0</v>
       </c>
@@ -6471,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6479,14 +6516,14 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>349</v>
-      </c>
       <c r="E117" s="5">
         <v>0</v>
       </c>
@@ -6497,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6505,14 +6542,14 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>352</v>
-      </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
@@ -6523,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6531,14 +6568,14 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>355</v>
-      </c>
       <c r="E119" s="5">
         <v>0</v>
       </c>
@@ -6549,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6557,14 +6594,14 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>358</v>
-      </c>
       <c r="E120" s="5">
         <v>0</v>
       </c>
@@ -6575,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6583,14 +6620,14 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="E121" s="5">
         <v>0</v>
       </c>
@@ -6601,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6609,14 +6646,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>364</v>
-      </c>
       <c r="E122" s="5">
         <v>0</v>
       </c>
@@ -6627,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6635,14 +6672,14 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>367</v>
-      </c>
       <c r="E123" s="5">
         <v>0</v>
       </c>
@@ -6653,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6661,14 +6698,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
@@ -6679,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6687,14 +6724,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>373</v>
-      </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
@@ -6705,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6713,14 +6750,14 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
@@ -6731,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6739,14 +6776,14 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="E127" s="5">
         <v>1</v>
       </c>
@@ -6757,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="I127" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6765,14 +6802,14 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>382</v>
-      </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
@@ -6783,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6791,14 +6828,14 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>385</v>
-      </c>
       <c r="E129" s="5">
         <v>0</v>
       </c>
@@ -6809,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6817,14 +6854,14 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>388</v>
-      </c>
       <c r="E130" s="5">
         <v>0</v>
       </c>
@@ -6835,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6843,14 +6880,14 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="E131" s="5">
         <v>0</v>
       </c>
@@ -6861,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6869,14 +6906,14 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>394</v>
-      </c>
       <c r="E132" s="5">
         <v>0</v>
       </c>
@@ -6887,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6895,14 +6932,14 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>397</v>
-      </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
@@ -6913,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6921,14 +6958,14 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>400</v>
-      </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
@@ -6939,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6947,14 +6984,14 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
@@ -6965,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6973,14 +7010,14 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>406</v>
-      </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
@@ -6991,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6999,14 +7036,14 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>409</v>
-      </c>
       <c r="E137" s="5">
         <v>0</v>
       </c>
@@ -7017,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7025,14 +7062,14 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>412</v>
-      </c>
       <c r="E138" s="5">
         <v>0</v>
       </c>
@@ -7043,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7051,14 +7088,14 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>415</v>
-      </c>
       <c r="E139" s="5">
         <v>0</v>
       </c>
@@ -7069,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7077,14 +7114,14 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>418</v>
-      </c>
       <c r="E140" s="5">
         <v>0</v>
       </c>
@@ -7095,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7103,14 +7140,14 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="D141" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>421</v>
-      </c>
       <c r="E141" s="5">
         <v>0</v>
       </c>
@@ -7121,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7129,14 +7166,14 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="E142" s="5">
         <v>0</v>
       </c>
@@ -7147,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7155,14 +7192,14 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="E143" s="5">
         <v>0</v>
       </c>
@@ -7173,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7181,14 +7218,14 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>429</v>
-      </c>
       <c r="E144" s="5">
         <v>0</v>
       </c>
@@ -7199,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7207,14 +7244,14 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>431</v>
-      </c>
       <c r="E145" s="5">
         <v>1</v>
       </c>
@@ -7225,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7233,14 +7270,14 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="D146" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C146" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="E146" s="5">
         <v>0</v>
       </c>
@@ -7251,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7259,14 +7296,14 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>436</v>
-      </c>
       <c r="E147" s="5">
         <v>0</v>
       </c>
@@ -7277,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7285,14 +7322,14 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="E148" s="5">
         <v>0</v>
       </c>
@@ -7303,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7311,14 +7348,14 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>442</v>
-      </c>
       <c r="E149" s="5">
         <v>0</v>
       </c>
@@ -7329,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7337,14 +7374,14 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="E150" s="5">
         <v>0</v>
       </c>
@@ -7355,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7363,14 +7400,14 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="D151" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>448</v>
-      </c>
       <c r="E151" s="5">
         <v>0</v>
       </c>
@@ -7381,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7389,14 +7426,14 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>451</v>
-      </c>
       <c r="E152" s="5">
         <v>0</v>
       </c>
@@ -7407,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7415,14 +7452,14 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>454</v>
-      </c>
       <c r="E153" s="5">
         <v>0</v>
       </c>
@@ -7433,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7441,14 +7478,14 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="E154" s="5">
         <v>0</v>
       </c>
@@ -7459,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7467,14 +7504,14 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>460</v>
-      </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
@@ -7485,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7493,14 +7530,14 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="D156" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -7511,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7519,14 +7556,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>465</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -7537,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7545,14 +7582,14 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C158" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
@@ -7563,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7571,14 +7608,14 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>470</v>
-      </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
@@ -7589,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7597,14 +7634,14 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="D160" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>473</v>
-      </c>
       <c r="E160" s="5">
         <v>0</v>
       </c>
@@ -7615,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7623,14 +7660,14 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="D161" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>476</v>
-      </c>
       <c r="E161" s="5">
         <v>0</v>
       </c>
@@ -7641,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7649,14 +7686,14 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="E162" s="5">
         <v>0</v>
       </c>
@@ -7667,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7675,25 +7712,25 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>482</v>
-      </c>
       <c r="E163" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163">
-        <v>0</v>
-      </c>
-      <c r="I163" s="11" t="s">
-        <v>652</v>
+        <v>1</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7701,14 +7738,14 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="D164" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>485</v>
-      </c>
       <c r="E164" s="5">
         <v>0</v>
       </c>
@@ -7719,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7727,13 +7764,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>487</v>
-      </c>
       <c r="D165" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E165" s="5">
         <v>1</v>
@@ -7745,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7753,14 +7790,14 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C166" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="D166" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>490</v>
-      </c>
       <c r="E166" s="5">
         <v>0</v>
       </c>
@@ -7771,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7779,14 +7816,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C167" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>492</v>
-      </c>
       <c r="E167" s="5">
         <v>1</v>
       </c>
@@ -7797,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7805,14 +7842,14 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="D168" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>495</v>
-      </c>
       <c r="E168" s="5">
         <v>0</v>
       </c>
@@ -7823,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7831,14 +7868,14 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="D169" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>498</v>
-      </c>
       <c r="E169" s="5">
         <v>0</v>
       </c>
@@ -7849,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7857,10 +7894,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -7873,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7881,10 +7918,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -7897,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7905,10 +7942,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C172" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -7921,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7929,10 +7966,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>662</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>663</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5">
@@ -7945,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="I173" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7953,14 +7990,14 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="D174" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>507</v>
-      </c>
       <c r="E174" s="5">
         <v>0</v>
       </c>
@@ -7971,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7979,10 +8016,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
@@ -7995,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8003,10 +8040,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
@@ -8019,7 +8056,7 @@
         <v>1</v>
       </c>
       <c r="I176" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8027,10 +8064,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5">
@@ -8043,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8051,14 +8088,14 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="D178" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>516</v>
-      </c>
       <c r="E178" s="5">
         <v>1</v>
       </c>
@@ -8069,7 +8106,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8077,14 +8114,14 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="D179" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>519</v>
-      </c>
       <c r="E179" s="5">
         <v>1</v>
       </c>
@@ -8095,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="I179" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8103,10 +8140,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C180" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5">
@@ -8119,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8127,10 +8164,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -8143,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8151,10 +8188,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -8167,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8175,10 +8212,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7">
@@ -8191,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8199,11 +8236,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>527</v>
+      </c>
+      <c r="C184" t="s">
         <v>528</v>
       </c>
-      <c r="C184" t="s">
-        <v>529</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -8214,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8222,11 +8259,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>529</v>
+      </c>
+      <c r="C185" t="s">
         <v>530</v>
       </c>
-      <c r="C185" t="s">
-        <v>531</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -8237,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8245,11 +8282,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>531</v>
+      </c>
+      <c r="C186" t="s">
         <v>532</v>
       </c>
-      <c r="C186" t="s">
-        <v>533</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -8260,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8268,11 +8305,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>533</v>
+      </c>
+      <c r="C187" t="s">
         <v>534</v>
       </c>
-      <c r="C187" t="s">
-        <v>535</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -8283,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8291,11 +8328,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>535</v>
+      </c>
+      <c r="C188" t="s">
         <v>536</v>
       </c>
-      <c r="C188" t="s">
-        <v>537</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -8306,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8314,11 +8351,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>537</v>
+      </c>
+      <c r="C189" t="s">
         <v>538</v>
       </c>
-      <c r="C189" t="s">
-        <v>539</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -8329,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8337,11 +8374,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>539</v>
+      </c>
+      <c r="C190" t="s">
         <v>540</v>
       </c>
-      <c r="C190" t="s">
-        <v>541</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -8352,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8360,11 +8397,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>541</v>
+      </c>
+      <c r="C191" t="s">
         <v>542</v>
       </c>
-      <c r="C191" t="s">
-        <v>543</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -8375,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8383,11 +8420,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>543</v>
+      </c>
+      <c r="C192" t="s">
         <v>544</v>
       </c>
-      <c r="C192" t="s">
-        <v>545</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -8398,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8406,11 +8443,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>545</v>
+      </c>
+      <c r="C193" t="s">
         <v>546</v>
       </c>
-      <c r="C193" t="s">
-        <v>547</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -8421,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8429,11 +8466,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>547</v>
+      </c>
+      <c r="C194" t="s">
         <v>548</v>
       </c>
-      <c r="C194" t="s">
-        <v>549</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -8444,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8452,11 +8489,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>549</v>
+      </c>
+      <c r="C195" t="s">
         <v>550</v>
       </c>
-      <c r="C195" t="s">
-        <v>551</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -8467,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8475,11 +8512,11 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>551</v>
+      </c>
+      <c r="C196" t="s">
         <v>552</v>
       </c>
-      <c r="C196" t="s">
-        <v>553</v>
-      </c>
       <c r="E196">
         <v>0</v>
       </c>
@@ -8490,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8498,11 +8535,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>553</v>
+      </c>
+      <c r="C197" t="s">
         <v>554</v>
       </c>
-      <c r="C197" t="s">
-        <v>555</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -8513,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8521,11 +8558,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>555</v>
+      </c>
+      <c r="C198" t="s">
         <v>556</v>
       </c>
-      <c r="C198" t="s">
-        <v>557</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -8536,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8544,11 +8581,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>557</v>
+      </c>
+      <c r="C199" t="s">
         <v>558</v>
       </c>
-      <c r="C199" t="s">
-        <v>559</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -8559,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8567,11 +8604,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>559</v>
+      </c>
+      <c r="C200" t="s">
         <v>560</v>
       </c>
-      <c r="C200" t="s">
-        <v>561</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -8582,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8590,11 +8627,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>561</v>
+      </c>
+      <c r="C201" t="s">
         <v>562</v>
       </c>
-      <c r="C201" t="s">
-        <v>563</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -8605,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8613,11 +8650,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>563</v>
+      </c>
+      <c r="C202" t="s">
         <v>564</v>
       </c>
-      <c r="C202" t="s">
-        <v>565</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -8628,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8636,11 +8673,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>565</v>
+      </c>
+      <c r="C203" t="s">
         <v>566</v>
       </c>
-      <c r="C203" t="s">
-        <v>567</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -8651,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8659,11 +8696,11 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
+        <v>567</v>
+      </c>
+      <c r="C204" t="s">
         <v>568</v>
       </c>
-      <c r="C204" t="s">
-        <v>569</v>
-      </c>
       <c r="E204">
         <v>0</v>
       </c>
@@ -8674,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8682,14 +8719,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C205" t="s">
+        <v>569</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="C205" t="s">
-        <v>570</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>613</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -8700,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8708,14 +8745,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C206" t="s">
+        <v>570</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="C206" t="s">
-        <v>571</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>615</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -8726,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8734,14 +8771,14 @@
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C207" t="s">
+        <v>571</v>
+      </c>
+      <c r="D207" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="C207" t="s">
-        <v>572</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>617</v>
-      </c>
       <c r="E207">
         <v>1</v>
       </c>
@@ -8752,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="I207" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8760,11 +8797,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>572</v>
+      </c>
+      <c r="C208" t="s">
         <v>573</v>
       </c>
-      <c r="C208" t="s">
-        <v>574</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -8775,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8783,11 +8820,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>574</v>
+      </c>
+      <c r="C209" t="s">
         <v>575</v>
       </c>
-      <c r="C209" t="s">
-        <v>576</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -8798,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8806,11 +8843,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>576</v>
+      </c>
+      <c r="C210" t="s">
         <v>577</v>
       </c>
-      <c r="C210" t="s">
-        <v>578</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -8821,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8829,11 +8866,11 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>578</v>
+      </c>
+      <c r="C211" t="s">
         <v>579</v>
       </c>
-      <c r="C211" t="s">
-        <v>580</v>
-      </c>
       <c r="E211">
         <v>0</v>
       </c>
@@ -8844,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8852,11 +8889,11 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>580</v>
+      </c>
+      <c r="C212" t="s">
         <v>581</v>
       </c>
-      <c r="C212" t="s">
-        <v>582</v>
-      </c>
       <c r="E212">
         <v>1</v>
       </c>
@@ -8867,7 +8904,7 @@
         <v>1</v>
       </c>
       <c r="I212" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8875,11 +8912,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>582</v>
+      </c>
+      <c r="C213" t="s">
         <v>583</v>
       </c>
-      <c r="C213" t="s">
-        <v>584</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -8890,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8898,11 +8935,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>584</v>
+      </c>
+      <c r="C214" t="s">
         <v>585</v>
       </c>
-      <c r="C214" t="s">
-        <v>586</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -8913,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8921,11 +8958,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>586</v>
+      </c>
+      <c r="C215" t="s">
         <v>587</v>
       </c>
-      <c r="C215" t="s">
-        <v>588</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -8936,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8944,11 +8981,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>588</v>
+      </c>
+      <c r="C216" t="s">
         <v>589</v>
       </c>
-      <c r="C216" t="s">
-        <v>590</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -8959,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8967,11 +9004,11 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>590</v>
+      </c>
+      <c r="C217" t="s">
         <v>591</v>
       </c>
-      <c r="C217" t="s">
-        <v>592</v>
-      </c>
       <c r="E217">
         <v>0</v>
       </c>
@@ -8982,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8990,11 +9027,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>592</v>
+      </c>
+      <c r="C218" t="s">
         <v>593</v>
       </c>
-      <c r="C218" t="s">
-        <v>594</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -9005,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9013,11 +9050,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>594</v>
+      </c>
+      <c r="C219" t="s">
         <v>595</v>
       </c>
-      <c r="C219" t="s">
-        <v>596</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -9028,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9036,11 +9073,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>596</v>
+      </c>
+      <c r="C220" t="s">
         <v>597</v>
       </c>
-      <c r="C220" t="s">
-        <v>598</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -9051,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9059,11 +9096,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>598</v>
+      </c>
+      <c r="C221" t="s">
         <v>599</v>
       </c>
-      <c r="C221" t="s">
-        <v>600</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -9074,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9082,11 +9119,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>600</v>
+      </c>
+      <c r="C222" t="s">
         <v>601</v>
       </c>
-      <c r="C222" t="s">
-        <v>602</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -9097,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9105,11 +9142,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>602</v>
+      </c>
+      <c r="C223" t="s">
         <v>603</v>
       </c>
-      <c r="C223" t="s">
-        <v>604</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -9120,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9128,11 +9165,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>604</v>
+      </c>
+      <c r="C224" t="s">
         <v>605</v>
       </c>
-      <c r="C224" t="s">
-        <v>606</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -9143,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9151,11 +9188,11 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>606</v>
+      </c>
+      <c r="C225" t="s">
         <v>607</v>
       </c>
-      <c r="C225" t="s">
-        <v>608</v>
-      </c>
       <c r="E225">
         <v>0</v>
       </c>
@@ -9166,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9174,10 +9211,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C226" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -9189,7 +9226,7 @@
         <v>0</v>
       </c>
       <c r="I226" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9197,13 +9234,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C227" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D227" s="9" t="s">
         <v>619</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>620</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -9220,13 +9257,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C228" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="D228" t="s">
         <v>623</v>
-      </c>
-      <c r="D228" t="s">
-        <v>624</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -9243,13 +9280,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C229" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="D229" s="9" t="s">
         <v>626</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>627</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -9266,13 +9303,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C230" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="D230" s="9" t="s">
         <v>629</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>630</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -9289,13 +9326,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C231" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="D231" s="9" t="s">
         <v>635</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>636</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -9312,13 +9349,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="C232" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="C232" s="9" t="s">
-        <v>633</v>
-      </c>
       <c r="D232" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -9335,13 +9372,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="D233" s="9" t="s">
         <v>642</v>
-      </c>
-      <c r="C233" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="D233" s="9" t="s">
-        <v>643</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -9358,13 +9395,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="C234" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="D234" s="9" t="s">
         <v>658</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>659</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -9381,13 +9418,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C235" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="D235" s="9" t="s">
         <v>666</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>667</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -9404,14 +9441,14 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="C236" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>671</v>
-      </c>
       <c r="E236">
         <v>0</v>
       </c>
@@ -9422,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9430,25 +9467,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" s="9" t="s">
         <v>672</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="D237" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" s="9" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9456,25 +9493,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="C238" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="D238" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>678</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9482,25 +9519,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D239" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="C239" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="D239" s="9" t="s">
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>681</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9508,25 +9545,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" t="s">
         <v>687</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9534,25 +9571,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="D241" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="s">
         <v>691</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="9" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9560,25 +9597,77 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="D242" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="9" t="s">
-        <v>696</v>
+    </row>
+    <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A243" s="5">
+        <v>242</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="9" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A244" s="5">
+        <v>243</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="I244" s="9" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -9605,7 +9694,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="724">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3017,6 +3017,68 @@
   </si>
   <si>
     <t>Act_022_GZYLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_023_vip2ztlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_023_vip3ztlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_023_vip4ztlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip2直通礼包key</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip3直通礼包key</t>
+  </si>
+  <si>
+    <t>vip4直通礼包key</t>
+  </si>
+  <si>
+    <t>Act_023_VIP2ZTLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_023_VIP3ZTLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_023_VIP4ZTLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼不开炮踢出游戏</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_tcyx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYTCYXManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3473,13 +3535,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C227" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G244" sqref="G244"/>
+      <selection pane="bottomRight" activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9668,6 +9730,110 @@
       </c>
       <c r="I244" s="9" t="s">
         <v>707</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A245" s="5">
+        <v>244</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="I245" s="9" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A246" s="5">
+        <v>245</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="I246" s="9" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A247" s="5">
+        <v>246</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="I247" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A248" s="5">
+        <v>247</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="9" t="s">
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="756">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3079,6 +3079,134 @@
   </si>
   <si>
     <t>BYTCYXManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置头像和改变昵称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_change_head_and_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSChangeHeadAndNameManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_zdkp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼自动开炮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DZDKPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DADMFCJManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_ad_mfcj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告点4：免费抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_024_jfcdj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_024_JFCDJManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_024_lgfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_024_LGFLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameComAct1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameComAct1Manager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动模板1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分抽大奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_024_wyzjf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要赚积分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_024_WYZJFManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_ad_fish</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DADFishManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3535,13 +3663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C227" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D250" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D248" sqref="D248"/>
+      <selection pane="bottomRight" activeCell="E252" sqref="E252:G255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4949,13 +5077,13 @@
         <v>161</v>
       </c>
       <c r="E54" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>647</v>
@@ -9834,6 +9962,214 @@
       </c>
       <c r="I248" s="9" t="s">
         <v>723</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A249" s="5">
+        <v>248</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A250" s="5">
+        <v>249</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="9" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A251" s="5">
+        <v>250</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251" s="9" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A252" s="5">
+        <v>251</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252" s="9" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A253" s="5">
+        <v>252</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="C253" t="s">
+        <v>746</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="I253" s="9" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="5">
+        <v>253</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C254" t="s">
+        <v>745</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A255" s="5">
+        <v>254</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A256" s="5">
+        <v>255</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="I256" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="782">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3212,6 +3212,105 @@
   <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_jrth</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_025_JRTHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾兑换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_025_LXDHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_lxdh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_xlxphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙虾排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_025_XLXPHBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_czlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GiftCZLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_fcm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>防沉迷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSFCMManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_009_yk_gz</t>
+  </si>
+  <si>
+    <t>Act_009_YKGZManager</t>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动：贵族月卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_011_yueka_new</t>
+  </si>
+  <si>
+    <t>新月卡</t>
+  </si>
+  <si>
+    <t>Sys_011_YuekaManager</t>
   </si>
 </sst>
 </file>
@@ -3289,7 +3388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3306,6 +3405,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3340,7 +3445,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3384,6 +3489,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3663,13 +3780,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:I263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D250" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C238" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E252" sqref="E252:G255"/>
+      <selection pane="bottomRight" activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5233,16 +5350,16 @@
         <v>178</v>
       </c>
       <c r="E60" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7391,13 +7508,13 @@
         <v>426</v>
       </c>
       <c r="E143" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" s="12" t="s">
         <v>645</v>
@@ -10082,7 +10199,7 @@
         <v>742</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -10170,6 +10287,191 @@
       </c>
       <c r="I256" s="9" t="s">
         <v>755</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="15">
+        <v>256</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>756</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="D257" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="E257" s="17">
+        <v>1</v>
+      </c>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
+      <c r="G257" s="17">
+        <v>1</v>
+      </c>
+      <c r="H257" s="17"/>
+      <c r="I257" s="16" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="15">
+        <v>257</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="D258" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="E258" s="17">
+        <v>1</v>
+      </c>
+      <c r="F258" s="17">
+        <v>1</v>
+      </c>
+      <c r="G258" s="17">
+        <v>1</v>
+      </c>
+      <c r="H258" s="17"/>
+      <c r="I258" s="16" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="15">
+        <v>258</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="D259" s="16" t="s">
+        <v>766</v>
+      </c>
+      <c r="E259" s="17">
+        <v>1</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="H259" s="17"/>
+      <c r="I259" s="16" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="15">
+        <v>259</v>
+      </c>
+      <c r="B260" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D260" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="16" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="15">
+        <v>260</v>
+      </c>
+      <c r="B261" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="D261" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="16" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="5">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>775</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="D262" t="s">
+        <v>776</v>
+      </c>
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A263" s="5">
+        <v>262</v>
+      </c>
+      <c r="B263" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="D263" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="I263" s="12" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="804">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3312,12 +3312,100 @@
   <si>
     <t>Sys_011_YuekaManager</t>
   </si>
+  <si>
+    <t>act_026_bblb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_BBLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_xrcdj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人抽大奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_XRCDJManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_zabd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_ZABDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_lmlh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_LMLHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫礼盒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_sgxxlyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_SGXXLYDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐引导</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已关闭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTGXTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_tgxt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3387,6 +3475,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3445,7 +3539,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3501,6 +3595,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3780,13 +3886,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I263"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E253" sqref="E253"/>
+      <selection pane="bottomRight" activeCell="G248" sqref="G248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4468,16 +4574,16 @@
         <v>81</v>
       </c>
       <c r="E26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>645</v>
+        <v>800</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9734,13 +9840,13 @@
         <v>666</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9939,7 +10045,7 @@
         <v>702</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -10289,136 +10395,133 @@
         <v>755</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="15">
+    <row r="257" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="19">
         <v>256</v>
       </c>
-      <c r="B257" s="16" t="s">
+      <c r="B257" s="18" t="s">
         <v>756</v>
       </c>
-      <c r="C257" s="16" t="s">
+      <c r="C257" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="D257" s="16" t="s">
+      <c r="D257" s="18" t="s">
         <v>758</v>
       </c>
-      <c r="E257" s="17">
-        <v>1</v>
-      </c>
-      <c r="F257" s="17">
-        <v>1</v>
-      </c>
-      <c r="G257" s="17">
-        <v>1</v>
-      </c>
-      <c r="H257" s="17"/>
-      <c r="I257" s="16" t="s">
+      <c r="E257" s="20">
+        <v>0</v>
+      </c>
+      <c r="F257" s="20">
+        <v>1</v>
+      </c>
+      <c r="G257" s="20">
+        <v>1</v>
+      </c>
+      <c r="I257" s="18" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="15">
+    <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="19">
         <v>257</v>
       </c>
-      <c r="B258" s="16" t="s">
+      <c r="B258" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="C258" s="16" t="s">
+      <c r="C258" s="18" t="s">
         <v>761</v>
       </c>
-      <c r="D258" s="16" t="s">
+      <c r="D258" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="E258" s="17">
-        <v>1</v>
-      </c>
-      <c r="F258" s="17">
-        <v>1</v>
-      </c>
-      <c r="G258" s="17">
-        <v>1</v>
-      </c>
-      <c r="H258" s="17"/>
-      <c r="I258" s="16" t="s">
+      <c r="E258" s="20">
+        <v>1</v>
+      </c>
+      <c r="F258" s="20">
+        <v>1</v>
+      </c>
+      <c r="G258" s="20">
+        <v>1</v>
+      </c>
+      <c r="I258" s="18" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="15">
+    <row r="259" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="19">
         <v>258</v>
       </c>
-      <c r="B259" s="16" t="s">
+      <c r="B259" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="C259" s="16" t="s">
+      <c r="C259" s="18" t="s">
         <v>765</v>
       </c>
-      <c r="D259" s="16" t="s">
+      <c r="D259" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="E259" s="17">
-        <v>1</v>
-      </c>
-      <c r="F259" s="17">
-        <v>1</v>
-      </c>
-      <c r="G259" s="17">
-        <v>1</v>
-      </c>
-      <c r="H259" s="17"/>
-      <c r="I259" s="16" t="s">
+      <c r="E259" s="20">
+        <v>0</v>
+      </c>
+      <c r="F259" s="20">
+        <v>1</v>
+      </c>
+      <c r="G259" s="20">
+        <v>1</v>
+      </c>
+      <c r="I259" s="18" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="15">
+    <row r="260" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="19">
         <v>259</v>
       </c>
-      <c r="B260" s="16" t="s">
+      <c r="B260" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="C260" s="16" t="s">
+      <c r="C260" s="18" t="s">
         <v>768</v>
       </c>
-      <c r="D260" s="16" t="s">
+      <c r="D260" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="E260" s="17">
-        <v>1</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="16" t="s">
+      <c r="E260" s="20">
+        <v>1</v>
+      </c>
+      <c r="F260" s="20">
+        <v>1</v>
+      </c>
+      <c r="G260" s="20">
+        <v>1</v>
+      </c>
+      <c r="I260" s="18" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="15">
+    <row r="261" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="19">
         <v>260</v>
       </c>
-      <c r="B261" s="16" t="s">
+      <c r="B261" s="18" t="s">
         <v>771</v>
       </c>
-      <c r="C261" s="16" t="s">
+      <c r="C261" s="18" t="s">
         <v>772</v>
       </c>
-      <c r="D261" s="16" t="s">
+      <c r="D261" s="18" t="s">
         <v>773</v>
       </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="16" t="s">
+      <c r="E261" s="20">
+        <v>0</v>
+      </c>
+      <c r="F261" s="20">
+        <v>1</v>
+      </c>
+      <c r="G261" s="20">
+        <v>1</v>
+      </c>
+      <c r="I261" s="18" t="s">
         <v>774</v>
       </c>
     </row>
@@ -10472,6 +10575,168 @@
       </c>
       <c r="I263" s="12" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="15">
+        <v>263</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="C264" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="D264" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="E264" s="17">
+        <v>1</v>
+      </c>
+      <c r="F264" s="17">
+        <v>1</v>
+      </c>
+      <c r="G264" s="17">
+        <v>1</v>
+      </c>
+      <c r="H264" s="17"/>
+      <c r="I264" s="16" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="15">
+        <v>264</v>
+      </c>
+      <c r="B265" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="C265" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="D265" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="E265" s="17">
+        <v>1</v>
+      </c>
+      <c r="F265" s="17">
+        <v>1</v>
+      </c>
+      <c r="G265" s="17">
+        <v>1</v>
+      </c>
+      <c r="H265" s="17"/>
+      <c r="I265" s="16" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="15">
+        <v>265</v>
+      </c>
+      <c r="B266" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="C266" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="D266" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="E266" s="17">
+        <v>1</v>
+      </c>
+      <c r="F266" s="17">
+        <v>1</v>
+      </c>
+      <c r="G266" s="17">
+        <v>1</v>
+      </c>
+      <c r="H266" s="17"/>
+      <c r="I266" s="17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="15">
+        <v>266</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="C267" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="D267" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="E267" s="17">
+        <v>1</v>
+      </c>
+      <c r="F267" s="17">
+        <v>1</v>
+      </c>
+      <c r="G267" s="17">
+        <v>1</v>
+      </c>
+      <c r="H267" s="17"/>
+      <c r="I267" s="21" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="15">
+        <v>267</v>
+      </c>
+      <c r="B268" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="C268" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="D268" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="E268" s="17">
+        <v>1</v>
+      </c>
+      <c r="F268" s="17">
+        <v>1</v>
+      </c>
+      <c r="G268" s="17">
+        <v>1</v>
+      </c>
+      <c r="H268" s="17"/>
+      <c r="I268" s="21" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="15">
+        <v>268</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="C269" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="D269" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="E269" s="17">
+        <v>0</v>
+      </c>
+      <c r="F269" s="17">
+        <v>1</v>
+      </c>
+      <c r="G269" s="17">
+        <v>1</v>
+      </c>
+      <c r="H269" s="17"/>
+      <c r="I269" s="21" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3889,10 +3889,10 @@
   <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C228" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G248" sqref="G248"/>
+      <selection pane="bottomRight" activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10045,7 +10045,7 @@
         <v>702</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
         <v>1</v>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="810">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3398,6 +3398,30 @@
   </si>
   <si>
     <t>sys_tgxt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_jqshl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金秋送豪礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_mfflq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费福利券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_027_MFFLQManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_027_JQSHLManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3539,7 +3563,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3607,6 +3631,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3886,13 +3916,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I269"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C234" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C254" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D250" sqref="D250"/>
+      <selection pane="bottomRight" activeCell="E269" sqref="E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10577,165 +10607,213 @@
         <v>645</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="15">
+    <row r="264" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="19">
         <v>263</v>
       </c>
-      <c r="B264" s="16" t="s">
+      <c r="B264" s="18" t="s">
         <v>782</v>
       </c>
-      <c r="C264" s="16" t="s">
+      <c r="C264" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="D264" s="16" t="s">
+      <c r="D264" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="E264" s="17">
-        <v>1</v>
-      </c>
-      <c r="F264" s="17">
-        <v>1</v>
-      </c>
-      <c r="G264" s="17">
-        <v>1</v>
-      </c>
-      <c r="H264" s="17"/>
-      <c r="I264" s="16" t="s">
+      <c r="E264" s="20">
+        <v>1</v>
+      </c>
+      <c r="F264" s="20">
+        <v>1</v>
+      </c>
+      <c r="G264" s="20">
+        <v>1</v>
+      </c>
+      <c r="I264" s="18" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="15">
+    <row r="265" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="19">
         <v>264</v>
       </c>
-      <c r="B265" s="16" t="s">
+      <c r="B265" s="18" t="s">
         <v>786</v>
       </c>
-      <c r="C265" s="16" t="s">
+      <c r="C265" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="D265" s="16" t="s">
+      <c r="D265" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="E265" s="17">
-        <v>1</v>
-      </c>
-      <c r="F265" s="17">
-        <v>1</v>
-      </c>
-      <c r="G265" s="17">
-        <v>1</v>
-      </c>
-      <c r="H265" s="17"/>
-      <c r="I265" s="16" t="s">
+      <c r="E265" s="20">
+        <v>1</v>
+      </c>
+      <c r="F265" s="20">
+        <v>1</v>
+      </c>
+      <c r="G265" s="20">
+        <v>1</v>
+      </c>
+      <c r="I265" s="18" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="15">
+    <row r="266" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="19">
         <v>265</v>
       </c>
-      <c r="B266" s="16" t="s">
+      <c r="B266" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="C266" s="16" t="s">
+      <c r="C266" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="D266" s="16" t="s">
+      <c r="D266" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="E266" s="17">
-        <v>1</v>
-      </c>
-      <c r="F266" s="17">
-        <v>1</v>
-      </c>
-      <c r="G266" s="17">
-        <v>1</v>
-      </c>
-      <c r="H266" s="17"/>
-      <c r="I266" s="17" t="s">
+      <c r="E266" s="20">
+        <v>1</v>
+      </c>
+      <c r="F266" s="20">
+        <v>1</v>
+      </c>
+      <c r="G266" s="20">
+        <v>1</v>
+      </c>
+      <c r="I266" s="20" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="15">
+    <row r="267" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="19">
         <v>266</v>
       </c>
-      <c r="B267" s="16" t="s">
+      <c r="B267" s="18" t="s">
         <v>793</v>
       </c>
-      <c r="C267" s="16" t="s">
+      <c r="C267" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="D267" s="22" t="s">
+      <c r="D267" s="23" t="s">
         <v>794</v>
       </c>
-      <c r="E267" s="17">
-        <v>1</v>
-      </c>
-      <c r="F267" s="17">
-        <v>1</v>
-      </c>
-      <c r="G267" s="17">
-        <v>1</v>
-      </c>
-      <c r="H267" s="17"/>
-      <c r="I267" s="21" t="s">
+      <c r="E267" s="20">
+        <v>1</v>
+      </c>
+      <c r="F267" s="20">
+        <v>1</v>
+      </c>
+      <c r="G267" s="20">
+        <v>1</v>
+      </c>
+      <c r="I267" s="24" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="15">
+    <row r="268" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="19">
         <v>267</v>
       </c>
-      <c r="B268" s="16" t="s">
+      <c r="B268" s="18" t="s">
         <v>797</v>
       </c>
-      <c r="C268" s="16" t="s">
+      <c r="C268" s="18" t="s">
         <v>799</v>
       </c>
-      <c r="D268" s="22" t="s">
+      <c r="D268" s="23" t="s">
         <v>798</v>
       </c>
-      <c r="E268" s="17">
-        <v>1</v>
-      </c>
-      <c r="F268" s="17">
-        <v>1</v>
-      </c>
-      <c r="G268" s="17">
-        <v>1</v>
-      </c>
-      <c r="H268" s="17"/>
-      <c r="I268" s="21" t="s">
+      <c r="E268" s="20">
+        <v>1</v>
+      </c>
+      <c r="F268" s="20">
+        <v>1</v>
+      </c>
+      <c r="G268" s="20">
+        <v>1</v>
+      </c>
+      <c r="I268" s="24" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="15">
+    <row r="269" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="19">
         <v>268</v>
       </c>
-      <c r="B269" s="16" t="s">
+      <c r="B269" s="18" t="s">
         <v>803</v>
       </c>
-      <c r="C269" s="16" t="s">
+      <c r="C269" s="18" t="s">
         <v>801</v>
       </c>
-      <c r="D269" s="22" t="s">
+      <c r="D269" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="E269" s="17">
-        <v>0</v>
-      </c>
-      <c r="F269" s="17">
-        <v>1</v>
-      </c>
-      <c r="G269" s="17">
-        <v>1</v>
-      </c>
-      <c r="H269" s="17"/>
-      <c r="I269" s="21" t="s">
+      <c r="E269" s="20">
+        <v>1</v>
+      </c>
+      <c r="F269" s="20">
+        <v>1</v>
+      </c>
+      <c r="G269" s="20">
+        <v>1</v>
+      </c>
+      <c r="I269" s="24" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="15">
+        <v>269</v>
+      </c>
+      <c r="B270" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="C270" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="D270" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="E270" s="17">
+        <v>1</v>
+      </c>
+      <c r="F270" s="17">
+        <v>1</v>
+      </c>
+      <c r="G270" s="17">
+        <v>1</v>
+      </c>
+      <c r="H270" s="17"/>
+      <c r="I270" s="21" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="15">
+        <v>270</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="C271" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="D271" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="E271" s="17">
+        <v>1</v>
+      </c>
+      <c r="F271" s="17">
+        <v>1</v>
+      </c>
+      <c r="G271" s="17">
+        <v>1</v>
+      </c>
+      <c r="H271" s="17"/>
+      <c r="I271" s="21" t="s">
         <v>738</v>
       </c>
     </row>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="817">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -2839,10 +2839,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼奖池</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>by3d_act_jc</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3422,6 +3418,38 @@
   </si>
   <si>
     <t>Act_027_JQSHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_028_mfhf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_028_MFHFManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_028_xycd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_028_XYCDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3916,13 +3944,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C254" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C253" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E269" sqref="E269"/>
+      <selection pane="bottomRight" activeCell="A274" sqref="A274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4613,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5321,7 +5349,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6587,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7690,7 +7718,7 @@
         <v>429</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>430</v>
@@ -7731,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7757,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8173,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9884,13 +9912,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>669</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>670</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -9910,25 +9938,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" s="9" t="s">
         <v>671</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="D237" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" s="9" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9936,25 +9964,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="C238" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="D238" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>677</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9962,25 +9990,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="D239" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="C239" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="D239" s="9" t="s">
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>680</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9988,25 +10016,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" t="s">
         <v>686</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10014,25 +10042,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="D241" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="9" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10040,25 +10068,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="D242" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="9" t="s">
         <v>694</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="9" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10066,25 +10094,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="D243" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="9" t="s">
         <v>702</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="9" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10092,25 +10120,25 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="C244" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="D244" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="D244" s="9" t="s">
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="I244" s="9" t="s">
         <v>706</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-      <c r="F244">
-        <v>1</v>
-      </c>
-      <c r="G244">
-        <v>1</v>
-      </c>
-      <c r="I244" s="9" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10118,13 +10146,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10136,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10144,13 +10172,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -10162,7 +10190,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10170,13 +10198,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -10188,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10196,25 +10224,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="D248" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="D248" s="9" t="s">
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="9" t="s">
         <v>722</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="9" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10222,25 +10250,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="D249" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="C249" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="D249" s="9" t="s">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" t="s">
         <v>726</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="9" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10248,25 +10276,25 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C250" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="D250" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="D250" s="9" t="s">
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="9" t="s">
         <v>730</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="I250" s="9" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10274,25 +10302,25 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="C251" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="C251" s="9" t="s">
+      <c r="D251" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251" s="9" t="s">
         <v>734</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-      <c r="I251" s="9" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10300,25 +10328,25 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D252" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="C252" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="D252" s="9" t="s">
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252" s="9" t="s">
         <v>737</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="I252" s="9" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10326,14 +10354,14 @@
         <v>252</v>
       </c>
       <c r="B253" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="C253" t="s">
+        <v>745</v>
+      </c>
+      <c r="D253" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="C253" t="s">
-        <v>746</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>742</v>
-      </c>
       <c r="E253">
         <v>0</v>
       </c>
@@ -10344,7 +10372,7 @@
         <v>1</v>
       </c>
       <c r="I253" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10352,14 +10380,14 @@
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C254" t="s">
+        <v>744</v>
+      </c>
+      <c r="D254" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="C254" t="s">
-        <v>745</v>
-      </c>
-      <c r="D254" s="9" t="s">
-        <v>744</v>
-      </c>
       <c r="E254">
         <v>1</v>
       </c>
@@ -10370,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="I254" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10378,25 +10406,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="D255" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>750</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10404,25 +10432,25 @@
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="C256" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="D256" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="I256" s="9" t="s">
         <v>754</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -10430,25 +10458,25 @@
         <v>256</v>
       </c>
       <c r="B257" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="C257" s="18" t="s">
         <v>756</v>
       </c>
-      <c r="C257" s="18" t="s">
+      <c r="D257" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="D257" s="18" t="s">
+      <c r="E257" s="20">
+        <v>0</v>
+      </c>
+      <c r="F257" s="20">
+        <v>1</v>
+      </c>
+      <c r="G257" s="20">
+        <v>1</v>
+      </c>
+      <c r="I257" s="18" t="s">
         <v>758</v>
-      </c>
-      <c r="E257" s="20">
-        <v>0</v>
-      </c>
-      <c r="F257" s="20">
-        <v>1</v>
-      </c>
-      <c r="G257" s="20">
-        <v>1</v>
-      </c>
-      <c r="I257" s="18" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -10456,14 +10484,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C258" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="D258" s="18" t="s">
         <v>761</v>
       </c>
-      <c r="D258" s="18" t="s">
-        <v>762</v>
-      </c>
       <c r="E258" s="20">
         <v>1</v>
       </c>
@@ -10474,7 +10502,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -10482,14 +10510,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="C259" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="D259" s="18" t="s">
         <v>765</v>
       </c>
-      <c r="D259" s="18" t="s">
-        <v>766</v>
-      </c>
       <c r="E259" s="20">
         <v>0</v>
       </c>
@@ -10500,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -10508,25 +10536,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="C260" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="D260" s="18" t="s">
         <v>768</v>
       </c>
-      <c r="D260" s="18" t="s">
+      <c r="E260" s="20">
+        <v>1</v>
+      </c>
+      <c r="F260" s="20">
+        <v>1</v>
+      </c>
+      <c r="G260" s="20">
+        <v>1</v>
+      </c>
+      <c r="I260" s="18" t="s">
         <v>769</v>
-      </c>
-      <c r="E260" s="20">
-        <v>1</v>
-      </c>
-      <c r="F260" s="20">
-        <v>1</v>
-      </c>
-      <c r="G260" s="20">
-        <v>1</v>
-      </c>
-      <c r="I260" s="18" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -10534,25 +10562,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="C261" s="18" t="s">
         <v>771</v>
       </c>
-      <c r="C261" s="18" t="s">
+      <c r="D261" s="18" t="s">
         <v>772</v>
       </c>
-      <c r="D261" s="18" t="s">
+      <c r="E261" s="20">
+        <v>0</v>
+      </c>
+      <c r="F261" s="20">
+        <v>1</v>
+      </c>
+      <c r="G261" s="20">
+        <v>1</v>
+      </c>
+      <c r="I261" s="18" t="s">
         <v>773</v>
-      </c>
-      <c r="E261" s="20">
-        <v>0</v>
-      </c>
-      <c r="F261" s="20">
-        <v>1</v>
-      </c>
-      <c r="G261" s="20">
-        <v>1</v>
-      </c>
-      <c r="I261" s="18" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10560,25 +10588,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>774</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="D262" t="s">
         <v>775</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>776</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10586,13 +10614,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="C263" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="D263" s="18" t="s">
         <v>780</v>
-      </c>
-      <c r="D263" s="18" t="s">
-        <v>781</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -10612,25 +10640,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C264" s="18" t="s">
         <v>782</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="D264" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="E264" s="20">
+        <v>1</v>
+      </c>
+      <c r="F264" s="20">
+        <v>1</v>
+      </c>
+      <c r="G264" s="20">
+        <v>1</v>
+      </c>
+      <c r="I264" s="18" t="s">
         <v>784</v>
-      </c>
-      <c r="E264" s="20">
-        <v>1</v>
-      </c>
-      <c r="F264" s="20">
-        <v>1</v>
-      </c>
-      <c r="G264" s="20">
-        <v>1</v>
-      </c>
-      <c r="I264" s="18" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -10638,13 +10666,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="C265" s="18" t="s">
         <v>786</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="D265" s="18" t="s">
         <v>787</v>
-      </c>
-      <c r="D265" s="18" t="s">
-        <v>788</v>
       </c>
       <c r="E265" s="20">
         <v>1</v>
@@ -10664,25 +10692,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="C266" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="C266" s="18" t="s">
+      <c r="D266" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="D266" s="18" t="s">
+      <c r="E266" s="20">
+        <v>1</v>
+      </c>
+      <c r="F266" s="20">
+        <v>1</v>
+      </c>
+      <c r="G266" s="20">
+        <v>1</v>
+      </c>
+      <c r="I266" s="20" t="s">
         <v>791</v>
-      </c>
-      <c r="E266" s="20">
-        <v>1</v>
-      </c>
-      <c r="F266" s="20">
-        <v>1</v>
-      </c>
-      <c r="G266" s="20">
-        <v>1</v>
-      </c>
-      <c r="I266" s="20" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -10690,25 +10718,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="C267" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="D267" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="C267" s="18" t="s">
+      <c r="E267" s="20">
+        <v>1</v>
+      </c>
+      <c r="F267" s="20">
+        <v>1</v>
+      </c>
+      <c r="G267" s="20">
+        <v>1</v>
+      </c>
+      <c r="I267" s="24" t="s">
         <v>795</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>794</v>
-      </c>
-      <c r="E267" s="20">
-        <v>1</v>
-      </c>
-      <c r="F267" s="20">
-        <v>1</v>
-      </c>
-      <c r="G267" s="20">
-        <v>1</v>
-      </c>
-      <c r="I267" s="24" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -10716,14 +10744,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="C268" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="D268" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="C268" s="18" t="s">
-        <v>799</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>798</v>
-      </c>
       <c r="E268" s="20">
         <v>1</v>
       </c>
@@ -10734,7 +10762,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -10742,14 +10770,14 @@
         <v>268</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C269" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="D269" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="D269" s="23" t="s">
-        <v>802</v>
-      </c>
       <c r="E269" s="20">
         <v>1</v>
       </c>
@@ -10760,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="I269" s="24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10768,13 +10796,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="C270" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="C270" s="16" t="s">
-        <v>805</v>
-      </c>
       <c r="D270" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E270" s="17">
         <v>1</v>
@@ -10787,7 +10815,7 @@
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10795,13 +10823,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="C271" s="16" t="s">
         <v>806</v>
       </c>
-      <c r="C271" s="16" t="s">
+      <c r="D271" s="22" t="s">
         <v>807</v>
-      </c>
-      <c r="D271" s="22" t="s">
-        <v>808</v>
       </c>
       <c r="E271" s="17">
         <v>1</v>
@@ -10814,7 +10842,59 @@
       </c>
       <c r="H271" s="17"/>
       <c r="I271" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A272" s="19">
+        <v>271</v>
+      </c>
+      <c r="B272" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="C272" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="D272" s="23" t="s">
+        <v>810</v>
+      </c>
+      <c r="E272" s="20">
+        <v>1</v>
+      </c>
+      <c r="F272" s="20">
+        <v>1</v>
+      </c>
+      <c r="G272" s="20">
+        <v>1</v>
+      </c>
+      <c r="I272" s="24" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A273" s="19">
+        <v>272</v>
+      </c>
+      <c r="B273" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="C273" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="D273" s="23" t="s">
+        <v>815</v>
+      </c>
+      <c r="E273" s="20">
+        <v>1</v>
+      </c>
+      <c r="F273" s="20">
+        <v>1</v>
+      </c>
+      <c r="G273" s="20">
+        <v>1</v>
+      </c>
+      <c r="I273" s="24" t="s">
+        <v>812</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="829">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3450,6 +3450,54 @@
   </si>
   <si>
     <t>3D捕鱼奖池</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_ljyjcfk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPL_LJYJCFKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金抽福卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼任务系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_029_hlqjd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_029_HLQJDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3944,13 +3992,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I273"/>
+  <dimension ref="A1:I276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C253" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A274" sqref="A274"/>
+      <selection pane="bottomRight" activeCell="I236" sqref="I236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9921,13 +9969,13 @@
         <v>669</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236" t="s">
         <v>667</v>
@@ -10753,13 +10801,13 @@
         <v>797</v>
       </c>
       <c r="E268" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F268" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G268" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" s="24" t="s">
         <v>737</v>
@@ -10895,6 +10943,84 @@
       </c>
       <c r="I273" s="24" t="s">
         <v>812</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A274" s="19">
+        <v>273</v>
+      </c>
+      <c r="B274" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="C274" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="D274" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="I274" s="24" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A275" s="19">
+        <v>274</v>
+      </c>
+      <c r="B275" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="C275" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="D275" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="I275" s="24" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="19">
+        <v>275</v>
+      </c>
+      <c r="B276" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="C276" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="D276" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="I276" s="24" t="s">
+        <v>828</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="836">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3494,6 +3494,34 @@
   </si>
   <si>
     <t>Act_029_HLQJDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_030_hd_zjm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_030_cwlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_030_CWLBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3992,13 +4020,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I276"/>
+  <dimension ref="A1:I278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I236" sqref="I236"/>
+      <selection pane="bottomRight" activeCell="E266" sqref="E266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10697,13 +10725,13 @@
         <v>783</v>
       </c>
       <c r="E264" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F264" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G264" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" s="18" t="s">
         <v>784</v>
@@ -10749,13 +10777,13 @@
         <v>790</v>
       </c>
       <c r="E266" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F266" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G266" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" s="20" t="s">
         <v>791</v>
@@ -10775,13 +10803,13 @@
         <v>793</v>
       </c>
       <c r="E267" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F267" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G267" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" s="24" t="s">
         <v>795</v>
@@ -11021,6 +11049,55 @@
       </c>
       <c r="I276" s="24" t="s">
         <v>828</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="19">
+        <v>276</v>
+      </c>
+      <c r="B277" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="C277" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="24" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="19">
+        <v>277</v>
+      </c>
+      <c r="B278" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="C278" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="D278" s="23" t="s">
+        <v>834</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="I278" s="24" t="s">
+        <v>835</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="857">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3465,67 +3465,151 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>捕鱼任务系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_029_hlqjd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_029_HLQJDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_030_hd_zjm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_030_cwlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_030_CWLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqflManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆快乐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqkl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_031_WXHHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_030_GQFDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_wxhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星掉落脚本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_hd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DHDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqkl_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_031_GQKLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>by_task</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼任务系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BYTaskManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_029_hlqjd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_029_HLQJDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_030_hd_zjm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_030_cwlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>畅玩礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_030_CWLBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3667,7 +3751,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3741,6 +3825,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4020,13 +4107,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I278"/>
+  <dimension ref="A1:I284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C248" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E266" sqref="E266"/>
+      <selection pane="bottomRight" activeCell="E284" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10569,7 +10656,7 @@
         <v>761</v>
       </c>
       <c r="E258" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F258" s="20">
         <v>1</v>
@@ -10996,7 +11083,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="24" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11004,25 +11091,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="C275" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="C275" s="18" t="s">
+      <c r="D275" s="23" t="s">
         <v>821</v>
       </c>
-      <c r="D275" s="23" t="s">
-        <v>822</v>
-      </c>
       <c r="E275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="24" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11030,25 +11117,25 @@
         <v>275</v>
       </c>
       <c r="B276" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="C276" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="D276" s="23" t="s">
         <v>826</v>
       </c>
-      <c r="C276" s="18" t="s">
-        <v>825</v>
-      </c>
-      <c r="D276" s="23" t="s">
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="I276" s="24" t="s">
         <v>827</v>
-      </c>
-      <c r="E276">
-        <v>1</v>
-      </c>
-      <c r="F276">
-        <v>1</v>
-      </c>
-      <c r="G276">
-        <v>1</v>
-      </c>
-      <c r="I276" s="24" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11056,22 +11143,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="C277" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="C277" s="18" t="s">
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="24" t="s">
         <v>830</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="24" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11079,25 +11166,178 @@
         <v>277</v>
       </c>
       <c r="B278" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="C278" s="18" t="s">
         <v>832</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="D278" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="D278" s="23" t="s">
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="I278" s="24" t="s">
         <v>834</v>
       </c>
-      <c r="E278">
-        <v>1</v>
-      </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-      <c r="I278" s="24" t="s">
+    </row>
+    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="19">
+        <v>278</v>
+      </c>
+      <c r="B279" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="C279" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="D279" s="23" t="s">
         <v>835</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="I279" s="24" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="19">
+        <v>279</v>
+      </c>
+      <c r="B280" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="C280" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="I280" s="24" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="19">
+        <v>280</v>
+      </c>
+      <c r="B281" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="C281" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="D281" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="I281" s="24" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="19">
+        <v>281</v>
+      </c>
+      <c r="B282" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="C282" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="D282" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="I282" s="24" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="19">
+        <v>282</v>
+      </c>
+      <c r="B283" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="C283" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="D283" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="24" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A284" s="19">
+        <v>283</v>
+      </c>
+      <c r="B284" s="25" t="s">
+        <v>850</v>
+      </c>
+      <c r="C284" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="D284" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="24" t="s">
+        <v>853</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="865">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3610,6 +3610,51 @@
   </si>
   <si>
     <t>by_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYXyxydManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_xyxyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额福利券（跳转小游戏入口）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>020 10/26  23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_jjsl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡送礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSJJSLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3694,7 +3739,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3716,6 +3761,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3751,7 +3802,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3828,6 +3879,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4107,13 +4173,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I284"/>
+  <dimension ref="A1:I286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C269" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E284" sqref="E284"/>
+      <selection pane="bottomRight" activeCell="E286" sqref="E286:G286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8069,16 +8135,16 @@
         <v>450</v>
       </c>
       <c r="E152" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="I152" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11338,6 +11404,58 @@
       </c>
       <c r="I284" s="24" t="s">
         <v>853</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="26">
+        <v>284</v>
+      </c>
+      <c r="B285" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="C285" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="D285" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="E285" s="28">
+        <v>1</v>
+      </c>
+      <c r="F285" s="28">
+        <v>1</v>
+      </c>
+      <c r="G285" s="28">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="19">
+        <v>285</v>
+      </c>
+      <c r="B286" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="D286" s="23" t="s">
+        <v>863</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="24" t="s">
+        <v>864</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="872">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3651,6 +3651,34 @@
   </si>
   <si>
     <t>SYSJJSLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_033_VIP1ZTLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_vip1ztlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1直通礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_xrzxlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRZXGiftManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3760,13 +3788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3848,15 +3876,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3864,12 +3883,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -3881,7 +3894,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -3891,9 +3922,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4173,13 +4201,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C269" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C265" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E286" sqref="E286:G286"/>
+      <selection pane="bottomRight" activeCell="E284" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10682,133 +10710,133 @@
         <v>754</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="19">
+    <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="16">
         <v>256</v>
       </c>
-      <c r="B257" s="18" t="s">
+      <c r="B257" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="C257" s="18" t="s">
+      <c r="C257" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="D257" s="18" t="s">
+      <c r="D257" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="E257" s="20">
-        <v>0</v>
-      </c>
-      <c r="F257" s="20">
-        <v>1</v>
-      </c>
-      <c r="G257" s="20">
-        <v>1</v>
-      </c>
-      <c r="I257" s="18" t="s">
+      <c r="E257" s="17">
+        <v>1</v>
+      </c>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
+      <c r="G257" s="17">
+        <v>1</v>
+      </c>
+      <c r="I257" s="15" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="19">
+    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="16">
         <v>257</v>
       </c>
-      <c r="B258" s="18" t="s">
+      <c r="B258" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="C258" s="18" t="s">
+      <c r="C258" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="D258" s="18" t="s">
+      <c r="D258" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="E258" s="20">
-        <v>0</v>
-      </c>
-      <c r="F258" s="20">
-        <v>1</v>
-      </c>
-      <c r="G258" s="20">
-        <v>1</v>
-      </c>
-      <c r="I258" s="18" t="s">
+      <c r="E258" s="17">
+        <v>0</v>
+      </c>
+      <c r="F258" s="17">
+        <v>1</v>
+      </c>
+      <c r="G258" s="17">
+        <v>1</v>
+      </c>
+      <c r="I258" s="15" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="19">
+    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="16">
         <v>258</v>
       </c>
-      <c r="B259" s="18" t="s">
+      <c r="B259" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="C259" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="D259" s="18" t="s">
+      <c r="D259" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="E259" s="20">
-        <v>0</v>
-      </c>
-      <c r="F259" s="20">
-        <v>1</v>
-      </c>
-      <c r="G259" s="20">
-        <v>1</v>
-      </c>
-      <c r="I259" s="18" t="s">
+      <c r="E259" s="17">
+        <v>0</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="19">
+    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="16">
         <v>259</v>
       </c>
-      <c r="B260" s="18" t="s">
+      <c r="B260" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="C260" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="D260" s="18" t="s">
+      <c r="D260" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="E260" s="20">
-        <v>1</v>
-      </c>
-      <c r="F260" s="20">
-        <v>1</v>
-      </c>
-      <c r="G260" s="20">
-        <v>1</v>
-      </c>
-      <c r="I260" s="18" t="s">
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="19">
+    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="16">
         <v>260</v>
       </c>
-      <c r="B261" s="18" t="s">
+      <c r="B261" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="C261" s="18" t="s">
+      <c r="C261" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="D261" s="18" t="s">
+      <c r="D261" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="E261" s="20">
-        <v>0</v>
-      </c>
-      <c r="F261" s="20">
-        <v>1</v>
-      </c>
-      <c r="G261" s="20">
-        <v>1</v>
-      </c>
-      <c r="I261" s="18" t="s">
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="15" t="s">
         <v>773</v>
       </c>
     </row>
@@ -10842,13 +10870,13 @@
       <c r="A263" s="5">
         <v>262</v>
       </c>
-      <c r="B263" s="18" t="s">
+      <c r="B263" s="15" t="s">
         <v>778</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="D263" s="18" t="s">
+      <c r="D263" s="15" t="s">
         <v>780</v>
       </c>
       <c r="E263">
@@ -10864,173 +10892,173 @@
         <v>645</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="19">
+    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="16">
         <v>263</v>
       </c>
-      <c r="B264" s="18" t="s">
+      <c r="B264" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="C264" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="D264" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="E264" s="20">
-        <v>0</v>
-      </c>
-      <c r="F264" s="20">
-        <v>0</v>
-      </c>
-      <c r="G264" s="20">
-        <v>0</v>
-      </c>
-      <c r="I264" s="18" t="s">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="15" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="19">
+    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="16">
         <v>264</v>
       </c>
-      <c r="B265" s="18" t="s">
+      <c r="B265" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="C265" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="D265" s="18" t="s">
+      <c r="D265" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="E265" s="20">
-        <v>1</v>
-      </c>
-      <c r="F265" s="20">
-        <v>1</v>
-      </c>
-      <c r="G265" s="20">
-        <v>1</v>
-      </c>
-      <c r="I265" s="18" t="s">
+      <c r="E265" s="17">
+        <v>1</v>
+      </c>
+      <c r="F265" s="17">
+        <v>1</v>
+      </c>
+      <c r="G265" s="17">
+        <v>1</v>
+      </c>
+      <c r="I265" s="15" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="19">
+    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="16">
         <v>265</v>
       </c>
-      <c r="B266" s="18" t="s">
+      <c r="B266" s="15" t="s">
         <v>788</v>
       </c>
-      <c r="C266" s="18" t="s">
+      <c r="C266" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="D266" s="18" t="s">
+      <c r="D266" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="E266" s="20">
-        <v>0</v>
-      </c>
-      <c r="F266" s="20">
-        <v>0</v>
-      </c>
-      <c r="G266" s="20">
-        <v>0</v>
-      </c>
-      <c r="I266" s="20" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="19">
+    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="16">
         <v>266</v>
       </c>
-      <c r="B267" s="18" t="s">
+      <c r="B267" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="C267" s="18" t="s">
+      <c r="C267" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="D267" s="23" t="s">
+      <c r="D267" s="18" t="s">
         <v>793</v>
       </c>
-      <c r="E267" s="20">
-        <v>0</v>
-      </c>
-      <c r="F267" s="20">
-        <v>0</v>
-      </c>
-      <c r="G267" s="20">
-        <v>0</v>
-      </c>
-      <c r="I267" s="24" t="s">
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="19">
+    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="16">
         <v>267</v>
       </c>
-      <c r="B268" s="18" t="s">
+      <c r="B268" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="C268" s="18" t="s">
+      <c r="C268" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="D268" s="23" t="s">
+      <c r="D268" s="18" t="s">
         <v>797</v>
       </c>
-      <c r="E268" s="20">
-        <v>0</v>
-      </c>
-      <c r="F268" s="20">
-        <v>0</v>
-      </c>
-      <c r="G268" s="20">
-        <v>0</v>
-      </c>
-      <c r="I268" s="24" t="s">
+      <c r="E268" s="17">
+        <v>0</v>
+      </c>
+      <c r="F268" s="17">
+        <v>0</v>
+      </c>
+      <c r="G268" s="17">
+        <v>0</v>
+      </c>
+      <c r="I268" s="19" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="19">
+    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="16">
         <v>268</v>
       </c>
-      <c r="B269" s="18" t="s">
+      <c r="B269" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="C269" s="18" t="s">
+      <c r="C269" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="D269" s="23" t="s">
+      <c r="D269" s="18" t="s">
         <v>801</v>
       </c>
-      <c r="E269" s="20">
-        <v>1</v>
-      </c>
-      <c r="F269" s="20">
-        <v>1</v>
-      </c>
-      <c r="G269" s="20">
-        <v>1</v>
-      </c>
-      <c r="I269" s="24" t="s">
+      <c r="E269" s="17">
+        <v>1</v>
+      </c>
+      <c r="F269" s="17">
+        <v>1</v>
+      </c>
+      <c r="G269" s="17">
+        <v>1</v>
+      </c>
+      <c r="I269" s="19" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="15">
+    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="16">
         <v>269</v>
       </c>
-      <c r="B270" s="16" t="s">
+      <c r="B270" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="C270" s="16" t="s">
+      <c r="C270" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="D270" s="22" t="s">
+      <c r="D270" s="18" t="s">
         <v>808</v>
       </c>
       <c r="E270" s="17">
@@ -11042,101 +11070,99 @@
       <c r="G270" s="17">
         <v>1</v>
       </c>
-      <c r="H270" s="17"/>
-      <c r="I270" s="21" t="s">
+      <c r="I270" s="19" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="15">
+    <row r="271" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="26">
         <v>270</v>
       </c>
-      <c r="B271" s="16" t="s">
+      <c r="B271" s="27" t="s">
         <v>805</v>
       </c>
-      <c r="C271" s="16" t="s">
+      <c r="C271" s="27" t="s">
         <v>806</v>
       </c>
-      <c r="D271" s="22" t="s">
+      <c r="D271" s="28" t="s">
         <v>807</v>
       </c>
-      <c r="E271" s="17">
-        <v>1</v>
-      </c>
-      <c r="F271" s="17">
-        <v>1</v>
-      </c>
-      <c r="G271" s="17">
-        <v>1</v>
-      </c>
-      <c r="H271" s="17"/>
-      <c r="I271" s="21" t="s">
+      <c r="E271" s="29">
+        <v>0</v>
+      </c>
+      <c r="F271" s="29">
+        <v>0</v>
+      </c>
+      <c r="G271" s="29">
+        <v>0</v>
+      </c>
+      <c r="I271" s="30" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="19">
+      <c r="A272" s="16">
         <v>271</v>
       </c>
-      <c r="B272" s="18" t="s">
+      <c r="B272" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="C272" s="18" t="s">
+      <c r="C272" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="D272" s="23" t="s">
+      <c r="D272" s="18" t="s">
         <v>810</v>
       </c>
-      <c r="E272" s="20">
-        <v>1</v>
-      </c>
-      <c r="F272" s="20">
-        <v>1</v>
-      </c>
-      <c r="G272" s="20">
-        <v>1</v>
-      </c>
-      <c r="I272" s="24" t="s">
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="19" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="19">
+      <c r="A273" s="16">
         <v>272</v>
       </c>
-      <c r="B273" s="18" t="s">
+      <c r="B273" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="C273" s="18" t="s">
+      <c r="C273" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="D273" s="23" t="s">
+      <c r="D273" s="18" t="s">
         <v>815</v>
       </c>
-      <c r="E273" s="20">
-        <v>1</v>
-      </c>
-      <c r="F273" s="20">
-        <v>1</v>
-      </c>
-      <c r="G273" s="20">
-        <v>1</v>
-      </c>
-      <c r="I273" s="24" t="s">
+      <c r="E273" s="17">
+        <v>1</v>
+      </c>
+      <c r="F273" s="17">
+        <v>1</v>
+      </c>
+      <c r="G273" s="17">
+        <v>1</v>
+      </c>
+      <c r="I273" s="19" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="19">
+      <c r="A274" s="16">
         <v>273</v>
       </c>
-      <c r="B274" s="18" t="s">
+      <c r="B274" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="C274" s="18" t="s">
+      <c r="C274" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="D274" s="23" t="s">
+      <c r="D274" s="18" t="s">
         <v>818</v>
       </c>
       <c r="E274">
@@ -11148,21 +11174,21 @@
       <c r="G274">
         <v>1</v>
       </c>
-      <c r="I274" s="24" t="s">
+      <c r="I274" s="19" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="19">
+      <c r="A275" s="16">
         <v>274</v>
       </c>
-      <c r="B275" s="18" t="s">
+      <c r="B275" s="15" t="s">
         <v>856</v>
       </c>
-      <c r="C275" s="18" t="s">
+      <c r="C275" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="D275" s="23" t="s">
+      <c r="D275" s="18" t="s">
         <v>821</v>
       </c>
       <c r="E275">
@@ -11174,44 +11200,44 @@
       <c r="G275">
         <v>0</v>
       </c>
-      <c r="I275" s="24" t="s">
+      <c r="I275" s="19" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="19">
+    <row r="276" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="26">
         <v>275</v>
       </c>
-      <c r="B276" s="18" t="s">
+      <c r="B276" s="27" t="s">
         <v>825</v>
       </c>
-      <c r="C276" s="18" t="s">
+      <c r="C276" s="27" t="s">
         <v>824</v>
       </c>
-      <c r="D276" s="23" t="s">
+      <c r="D276" s="28" t="s">
         <v>826</v>
       </c>
-      <c r="E276">
-        <v>1</v>
-      </c>
-      <c r="F276">
-        <v>1</v>
-      </c>
-      <c r="G276">
-        <v>1</v>
-      </c>
-      <c r="I276" s="24" t="s">
+      <c r="E276" s="29">
+        <v>0</v>
+      </c>
+      <c r="F276" s="29">
+        <v>0</v>
+      </c>
+      <c r="G276" s="29">
+        <v>0</v>
+      </c>
+      <c r="I276" s="30" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="19">
+      <c r="A277" s="16">
         <v>276</v>
       </c>
-      <c r="B277" s="18" t="s">
+      <c r="B277" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="C277" s="18" t="s">
+      <c r="C277" s="15" t="s">
         <v>829</v>
       </c>
       <c r="E277">
@@ -11223,21 +11249,21 @@
       <c r="G277">
         <v>1</v>
       </c>
-      <c r="I277" s="24" t="s">
+      <c r="I277" s="19" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="19">
+      <c r="A278" s="16">
         <v>277</v>
       </c>
-      <c r="B278" s="18" t="s">
+      <c r="B278" s="15" t="s">
         <v>831</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="C278" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="D278" s="23" t="s">
+      <c r="D278" s="18" t="s">
         <v>833</v>
       </c>
       <c r="E278">
@@ -11249,21 +11275,21 @@
       <c r="G278">
         <v>1</v>
       </c>
-      <c r="I278" s="24" t="s">
+      <c r="I278" s="19" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="19">
+      <c r="A279" s="16">
         <v>278</v>
       </c>
-      <c r="B279" s="18" t="s">
+      <c r="B279" s="15" t="s">
         <v>843</v>
       </c>
-      <c r="C279" s="18" t="s">
+      <c r="C279" s="15" t="s">
         <v>847</v>
       </c>
-      <c r="D279" s="23" t="s">
+      <c r="D279" s="18" t="s">
         <v>835</v>
       </c>
       <c r="E279">
@@ -11275,18 +11301,18 @@
       <c r="G279">
         <v>1</v>
       </c>
-      <c r="I279" s="24" t="s">
+      <c r="I279" s="19" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="19">
+      <c r="A280" s="16">
         <v>279</v>
       </c>
-      <c r="B280" s="18" t="s">
+      <c r="B280" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="C280" s="18" t="s">
+      <c r="C280" s="15" t="s">
         <v>837</v>
       </c>
       <c r="E280">
@@ -11298,21 +11324,21 @@
       <c r="G280">
         <v>1</v>
       </c>
-      <c r="I280" s="24" t="s">
+      <c r="I280" s="19" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="19">
+      <c r="A281" s="16">
         <v>280</v>
       </c>
-      <c r="B281" s="18" t="s">
+      <c r="B281" s="15" t="s">
         <v>842</v>
       </c>
-      <c r="C281" s="18" t="s">
+      <c r="C281" s="15" t="s">
         <v>845</v>
       </c>
-      <c r="D281" s="23" t="s">
+      <c r="D281" s="18" t="s">
         <v>840</v>
       </c>
       <c r="E281">
@@ -11324,21 +11350,21 @@
       <c r="G281">
         <v>1</v>
       </c>
-      <c r="I281" s="24" t="s">
+      <c r="I281" s="19" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="19">
+      <c r="A282" s="16">
         <v>281</v>
       </c>
-      <c r="B282" s="18" t="s">
+      <c r="B282" s="15" t="s">
         <v>844</v>
       </c>
-      <c r="C282" s="18" t="s">
+      <c r="C282" s="15" t="s">
         <v>846</v>
       </c>
-      <c r="D282" s="23" t="s">
+      <c r="D282" s="18" t="s">
         <v>841</v>
       </c>
       <c r="E282">
@@ -11350,21 +11376,21 @@
       <c r="G282">
         <v>1</v>
       </c>
-      <c r="I282" s="24" t="s">
+      <c r="I282" s="19" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="19">
+      <c r="A283" s="16">
         <v>282</v>
       </c>
-      <c r="B283" s="18" t="s">
+      <c r="B283" s="15" t="s">
         <v>854</v>
       </c>
-      <c r="C283" s="18" t="s">
+      <c r="C283" s="15" t="s">
         <v>848</v>
       </c>
-      <c r="D283" s="23" t="s">
+      <c r="D283" s="18" t="s">
         <v>855</v>
       </c>
       <c r="E283">
@@ -11376,21 +11402,21 @@
       <c r="G283">
         <v>1</v>
       </c>
-      <c r="I283" s="24" t="s">
+      <c r="I283" s="19" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="19">
+      <c r="A284" s="16">
         <v>283</v>
       </c>
-      <c r="B284" s="25" t="s">
+      <c r="B284" s="20" t="s">
         <v>850</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="C284" s="15" t="s">
         <v>851</v>
       </c>
-      <c r="D284" s="23" t="s">
+      <c r="D284" s="18" t="s">
         <v>852</v>
       </c>
       <c r="E284">
@@ -11402,60 +11428,112 @@
       <c r="G284">
         <v>1</v>
       </c>
-      <c r="I284" s="24" t="s">
+      <c r="I284" s="19" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="26">
+    <row r="285" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="21">
         <v>284</v>
       </c>
-      <c r="B285" s="27" t="s">
+      <c r="B285" s="22" t="s">
         <v>858</v>
       </c>
-      <c r="C285" s="30" t="s">
+      <c r="C285" s="25" t="s">
         <v>859</v>
       </c>
-      <c r="D285" s="27" t="s">
+      <c r="D285" s="22" t="s">
         <v>857</v>
       </c>
-      <c r="E285" s="28">
-        <v>1</v>
-      </c>
-      <c r="F285" s="28">
-        <v>1</v>
-      </c>
-      <c r="G285" s="28">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
+      <c r="E285" s="23">
+        <v>1</v>
+      </c>
+      <c r="F285" s="23">
+        <v>1</v>
+      </c>
+      <c r="G285" s="23">
+        <v>1</v>
+      </c>
+      <c r="I285" s="24" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="19">
+      <c r="A286" s="16">
         <v>285</v>
       </c>
-      <c r="B286" s="18" t="s">
+      <c r="B286" s="15" t="s">
         <v>861</v>
       </c>
-      <c r="C286" s="18" t="s">
+      <c r="C286" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="D286" s="23" t="s">
+      <c r="D286" s="18" t="s">
         <v>863</v>
       </c>
       <c r="E286">
         <v>0</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I286" s="19" t="s">
         <v>864</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="16">
+        <v>286</v>
+      </c>
+      <c r="B287" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="C287" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="D287" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="I287" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="16">
+        <v>287</v>
+      </c>
+      <c r="B288" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="D288" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="I288" s="19" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="882">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3679,6 +3679,45 @@
   </si>
   <si>
     <t>XRZXGiftManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_ldfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_ldfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福利（小游戏）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_034_LDFDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_phb</t>
+  </si>
+  <si>
+    <t>排行榜总入口</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DPHBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3767,7 +3806,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3788,13 +3827,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3830,7 +3881,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3876,6 +3927,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3883,6 +3943,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -3894,25 +3960,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -3922,6 +3970,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4201,13 +4276,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I288"/>
+  <dimension ref="A1:I291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C265" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E284" sqref="E284"/>
+      <selection pane="bottomRight" activeCell="G278" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8163,13 +8238,13 @@
         <v>450</v>
       </c>
       <c r="E152" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" s="12" t="s">
         <v>860</v>
@@ -10710,133 +10785,133 @@
         <v>754</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="16">
+    <row r="257" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="19">
         <v>256</v>
       </c>
-      <c r="B257" s="15" t="s">
+      <c r="B257" s="18" t="s">
         <v>755</v>
       </c>
-      <c r="C257" s="15" t="s">
+      <c r="C257" s="18" t="s">
         <v>756</v>
       </c>
-      <c r="D257" s="15" t="s">
+      <c r="D257" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="E257" s="17">
-        <v>1</v>
-      </c>
-      <c r="F257" s="17">
-        <v>1</v>
-      </c>
-      <c r="G257" s="17">
-        <v>1</v>
-      </c>
-      <c r="I257" s="15" t="s">
+      <c r="E257" s="20">
+        <v>0</v>
+      </c>
+      <c r="F257" s="20">
+        <v>1</v>
+      </c>
+      <c r="G257" s="20">
+        <v>1</v>
+      </c>
+      <c r="I257" s="18" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="16">
+    <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="19">
         <v>257</v>
       </c>
-      <c r="B258" s="15" t="s">
+      <c r="B258" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="C258" s="18" t="s">
         <v>760</v>
       </c>
-      <c r="D258" s="15" t="s">
+      <c r="D258" s="18" t="s">
         <v>761</v>
       </c>
-      <c r="E258" s="17">
-        <v>0</v>
-      </c>
-      <c r="F258" s="17">
-        <v>1</v>
-      </c>
-      <c r="G258" s="17">
-        <v>1</v>
-      </c>
-      <c r="I258" s="15" t="s">
+      <c r="E258" s="20">
+        <v>0</v>
+      </c>
+      <c r="F258" s="20">
+        <v>1</v>
+      </c>
+      <c r="G258" s="20">
+        <v>1</v>
+      </c>
+      <c r="I258" s="18" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="16">
+    <row r="259" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="19">
         <v>258</v>
       </c>
-      <c r="B259" s="15" t="s">
+      <c r="B259" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="C259" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="D259" s="15" t="s">
+      <c r="D259" s="18" t="s">
         <v>765</v>
       </c>
-      <c r="E259" s="17">
-        <v>0</v>
-      </c>
-      <c r="F259" s="17">
-        <v>1</v>
-      </c>
-      <c r="G259" s="17">
-        <v>1</v>
-      </c>
-      <c r="I259" s="15" t="s">
+      <c r="E259" s="20">
+        <v>0</v>
+      </c>
+      <c r="F259" s="20">
+        <v>1</v>
+      </c>
+      <c r="G259" s="20">
+        <v>1</v>
+      </c>
+      <c r="I259" s="18" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="16">
+    <row r="260" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="19">
         <v>259</v>
       </c>
-      <c r="B260" s="15" t="s">
+      <c r="B260" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="C260" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="D260" s="18" t="s">
         <v>768</v>
       </c>
-      <c r="E260" s="17">
-        <v>1</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
+      <c r="E260" s="20">
+        <v>1</v>
+      </c>
+      <c r="F260" s="20">
+        <v>1</v>
+      </c>
+      <c r="G260" s="20">
+        <v>1</v>
+      </c>
+      <c r="I260" s="18" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="16">
+    <row r="261" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="19">
         <v>260</v>
       </c>
-      <c r="B261" s="15" t="s">
+      <c r="B261" s="18" t="s">
         <v>770</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="C261" s="18" t="s">
         <v>771</v>
       </c>
-      <c r="D261" s="15" t="s">
+      <c r="D261" s="18" t="s">
         <v>772</v>
       </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
+      <c r="E261" s="20">
+        <v>0</v>
+      </c>
+      <c r="F261" s="20">
+        <v>1</v>
+      </c>
+      <c r="G261" s="20">
+        <v>1</v>
+      </c>
+      <c r="I261" s="18" t="s">
         <v>773</v>
       </c>
     </row>
@@ -10870,13 +10945,13 @@
       <c r="A263" s="5">
         <v>262</v>
       </c>
-      <c r="B263" s="15" t="s">
+      <c r="B263" s="18" t="s">
         <v>778</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="D263" s="15" t="s">
+      <c r="D263" s="18" t="s">
         <v>780</v>
       </c>
       <c r="E263">
@@ -10892,173 +10967,173 @@
         <v>645</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="16">
+    <row r="264" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="19">
         <v>263</v>
       </c>
-      <c r="B264" s="15" t="s">
+      <c r="B264" s="18" t="s">
         <v>781</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="C264" s="18" t="s">
         <v>782</v>
       </c>
-      <c r="D264" s="15" t="s">
+      <c r="D264" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="E264" s="17">
-        <v>0</v>
-      </c>
-      <c r="F264" s="17">
-        <v>0</v>
-      </c>
-      <c r="G264" s="17">
-        <v>0</v>
-      </c>
-      <c r="I264" s="15" t="s">
+      <c r="E264" s="20">
+        <v>0</v>
+      </c>
+      <c r="F264" s="20">
+        <v>0</v>
+      </c>
+      <c r="G264" s="20">
+        <v>0</v>
+      </c>
+      <c r="I264" s="18" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="16">
+    <row r="265" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="19">
         <v>264</v>
       </c>
-      <c r="B265" s="15" t="s">
+      <c r="B265" s="18" t="s">
         <v>785</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="C265" s="18" t="s">
         <v>786</v>
       </c>
-      <c r="D265" s="15" t="s">
+      <c r="D265" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="E265" s="17">
-        <v>1</v>
-      </c>
-      <c r="F265" s="17">
-        <v>1</v>
-      </c>
-      <c r="G265" s="17">
-        <v>1</v>
-      </c>
-      <c r="I265" s="15" t="s">
+      <c r="E265" s="20">
+        <v>1</v>
+      </c>
+      <c r="F265" s="20">
+        <v>1</v>
+      </c>
+      <c r="G265" s="20">
+        <v>1</v>
+      </c>
+      <c r="I265" s="18" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="16">
+    <row r="266" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="19">
         <v>265</v>
       </c>
-      <c r="B266" s="15" t="s">
+      <c r="B266" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="C266" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="D266" s="15" t="s">
+      <c r="D266" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="17" t="s">
+      <c r="E266" s="20">
+        <v>0</v>
+      </c>
+      <c r="F266" s="20">
+        <v>0</v>
+      </c>
+      <c r="G266" s="20">
+        <v>0</v>
+      </c>
+      <c r="I266" s="20" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="16">
+    <row r="267" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="19">
         <v>266</v>
       </c>
-      <c r="B267" s="15" t="s">
+      <c r="B267" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="C267" s="15" t="s">
+      <c r="C267" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="D267" s="18" t="s">
+      <c r="D267" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="E267" s="17">
-        <v>0</v>
-      </c>
-      <c r="F267" s="17">
-        <v>0</v>
-      </c>
-      <c r="G267" s="17">
-        <v>0</v>
-      </c>
-      <c r="I267" s="19" t="s">
+      <c r="E267" s="20">
+        <v>0</v>
+      </c>
+      <c r="F267" s="20">
+        <v>0</v>
+      </c>
+      <c r="G267" s="20">
+        <v>0</v>
+      </c>
+      <c r="I267" s="24" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="16">
+    <row r="268" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="19">
         <v>267</v>
       </c>
-      <c r="B268" s="15" t="s">
+      <c r="B268" s="18" t="s">
         <v>796</v>
       </c>
-      <c r="C268" s="15" t="s">
+      <c r="C268" s="18" t="s">
         <v>798</v>
       </c>
-      <c r="D268" s="18" t="s">
+      <c r="D268" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="E268" s="17">
-        <v>0</v>
-      </c>
-      <c r="F268" s="17">
-        <v>0</v>
-      </c>
-      <c r="G268" s="17">
-        <v>0</v>
-      </c>
-      <c r="I268" s="19" t="s">
+      <c r="E268" s="20">
+        <v>0</v>
+      </c>
+      <c r="F268" s="20">
+        <v>0</v>
+      </c>
+      <c r="G268" s="20">
+        <v>0</v>
+      </c>
+      <c r="I268" s="24" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="16">
+    <row r="269" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="19">
         <v>268</v>
       </c>
-      <c r="B269" s="15" t="s">
+      <c r="B269" s="18" t="s">
         <v>802</v>
       </c>
-      <c r="C269" s="15" t="s">
+      <c r="C269" s="18" t="s">
         <v>800</v>
       </c>
-      <c r="D269" s="18" t="s">
+      <c r="D269" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="E269" s="17">
-        <v>1</v>
-      </c>
-      <c r="F269" s="17">
-        <v>1</v>
-      </c>
-      <c r="G269" s="17">
-        <v>1</v>
-      </c>
-      <c r="I269" s="19" t="s">
+      <c r="E269" s="20">
+        <v>1</v>
+      </c>
+      <c r="F269" s="20">
+        <v>1</v>
+      </c>
+      <c r="G269" s="20">
+        <v>1</v>
+      </c>
+      <c r="I269" s="24" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="16">
+    <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="15">
         <v>269</v>
       </c>
-      <c r="B270" s="15" t="s">
+      <c r="B270" s="16" t="s">
         <v>803</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="C270" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="D270" s="18" t="s">
+      <c r="D270" s="22" t="s">
         <v>808</v>
       </c>
       <c r="E270" s="17">
@@ -11070,99 +11145,101 @@
       <c r="G270" s="17">
         <v>1</v>
       </c>
-      <c r="I270" s="19" t="s">
+      <c r="H270" s="17"/>
+      <c r="I270" s="21" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="26">
+    <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="15">
         <v>270</v>
       </c>
-      <c r="B271" s="27" t="s">
+      <c r="B271" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="C271" s="27" t="s">
+      <c r="C271" s="16" t="s">
         <v>806</v>
       </c>
-      <c r="D271" s="28" t="s">
+      <c r="D271" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="E271" s="29">
-        <v>0</v>
-      </c>
-      <c r="F271" s="29">
-        <v>0</v>
-      </c>
-      <c r="G271" s="29">
-        <v>0</v>
-      </c>
-      <c r="I271" s="30" t="s">
+      <c r="E271" s="17">
+        <v>0</v>
+      </c>
+      <c r="F271" s="17">
+        <v>0</v>
+      </c>
+      <c r="G271" s="17">
+        <v>0</v>
+      </c>
+      <c r="H271" s="17"/>
+      <c r="I271" s="21" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="16">
+      <c r="A272" s="19">
         <v>271</v>
       </c>
-      <c r="B272" s="15" t="s">
+      <c r="B272" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="C272" s="18" t="s">
         <v>811</v>
       </c>
-      <c r="D272" s="18" t="s">
+      <c r="D272" s="23" t="s">
         <v>810</v>
       </c>
-      <c r="E272" s="17">
-        <v>1</v>
-      </c>
-      <c r="F272" s="17">
-        <v>1</v>
-      </c>
-      <c r="G272" s="17">
-        <v>1</v>
-      </c>
-      <c r="I272" s="19" t="s">
+      <c r="E272" s="20">
+        <v>1</v>
+      </c>
+      <c r="F272" s="20">
+        <v>1</v>
+      </c>
+      <c r="G272" s="20">
+        <v>1</v>
+      </c>
+      <c r="I272" s="24" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="16">
+      <c r="A273" s="19">
         <v>272</v>
       </c>
-      <c r="B273" s="15" t="s">
+      <c r="B273" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="C273" s="18" t="s">
         <v>814</v>
       </c>
-      <c r="D273" s="18" t="s">
+      <c r="D273" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="E273" s="17">
-        <v>1</v>
-      </c>
-      <c r="F273" s="17">
-        <v>1</v>
-      </c>
-      <c r="G273" s="17">
-        <v>1</v>
-      </c>
-      <c r="I273" s="19" t="s">
+      <c r="E273" s="20">
+        <v>1</v>
+      </c>
+      <c r="F273" s="20">
+        <v>1</v>
+      </c>
+      <c r="G273" s="20">
+        <v>1</v>
+      </c>
+      <c r="I273" s="24" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="16">
+      <c r="A274" s="19">
         <v>273</v>
       </c>
-      <c r="B274" s="15" t="s">
+      <c r="B274" s="18" t="s">
         <v>817</v>
       </c>
-      <c r="C274" s="15" t="s">
+      <c r="C274" s="18" t="s">
         <v>819</v>
       </c>
-      <c r="D274" s="18" t="s">
+      <c r="D274" s="23" t="s">
         <v>818</v>
       </c>
       <c r="E274">
@@ -11174,21 +11251,21 @@
       <c r="G274">
         <v>1</v>
       </c>
-      <c r="I274" s="19" t="s">
+      <c r="I274" s="24" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="16">
+      <c r="A275" s="19">
         <v>274</v>
       </c>
-      <c r="B275" s="15" t="s">
+      <c r="B275" s="18" t="s">
         <v>856</v>
       </c>
-      <c r="C275" s="15" t="s">
+      <c r="C275" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="D275" s="18" t="s">
+      <c r="D275" s="23" t="s">
         <v>821</v>
       </c>
       <c r="E275">
@@ -11200,44 +11277,44 @@
       <c r="G275">
         <v>0</v>
       </c>
-      <c r="I275" s="19" t="s">
+      <c r="I275" s="24" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="26">
+    <row r="276" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="19">
         <v>275</v>
       </c>
-      <c r="B276" s="27" t="s">
+      <c r="B276" s="18" t="s">
         <v>825</v>
       </c>
-      <c r="C276" s="27" t="s">
+      <c r="C276" s="18" t="s">
         <v>824</v>
       </c>
-      <c r="D276" s="28" t="s">
+      <c r="D276" s="23" t="s">
         <v>826</v>
       </c>
-      <c r="E276" s="29">
-        <v>0</v>
-      </c>
-      <c r="F276" s="29">
-        <v>0</v>
-      </c>
-      <c r="G276" s="29">
-        <v>0</v>
-      </c>
-      <c r="I276" s="30" t="s">
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="I276" s="24" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="16">
+      <c r="A277" s="19">
         <v>276</v>
       </c>
-      <c r="B277" s="15" t="s">
+      <c r="B277" s="18" t="s">
         <v>828</v>
       </c>
-      <c r="C277" s="15" t="s">
+      <c r="C277" s="18" t="s">
         <v>829</v>
       </c>
       <c r="E277">
@@ -11249,47 +11326,47 @@
       <c r="G277">
         <v>1</v>
       </c>
-      <c r="I277" s="19" t="s">
+      <c r="I277" s="24" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="16">
+      <c r="A278" s="19">
         <v>277</v>
       </c>
-      <c r="B278" s="15" t="s">
+      <c r="B278" s="18" t="s">
         <v>831</v>
       </c>
-      <c r="C278" s="15" t="s">
+      <c r="C278" s="18" t="s">
         <v>832</v>
       </c>
-      <c r="D278" s="18" t="s">
+      <c r="D278" s="23" t="s">
         <v>833</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278">
-        <v>1</v>
-      </c>
-      <c r="I278" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I278" s="24" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="16">
+      <c r="A279" s="19">
         <v>278</v>
       </c>
-      <c r="B279" s="15" t="s">
+      <c r="B279" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="C279" s="15" t="s">
+      <c r="C279" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="D279" s="18" t="s">
+      <c r="D279" s="23" t="s">
         <v>835</v>
       </c>
       <c r="E279">
@@ -11301,18 +11378,18 @@
       <c r="G279">
         <v>1</v>
       </c>
-      <c r="I279" s="19" t="s">
+      <c r="I279" s="24" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="16">
+      <c r="A280" s="19">
         <v>279</v>
       </c>
-      <c r="B280" s="15" t="s">
+      <c r="B280" s="18" t="s">
         <v>838</v>
       </c>
-      <c r="C280" s="15" t="s">
+      <c r="C280" s="18" t="s">
         <v>837</v>
       </c>
       <c r="E280">
@@ -11324,21 +11401,21 @@
       <c r="G280">
         <v>1</v>
       </c>
-      <c r="I280" s="19" t="s">
+      <c r="I280" s="24" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="16">
+      <c r="A281" s="19">
         <v>280</v>
       </c>
-      <c r="B281" s="15" t="s">
+      <c r="B281" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="C281" s="15" t="s">
+      <c r="C281" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="D281" s="18" t="s">
+      <c r="D281" s="23" t="s">
         <v>840</v>
       </c>
       <c r="E281">
@@ -11350,21 +11427,21 @@
       <c r="G281">
         <v>1</v>
       </c>
-      <c r="I281" s="19" t="s">
+      <c r="I281" s="24" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="16">
+      <c r="A282" s="19">
         <v>281</v>
       </c>
-      <c r="B282" s="15" t="s">
+      <c r="B282" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="C282" s="18" t="s">
         <v>846</v>
       </c>
-      <c r="D282" s="18" t="s">
+      <c r="D282" s="23" t="s">
         <v>841</v>
       </c>
       <c r="E282">
@@ -11376,21 +11453,21 @@
       <c r="G282">
         <v>1</v>
       </c>
-      <c r="I282" s="19" t="s">
+      <c r="I282" s="24" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="16">
+      <c r="A283" s="19">
         <v>282</v>
       </c>
-      <c r="B283" s="15" t="s">
+      <c r="B283" s="18" t="s">
         <v>854</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="C283" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="D283" s="23" t="s">
         <v>855</v>
       </c>
       <c r="E283">
@@ -11402,21 +11479,21 @@
       <c r="G283">
         <v>1</v>
       </c>
-      <c r="I283" s="19" t="s">
+      <c r="I283" s="24" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="16">
+      <c r="A284" s="19">
         <v>283</v>
       </c>
-      <c r="B284" s="20" t="s">
+      <c r="B284" s="25" t="s">
         <v>850</v>
       </c>
-      <c r="C284" s="15" t="s">
+      <c r="C284" s="18" t="s">
         <v>851</v>
       </c>
-      <c r="D284" s="18" t="s">
+      <c r="D284" s="23" t="s">
         <v>852</v>
       </c>
       <c r="E284">
@@ -11428,47 +11505,47 @@
       <c r="G284">
         <v>1</v>
       </c>
-      <c r="I284" s="19" t="s">
+      <c r="I284" s="24" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="21">
+    <row r="285" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="26">
         <v>284</v>
       </c>
-      <c r="B285" s="22" t="s">
+      <c r="B285" s="27" t="s">
         <v>858</v>
       </c>
-      <c r="C285" s="25" t="s">
+      <c r="C285" s="30" t="s">
         <v>859</v>
       </c>
-      <c r="D285" s="22" t="s">
+      <c r="D285" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="E285" s="23">
-        <v>1</v>
-      </c>
-      <c r="F285" s="23">
-        <v>1</v>
-      </c>
-      <c r="G285" s="23">
-        <v>1</v>
-      </c>
-      <c r="I285" s="24" t="s">
+      <c r="E285" s="28">
+        <v>1</v>
+      </c>
+      <c r="F285" s="28">
+        <v>1</v>
+      </c>
+      <c r="G285" s="28">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="16">
+      <c r="A286" s="19">
         <v>285</v>
       </c>
-      <c r="B286" s="15" t="s">
+      <c r="B286" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="C286" s="18" t="s">
         <v>862</v>
       </c>
-      <c r="D286" s="18" t="s">
+      <c r="D286" s="23" t="s">
         <v>863</v>
       </c>
       <c r="E286">
@@ -11480,21 +11557,21 @@
       <c r="G286">
         <v>1</v>
       </c>
-      <c r="I286" s="19" t="s">
+      <c r="I286" s="24" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="16">
+      <c r="A287" s="19">
         <v>286</v>
       </c>
-      <c r="B287" s="15" t="s">
+      <c r="B287" s="18" t="s">
         <v>866</v>
       </c>
-      <c r="C287" s="15" t="s">
+      <c r="C287" s="18" t="s">
         <v>867</v>
       </c>
-      <c r="D287" s="18" t="s">
+      <c r="D287" s="23" t="s">
         <v>865</v>
       </c>
       <c r="E287">
@@ -11506,21 +11583,21 @@
       <c r="G287">
         <v>1</v>
       </c>
-      <c r="I287" s="19" t="s">
+      <c r="I287" s="24" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="16">
+      <c r="A288" s="19">
         <v>287</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="18" t="s">
         <v>868</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="18" t="s">
         <v>869</v>
       </c>
-      <c r="D288" s="18" t="s">
+      <c r="D288" s="23" t="s">
         <v>870</v>
       </c>
       <c r="E288">
@@ -11532,8 +11609,83 @@
       <c r="G288">
         <v>1</v>
       </c>
-      <c r="I288" s="19" t="s">
+      <c r="I288" s="24" t="s">
         <v>871</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="31">
+        <v>288</v>
+      </c>
+      <c r="B289" s="33" t="s">
+        <v>872</v>
+      </c>
+      <c r="C289" s="33" t="s">
+        <v>875</v>
+      </c>
+      <c r="D289" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="E289" s="32">
+        <v>1</v>
+      </c>
+      <c r="F289" s="32">
+        <v>1</v>
+      </c>
+      <c r="G289" s="32">
+        <v>1</v>
+      </c>
+      <c r="I289" s="33" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="31">
+        <v>289</v>
+      </c>
+      <c r="B290" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>876</v>
+      </c>
+      <c r="E290" s="32">
+        <v>1</v>
+      </c>
+      <c r="F290" s="32">
+        <v>1</v>
+      </c>
+      <c r="G290" s="32">
+        <v>1</v>
+      </c>
+      <c r="I290" s="34" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="35">
+        <v>290</v>
+      </c>
+      <c r="B291" s="37" t="s">
+        <v>878</v>
+      </c>
+      <c r="C291" s="38" t="s">
+        <v>879</v>
+      </c>
+      <c r="D291" s="38" t="s">
+        <v>880</v>
+      </c>
+      <c r="E291" s="36">
+        <v>1</v>
+      </c>
+      <c r="F291" s="36">
+        <v>1</v>
+      </c>
+      <c r="G291" s="36">
+        <v>1</v>
+      </c>
+      <c r="I291" s="38" t="s">
+        <v>881</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="889">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3718,6 +3718,31 @@
   </si>
   <si>
     <t>BY3DPHBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（老版）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRQTLManager_Old</t>
+  </si>
+  <si>
+    <t>act_xrqtl_old</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DSHTXManager</t>
+  </si>
+  <si>
+    <t>by3d_shtx</t>
+  </si>
+  <si>
+    <t>深海探险</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4276,13 +4301,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I291"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C242" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G278" sqref="G278"/>
+      <selection pane="bottomRight" activeCell="E258" sqref="E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10802,10 +10827,10 @@
         <v>0</v>
       </c>
       <c r="F257" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G257" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" s="18" t="s">
         <v>758</v>
@@ -11344,13 +11369,13 @@
         <v>833</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278" s="24" t="s">
         <v>834</v>
@@ -11552,10 +11577,10 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" s="24" t="s">
         <v>864</v>
@@ -11686,6 +11711,58 @@
       </c>
       <c r="I291" s="38" t="s">
         <v>881</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" s="25" t="s">
+        <v>884</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D292" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" s="38" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>886</v>
+      </c>
+      <c r="C293" t="s">
+        <v>887</v>
+      </c>
+      <c r="D293" t="s">
+        <v>885</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="I293" t="s">
+        <v>888</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="906">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3710,6 +3710,86 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>by3d_shtx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DSHTXManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_xrqtl_old</t>
+  </si>
+  <si>
+    <t>新人七天乐（老版）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRQTLManager_Old</t>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_035_ybwl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_035_YBWLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_by3d_jchd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_by3d_hqjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSBY3DJCHDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSBY3DHQJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-精彩活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-获取金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_035_jhs</t>
+  </si>
+  <si>
+    <t>聚划算</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_035_JHSManager</t>
+  </si>
+  <si>
     <t>by3d_phb</t>
   </si>
   <si>
@@ -3718,31 +3798,17 @@
   </si>
   <si>
     <t>BY3DPHBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐（老版）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>XRQTLManager_Old</t>
-  </si>
-  <si>
-    <t>act_xrqtl_old</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BY3DSHTXManager</t>
-  </si>
-  <si>
-    <t>by3d_shtx</t>
-  </si>
-  <si>
-    <t>深海探险</t>
+  </si>
+  <si>
+    <t>sys_by3d_shop_enter</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼商城入口(获取金币中)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSBY3DShopManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3831,7 +3897,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3868,12 +3934,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3906,7 +3966,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4012,16 +4072,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4301,13 +4358,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I293"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C242" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E258" sqref="E258"/>
+      <selection pane="bottomRight" activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10827,10 +10884,10 @@
         <v>0</v>
       </c>
       <c r="F257" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G257" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257" s="18" t="s">
         <v>758</v>
@@ -11162,13 +11219,13 @@
         <v>808</v>
       </c>
       <c r="E270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="21" t="s">
@@ -11320,13 +11377,13 @@
         <v>826</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276" s="24" t="s">
         <v>827</v>
@@ -11407,104 +11464,104 @@
         <v>836</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="19">
+    <row r="280" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="7">
         <v>279</v>
       </c>
-      <c r="B280" s="18" t="s">
+      <c r="B280" s="35" t="s">
         <v>838</v>
       </c>
-      <c r="C280" s="18" t="s">
+      <c r="C280" s="35" t="s">
         <v>837</v>
       </c>
-      <c r="E280">
-        <v>1</v>
-      </c>
-      <c r="F280">
-        <v>1</v>
-      </c>
-      <c r="G280">
-        <v>1</v>
-      </c>
-      <c r="I280" s="24" t="s">
+      <c r="E280" s="2">
+        <v>0</v>
+      </c>
+      <c r="F280" s="2">
+        <v>0</v>
+      </c>
+      <c r="G280" s="2">
+        <v>0</v>
+      </c>
+      <c r="I280" s="36" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="19">
+    <row r="281" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="7">
         <v>280</v>
       </c>
-      <c r="B281" s="18" t="s">
+      <c r="B281" s="35" t="s">
         <v>842</v>
       </c>
-      <c r="C281" s="18" t="s">
+      <c r="C281" s="35" t="s">
         <v>845</v>
       </c>
-      <c r="D281" s="23" t="s">
+      <c r="D281" s="37" t="s">
         <v>840</v>
       </c>
-      <c r="E281">
-        <v>1</v>
-      </c>
-      <c r="F281">
-        <v>1</v>
-      </c>
-      <c r="G281">
-        <v>1</v>
-      </c>
-      <c r="I281" s="24" t="s">
+      <c r="E281" s="2">
+        <v>0</v>
+      </c>
+      <c r="F281" s="2">
+        <v>0</v>
+      </c>
+      <c r="G281" s="2">
+        <v>0</v>
+      </c>
+      <c r="I281" s="36" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="19">
+    <row r="282" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="7">
         <v>281</v>
       </c>
-      <c r="B282" s="18" t="s">
+      <c r="B282" s="35" t="s">
         <v>844</v>
       </c>
-      <c r="C282" s="18" t="s">
+      <c r="C282" s="35" t="s">
         <v>846</v>
       </c>
-      <c r="D282" s="23" t="s">
+      <c r="D282" s="37" t="s">
         <v>841</v>
       </c>
-      <c r="E282">
-        <v>1</v>
-      </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-      <c r="G282">
-        <v>1</v>
-      </c>
-      <c r="I282" s="24" t="s">
+      <c r="E282" s="2">
+        <v>0</v>
+      </c>
+      <c r="F282" s="2">
+        <v>0</v>
+      </c>
+      <c r="G282" s="2">
+        <v>0</v>
+      </c>
+      <c r="I282" s="36" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="19">
+    <row r="283" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="7">
         <v>282</v>
       </c>
-      <c r="B283" s="18" t="s">
+      <c r="B283" s="35" t="s">
         <v>854</v>
       </c>
-      <c r="C283" s="18" t="s">
+      <c r="C283" s="35" t="s">
         <v>848</v>
       </c>
-      <c r="D283" s="23" t="s">
+      <c r="D283" s="37" t="s">
         <v>855</v>
       </c>
-      <c r="E283">
-        <v>1</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-      <c r="I283" s="24" t="s">
+      <c r="E283" s="2">
+        <v>0</v>
+      </c>
+      <c r="F283" s="2">
+        <v>0</v>
+      </c>
+      <c r="G283" s="2">
+        <v>0</v>
+      </c>
+      <c r="I283" s="36" t="s">
         <v>849</v>
       </c>
     </row>
@@ -11525,10 +11582,10 @@
         <v>0</v>
       </c>
       <c r="F284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" s="24" t="s">
         <v>853</v>
@@ -11652,13 +11709,13 @@
         <v>877</v>
       </c>
       <c r="E289" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F289" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G289" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" s="33" t="s">
         <v>873</v>
@@ -11675,57 +11732,57 @@
         <v>876</v>
       </c>
       <c r="E290" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F290" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G290" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" s="34" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="35">
+    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="19">
         <v>290</v>
       </c>
-      <c r="B291" s="37" t="s">
+      <c r="B291" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="C291" s="38" t="s">
+      <c r="C291" s="18" t="s">
         <v>879</v>
       </c>
-      <c r="D291" s="38" t="s">
+      <c r="D291" s="23" t="s">
         <v>880</v>
       </c>
-      <c r="E291" s="36">
-        <v>1</v>
-      </c>
-      <c r="F291" s="36">
-        <v>1</v>
-      </c>
-      <c r="G291" s="36">
-        <v>1</v>
-      </c>
-      <c r="I291" s="38" t="s">
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="I291" s="24" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292">
+      <c r="A292" s="19">
         <v>291</v>
       </c>
       <c r="B292" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="C292" s="18" t="s">
+        <v>883</v>
+      </c>
+      <c r="D292" s="25" t="s">
         <v>884</v>
       </c>
-      <c r="C292" s="9" t="s">
-        <v>882</v>
-      </c>
-      <c r="D292" s="25" t="s">
-        <v>883</v>
-      </c>
       <c r="E292">
         <v>1</v>
       </c>
@@ -11735,34 +11792,164 @@
       <c r="G292">
         <v>1</v>
       </c>
-      <c r="I292" s="38" t="s">
+      <c r="I292" s="24" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="19">
+        <v>292</v>
+      </c>
+      <c r="B293" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="C293" s="18" t="s">
+        <v>887</v>
+      </c>
+      <c r="D293" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="I293" s="24" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A293">
-        <v>292</v>
-      </c>
-      <c r="B293" t="s">
-        <v>886</v>
-      </c>
-      <c r="C293" t="s">
-        <v>887</v>
-      </c>
-      <c r="D293" t="s">
-        <v>885</v>
-      </c>
-      <c r="E293">
-        <v>0</v>
-      </c>
-      <c r="F293">
-        <v>0</v>
-      </c>
-      <c r="G293">
-        <v>0</v>
-      </c>
-      <c r="I293" t="s">
-        <v>888</v>
+    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="19">
+        <v>293</v>
+      </c>
+      <c r="B294" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="C294" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="D294" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="I294" s="24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A295" s="19">
+        <v>294</v>
+      </c>
+      <c r="B295" s="25" t="s">
+        <v>890</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>895</v>
+      </c>
+      <c r="D295" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="I295" s="24" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="19">
+        <v>295</v>
+      </c>
+      <c r="B296" s="25" t="s">
+        <v>896</v>
+      </c>
+      <c r="C296" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="D296" s="25" t="s">
+        <v>898</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="I296" s="24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="19">
+        <v>296</v>
+      </c>
+      <c r="B297" s="25" t="s">
+        <v>899</v>
+      </c>
+      <c r="C297" s="18" t="s">
+        <v>900</v>
+      </c>
+      <c r="D297" s="25" t="s">
+        <v>901</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="I297" s="24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="19">
+        <v>297</v>
+      </c>
+      <c r="B298" s="25" t="s">
+        <v>902</v>
+      </c>
+      <c r="C298" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="D298" s="25" t="s">
+        <v>904</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="I298" s="24" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -4388,10 +4388,10 @@
   <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C269" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G289" sqref="G289"/>
+      <selection pane="bottomRight" activeCell="G276" sqref="G276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11246,13 +11246,13 @@
         <v>808</v>
       </c>
       <c r="E270" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F270" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="21" t="s">
@@ -11404,13 +11404,13 @@
         <v>826</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" s="24" t="s">
         <v>827</v>
@@ -11453,13 +11453,13 @@
         <v>833</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278" s="24" t="s">
         <v>834</v>
@@ -11606,13 +11606,13 @@
         <v>852</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284" s="24" t="s">
         <v>853</v>
@@ -11759,13 +11759,13 @@
         <v>876</v>
       </c>
       <c r="E290" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F290" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G290" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I290" s="34" t="s">
         <v>873</v>
@@ -11785,13 +11785,13 @@
         <v>880</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I291" s="24" t="s">
         <v>881</v>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="915">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3798,6 +3798,42 @@
   </si>
   <si>
     <t>BY3DPHBManager</t>
+  </si>
+  <si>
+    <t>act_036_hjhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡掉落需求</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_HJHHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_HJHHLDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_hjhhl_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_gelb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_GELBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>sys_by3d_shop_enter</t>
@@ -3966,7 +4002,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4070,15 +4106,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4358,13 +4385,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C269" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B298" sqref="B298"/>
+      <selection pane="bottomRight" activeCell="G289" sqref="G289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11089,13 +11116,13 @@
         <v>787</v>
       </c>
       <c r="E265" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F265" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G265" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" s="18" t="s">
         <v>645</v>
@@ -11426,13 +11453,13 @@
         <v>833</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" s="24" t="s">
         <v>834</v>
@@ -11464,104 +11491,104 @@
         <v>836</v>
       </c>
     </row>
-    <row r="280" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="7">
+    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="19">
         <v>279</v>
       </c>
-      <c r="B280" s="35" t="s">
+      <c r="B280" s="18" t="s">
         <v>838</v>
       </c>
-      <c r="C280" s="35" t="s">
+      <c r="C280" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="E280" s="2">
-        <v>0</v>
-      </c>
-      <c r="F280" s="2">
-        <v>0</v>
-      </c>
-      <c r="G280" s="2">
-        <v>0</v>
-      </c>
-      <c r="I280" s="36" t="s">
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="24" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="281" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="7">
+    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="19">
         <v>280</v>
       </c>
-      <c r="B281" s="35" t="s">
+      <c r="B281" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="C281" s="35" t="s">
+      <c r="C281" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="D281" s="37" t="s">
+      <c r="D281" s="23" t="s">
         <v>840</v>
       </c>
-      <c r="E281" s="2">
-        <v>0</v>
-      </c>
-      <c r="F281" s="2">
-        <v>0</v>
-      </c>
-      <c r="G281" s="2">
-        <v>0</v>
-      </c>
-      <c r="I281" s="36" t="s">
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="I281" s="24" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="282" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="7">
+    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="19">
         <v>281</v>
       </c>
-      <c r="B282" s="35" t="s">
+      <c r="B282" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="C282" s="35" t="s">
+      <c r="C282" s="18" t="s">
         <v>846</v>
       </c>
-      <c r="D282" s="37" t="s">
+      <c r="D282" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="E282" s="2">
-        <v>0</v>
-      </c>
-      <c r="F282" s="2">
-        <v>0</v>
-      </c>
-      <c r="G282" s="2">
-        <v>0</v>
-      </c>
-      <c r="I282" s="36" t="s">
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="I282" s="24" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="7">
+    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="19">
         <v>282</v>
       </c>
-      <c r="B283" s="35" t="s">
+      <c r="B283" s="18" t="s">
         <v>854</v>
       </c>
-      <c r="C283" s="35" t="s">
+      <c r="C283" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="D283" s="37" t="s">
+      <c r="D283" s="23" t="s">
         <v>855</v>
       </c>
-      <c r="E283" s="2">
-        <v>0</v>
-      </c>
-      <c r="F283" s="2">
-        <v>0</v>
-      </c>
-      <c r="G283" s="2">
-        <v>0</v>
-      </c>
-      <c r="I283" s="36" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="24" t="s">
         <v>849</v>
       </c>
     </row>
@@ -11709,13 +11736,13 @@
         <v>877</v>
       </c>
       <c r="E289" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289" s="33" t="s">
         <v>873</v>
@@ -11937,19 +11964,97 @@
         <v>903</v>
       </c>
       <c r="D298" s="25" t="s">
+        <v>905</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="I298" s="24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="19">
+        <v>298</v>
+      </c>
+      <c r="B299" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="C299" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="E298">
-        <v>1</v>
-      </c>
-      <c r="F298">
-        <v>1</v>
-      </c>
-      <c r="G298">
-        <v>1</v>
-      </c>
-      <c r="I298" s="24" t="s">
-        <v>905</v>
+      <c r="D299" s="25" t="s">
+        <v>906</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="I299" s="24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="19">
+        <v>299</v>
+      </c>
+      <c r="B300" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="C300" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="D300" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="I300" s="24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="19">
+        <v>300</v>
+      </c>
+      <c r="B301" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="C301" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="D301" s="25" t="s">
+        <v>913</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="I301" s="24" t="s">
+        <v>914</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="913">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3694,15 +3694,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_034_ldfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>立冬福袋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立冬福利（小游戏）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4002,7 +3994,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4103,9 +4095,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4385,13 +4374,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G276" sqref="G276"/>
+      <selection pane="bottomRight" activeCell="B291" sqref="B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11730,10 +11719,10 @@
         <v>872</v>
       </c>
       <c r="C289" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="D289" s="33" t="s">
         <v>875</v>
-      </c>
-      <c r="D289" s="33" t="s">
-        <v>877</v>
       </c>
       <c r="E289" s="32">
         <v>1</v>
@@ -11748,41 +11737,44 @@
         <v>873</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="31">
+    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="19">
         <v>289</v>
       </c>
-      <c r="B290" s="33" t="s">
-        <v>874</v>
-      </c>
-      <c r="C290" s="33" t="s">
+      <c r="B290" s="18" t="s">
         <v>876</v>
       </c>
-      <c r="E290" s="32">
-        <v>1</v>
-      </c>
-      <c r="F290" s="32">
-        <v>1</v>
-      </c>
-      <c r="G290" s="32">
-        <v>1</v>
-      </c>
-      <c r="I290" s="34" t="s">
-        <v>873</v>
+      <c r="C290" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="D290" s="23" t="s">
+        <v>878</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="I290" s="24" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="19">
         <v>290</v>
       </c>
-      <c r="B291" s="18" t="s">
-        <v>878</v>
+      <c r="B291" s="25" t="s">
+        <v>880</v>
       </c>
       <c r="C291" s="18" t="s">
-        <v>879</v>
-      </c>
-      <c r="D291" s="23" t="s">
-        <v>880</v>
+        <v>881</v>
+      </c>
+      <c r="D291" s="25" t="s">
+        <v>882</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -11794,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="24" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11802,13 +11794,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="25" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C292" s="18" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -11820,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="24" t="s">
-        <v>885</v>
+        <v>645</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11828,13 +11820,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="25" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C293" s="18" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -11854,25 +11846,25 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C294" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D294" s="25" t="s">
+        <v>890</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="I294" s="24" t="s">
         <v>891</v>
-      </c>
-      <c r="E294">
-        <v>1</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-      <c r="I294" s="24" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11880,13 +11872,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C295" s="18" t="s">
         <v>895</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11898,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="I295" s="24" t="s">
-        <v>893</v>
+        <v>645</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11906,13 +11898,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="25" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C296" s="18" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -11932,13 +11924,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="25" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C297" s="18" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D297" s="25" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -11958,13 +11950,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="25" t="s">
+        <v>905</v>
+      </c>
+      <c r="C298" s="18" t="s">
         <v>902</v>
       </c>
-      <c r="C298" s="18" t="s">
-        <v>903</v>
-      </c>
       <c r="D298" s="25" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -11984,13 +11976,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="25" t="s">
+        <v>906</v>
+      </c>
+      <c r="C299" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="C299" s="18" t="s">
-        <v>904</v>
-      </c>
       <c r="D299" s="25" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -12010,13 +12002,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="25" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C300" s="18" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -12028,33 +12020,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="24" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="19">
-        <v>300</v>
-      </c>
-      <c r="B301" s="25" t="s">
-        <v>911</v>
-      </c>
-      <c r="C301" s="18" t="s">
         <v>912</v>
-      </c>
-      <c r="D301" s="25" t="s">
-        <v>913</v>
-      </c>
-      <c r="E301">
-        <v>1</v>
-      </c>
-      <c r="F301">
-        <v>1</v>
-      </c>
-      <c r="G301">
-        <v>1</v>
-      </c>
-      <c r="I301" s="24" t="s">
-        <v>914</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="931">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3513,15 +3513,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>畅玩礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_030_CWLBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3837,6 +3829,85 @@
   </si>
   <si>
     <t>SYSBY3DShopManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月23日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月30日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月30日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12dhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二兑换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12DHHLManager</t>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lhsjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二页签</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双12礼盒掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lh_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_by_and_cjj_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_BY_AND_CJJ_CONDUCTManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3925,7 +3996,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3962,6 +4033,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3994,7 +4077,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4095,6 +4178,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4374,13 +4481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B291" sqref="B291"/>
+      <selection pane="bottomRight" activeCell="D296" sqref="D296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4393,6 +4500,7 @@
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="9.125" customWidth="1"/>
     <col min="8" max="8" width="25.375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -8345,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11358,7 +11466,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C275" s="18" t="s">
         <v>820</v>
@@ -11428,30 +11536,30 @@
         <v>830</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="19">
+    <row r="278" spans="1:9" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="34">
         <v>277</v>
       </c>
-      <c r="B278" s="18" t="s">
+      <c r="B278" s="35" t="s">
         <v>831</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="C278" s="35" t="s">
+        <v>921</v>
+      </c>
+      <c r="D278" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D278" s="23" t="s">
-        <v>833</v>
-      </c>
-      <c r="E278">
-        <v>1</v>
-      </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-      <c r="I278" s="24" t="s">
-        <v>834</v>
+      <c r="E278" s="37">
+        <v>1</v>
+      </c>
+      <c r="F278" s="37">
+        <v>1</v>
+      </c>
+      <c r="G278" s="37">
+        <v>1</v>
+      </c>
+      <c r="I278" s="35" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11459,13 +11567,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -11477,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11485,22 +11593,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C280" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="24" t="s">
         <v>837</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11508,13 +11616,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11526,7 +11634,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="24" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11534,13 +11642,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="C282" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="C282" s="18" t="s">
-        <v>846</v>
-      </c>
       <c r="D282" s="23" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -11552,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="24" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11560,13 +11668,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C283" s="18" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -11578,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="24" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11586,25 +11694,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="C284" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="D284" s="23" t="s">
         <v>850</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="24" t="s">
         <v>851</v>
-      </c>
-      <c r="D284" s="23" t="s">
-        <v>852</v>
-      </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11612,13 +11720,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="27" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D285" s="27" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E285" s="28">
         <v>1</v>
@@ -11638,25 +11746,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="D286" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="C286" s="18" t="s">
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="24" t="s">
         <v>862</v>
-      </c>
-      <c r="D286" s="23" t="s">
-        <v>863</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11664,13 +11772,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C287" s="18" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D287" s="23" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11690,25 +11798,25 @@
         <v>287</v>
       </c>
       <c r="B288" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="D288" s="23" t="s">
         <v>868</v>
       </c>
-      <c r="C288" s="18" t="s">
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="I288" s="24" t="s">
         <v>869</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>870</v>
-      </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="I288" s="24" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11716,13 +11824,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="33" t="s">
+        <v>870</v>
+      </c>
+      <c r="C289" s="33" t="s">
         <v>872</v>
       </c>
-      <c r="C289" s="33" t="s">
-        <v>874</v>
-      </c>
       <c r="D289" s="33" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E289" s="32">
         <v>1</v>
@@ -11734,7 +11842,7 @@
         <v>1</v>
       </c>
       <c r="I289" s="33" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11742,25 +11850,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="C290" s="18" t="s">
+        <v>875</v>
+      </c>
+      <c r="D290" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="C290" s="18" t="s">
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="I290" s="24" t="s">
         <v>877</v>
-      </c>
-      <c r="D290" s="23" t="s">
-        <v>878</v>
-      </c>
-      <c r="E290">
-        <v>1</v>
-      </c>
-      <c r="F290">
-        <v>1</v>
-      </c>
-      <c r="G290">
-        <v>1</v>
-      </c>
-      <c r="I290" s="24" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11768,25 +11876,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="C291" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="D291" s="25" t="s">
         <v>880</v>
       </c>
-      <c r="C291" s="18" t="s">
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" s="24" t="s">
         <v>881</v>
-      </c>
-      <c r="D291" s="25" t="s">
-        <v>882</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" s="24" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11794,13 +11902,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="C292" s="18" t="s">
+        <v>883</v>
+      </c>
+      <c r="D292" s="25" t="s">
         <v>884</v>
-      </c>
-      <c r="C292" s="18" t="s">
-        <v>885</v>
-      </c>
-      <c r="D292" s="25" t="s">
-        <v>886</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -11820,13 +11928,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="C293" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="D293" s="25" t="s">
         <v>887</v>
-      </c>
-      <c r="C293" s="18" t="s">
-        <v>892</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>889</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -11846,14 +11954,14 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="C294" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="D294" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="C294" s="18" t="s">
-        <v>893</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>890</v>
-      </c>
       <c r="E294">
         <v>1</v>
       </c>
@@ -11864,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="24" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11872,13 +11980,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>894</v>
-      </c>
-      <c r="C295" s="18" t="s">
-        <v>895</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>896</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11898,13 +12006,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="25" t="s">
+        <v>895</v>
+      </c>
+      <c r="C296" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="D296" s="25" t="s">
         <v>897</v>
-      </c>
-      <c r="C296" s="18" t="s">
-        <v>898</v>
-      </c>
-      <c r="D296" s="25" t="s">
-        <v>899</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -11924,25 +12032,25 @@
         <v>296</v>
       </c>
       <c r="B297" s="25" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C297" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="D297" s="25" t="s">
         <v>901</v>
       </c>
-      <c r="D297" s="25" t="s">
-        <v>903</v>
-      </c>
       <c r="E297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297">
-        <v>1</v>
-      </c>
-      <c r="I297" s="24" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I297" s="18" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11950,25 +12058,25 @@
         <v>297</v>
       </c>
       <c r="B298" s="25" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C298" s="18" t="s">
+        <v>900</v>
+      </c>
+      <c r="D298" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="D298" s="25" t="s">
-        <v>904</v>
-      </c>
       <c r="E298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G298">
-        <v>1</v>
-      </c>
-      <c r="I298" s="24" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I298" s="18" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11976,25 +12084,25 @@
         <v>298</v>
       </c>
       <c r="B299" s="25" t="s">
+        <v>904</v>
+      </c>
+      <c r="C299" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="D299" s="25" t="s">
         <v>906</v>
       </c>
-      <c r="C299" s="18" t="s">
-        <v>907</v>
-      </c>
-      <c r="D299" s="25" t="s">
-        <v>908</v>
-      </c>
       <c r="E299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G299">
-        <v>1</v>
-      </c>
-      <c r="I299" s="24" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I299" s="18" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12002,25 +12110,149 @@
         <v>299</v>
       </c>
       <c r="B300" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="C300" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="D300" s="25" t="s">
         <v>909</v>
       </c>
-      <c r="C300" s="18" t="s">
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="I300" s="24" t="s">
         <v>910</v>
       </c>
-      <c r="D300" s="25" t="s">
-        <v>911</v>
-      </c>
-      <c r="E300">
-        <v>1</v>
-      </c>
-      <c r="F300">
-        <v>1</v>
-      </c>
-      <c r="G300">
-        <v>1</v>
-      </c>
-      <c r="I300" s="24" t="s">
-        <v>912</v>
+    </row>
+    <row r="301" spans="1:9" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="19">
+        <v>300</v>
+      </c>
+      <c r="B301" s="38" t="s">
+        <v>914</v>
+      </c>
+      <c r="C301" s="39" t="s">
+        <v>915</v>
+      </c>
+      <c r="D301" s="38" t="s">
+        <v>916</v>
+      </c>
+      <c r="E301" s="40">
+        <v>1</v>
+      </c>
+      <c r="F301" s="40">
+        <v>1</v>
+      </c>
+      <c r="G301" s="40">
+        <v>1</v>
+      </c>
+      <c r="I301" s="41" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="19">
+        <v>301</v>
+      </c>
+      <c r="B302" s="38" t="s">
+        <v>920</v>
+      </c>
+      <c r="C302" s="39" t="s">
+        <v>918</v>
+      </c>
+      <c r="D302" s="38" t="s">
+        <v>919</v>
+      </c>
+      <c r="E302" s="40">
+        <v>1</v>
+      </c>
+      <c r="F302" s="40">
+        <v>1</v>
+      </c>
+      <c r="G302" s="40">
+        <v>1</v>
+      </c>
+      <c r="I302" s="41" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="19">
+        <v>302</v>
+      </c>
+      <c r="B303" s="38" t="s">
+        <v>923</v>
+      </c>
+      <c r="C303" s="39" t="s">
+        <v>924</v>
+      </c>
+      <c r="E303" s="40">
+        <v>1</v>
+      </c>
+      <c r="F303" s="40">
+        <v>1</v>
+      </c>
+      <c r="G303" s="40">
+        <v>1</v>
+      </c>
+      <c r="I303" s="41" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="19">
+        <v>303</v>
+      </c>
+      <c r="B304" s="38" t="s">
+        <v>926</v>
+      </c>
+      <c r="C304" s="39" t="s">
+        <v>925</v>
+      </c>
+      <c r="D304" s="38" t="s">
+        <v>927</v>
+      </c>
+      <c r="E304" s="40">
+        <v>1</v>
+      </c>
+      <c r="F304" s="40">
+        <v>1</v>
+      </c>
+      <c r="G304" s="40">
+        <v>1</v>
+      </c>
+      <c r="I304" s="41" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="19">
+        <v>304</v>
+      </c>
+      <c r="B305" s="38" t="s">
+        <v>928</v>
+      </c>
+      <c r="D305" s="38" t="s">
+        <v>929</v>
+      </c>
+      <c r="E305" s="40">
+        <v>1</v>
+      </c>
+      <c r="F305" s="40">
+        <v>1</v>
+      </c>
+      <c r="G305" s="40">
+        <v>1</v>
+      </c>
+      <c r="I305" s="41" t="s">
+        <v>930</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="942">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3912,6 +3912,67 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzhhl</t>
+  </si>
+  <si>
+    <t>饺子换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_JZHHLManager</t>
+  </si>
+  <si>
+    <r>
+      <t>12月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_drop</t>
+  </si>
+  <si>
+    <t>Act_039_TYBYDROPManager</t>
+  </si>
+  <si>
+    <t>捕鱼通用掉落活动</t>
+  </si>
+  <si>
+    <t>cjj互导</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4077,7 +4138,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4171,9 +4232,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4202,6 +4260,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4481,13 +4545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:I308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D296" sqref="D296"/>
+      <selection pane="bottomRight" activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11536,29 +11600,29 @@
         <v>830</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="34">
+    <row r="278" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="33">
         <v>277</v>
       </c>
-      <c r="B278" s="35" t="s">
+      <c r="B278" s="34" t="s">
         <v>831</v>
       </c>
-      <c r="C278" s="35" t="s">
+      <c r="C278" s="34" t="s">
         <v>921</v>
       </c>
-      <c r="D278" s="36" t="s">
+      <c r="D278" s="35" t="s">
         <v>832</v>
       </c>
-      <c r="E278" s="37">
-        <v>1</v>
-      </c>
-      <c r="F278" s="37">
-        <v>1</v>
-      </c>
-      <c r="G278" s="37">
-        <v>1</v>
-      </c>
-      <c r="I278" s="35" t="s">
+      <c r="E278" s="36">
+        <v>1</v>
+      </c>
+      <c r="F278" s="36">
+        <v>1</v>
+      </c>
+      <c r="G278" s="36">
+        <v>1</v>
+      </c>
+      <c r="I278" s="34" t="s">
         <v>922</v>
       </c>
     </row>
@@ -11819,29 +11883,29 @@
         <v>869</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="31">
+    <row r="289" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="19">
         <v>288</v>
       </c>
-      <c r="B289" s="33" t="s">
+      <c r="B289" s="32" t="s">
         <v>870</v>
       </c>
-      <c r="C289" s="33" t="s">
+      <c r="C289" s="32" t="s">
         <v>872</v>
       </c>
-      <c r="D289" s="33" t="s">
+      <c r="D289" s="32" t="s">
         <v>873</v>
       </c>
-      <c r="E289" s="32">
-        <v>1</v>
-      </c>
-      <c r="F289" s="32">
-        <v>1</v>
-      </c>
-      <c r="G289" s="32">
-        <v>1</v>
-      </c>
-      <c r="I289" s="33" t="s">
+      <c r="E289" s="31">
+        <v>1</v>
+      </c>
+      <c r="F289" s="31">
+        <v>1</v>
+      </c>
+      <c r="G289" s="31">
+        <v>1</v>
+      </c>
+      <c r="I289" s="32" t="s">
         <v>871</v>
       </c>
     </row>
@@ -12131,104 +12195,104 @@
         <v>910</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A301" s="19">
         <v>300</v>
       </c>
-      <c r="B301" s="38" t="s">
+      <c r="B301" s="37" t="s">
         <v>914</v>
       </c>
-      <c r="C301" s="39" t="s">
+      <c r="C301" s="38" t="s">
         <v>915</v>
       </c>
-      <c r="D301" s="38" t="s">
+      <c r="D301" s="37" t="s">
         <v>916</v>
       </c>
-      <c r="E301" s="40">
-        <v>1</v>
-      </c>
-      <c r="F301" s="40">
-        <v>1</v>
-      </c>
-      <c r="G301" s="40">
-        <v>1</v>
-      </c>
-      <c r="I301" s="41" t="s">
+      <c r="E301" s="39">
+        <v>1</v>
+      </c>
+      <c r="F301" s="39">
+        <v>1</v>
+      </c>
+      <c r="G301" s="39">
+        <v>1</v>
+      </c>
+      <c r="I301" s="40" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="19">
         <v>301</v>
       </c>
-      <c r="B302" s="38" t="s">
+      <c r="B302" s="37" t="s">
         <v>920</v>
       </c>
-      <c r="C302" s="39" t="s">
+      <c r="C302" s="38" t="s">
         <v>918</v>
       </c>
-      <c r="D302" s="38" t="s">
+      <c r="D302" s="37" t="s">
         <v>919</v>
       </c>
-      <c r="E302" s="40">
-        <v>1</v>
-      </c>
-      <c r="F302" s="40">
-        <v>1</v>
-      </c>
-      <c r="G302" s="40">
-        <v>1</v>
-      </c>
-      <c r="I302" s="41" t="s">
+      <c r="E302" s="39">
+        <v>0</v>
+      </c>
+      <c r="F302" s="39">
+        <v>0</v>
+      </c>
+      <c r="G302" s="39">
+        <v>0</v>
+      </c>
+      <c r="I302" s="40" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A303" s="19">
         <v>302</v>
       </c>
-      <c r="B303" s="38" t="s">
+      <c r="B303" s="37" t="s">
         <v>923</v>
       </c>
-      <c r="C303" s="39" t="s">
+      <c r="C303" s="38" t="s">
         <v>924</v>
       </c>
-      <c r="E303" s="40">
-        <v>1</v>
-      </c>
-      <c r="F303" s="40">
-        <v>1</v>
-      </c>
-      <c r="G303" s="40">
-        <v>1</v>
-      </c>
-      <c r="I303" s="41" t="s">
+      <c r="E303" s="39">
+        <v>1</v>
+      </c>
+      <c r="F303" s="39">
+        <v>1</v>
+      </c>
+      <c r="G303" s="39">
+        <v>1</v>
+      </c>
+      <c r="I303" s="40" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A304" s="19">
         <v>303</v>
       </c>
-      <c r="B304" s="38" t="s">
+      <c r="B304" s="37" t="s">
         <v>926</v>
       </c>
-      <c r="C304" s="39" t="s">
+      <c r="C304" s="38" t="s">
         <v>925</v>
       </c>
-      <c r="D304" s="38" t="s">
+      <c r="D304" s="37" t="s">
         <v>927</v>
       </c>
-      <c r="E304" s="40">
-        <v>1</v>
-      </c>
-      <c r="F304" s="40">
-        <v>1</v>
-      </c>
-      <c r="G304" s="40">
-        <v>1</v>
-      </c>
-      <c r="I304" s="41" t="s">
+      <c r="E304" s="39">
+        <v>1</v>
+      </c>
+      <c r="F304" s="39">
+        <v>1</v>
+      </c>
+      <c r="G304" s="39">
+        <v>1</v>
+      </c>
+      <c r="I304" s="40" t="s">
         <v>917</v>
       </c>
     </row>
@@ -12236,23 +12300,107 @@
       <c r="A305" s="19">
         <v>304</v>
       </c>
-      <c r="B305" s="38" t="s">
+      <c r="B305" s="37" t="s">
         <v>928</v>
       </c>
-      <c r="D305" s="38" t="s">
+      <c r="C305" s="38" t="s">
+        <v>941</v>
+      </c>
+      <c r="D305" s="37" t="s">
         <v>929</v>
       </c>
-      <c r="E305" s="40">
-        <v>1</v>
-      </c>
-      <c r="F305" s="40">
-        <v>1</v>
-      </c>
-      <c r="G305" s="40">
-        <v>1</v>
-      </c>
-      <c r="I305" s="41" t="s">
+      <c r="E305" s="39">
+        <v>1</v>
+      </c>
+      <c r="F305" s="39">
+        <v>1</v>
+      </c>
+      <c r="G305" s="39">
+        <v>1</v>
+      </c>
+      <c r="I305" s="40" t="s">
         <v>930</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="19">
+        <v>305</v>
+      </c>
+      <c r="B306" s="41" t="s">
+        <v>931</v>
+      </c>
+      <c r="C306" s="42" t="s">
+        <v>932</v>
+      </c>
+      <c r="D306" s="41" t="s">
+        <v>933</v>
+      </c>
+      <c r="E306" s="2">
+        <v>1</v>
+      </c>
+      <c r="F306" s="2">
+        <v>1</v>
+      </c>
+      <c r="G306" s="2">
+        <v>1</v>
+      </c>
+      <c r="H306" s="2"/>
+      <c r="I306" s="42" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="19">
+        <v>306</v>
+      </c>
+      <c r="B307" s="41" t="s">
+        <v>935</v>
+      </c>
+      <c r="C307" s="42" t="s">
+        <v>937</v>
+      </c>
+      <c r="D307" s="41" t="s">
+        <v>936</v>
+      </c>
+      <c r="E307" s="2">
+        <v>1</v>
+      </c>
+      <c r="F307" s="2">
+        <v>1</v>
+      </c>
+      <c r="G307" s="2">
+        <v>1</v>
+      </c>
+      <c r="H307" s="2"/>
+      <c r="I307" s="42" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A308" s="19">
+        <v>307</v>
+      </c>
+      <c r="B308" s="41" t="s">
+        <v>938</v>
+      </c>
+      <c r="C308" s="41" t="s">
+        <v>940</v>
+      </c>
+      <c r="D308" s="41" t="s">
+        <v>939</v>
+      </c>
+      <c r="E308" s="2">
+        <v>1</v>
+      </c>
+      <c r="F308" s="2">
+        <v>1</v>
+      </c>
+      <c r="G308" s="2">
+        <v>1</v>
+      </c>
+      <c r="H308" s="2"/>
+      <c r="I308" s="42" t="s">
+        <v>934</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3493,10 +3493,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_030_hd_zjm</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3918,26 +3914,37 @@
     <t>act_039_jzhhl</t>
   </si>
   <si>
-    <t>饺子换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_039_JZHHLManager</t>
   </si>
   <si>
+    <t>act_039_jzsjb</t>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_drop</t>
+  </si>
+  <si>
+    <t>Act_039_TYBYDROPManager</t>
+  </si>
+  <si>
+    <t>捕鱼通用掉落活动</t>
+  </si>
+  <si>
+    <t>12月28日23:59:59</t>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>12月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
+      <t>12月21</t>
     </r>
     <r>
       <rPr>
@@ -3953,25 +3960,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_jzsjb</t>
-  </si>
-  <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
-    <t>饺子收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_by_drop</t>
-  </si>
-  <si>
-    <t>Act_039_TYBYDROPManager</t>
-  </si>
-  <si>
-    <t>捕鱼通用掉落活动</t>
-  </si>
-  <si>
     <t>cjj互导</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3980,7 +3968,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4055,6 +4043,13 @@
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4184,9 +4179,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4217,9 +4209,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4236,9 +4225,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4267,6 +4253,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4548,15 +4543,15 @@
   <dimension ref="A1:I308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C305" sqref="C305"/>
+      <selection pane="bottomRight" activeCell="F270" sqref="F270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="19" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
@@ -4568,7 +4563,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4597,7 +4592,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4623,7 +4618,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4649,7 +4644,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4675,7 +4670,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4701,7 +4696,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4727,7 +4722,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -4753,7 +4748,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4779,7 +4774,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4805,7 +4800,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4831,7 +4826,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -4857,7 +4852,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4883,7 +4878,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -4909,7 +4904,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4935,7 +4930,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4961,7 +4956,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -4987,7 +4982,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -5013,7 +5008,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -5039,7 +5034,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -5065,7 +5060,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -5091,7 +5086,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5117,7 +5112,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -5143,7 +5138,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -5169,7 +5164,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -5195,7 +5190,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -5221,7 +5216,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5247,7 +5242,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -5273,7 +5268,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -5299,7 +5294,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5325,7 +5320,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -5351,7 +5346,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -5377,7 +5372,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -5403,7 +5398,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -5429,7 +5424,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -5455,7 +5450,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -5481,7 +5476,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -5507,7 +5502,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -5533,7 +5528,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -5559,7 +5554,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -5585,7 +5580,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -5611,7 +5606,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -5637,7 +5632,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="18">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -5663,7 +5658,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -5689,7 +5684,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -5715,7 +5710,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="18">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -5741,7 +5736,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -5767,7 +5762,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="18">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -5793,7 +5788,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="18">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -5819,7 +5814,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="18">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -5845,7 +5840,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="18">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -5871,7 +5866,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="18">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -5897,7 +5892,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="18">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -5921,7 +5916,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="18">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -5947,7 +5942,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="18">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -5973,7 +5968,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="18">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -5999,7 +5994,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="18">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -6025,7 +6020,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="18">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -6051,7 +6046,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="18">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -6077,7 +6072,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="18">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -6103,7 +6098,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="18">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -6129,7 +6124,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="18">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -6155,7 +6150,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="18">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -6181,7 +6176,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="18">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -6207,7 +6202,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="18">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -6233,7 +6228,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="18">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -6259,7 +6254,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="18">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -6285,7 +6280,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="18">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -6311,7 +6306,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="18">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -6337,7 +6332,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="18">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -6363,7 +6358,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="18">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -6389,7 +6384,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="18">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -6415,7 +6410,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="18">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -6441,7 +6436,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="18">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -6467,7 +6462,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="18">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -6493,7 +6488,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="18">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -6519,7 +6514,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="18">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -6545,7 +6540,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="18">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -6571,7 +6566,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="A78" s="18">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -6597,7 +6592,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+      <c r="A79" s="18">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -6623,7 +6618,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="18">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -6649,7 +6644,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="18">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -6675,7 +6670,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="18">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -6701,7 +6696,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="18">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -6727,7 +6722,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="18">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -6753,7 +6748,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="18">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -6779,7 +6774,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="A86" s="18">
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -6805,7 +6800,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="A87" s="18">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -6831,7 +6826,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="A88" s="18">
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -6857,7 +6852,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="A89" s="18">
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -6883,7 +6878,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="A90" s="18">
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -6909,7 +6904,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="18">
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -6935,7 +6930,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="18">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -6961,7 +6956,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="18">
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -6987,7 +6982,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="18">
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -7013,7 +7008,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="A95" s="18">
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -7039,7 +7034,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+      <c r="A96" s="18">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -7065,7 +7060,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+      <c r="A97" s="18">
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -7091,7 +7086,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+      <c r="A98" s="18">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -7117,7 +7112,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+      <c r="A99" s="18">
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -7143,7 +7138,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+      <c r="A100" s="18">
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -7169,7 +7164,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
+      <c r="A101" s="18">
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -7195,7 +7190,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
+      <c r="A102" s="18">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -7221,7 +7216,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
+      <c r="A103" s="18">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -7247,7 +7242,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="5">
+      <c r="A104" s="18">
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -7273,7 +7268,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
+      <c r="A105" s="18">
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -7299,7 +7294,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="5">
+      <c r="A106" s="18">
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -7325,7 +7320,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="5">
+      <c r="A107" s="18">
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -7351,7 +7346,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="5">
+      <c r="A108" s="18">
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -7377,7 +7372,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="5">
+      <c r="A109" s="18">
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -7403,7 +7398,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="5">
+      <c r="A110" s="18">
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -7429,7 +7424,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="5">
+      <c r="A111" s="18">
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -7455,7 +7450,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
+      <c r="A112" s="18">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -7481,7 +7476,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="5">
+      <c r="A113" s="18">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -7507,7 +7502,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="5">
+      <c r="A114" s="18">
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -7533,7 +7528,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="5">
+      <c r="A115" s="18">
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -7559,7 +7554,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="5">
+      <c r="A116" s="18">
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -7585,7 +7580,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="5">
+      <c r="A117" s="18">
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -7611,7 +7606,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="5">
+      <c r="A118" s="18">
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -7637,7 +7632,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="5">
+      <c r="A119" s="18">
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -7663,7 +7658,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="5">
+      <c r="A120" s="18">
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -7689,7 +7684,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="5">
+      <c r="A121" s="18">
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -7715,7 +7710,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
+      <c r="A122" s="18">
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -7741,7 +7736,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
+      <c r="A123" s="18">
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -7767,7 +7762,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="5">
+      <c r="A124" s="18">
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -7793,7 +7788,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="5">
+      <c r="A125" s="18">
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -7819,7 +7814,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="5">
+      <c r="A126" s="18">
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -7845,7 +7840,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="5">
+      <c r="A127" s="18">
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -7871,7 +7866,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+      <c r="A128" s="18">
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -7897,7 +7892,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+      <c r="A129" s="18">
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -7923,7 +7918,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="5">
+      <c r="A130" s="18">
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -7949,7 +7944,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="5">
+      <c r="A131" s="18">
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -7975,7 +7970,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="5">
+      <c r="A132" s="18">
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -8001,7 +7996,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="5">
+      <c r="A133" s="18">
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -8027,7 +8022,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="5">
+      <c r="A134" s="18">
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -8053,7 +8048,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="5">
+      <c r="A135" s="18">
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -8079,7 +8074,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="5">
+      <c r="A136" s="18">
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -8105,7 +8100,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="5">
+      <c r="A137" s="18">
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -8131,7 +8126,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="5">
+      <c r="A138" s="18">
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -8157,7 +8152,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="5">
+      <c r="A139" s="18">
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -8183,7 +8178,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="5">
+      <c r="A140" s="18">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -8209,7 +8204,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="5">
+      <c r="A141" s="18">
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -8235,7 +8230,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="5">
+      <c r="A142" s="18">
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -8261,7 +8256,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="5">
+      <c r="A143" s="18">
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -8287,7 +8282,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="5">
+      <c r="A144" s="18">
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -8313,7 +8308,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="5">
+      <c r="A145" s="18">
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -8339,7 +8334,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="5">
+      <c r="A146" s="18">
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -8365,7 +8360,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="5">
+      <c r="A147" s="18">
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -8391,7 +8386,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="5">
+      <c r="A148" s="18">
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -8417,7 +8412,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="5">
+      <c r="A149" s="18">
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -8443,7 +8438,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="5">
+      <c r="A150" s="18">
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -8469,7 +8464,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="5">
+      <c r="A151" s="18">
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -8495,7 +8490,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="5">
+      <c r="A152" s="18">
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -8517,11 +8512,11 @@
         <v>0</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="5">
+      <c r="A153" s="18">
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -8547,7 +8542,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="5">
+      <c r="A154" s="18">
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -8573,7 +8568,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="5">
+      <c r="A155" s="18">
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -8599,7 +8594,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="5">
+      <c r="A156" s="18">
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -8625,7 +8620,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="5">
+      <c r="A157" s="18">
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -8651,7 +8646,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="5">
+      <c r="A158" s="18">
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -8677,7 +8672,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="5">
+      <c r="A159" s="18">
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
@@ -8703,7 +8698,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="5">
+      <c r="A160" s="18">
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -8729,7 +8724,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="5">
+      <c r="A161" s="18">
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
@@ -8755,7 +8750,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="5">
+      <c r="A162" s="18">
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -8781,7 +8776,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="5">
+      <c r="A163" s="18">
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -8807,7 +8802,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="5">
+      <c r="A164" s="18">
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -8833,7 +8828,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="5">
+      <c r="A165" s="18">
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -8859,7 +8854,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="5">
+      <c r="A166" s="18">
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
@@ -8885,7 +8880,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="5">
+      <c r="A167" s="18">
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
@@ -8911,7 +8906,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="5">
+      <c r="A168" s="18">
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -8937,7 +8932,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="5">
+      <c r="A169" s="18">
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -8963,7 +8958,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="5">
+      <c r="A170" s="18">
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -8987,7 +8982,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="5">
+      <c r="A171" s="18">
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -9011,7 +9006,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="5">
+      <c r="A172" s="18">
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -9035,7 +9030,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="5">
+      <c r="A173" s="18">
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -9059,7 +9054,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="5">
+      <c r="A174" s="18">
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
@@ -9085,7 +9080,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="5">
+      <c r="A175" s="18">
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
@@ -9109,7 +9104,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="5">
+      <c r="A176" s="18">
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
@@ -9133,7 +9128,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="5">
+      <c r="A177" s="18">
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -9157,7 +9152,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="5">
+      <c r="A178" s="18">
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
@@ -9183,7 +9178,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="5">
+      <c r="A179" s="18">
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -9209,7 +9204,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="5">
+      <c r="A180" s="18">
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
@@ -9233,7 +9228,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="5">
+      <c r="A181" s="18">
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
@@ -9257,7 +9252,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="5">
+      <c r="A182" s="18">
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
@@ -9281,7 +9276,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="5">
+      <c r="A183" s="18">
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
@@ -9305,7 +9300,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="5">
+      <c r="A184" s="18">
         <v>183</v>
       </c>
       <c r="B184" t="s">
@@ -9328,7 +9323,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="5">
+      <c r="A185" s="18">
         <v>184</v>
       </c>
       <c r="B185" t="s">
@@ -9351,7 +9346,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="5">
+      <c r="A186" s="18">
         <v>185</v>
       </c>
       <c r="B186" t="s">
@@ -9374,7 +9369,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="5">
+      <c r="A187" s="18">
         <v>186</v>
       </c>
       <c r="B187" t="s">
@@ -9397,7 +9392,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="5">
+      <c r="A188" s="18">
         <v>187</v>
       </c>
       <c r="B188" t="s">
@@ -9420,7 +9415,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="5">
+      <c r="A189" s="18">
         <v>188</v>
       </c>
       <c r="B189" t="s">
@@ -9443,7 +9438,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="5">
+      <c r="A190" s="18">
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -9466,7 +9461,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="5">
+      <c r="A191" s="18">
         <v>190</v>
       </c>
       <c r="B191" t="s">
@@ -9489,7 +9484,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="5">
+      <c r="A192" s="18">
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -9512,7 +9507,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A193" s="5">
+      <c r="A193" s="18">
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -9535,7 +9530,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A194" s="5">
+      <c r="A194" s="18">
         <v>193</v>
       </c>
       <c r="B194" t="s">
@@ -9558,7 +9553,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="5">
+      <c r="A195" s="18">
         <v>194</v>
       </c>
       <c r="B195" t="s">
@@ -9581,7 +9576,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="5">
+      <c r="A196" s="18">
         <v>195</v>
       </c>
       <c r="B196" t="s">
@@ -9604,7 +9599,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="5">
+      <c r="A197" s="18">
         <v>196</v>
       </c>
       <c r="B197" t="s">
@@ -9627,7 +9622,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A198" s="5">
+      <c r="A198" s="18">
         <v>197</v>
       </c>
       <c r="B198" t="s">
@@ -9650,7 +9645,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A199" s="5">
+      <c r="A199" s="18">
         <v>198</v>
       </c>
       <c r="B199" t="s">
@@ -9673,7 +9668,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A200" s="5">
+      <c r="A200" s="18">
         <v>199</v>
       </c>
       <c r="B200" t="s">
@@ -9696,7 +9691,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A201" s="5">
+      <c r="A201" s="18">
         <v>200</v>
       </c>
       <c r="B201" t="s">
@@ -9719,7 +9714,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A202" s="5">
+      <c r="A202" s="18">
         <v>201</v>
       </c>
       <c r="B202" t="s">
@@ -9742,7 +9737,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="5">
+      <c r="A203" s="18">
         <v>202</v>
       </c>
       <c r="B203" t="s">
@@ -9765,7 +9760,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="5">
+      <c r="A204" s="18">
         <v>203</v>
       </c>
       <c r="B204" t="s">
@@ -9788,7 +9783,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A205" s="5">
+      <c r="A205" s="18">
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
@@ -9814,7 +9809,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="5">
+      <c r="A206" s="18">
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
@@ -9840,7 +9835,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="5">
+      <c r="A207" s="18">
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
@@ -9866,7 +9861,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="5">
+      <c r="A208" s="18">
         <v>207</v>
       </c>
       <c r="B208" t="s">
@@ -9889,7 +9884,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="5">
+      <c r="A209" s="18">
         <v>208</v>
       </c>
       <c r="B209" t="s">
@@ -9912,7 +9907,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="5">
+      <c r="A210" s="18">
         <v>209</v>
       </c>
       <c r="B210" t="s">
@@ -9935,7 +9930,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="5">
+      <c r="A211" s="18">
         <v>210</v>
       </c>
       <c r="B211" t="s">
@@ -9958,7 +9953,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="5">
+      <c r="A212" s="18">
         <v>211</v>
       </c>
       <c r="B212" t="s">
@@ -9981,7 +9976,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="5">
+      <c r="A213" s="18">
         <v>212</v>
       </c>
       <c r="B213" t="s">
@@ -10004,7 +9999,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="5">
+      <c r="A214" s="18">
         <v>213</v>
       </c>
       <c r="B214" t="s">
@@ -10027,7 +10022,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="5">
+      <c r="A215" s="18">
         <v>214</v>
       </c>
       <c r="B215" t="s">
@@ -10050,7 +10045,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="5">
+      <c r="A216" s="18">
         <v>215</v>
       </c>
       <c r="B216" t="s">
@@ -10073,7 +10068,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="5">
+      <c r="A217" s="18">
         <v>216</v>
       </c>
       <c r="B217" t="s">
@@ -10096,7 +10091,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="5">
+      <c r="A218" s="18">
         <v>217</v>
       </c>
       <c r="B218" t="s">
@@ -10119,7 +10114,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="5">
+      <c r="A219" s="18">
         <v>218</v>
       </c>
       <c r="B219" t="s">
@@ -10142,7 +10137,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A220" s="5">
+      <c r="A220" s="18">
         <v>219</v>
       </c>
       <c r="B220" t="s">
@@ -10165,7 +10160,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A221" s="5">
+      <c r="A221" s="18">
         <v>220</v>
       </c>
       <c r="B221" t="s">
@@ -10188,7 +10183,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A222" s="5">
+      <c r="A222" s="18">
         <v>221</v>
       </c>
       <c r="B222" t="s">
@@ -10211,7 +10206,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="5">
+      <c r="A223" s="18">
         <v>222</v>
       </c>
       <c r="B223" t="s">
@@ -10234,7 +10229,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="5">
+      <c r="A224" s="18">
         <v>223</v>
       </c>
       <c r="B224" t="s">
@@ -10257,7 +10252,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A225" s="5">
+      <c r="A225" s="18">
         <v>224</v>
       </c>
       <c r="B225" t="s">
@@ -10280,7 +10275,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A226" s="5">
+      <c r="A226" s="18">
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
@@ -10303,7 +10298,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A227" s="5">
+      <c r="A227" s="18">
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
@@ -10326,7 +10321,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="5">
+      <c r="A228" s="18">
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
@@ -10349,7 +10344,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="5">
+      <c r="A229" s="18">
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
@@ -10372,7 +10367,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="5">
+      <c r="A230" s="18">
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
@@ -10395,7 +10390,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="5">
+      <c r="A231" s="18">
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
@@ -10418,7 +10413,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A232" s="5">
+      <c r="A232" s="18">
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
@@ -10441,7 +10436,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="5">
+      <c r="A233" s="18">
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -10464,7 +10459,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="5">
+      <c r="A234" s="18">
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
@@ -10487,7 +10482,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="5">
+      <c r="A235" s="18">
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
@@ -10510,7 +10505,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="5">
+      <c r="A236" s="18">
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
@@ -10536,7 +10531,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="5">
+      <c r="A237" s="18">
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
@@ -10562,7 +10557,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A238" s="5">
+      <c r="A238" s="18">
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
@@ -10588,7 +10583,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A239" s="5">
+      <c r="A239" s="18">
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
@@ -10614,7 +10609,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="5">
+      <c r="A240" s="18">
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
@@ -10640,7 +10635,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="5">
+      <c r="A241" s="18">
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
@@ -10666,7 +10661,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="5">
+      <c r="A242" s="18">
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
@@ -10692,7 +10687,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="5">
+      <c r="A243" s="18">
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
@@ -10718,7 +10713,7 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="5">
+      <c r="A244" s="18">
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
@@ -10744,7 +10739,7 @@
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="5">
+      <c r="A245" s="18">
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
@@ -10770,7 +10765,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="5">
+      <c r="A246" s="18">
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
@@ -10796,7 +10791,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A247" s="5">
+      <c r="A247" s="18">
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
@@ -10822,7 +10817,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="5">
+      <c r="A248" s="18">
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
@@ -10848,7 +10843,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="5">
+      <c r="A249" s="18">
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
@@ -10874,7 +10869,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="5">
+      <c r="A250" s="18">
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
@@ -10900,7 +10895,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="5">
+      <c r="A251" s="18">
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
@@ -10926,7 +10921,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="5">
+      <c r="A252" s="18">
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
@@ -10952,7 +10947,7 @@
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="5">
+      <c r="A253" s="18">
         <v>252</v>
       </c>
       <c r="B253" s="9" t="s">
@@ -10978,7 +10973,7 @@
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="5">
+      <c r="A254" s="18">
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
@@ -11004,7 +10999,7 @@
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="5">
+      <c r="A255" s="18">
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
@@ -11030,7 +11025,7 @@
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A256" s="5">
+      <c r="A256" s="18">
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
@@ -11055,138 +11050,138 @@
         <v>754</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="19">
+    <row r="257" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="18">
         <v>256</v>
       </c>
-      <c r="B257" s="18" t="s">
+      <c r="B257" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="C257" s="18" t="s">
+      <c r="C257" s="17" t="s">
         <v>756</v>
       </c>
-      <c r="D257" s="18" t="s">
+      <c r="D257" s="17" t="s">
         <v>757</v>
       </c>
-      <c r="E257" s="20">
-        <v>0</v>
-      </c>
-      <c r="F257" s="20">
-        <v>1</v>
-      </c>
-      <c r="G257" s="20">
-        <v>1</v>
-      </c>
-      <c r="I257" s="18" t="s">
+      <c r="E257" s="19">
+        <v>0</v>
+      </c>
+      <c r="F257" s="19">
+        <v>1</v>
+      </c>
+      <c r="G257" s="19">
+        <v>1</v>
+      </c>
+      <c r="I257" s="17" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="19">
+    <row r="258" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="18">
         <v>257</v>
       </c>
-      <c r="B258" s="18" t="s">
+      <c r="B258" s="17" t="s">
         <v>762</v>
       </c>
-      <c r="C258" s="18" t="s">
+      <c r="C258" s="17" t="s">
         <v>760</v>
       </c>
-      <c r="D258" s="18" t="s">
+      <c r="D258" s="17" t="s">
         <v>761</v>
       </c>
-      <c r="E258" s="20">
-        <v>0</v>
-      </c>
-      <c r="F258" s="20">
-        <v>1</v>
-      </c>
-      <c r="G258" s="20">
-        <v>1</v>
-      </c>
-      <c r="I258" s="18" t="s">
+      <c r="E258" s="19">
+        <v>0</v>
+      </c>
+      <c r="F258" s="19">
+        <v>1</v>
+      </c>
+      <c r="G258" s="19">
+        <v>1</v>
+      </c>
+      <c r="I258" s="17" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="19">
+    <row r="259" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="18">
         <v>258</v>
       </c>
-      <c r="B259" s="18" t="s">
+      <c r="B259" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="C259" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="D259" s="18" t="s">
+      <c r="D259" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="E259" s="20">
-        <v>0</v>
-      </c>
-      <c r="F259" s="20">
-        <v>1</v>
-      </c>
-      <c r="G259" s="20">
-        <v>1</v>
-      </c>
-      <c r="I259" s="18" t="s">
+      <c r="E259" s="19">
+        <v>0</v>
+      </c>
+      <c r="F259" s="19">
+        <v>1</v>
+      </c>
+      <c r="G259" s="19">
+        <v>1</v>
+      </c>
+      <c r="I259" s="17" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="19">
+    <row r="260" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="18">
         <v>259</v>
       </c>
-      <c r="B260" s="18" t="s">
+      <c r="B260" s="17" t="s">
         <v>766</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="C260" s="17" t="s">
         <v>767</v>
       </c>
-      <c r="D260" s="18" t="s">
+      <c r="D260" s="17" t="s">
         <v>768</v>
       </c>
-      <c r="E260" s="20">
-        <v>1</v>
-      </c>
-      <c r="F260" s="20">
-        <v>1</v>
-      </c>
-      <c r="G260" s="20">
-        <v>1</v>
-      </c>
-      <c r="I260" s="18" t="s">
+      <c r="E260" s="19">
+        <v>1</v>
+      </c>
+      <c r="F260" s="19">
+        <v>1</v>
+      </c>
+      <c r="G260" s="19">
+        <v>1</v>
+      </c>
+      <c r="I260" s="17" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="19">
+    <row r="261" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="18">
         <v>260</v>
       </c>
-      <c r="B261" s="18" t="s">
+      <c r="B261" s="17" t="s">
         <v>770</v>
       </c>
-      <c r="C261" s="18" t="s">
+      <c r="C261" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="D261" s="18" t="s">
+      <c r="D261" s="17" t="s">
         <v>772</v>
       </c>
-      <c r="E261" s="20">
-        <v>0</v>
-      </c>
-      <c r="F261" s="20">
-        <v>1</v>
-      </c>
-      <c r="G261" s="20">
-        <v>1</v>
-      </c>
-      <c r="I261" s="18" t="s">
+      <c r="E261" s="19">
+        <v>0</v>
+      </c>
+      <c r="F261" s="19">
+        <v>1</v>
+      </c>
+      <c r="G261" s="19">
+        <v>1</v>
+      </c>
+      <c r="I261" s="17" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="5">
+      <c r="A262" s="18">
         <v>261</v>
       </c>
       <c r="B262" t="s">
@@ -11212,16 +11207,16 @@
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A263" s="5">
+      <c r="A263" s="18">
         <v>262</v>
       </c>
-      <c r="B263" s="18" t="s">
+      <c r="B263" s="17" t="s">
         <v>778</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="D263" s="18" t="s">
+      <c r="D263" s="17" t="s">
         <v>780</v>
       </c>
       <c r="E263">
@@ -11237,279 +11232,279 @@
         <v>645</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="19">
+    <row r="264" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="18">
         <v>263</v>
       </c>
-      <c r="B264" s="18" t="s">
+      <c r="B264" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="C264" s="17" t="s">
         <v>782</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="D264" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="E264" s="20">
-        <v>0</v>
-      </c>
-      <c r="F264" s="20">
-        <v>0</v>
-      </c>
-      <c r="G264" s="20">
-        <v>0</v>
-      </c>
-      <c r="I264" s="18" t="s">
+      <c r="E264" s="19">
+        <v>0</v>
+      </c>
+      <c r="F264" s="19">
+        <v>0</v>
+      </c>
+      <c r="G264" s="19">
+        <v>0</v>
+      </c>
+      <c r="I264" s="17" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="19">
+    <row r="265" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="18">
         <v>264</v>
       </c>
-      <c r="B265" s="18" t="s">
+      <c r="B265" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="C265" s="17" t="s">
         <v>786</v>
       </c>
-      <c r="D265" s="18" t="s">
+      <c r="D265" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="E265" s="20">
-        <v>0</v>
-      </c>
-      <c r="F265" s="20">
-        <v>0</v>
-      </c>
-      <c r="G265" s="20">
-        <v>0</v>
-      </c>
-      <c r="I265" s="18" t="s">
+      <c r="E265" s="19">
+        <v>0</v>
+      </c>
+      <c r="F265" s="19">
+        <v>0</v>
+      </c>
+      <c r="G265" s="19">
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="19">
+    <row r="266" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="18">
         <v>265</v>
       </c>
-      <c r="B266" s="18" t="s">
+      <c r="B266" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="C266" s="18" t="s">
+      <c r="C266" s="17" t="s">
         <v>789</v>
       </c>
-      <c r="D266" s="18" t="s">
+      <c r="D266" s="17" t="s">
         <v>790</v>
       </c>
-      <c r="E266" s="20">
-        <v>0</v>
-      </c>
-      <c r="F266" s="20">
-        <v>0</v>
-      </c>
-      <c r="G266" s="20">
-        <v>0</v>
-      </c>
-      <c r="I266" s="20" t="s">
+      <c r="E266" s="19">
+        <v>0</v>
+      </c>
+      <c r="F266" s="19">
+        <v>0</v>
+      </c>
+      <c r="G266" s="19">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="19">
+    <row r="267" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="18">
         <v>266</v>
       </c>
-      <c r="B267" s="18" t="s">
+      <c r="B267" s="17" t="s">
         <v>792</v>
       </c>
-      <c r="C267" s="18" t="s">
+      <c r="C267" s="17" t="s">
         <v>794</v>
       </c>
-      <c r="D267" s="23" t="s">
+      <c r="D267" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="E267" s="20">
-        <v>0</v>
-      </c>
-      <c r="F267" s="20">
-        <v>0</v>
-      </c>
-      <c r="G267" s="20">
-        <v>0</v>
-      </c>
-      <c r="I267" s="24" t="s">
+      <c r="E267" s="19">
+        <v>0</v>
+      </c>
+      <c r="F267" s="19">
+        <v>0</v>
+      </c>
+      <c r="G267" s="19">
+        <v>0</v>
+      </c>
+      <c r="I267" s="23" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="19">
+    <row r="268" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="18">
         <v>267</v>
       </c>
-      <c r="B268" s="18" t="s">
+      <c r="B268" s="17" t="s">
         <v>796</v>
       </c>
-      <c r="C268" s="18" t="s">
+      <c r="C268" s="17" t="s">
         <v>798</v>
       </c>
-      <c r="D268" s="23" t="s">
+      <c r="D268" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="E268" s="20">
-        <v>0</v>
-      </c>
-      <c r="F268" s="20">
-        <v>0</v>
-      </c>
-      <c r="G268" s="20">
-        <v>0</v>
-      </c>
-      <c r="I268" s="24" t="s">
+      <c r="E268" s="19">
+        <v>0</v>
+      </c>
+      <c r="F268" s="19">
+        <v>0</v>
+      </c>
+      <c r="G268" s="19">
+        <v>0</v>
+      </c>
+      <c r="I268" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="19">
+    <row r="269" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="18">
         <v>268</v>
       </c>
-      <c r="B269" s="18" t="s">
+      <c r="B269" s="17" t="s">
         <v>802</v>
       </c>
-      <c r="C269" s="18" t="s">
+      <c r="C269" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="D269" s="23" t="s">
+      <c r="D269" s="22" t="s">
         <v>801</v>
       </c>
-      <c r="E269" s="20">
-        <v>1</v>
-      </c>
-      <c r="F269" s="20">
-        <v>1</v>
-      </c>
-      <c r="G269" s="20">
-        <v>1</v>
-      </c>
-      <c r="I269" s="24" t="s">
+      <c r="E269" s="19">
+        <v>1</v>
+      </c>
+      <c r="F269" s="19">
+        <v>1</v>
+      </c>
+      <c r="G269" s="19">
+        <v>1</v>
+      </c>
+      <c r="I269" s="23" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="15">
+      <c r="A270" s="18">
         <v>269</v>
       </c>
-      <c r="B270" s="16" t="s">
+      <c r="B270" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="C270" s="16" t="s">
+      <c r="C270" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="D270" s="22" t="s">
+      <c r="D270" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="E270" s="17">
-        <v>1</v>
-      </c>
-      <c r="F270" s="17">
-        <v>1</v>
-      </c>
-      <c r="G270" s="17">
-        <v>1</v>
-      </c>
-      <c r="H270" s="17"/>
-      <c r="I270" s="21" t="s">
+      <c r="E270" s="16">
+        <v>0</v>
+      </c>
+      <c r="F270" s="16">
+        <v>0</v>
+      </c>
+      <c r="G270" s="16">
+        <v>0</v>
+      </c>
+      <c r="H270" s="16"/>
+      <c r="I270" s="20" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="15">
+      <c r="A271" s="18">
         <v>270</v>
       </c>
-      <c r="B271" s="16" t="s">
+      <c r="B271" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="C271" s="16" t="s">
+      <c r="C271" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="D271" s="22" t="s">
+      <c r="D271" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="E271" s="17">
-        <v>0</v>
-      </c>
-      <c r="F271" s="17">
-        <v>0</v>
-      </c>
-      <c r="G271" s="17">
-        <v>0</v>
-      </c>
-      <c r="H271" s="17"/>
-      <c r="I271" s="21" t="s">
+      <c r="E271" s="16">
+        <v>0</v>
+      </c>
+      <c r="F271" s="16">
+        <v>0</v>
+      </c>
+      <c r="G271" s="16">
+        <v>0</v>
+      </c>
+      <c r="H271" s="16"/>
+      <c r="I271" s="20" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="19">
+      <c r="A272" s="18">
         <v>271</v>
       </c>
-      <c r="B272" s="18" t="s">
+      <c r="B272" s="17" t="s">
         <v>809</v>
       </c>
-      <c r="C272" s="18" t="s">
+      <c r="C272" s="17" t="s">
         <v>811</v>
       </c>
-      <c r="D272" s="23" t="s">
+      <c r="D272" s="22" t="s">
         <v>810</v>
       </c>
-      <c r="E272" s="20">
-        <v>1</v>
-      </c>
-      <c r="F272" s="20">
-        <v>1</v>
-      </c>
-      <c r="G272" s="20">
-        <v>1</v>
-      </c>
-      <c r="I272" s="24" t="s">
+      <c r="E272" s="19">
+        <v>1</v>
+      </c>
+      <c r="F272" s="19">
+        <v>1</v>
+      </c>
+      <c r="G272" s="19">
+        <v>1</v>
+      </c>
+      <c r="I272" s="23" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="19">
+      <c r="A273" s="18">
         <v>272</v>
       </c>
-      <c r="B273" s="18" t="s">
+      <c r="B273" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="C273" s="18" t="s">
+      <c r="C273" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="D273" s="23" t="s">
+      <c r="D273" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="E273" s="20">
-        <v>1</v>
-      </c>
-      <c r="F273" s="20">
-        <v>1</v>
-      </c>
-      <c r="G273" s="20">
-        <v>1</v>
-      </c>
-      <c r="I273" s="24" t="s">
+      <c r="E273" s="19">
+        <v>1</v>
+      </c>
+      <c r="F273" s="19">
+        <v>1</v>
+      </c>
+      <c r="G273" s="19">
+        <v>1</v>
+      </c>
+      <c r="I273" s="23" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="19">
+      <c r="A274" s="18">
         <v>273</v>
       </c>
-      <c r="B274" s="18" t="s">
+      <c r="B274" s="17" t="s">
         <v>817</v>
       </c>
-      <c r="C274" s="18" t="s">
+      <c r="C274" s="17" t="s">
         <v>819</v>
       </c>
-      <c r="D274" s="23" t="s">
+      <c r="D274" s="22" t="s">
         <v>818</v>
       </c>
       <c r="E274">
@@ -11521,886 +11516,885 @@
       <c r="G274">
         <v>1</v>
       </c>
-      <c r="I274" s="24" t="s">
+      <c r="I274" s="23" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="19">
+      <c r="A275" s="18">
         <v>274</v>
       </c>
-      <c r="B275" s="18" t="s">
+      <c r="B275" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="C275" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="D275" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="I275" s="23" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A276" s="18">
+        <v>275</v>
+      </c>
+      <c r="B276" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="C276" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="D276" s="40" t="s">
+        <v>826</v>
+      </c>
+      <c r="E276" s="29">
+        <v>1</v>
+      </c>
+      <c r="F276" s="29">
+        <v>1</v>
+      </c>
+      <c r="G276" s="29">
+        <v>1</v>
+      </c>
+      <c r="I276" s="41" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="18">
+        <v>276</v>
+      </c>
+      <c r="B277" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="C277" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="23" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="18">
+        <v>277</v>
+      </c>
+      <c r="B278" s="31" t="s">
+        <v>830</v>
+      </c>
+      <c r="C278" s="31" t="s">
+        <v>920</v>
+      </c>
+      <c r="D278" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="E278" s="33">
+        <v>1</v>
+      </c>
+      <c r="F278" s="33">
+        <v>1</v>
+      </c>
+      <c r="G278" s="33">
+        <v>1</v>
+      </c>
+      <c r="I278" s="31" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="18">
+        <v>278</v>
+      </c>
+      <c r="B279" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="C279" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="D279" s="22" t="s">
+        <v>832</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="I279" s="23" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="18">
+        <v>279</v>
+      </c>
+      <c r="B280" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="C280" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="23" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="18">
+        <v>280</v>
+      </c>
+      <c r="B281" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="C281" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="D281" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="I281" s="23" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="18">
+        <v>281</v>
+      </c>
+      <c r="B282" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="C282" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="D282" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="I282" s="23" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="18">
+        <v>282</v>
+      </c>
+      <c r="B283" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="C283" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="D283" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="23" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A284" s="18">
+        <v>283</v>
+      </c>
+      <c r="B284" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="C284" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="D284" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="23" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="18">
+        <v>284</v>
+      </c>
+      <c r="B285" s="25" t="s">
+        <v>855</v>
+      </c>
+      <c r="C285" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="D285" s="25" t="s">
         <v>854</v>
       </c>
-      <c r="C275" s="18" t="s">
-        <v>820</v>
-      </c>
-      <c r="D275" s="23" t="s">
-        <v>821</v>
-      </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
-      </c>
-      <c r="G275">
-        <v>0</v>
-      </c>
-      <c r="I275" s="24" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="19">
-        <v>275</v>
-      </c>
-      <c r="B276" s="18" t="s">
-        <v>825</v>
-      </c>
-      <c r="C276" s="18" t="s">
-        <v>824</v>
-      </c>
-      <c r="D276" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276">
-        <v>0</v>
-      </c>
-      <c r="G276">
-        <v>0</v>
-      </c>
-      <c r="I276" s="24" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="19">
-        <v>276</v>
-      </c>
-      <c r="B277" s="18" t="s">
-        <v>828</v>
-      </c>
-      <c r="C277" s="18" t="s">
-        <v>829</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="24" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="33">
-        <v>277</v>
-      </c>
-      <c r="B278" s="34" t="s">
-        <v>831</v>
-      </c>
-      <c r="C278" s="34" t="s">
-        <v>921</v>
-      </c>
-      <c r="D278" s="35" t="s">
-        <v>832</v>
-      </c>
-      <c r="E278" s="36">
-        <v>1</v>
-      </c>
-      <c r="F278" s="36">
-        <v>1</v>
-      </c>
-      <c r="G278" s="36">
-        <v>1</v>
-      </c>
-      <c r="I278" s="34" t="s">
+      <c r="E285" s="26">
+        <v>1</v>
+      </c>
+      <c r="F285" s="26">
+        <v>1</v>
+      </c>
+      <c r="G285" s="26">
+        <v>1</v>
+      </c>
+      <c r="I285" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="18">
+        <v>285</v>
+      </c>
+      <c r="B286" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="C286" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="D286" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="23" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="18">
+        <v>286</v>
+      </c>
+      <c r="B287" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="C287" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="D287" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="I287" s="23" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="18">
+        <v>287</v>
+      </c>
+      <c r="B288" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="C288" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="D288" s="22" t="s">
+        <v>867</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="I288" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="18">
+        <v>288</v>
+      </c>
+      <c r="B289" s="30" t="s">
+        <v>869</v>
+      </c>
+      <c r="C289" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="D289" s="30" t="s">
+        <v>872</v>
+      </c>
+      <c r="E289" s="29">
+        <v>1</v>
+      </c>
+      <c r="F289" s="29">
+        <v>1</v>
+      </c>
+      <c r="G289" s="29">
+        <v>1</v>
+      </c>
+      <c r="I289" s="30" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="18">
+        <v>289</v>
+      </c>
+      <c r="B290" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="C290" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="D290" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="I290" s="23" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="18">
+        <v>290</v>
+      </c>
+      <c r="B291" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="C291" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="D291" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" s="23" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="18">
+        <v>291</v>
+      </c>
+      <c r="B292" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="C292" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="D292" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" s="23" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="18">
+        <v>292</v>
+      </c>
+      <c r="B293" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="C293" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="D293" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="I293" s="23" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="18">
+        <v>293</v>
+      </c>
+      <c r="B294" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="C294" s="17" t="s">
+        <v>890</v>
+      </c>
+      <c r="D294" s="24" t="s">
+        <v>887</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="I294" s="23" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A295" s="18">
+        <v>294</v>
+      </c>
+      <c r="B295" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="C295" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="D295" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="I295" s="23" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="18">
+        <v>295</v>
+      </c>
+      <c r="B296" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="C296" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="D296" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="I296" s="23" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="18">
+        <v>296</v>
+      </c>
+      <c r="B297" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="C297" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="D297" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="I297" s="17" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="18">
+        <v>297</v>
+      </c>
+      <c r="B298" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="C298" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="D298" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="I298" s="17" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="18">
+        <v>298</v>
+      </c>
+      <c r="B299" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="C299" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="D299" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="I299" s="17" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="18">
+        <v>299</v>
+      </c>
+      <c r="B300" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="C300" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="D300" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="I300" s="23" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="18">
+        <v>300</v>
+      </c>
+      <c r="B301" s="34" t="s">
+        <v>913</v>
+      </c>
+      <c r="C301" s="35" t="s">
+        <v>914</v>
+      </c>
+      <c r="D301" s="34" t="s">
+        <v>915</v>
+      </c>
+      <c r="E301" s="36">
+        <v>1</v>
+      </c>
+      <c r="F301" s="36">
+        <v>1</v>
+      </c>
+      <c r="G301" s="36">
+        <v>1</v>
+      </c>
+      <c r="I301" s="37" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="18">
+        <v>301</v>
+      </c>
+      <c r="B302" s="34" t="s">
+        <v>919</v>
+      </c>
+      <c r="C302" s="35" t="s">
+        <v>917</v>
+      </c>
+      <c r="D302" s="34" t="s">
+        <v>918</v>
+      </c>
+      <c r="E302" s="36">
+        <v>0</v>
+      </c>
+      <c r="F302" s="36">
+        <v>0</v>
+      </c>
+      <c r="G302" s="36">
+        <v>0</v>
+      </c>
+      <c r="I302" s="37" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="18">
+        <v>302</v>
+      </c>
+      <c r="B303" s="34" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="19">
-        <v>278</v>
-      </c>
-      <c r="B279" s="18" t="s">
-        <v>841</v>
-      </c>
-      <c r="C279" s="18" t="s">
-        <v>845</v>
-      </c>
-      <c r="D279" s="23" t="s">
-        <v>833</v>
-      </c>
-      <c r="E279">
-        <v>1</v>
-      </c>
-      <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="G279">
-        <v>1</v>
-      </c>
-      <c r="I279" s="24" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="19">
-        <v>279</v>
-      </c>
-      <c r="B280" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="19">
-        <v>280</v>
-      </c>
-      <c r="B281" s="18" t="s">
-        <v>840</v>
-      </c>
-      <c r="C281" s="18" t="s">
-        <v>843</v>
-      </c>
-      <c r="D281" s="23" t="s">
-        <v>838</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-      <c r="I281" s="24" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="19">
-        <v>281</v>
-      </c>
-      <c r="B282" s="18" t="s">
-        <v>842</v>
-      </c>
-      <c r="C282" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="D282" s="23" t="s">
-        <v>839</v>
-      </c>
-      <c r="E282">
-        <v>1</v>
-      </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-      <c r="G282">
-        <v>1</v>
-      </c>
-      <c r="I282" s="24" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="19">
-        <v>282</v>
-      </c>
-      <c r="B283" s="18" t="s">
-        <v>852</v>
-      </c>
-      <c r="C283" s="18" t="s">
-        <v>846</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>853</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="24" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="19">
-        <v>283</v>
-      </c>
-      <c r="B284" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="C284" s="18" t="s">
-        <v>849</v>
-      </c>
-      <c r="D284" s="23" t="s">
-        <v>850</v>
-      </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="26">
-        <v>284</v>
-      </c>
-      <c r="B285" s="27" t="s">
-        <v>856</v>
-      </c>
-      <c r="C285" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="D285" s="27" t="s">
-        <v>855</v>
-      </c>
-      <c r="E285" s="28">
-        <v>1</v>
-      </c>
-      <c r="F285" s="28">
-        <v>1</v>
-      </c>
-      <c r="G285" s="28">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
+      <c r="C303" s="35" t="s">
+        <v>923</v>
+      </c>
+      <c r="E303" s="36">
+        <v>1</v>
+      </c>
+      <c r="F303" s="36">
+        <v>1</v>
+      </c>
+      <c r="G303" s="36">
+        <v>1</v>
+      </c>
+      <c r="I303" s="37" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="18">
+        <v>303</v>
+      </c>
+      <c r="B304" s="34" t="s">
+        <v>925</v>
+      </c>
+      <c r="C304" s="35" t="s">
+        <v>924</v>
+      </c>
+      <c r="D304" s="34" t="s">
+        <v>926</v>
+      </c>
+      <c r="E304" s="36">
+        <v>1</v>
+      </c>
+      <c r="F304" s="36">
+        <v>1</v>
+      </c>
+      <c r="G304" s="36">
+        <v>1</v>
+      </c>
+      <c r="I304" s="37" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="18">
+        <v>304</v>
+      </c>
+      <c r="B305" s="34" t="s">
+        <v>927</v>
+      </c>
+      <c r="C305" s="35" t="s">
+        <v>941</v>
+      </c>
+      <c r="D305" s="34" t="s">
+        <v>928</v>
+      </c>
+      <c r="E305" s="36">
+        <v>1</v>
+      </c>
+      <c r="F305" s="36">
+        <v>1</v>
+      </c>
+      <c r="G305" s="36">
+        <v>1</v>
+      </c>
+      <c r="I305" s="37" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A306" s="18">
+        <v>305</v>
+      </c>
+      <c r="B306" s="40" t="s">
+        <v>930</v>
+      </c>
+      <c r="C306" s="30" t="s">
+        <v>939</v>
+      </c>
+      <c r="D306" s="40" t="s">
+        <v>931</v>
+      </c>
+      <c r="E306" s="29">
+        <v>1</v>
+      </c>
+      <c r="F306" s="29">
+        <v>1</v>
+      </c>
+      <c r="G306" s="29">
+        <v>1</v>
+      </c>
+      <c r="I306" s="41" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="18">
+        <v>306</v>
+      </c>
+      <c r="B307" s="38" t="s">
+        <v>932</v>
+      </c>
+      <c r="C307" s="39" t="s">
+        <v>934</v>
+      </c>
+      <c r="D307" s="38" t="s">
+        <v>933</v>
+      </c>
+      <c r="E307" s="2">
+        <v>1</v>
+      </c>
+      <c r="F307" s="2">
+        <v>1</v>
+      </c>
+      <c r="G307" s="2">
+        <v>1</v>
+      </c>
+      <c r="H307" s="2"/>
+      <c r="I307" s="39" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A308" s="18">
+        <v>307</v>
+      </c>
+      <c r="B308" s="38" t="s">
+        <v>935</v>
+      </c>
+      <c r="C308" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="D308" s="38" t="s">
+        <v>936</v>
+      </c>
+      <c r="E308" s="2">
+        <v>1</v>
+      </c>
+      <c r="F308" s="2">
+        <v>1</v>
+      </c>
+      <c r="G308" s="2">
+        <v>1</v>
+      </c>
+      <c r="H308" s="2"/>
+      <c r="I308" s="37" t="s">
         <v>645</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="19">
-        <v>285</v>
-      </c>
-      <c r="B286" s="18" t="s">
-        <v>859</v>
-      </c>
-      <c r="C286" s="18" t="s">
-        <v>860</v>
-      </c>
-      <c r="D286" s="23" t="s">
-        <v>861</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="19">
-        <v>286</v>
-      </c>
-      <c r="B287" s="18" t="s">
-        <v>864</v>
-      </c>
-      <c r="C287" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="D287" s="23" t="s">
-        <v>863</v>
-      </c>
-      <c r="E287">
-        <v>1</v>
-      </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-      <c r="G287">
-        <v>1</v>
-      </c>
-      <c r="I287" s="24" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="19">
-        <v>287</v>
-      </c>
-      <c r="B288" s="18" t="s">
-        <v>866</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>867</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>868</v>
-      </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="I288" s="24" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="19">
-        <v>288</v>
-      </c>
-      <c r="B289" s="32" t="s">
-        <v>870</v>
-      </c>
-      <c r="C289" s="32" t="s">
-        <v>872</v>
-      </c>
-      <c r="D289" s="32" t="s">
-        <v>873</v>
-      </c>
-      <c r="E289" s="31">
-        <v>1</v>
-      </c>
-      <c r="F289" s="31">
-        <v>1</v>
-      </c>
-      <c r="G289" s="31">
-        <v>1</v>
-      </c>
-      <c r="I289" s="32" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="19">
-        <v>289</v>
-      </c>
-      <c r="B290" s="18" t="s">
-        <v>874</v>
-      </c>
-      <c r="C290" s="18" t="s">
-        <v>875</v>
-      </c>
-      <c r="D290" s="23" t="s">
-        <v>876</v>
-      </c>
-      <c r="E290">
-        <v>1</v>
-      </c>
-      <c r="F290">
-        <v>1</v>
-      </c>
-      <c r="G290">
-        <v>1</v>
-      </c>
-      <c r="I290" s="24" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="19">
-        <v>290</v>
-      </c>
-      <c r="B291" s="25" t="s">
-        <v>878</v>
-      </c>
-      <c r="C291" s="18" t="s">
-        <v>879</v>
-      </c>
-      <c r="D291" s="25" t="s">
-        <v>880</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" s="24" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="19">
-        <v>291</v>
-      </c>
-      <c r="B292" s="25" t="s">
-        <v>882</v>
-      </c>
-      <c r="C292" s="18" t="s">
-        <v>883</v>
-      </c>
-      <c r="D292" s="25" t="s">
-        <v>884</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" s="24" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="19">
-        <v>292</v>
-      </c>
-      <c r="B293" s="25" t="s">
-        <v>885</v>
-      </c>
-      <c r="C293" s="18" t="s">
-        <v>890</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>887</v>
-      </c>
-      <c r="E293">
-        <v>1</v>
-      </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-      <c r="I293" s="24" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A294" s="19">
-        <v>293</v>
-      </c>
-      <c r="B294" s="25" t="s">
-        <v>886</v>
-      </c>
-      <c r="C294" s="18" t="s">
-        <v>891</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>888</v>
-      </c>
-      <c r="E294">
-        <v>1</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-      <c r="I294" s="24" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="19">
-        <v>294</v>
-      </c>
-      <c r="B295" s="25" t="s">
-        <v>892</v>
-      </c>
-      <c r="C295" s="18" t="s">
-        <v>893</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>894</v>
-      </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295">
-        <v>1</v>
-      </c>
-      <c r="G295">
-        <v>1</v>
-      </c>
-      <c r="I295" s="24" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="19">
-        <v>295</v>
-      </c>
-      <c r="B296" s="25" t="s">
-        <v>895</v>
-      </c>
-      <c r="C296" s="18" t="s">
-        <v>896</v>
-      </c>
-      <c r="D296" s="25" t="s">
-        <v>897</v>
-      </c>
-      <c r="E296">
-        <v>1</v>
-      </c>
-      <c r="F296">
-        <v>1</v>
-      </c>
-      <c r="G296">
-        <v>1</v>
-      </c>
-      <c r="I296" s="24" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="19">
-        <v>296</v>
-      </c>
-      <c r="B297" s="25" t="s">
-        <v>898</v>
-      </c>
-      <c r="C297" s="18" t="s">
-        <v>899</v>
-      </c>
-      <c r="D297" s="25" t="s">
-        <v>901</v>
-      </c>
-      <c r="E297">
-        <v>0</v>
-      </c>
-      <c r="F297">
-        <v>0</v>
-      </c>
-      <c r="G297">
-        <v>0</v>
-      </c>
-      <c r="I297" s="18" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="19">
-        <v>297</v>
-      </c>
-      <c r="B298" s="25" t="s">
-        <v>903</v>
-      </c>
-      <c r="C298" s="18" t="s">
-        <v>900</v>
-      </c>
-      <c r="D298" s="25" t="s">
-        <v>902</v>
-      </c>
-      <c r="E298">
-        <v>0</v>
-      </c>
-      <c r="F298">
-        <v>0</v>
-      </c>
-      <c r="G298">
-        <v>0</v>
-      </c>
-      <c r="I298" s="18" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="19">
-        <v>298</v>
-      </c>
-      <c r="B299" s="25" t="s">
-        <v>904</v>
-      </c>
-      <c r="C299" s="18" t="s">
-        <v>905</v>
-      </c>
-      <c r="D299" s="25" t="s">
-        <v>906</v>
-      </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299">
-        <v>0</v>
-      </c>
-      <c r="G299">
-        <v>0</v>
-      </c>
-      <c r="I299" s="18" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="19">
-        <v>299</v>
-      </c>
-      <c r="B300" s="25" t="s">
-        <v>907</v>
-      </c>
-      <c r="C300" s="18" t="s">
-        <v>908</v>
-      </c>
-      <c r="D300" s="25" t="s">
-        <v>909</v>
-      </c>
-      <c r="E300">
-        <v>1</v>
-      </c>
-      <c r="F300">
-        <v>1</v>
-      </c>
-      <c r="G300">
-        <v>1</v>
-      </c>
-      <c r="I300" s="24" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="19">
-        <v>300</v>
-      </c>
-      <c r="B301" s="37" t="s">
-        <v>914</v>
-      </c>
-      <c r="C301" s="38" t="s">
-        <v>915</v>
-      </c>
-      <c r="D301" s="37" t="s">
-        <v>916</v>
-      </c>
-      <c r="E301" s="39">
-        <v>1</v>
-      </c>
-      <c r="F301" s="39">
-        <v>1</v>
-      </c>
-      <c r="G301" s="39">
-        <v>1</v>
-      </c>
-      <c r="I301" s="40" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="19">
-        <v>301</v>
-      </c>
-      <c r="B302" s="37" t="s">
-        <v>920</v>
-      </c>
-      <c r="C302" s="38" t="s">
-        <v>918</v>
-      </c>
-      <c r="D302" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="E302" s="39">
-        <v>0</v>
-      </c>
-      <c r="F302" s="39">
-        <v>0</v>
-      </c>
-      <c r="G302" s="39">
-        <v>0</v>
-      </c>
-      <c r="I302" s="40" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="19">
-        <v>302</v>
-      </c>
-      <c r="B303" s="37" t="s">
-        <v>923</v>
-      </c>
-      <c r="C303" s="38" t="s">
-        <v>924</v>
-      </c>
-      <c r="E303" s="39">
-        <v>1</v>
-      </c>
-      <c r="F303" s="39">
-        <v>1</v>
-      </c>
-      <c r="G303" s="39">
-        <v>1</v>
-      </c>
-      <c r="I303" s="40" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A304" s="19">
-        <v>303</v>
-      </c>
-      <c r="B304" s="37" t="s">
-        <v>926</v>
-      </c>
-      <c r="C304" s="38" t="s">
-        <v>925</v>
-      </c>
-      <c r="D304" s="37" t="s">
-        <v>927</v>
-      </c>
-      <c r="E304" s="39">
-        <v>1</v>
-      </c>
-      <c r="F304" s="39">
-        <v>1</v>
-      </c>
-      <c r="G304" s="39">
-        <v>1</v>
-      </c>
-      <c r="I304" s="40" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A305" s="19">
-        <v>304</v>
-      </c>
-      <c r="B305" s="37" t="s">
-        <v>928</v>
-      </c>
-      <c r="C305" s="38" t="s">
-        <v>941</v>
-      </c>
-      <c r="D305" s="37" t="s">
-        <v>929</v>
-      </c>
-      <c r="E305" s="39">
-        <v>1</v>
-      </c>
-      <c r="F305" s="39">
-        <v>1</v>
-      </c>
-      <c r="G305" s="39">
-        <v>1</v>
-      </c>
-      <c r="I305" s="40" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A306" s="19">
-        <v>305</v>
-      </c>
-      <c r="B306" s="41" t="s">
-        <v>931</v>
-      </c>
-      <c r="C306" s="42" t="s">
-        <v>932</v>
-      </c>
-      <c r="D306" s="41" t="s">
-        <v>933</v>
-      </c>
-      <c r="E306" s="2">
-        <v>1</v>
-      </c>
-      <c r="F306" s="2">
-        <v>1</v>
-      </c>
-      <c r="G306" s="2">
-        <v>1</v>
-      </c>
-      <c r="H306" s="2"/>
-      <c r="I306" s="42" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A307" s="19">
-        <v>306</v>
-      </c>
-      <c r="B307" s="41" t="s">
-        <v>935</v>
-      </c>
-      <c r="C307" s="42" t="s">
-        <v>937</v>
-      </c>
-      <c r="D307" s="41" t="s">
-        <v>936</v>
-      </c>
-      <c r="E307" s="2">
-        <v>1</v>
-      </c>
-      <c r="F307" s="2">
-        <v>1</v>
-      </c>
-      <c r="G307" s="2">
-        <v>1</v>
-      </c>
-      <c r="H307" s="2"/>
-      <c r="I307" s="42" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A308" s="19">
-        <v>307</v>
-      </c>
-      <c r="B308" s="41" t="s">
-        <v>938</v>
-      </c>
-      <c r="C308" s="41" t="s">
-        <v>940</v>
-      </c>
-      <c r="D308" s="41" t="s">
-        <v>939</v>
-      </c>
-      <c r="E308" s="2">
-        <v>1</v>
-      </c>
-      <c r="F308" s="2">
-        <v>1</v>
-      </c>
-      <c r="G308" s="2">
-        <v>1</v>
-      </c>
-      <c r="H308" s="2"/>
-      <c r="I308" s="42" t="s">
-        <v>934</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="949">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3214,15 +3214,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>节日特惠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_025_JRTHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3879,14 +3871,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_038_s12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二页签</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>双12礼盒掉落</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3923,10 +3907,6 @@
     <t>Act_039_JZSJBManager</t>
   </si>
   <si>
-    <t>饺子收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_039_ty_by_drop</t>
   </si>
   <si>
@@ -3939,12 +3919,58 @@
     <t>12月28日23:59:59</t>
   </si>
   <si>
-    <t>饺子换好礼→圣诞福利</t>
+    <t>cjj互导</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_040_BY_AND_CJJ_TO_DDZ_CONDUCTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏互导向斗地主</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_040_by_and_cjj_to_ddz_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠→金牛幸运宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月4日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二页签→元旦活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>12月21</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -3955,12 +3981,42 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>日23:59:59</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>cjj互导</t>
+    <t>饺子收集榜 → 金元宝榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利→元旦好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_013_DLFLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_040_ydfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4052,7 +4108,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4101,6 +4157,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4133,7 +4201,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4251,9 +4319,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4262,6 +4327,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4540,13 +4623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I308"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F270" sqref="F270"/>
+      <selection pane="bottomRight" activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4563,7 +4646,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5238,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8512,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10512,7 +10595,7 @@
         <v>668</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>669</v>
@@ -11050,30 +11133,30 @@
         <v>754</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="18">
+    <row r="257" spans="1:9" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="42">
         <v>256</v>
       </c>
-      <c r="B257" s="17" t="s">
+      <c r="B257" s="43" t="s">
         <v>755</v>
       </c>
-      <c r="C257" s="17" t="s">
+      <c r="C257" s="43" t="s">
+        <v>939</v>
+      </c>
+      <c r="D257" s="43" t="s">
         <v>756</v>
       </c>
-      <c r="D257" s="17" t="s">
-        <v>757</v>
-      </c>
-      <c r="E257" s="19">
-        <v>0</v>
-      </c>
-      <c r="F257" s="19">
-        <v>1</v>
-      </c>
-      <c r="G257" s="19">
-        <v>1</v>
-      </c>
-      <c r="I257" s="17" t="s">
-        <v>758</v>
+      <c r="E257" s="44">
+        <v>1</v>
+      </c>
+      <c r="F257" s="44">
+        <v>1</v>
+      </c>
+      <c r="G257" s="44">
+        <v>1</v>
+      </c>
+      <c r="I257" s="31" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11081,13 +11164,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="17" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C258" s="17" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E258" s="19">
         <v>0</v>
@@ -11099,7 +11182,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="17" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11107,14 +11190,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="C259" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="D259" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="C259" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="D259" s="17" t="s">
-        <v>765</v>
-      </c>
       <c r="E259" s="19">
         <v>0</v>
       </c>
@@ -11125,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="17" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11133,25 +11216,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="C260" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="D260" s="17" t="s">
         <v>766</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="E260" s="19">
+        <v>1</v>
+      </c>
+      <c r="F260" s="19">
+        <v>1</v>
+      </c>
+      <c r="G260" s="19">
+        <v>1</v>
+      </c>
+      <c r="I260" s="17" t="s">
         <v>767</v>
-      </c>
-      <c r="D260" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="E260" s="19">
-        <v>1</v>
-      </c>
-      <c r="F260" s="19">
-        <v>1</v>
-      </c>
-      <c r="G260" s="19">
-        <v>1</v>
-      </c>
-      <c r="I260" s="17" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11159,25 +11242,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="C261" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D261" s="17" t="s">
         <v>770</v>
       </c>
-      <c r="C261" s="17" t="s">
+      <c r="E261" s="19">
+        <v>0</v>
+      </c>
+      <c r="F261" s="19">
+        <v>1</v>
+      </c>
+      <c r="G261" s="19">
+        <v>1</v>
+      </c>
+      <c r="I261" s="17" t="s">
         <v>771</v>
-      </c>
-      <c r="D261" s="17" t="s">
-        <v>772</v>
-      </c>
-      <c r="E261" s="19">
-        <v>0</v>
-      </c>
-      <c r="F261" s="19">
-        <v>1</v>
-      </c>
-      <c r="G261" s="19">
-        <v>1</v>
-      </c>
-      <c r="I261" s="17" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11185,25 +11268,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>772</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D262" t="s">
+        <v>773</v>
+      </c>
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>774</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="D262" t="s">
-        <v>775</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11211,13 +11294,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="D263" s="17" t="s">
         <v>778</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="D263" s="17" t="s">
-        <v>780</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11237,25 +11320,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="C264" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="D264" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="C264" s="17" t="s">
+      <c r="E264" s="19">
+        <v>0</v>
+      </c>
+      <c r="F264" s="19">
+        <v>0</v>
+      </c>
+      <c r="G264" s="19">
+        <v>0</v>
+      </c>
+      <c r="I264" s="17" t="s">
         <v>782</v>
-      </c>
-      <c r="D264" s="17" t="s">
-        <v>783</v>
-      </c>
-      <c r="E264" s="19">
-        <v>0</v>
-      </c>
-      <c r="F264" s="19">
-        <v>0</v>
-      </c>
-      <c r="G264" s="19">
-        <v>0</v>
-      </c>
-      <c r="I264" s="17" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11263,13 +11346,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="C265" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="D265" s="17" t="s">
         <v>785</v>
-      </c>
-      <c r="C265" s="17" t="s">
-        <v>786</v>
-      </c>
-      <c r="D265" s="17" t="s">
-        <v>787</v>
       </c>
       <c r="E265" s="19">
         <v>0</v>
@@ -11289,25 +11372,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="C266" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="D266" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="E266" s="19">
+        <v>0</v>
+      </c>
+      <c r="F266" s="19">
+        <v>0</v>
+      </c>
+      <c r="G266" s="19">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>789</v>
-      </c>
-      <c r="D266" s="17" t="s">
-        <v>790</v>
-      </c>
-      <c r="E266" s="19">
-        <v>0</v>
-      </c>
-      <c r="F266" s="19">
-        <v>0</v>
-      </c>
-      <c r="G266" s="19">
-        <v>0</v>
-      </c>
-      <c r="I266" s="19" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11315,25 +11398,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="C267" s="17" t="s">
         <v>792</v>
       </c>
-      <c r="C267" s="17" t="s">
-        <v>794</v>
-      </c>
       <c r="D267" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="E267" s="19">
+        <v>0</v>
+      </c>
+      <c r="F267" s="19">
+        <v>0</v>
+      </c>
+      <c r="G267" s="19">
+        <v>0</v>
+      </c>
+      <c r="I267" s="23" t="s">
         <v>793</v>
-      </c>
-      <c r="E267" s="19">
-        <v>0</v>
-      </c>
-      <c r="F267" s="19">
-        <v>0</v>
-      </c>
-      <c r="G267" s="19">
-        <v>0</v>
-      </c>
-      <c r="I267" s="23" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11341,13 +11424,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="C268" s="17" t="s">
         <v>796</v>
       </c>
-      <c r="C268" s="17" t="s">
-        <v>798</v>
-      </c>
       <c r="D268" s="22" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E268" s="19">
         <v>0</v>
@@ -11367,13 +11450,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="17" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C269" s="17" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D269" s="22" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E269" s="19">
         <v>1</v>
@@ -11393,13 +11476,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E270" s="16">
         <v>0</v>
@@ -11420,13 +11503,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D271" s="21" t="s">
         <v>805</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>806</v>
-      </c>
-      <c r="D271" s="21" t="s">
-        <v>807</v>
       </c>
       <c r="E271" s="16">
         <v>0</v>
@@ -11447,25 +11530,25 @@
         <v>271</v>
       </c>
       <c r="B272" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="C272" s="17" t="s">
         <v>809</v>
       </c>
-      <c r="C272" s="17" t="s">
-        <v>811</v>
-      </c>
       <c r="D272" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="E272" s="19">
+        <v>1</v>
+      </c>
+      <c r="F272" s="19">
+        <v>1</v>
+      </c>
+      <c r="G272" s="19">
+        <v>1</v>
+      </c>
+      <c r="I272" s="23" t="s">
         <v>810</v>
-      </c>
-      <c r="E272" s="19">
-        <v>1</v>
-      </c>
-      <c r="F272" s="19">
-        <v>1</v>
-      </c>
-      <c r="G272" s="19">
-        <v>1</v>
-      </c>
-      <c r="I272" s="23" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11473,14 +11556,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="C273" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="D273" s="22" t="s">
         <v>813</v>
       </c>
-      <c r="C273" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="D273" s="22" t="s">
-        <v>815</v>
-      </c>
       <c r="E273" s="19">
         <v>1</v>
       </c>
@@ -11491,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="23" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11499,13 +11582,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="C274" s="17" t="s">
         <v>817</v>
       </c>
-      <c r="C274" s="17" t="s">
-        <v>819</v>
-      </c>
       <c r="D274" s="22" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -11517,7 +11600,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="23" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11525,25 +11608,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="17" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D275" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="I275" s="23" t="s">
         <v>821</v>
-      </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
-      </c>
-      <c r="G275">
-        <v>0</v>
-      </c>
-      <c r="I275" s="23" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
@@ -11551,14 +11634,14 @@
         <v>275</v>
       </c>
       <c r="B276" s="30" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C276" s="30" t="s">
+        <v>822</v>
+      </c>
+      <c r="D276" s="39" t="s">
         <v>824</v>
       </c>
-      <c r="D276" s="40" t="s">
-        <v>826</v>
-      </c>
       <c r="E276" s="29">
         <v>1</v>
       </c>
@@ -11568,8 +11651,8 @@
       <c r="G276" s="29">
         <v>1</v>
       </c>
-      <c r="I276" s="41" t="s">
-        <v>938</v>
+      <c r="I276" s="40" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11577,22 +11660,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="C277" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="23" t="s">
         <v>827</v>
-      </c>
-      <c r="C277" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="23" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11600,25 +11683,25 @@
         <v>277</v>
       </c>
       <c r="B278" s="31" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C278" s="31" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D278" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="E278" s="33">
-        <v>1</v>
-      </c>
-      <c r="F278" s="33">
-        <v>1</v>
-      </c>
-      <c r="G278" s="33">
-        <v>1</v>
+        <v>829</v>
+      </c>
+      <c r="E278" s="47">
+        <v>0</v>
+      </c>
+      <c r="F278" s="47">
+        <v>0</v>
+      </c>
+      <c r="G278" s="47">
+        <v>0</v>
       </c>
       <c r="I278" s="31" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11626,13 +11709,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C279" s="17" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D279" s="22" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -11644,7 +11727,7 @@
         <v>1</v>
       </c>
       <c r="I279" s="23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11652,22 +11735,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="17" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C280" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="23" t="s">
         <v>834</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="23" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11675,13 +11758,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="17" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C281" s="17" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D281" s="22" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11693,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="23" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11701,13 +11784,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="C282" s="17" t="s">
         <v>841</v>
       </c>
-      <c r="C282" s="17" t="s">
-        <v>843</v>
-      </c>
       <c r="D282" s="22" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -11719,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="23" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11727,13 +11810,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="17" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D283" s="22" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -11745,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="23" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11753,25 +11836,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="C284" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="D284" s="22" t="s">
         <v>847</v>
       </c>
-      <c r="C284" s="17" t="s">
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="23" t="s">
         <v>848</v>
-      </c>
-      <c r="D284" s="22" t="s">
-        <v>849</v>
-      </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="23" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11779,13 +11862,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="25" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C285" s="28" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E285" s="26">
         <v>1</v>
@@ -11805,25 +11888,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="C286" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="D286" s="22" t="s">
         <v>858</v>
       </c>
-      <c r="C286" s="17" t="s">
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="23" t="s">
         <v>859</v>
-      </c>
-      <c r="D286" s="22" t="s">
-        <v>860</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="23" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11831,13 +11914,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D287" s="22" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11857,25 +11940,25 @@
         <v>287</v>
       </c>
       <c r="B288" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="C288" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="D288" s="22" t="s">
         <v>865</v>
       </c>
-      <c r="C288" s="17" t="s">
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="I288" s="23" t="s">
         <v>866</v>
-      </c>
-      <c r="D288" s="22" t="s">
-        <v>867</v>
-      </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="I288" s="23" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11883,25 +11966,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="C289" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="C289" s="30" t="s">
-        <v>871</v>
-      </c>
       <c r="D289" s="30" t="s">
-        <v>872</v>
-      </c>
-      <c r="E289" s="29">
-        <v>1</v>
-      </c>
-      <c r="F289" s="29">
-        <v>1</v>
-      </c>
-      <c r="G289" s="29">
-        <v>1</v>
+        <v>870</v>
+      </c>
+      <c r="E289" s="47">
+        <v>0</v>
+      </c>
+      <c r="F289" s="47">
+        <v>0</v>
+      </c>
+      <c r="G289" s="47">
+        <v>0</v>
       </c>
       <c r="I289" s="30" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11909,25 +11992,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="C290" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="D290" s="22" t="s">
         <v>873</v>
       </c>
-      <c r="C290" s="17" t="s">
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="I290" s="23" t="s">
         <v>874</v>
-      </c>
-      <c r="D290" s="22" t="s">
-        <v>875</v>
-      </c>
-      <c r="E290">
-        <v>1</v>
-      </c>
-      <c r="F290">
-        <v>1</v>
-      </c>
-      <c r="G290">
-        <v>1</v>
-      </c>
-      <c r="I290" s="23" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11935,25 +12018,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="C291" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="D291" s="24" t="s">
         <v>877</v>
       </c>
-      <c r="C291" s="17" t="s">
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" s="23" t="s">
         <v>878</v>
-      </c>
-      <c r="D291" s="24" t="s">
-        <v>879</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" s="23" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11961,13 +12044,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="C292" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="D292" s="24" t="s">
         <v>881</v>
-      </c>
-      <c r="C292" s="17" t="s">
-        <v>882</v>
-      </c>
-      <c r="D292" s="24" t="s">
-        <v>883</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -11987,13 +12070,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="C293" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="D293" s="24" t="s">
         <v>884</v>
-      </c>
-      <c r="C293" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="D293" s="24" t="s">
-        <v>886</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -12013,14 +12096,14 @@
         <v>293</v>
       </c>
       <c r="B294" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="C294" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="D294" s="24" t="s">
         <v>885</v>
       </c>
-      <c r="C294" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="D294" s="24" t="s">
-        <v>887</v>
-      </c>
       <c r="E294">
         <v>1</v>
       </c>
@@ -12031,7 +12114,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="23" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12039,13 +12122,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="C295" s="17" t="s">
+        <v>890</v>
+      </c>
+      <c r="D295" s="24" t="s">
         <v>891</v>
-      </c>
-      <c r="C295" s="17" t="s">
-        <v>892</v>
-      </c>
-      <c r="D295" s="24" t="s">
-        <v>893</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -12065,13 +12148,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="C296" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="D296" s="24" t="s">
         <v>894</v>
-      </c>
-      <c r="C296" s="17" t="s">
-        <v>895</v>
-      </c>
-      <c r="D296" s="24" t="s">
-        <v>896</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -12091,14 +12174,14 @@
         <v>296</v>
       </c>
       <c r="B297" s="24" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C297" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="D297" s="24" t="s">
         <v>898</v>
       </c>
-      <c r="D297" s="24" t="s">
-        <v>900</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -12109,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="17" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12117,14 +12200,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="24" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C298" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="D298" s="24" t="s">
         <v>899</v>
       </c>
-      <c r="D298" s="24" t="s">
-        <v>901</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12135,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="17" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12143,14 +12226,14 @@
         <v>298</v>
       </c>
       <c r="B299" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="C299" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="D299" s="24" t="s">
         <v>903</v>
       </c>
-      <c r="C299" s="17" t="s">
-        <v>904</v>
-      </c>
-      <c r="D299" s="24" t="s">
-        <v>905</v>
-      </c>
       <c r="E299">
         <v>0</v>
       </c>
@@ -12161,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="I299" s="17" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12169,25 +12252,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="C300" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="D300" s="24" t="s">
         <v>906</v>
       </c>
-      <c r="C300" s="17" t="s">
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="I300" s="23" t="s">
         <v>907</v>
-      </c>
-      <c r="D300" s="24" t="s">
-        <v>908</v>
-      </c>
-      <c r="E300">
-        <v>1</v>
-      </c>
-      <c r="F300">
-        <v>1</v>
-      </c>
-      <c r="G300">
-        <v>1</v>
-      </c>
-      <c r="I300" s="23" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12195,25 +12278,25 @@
         <v>300</v>
       </c>
       <c r="B301" s="34" t="s">
+        <v>911</v>
+      </c>
+      <c r="C301" s="35" t="s">
+        <v>912</v>
+      </c>
+      <c r="D301" s="34" t="s">
         <v>913</v>
       </c>
-      <c r="C301" s="35" t="s">
+      <c r="E301" s="47">
+        <v>0</v>
+      </c>
+      <c r="F301" s="47">
+        <v>0</v>
+      </c>
+      <c r="G301" s="47">
+        <v>0</v>
+      </c>
+      <c r="I301" s="37" t="s">
         <v>914</v>
-      </c>
-      <c r="D301" s="34" t="s">
-        <v>915</v>
-      </c>
-      <c r="E301" s="36">
-        <v>1</v>
-      </c>
-      <c r="F301" s="36">
-        <v>1</v>
-      </c>
-      <c r="G301" s="36">
-        <v>1</v>
-      </c>
-      <c r="I301" s="37" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12221,25 +12304,25 @@
         <v>301</v>
       </c>
       <c r="B302" s="34" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C302" s="35" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D302" s="34" t="s">
-        <v>918</v>
-      </c>
-      <c r="E302" s="36">
-        <v>0</v>
-      </c>
-      <c r="F302" s="36">
-        <v>0</v>
-      </c>
-      <c r="G302" s="36">
+        <v>916</v>
+      </c>
+      <c r="E302" s="47">
+        <v>0</v>
+      </c>
+      <c r="F302" s="47">
+        <v>0</v>
+      </c>
+      <c r="G302" s="47">
         <v>0</v>
       </c>
       <c r="I302" s="37" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12247,10 +12330,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="34" t="s">
-        <v>922</v>
+        <v>948</v>
       </c>
       <c r="C303" s="35" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="E303" s="36">
         <v>1</v>
@@ -12261,34 +12344,35 @@
       <c r="G303" s="36">
         <v>1</v>
       </c>
-      <c r="I303" s="37" t="s">
-        <v>916</v>
+      <c r="I303" s="35" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <v>303</v>
       </c>
-      <c r="B304" s="34" t="s">
-        <v>925</v>
-      </c>
-      <c r="C304" s="35" t="s">
-        <v>924</v>
-      </c>
-      <c r="D304" s="34" t="s">
-        <v>926</v>
-      </c>
-      <c r="E304" s="36">
-        <v>1</v>
-      </c>
-      <c r="F304" s="36">
-        <v>1</v>
-      </c>
-      <c r="G304" s="36">
-        <v>1</v>
-      </c>
-      <c r="I304" s="37" t="s">
-        <v>916</v>
+      <c r="B304" s="45" t="s">
+        <v>921</v>
+      </c>
+      <c r="C304" s="43" t="s">
+        <v>920</v>
+      </c>
+      <c r="D304" s="45" t="s">
+        <v>922</v>
+      </c>
+      <c r="E304" s="47">
+        <v>0</v>
+      </c>
+      <c r="F304" s="47">
+        <v>0</v>
+      </c>
+      <c r="G304" s="47">
+        <v>0</v>
+      </c>
+      <c r="H304" s="44"/>
+      <c r="I304" s="46" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12296,13 +12380,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="34" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C305" s="35" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="D305" s="34" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E305" s="36">
         <v>1</v>
@@ -12314,59 +12398,60 @@
         <v>1</v>
       </c>
       <c r="I305" s="37" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <v>305</v>
       </c>
-      <c r="B306" s="40" t="s">
-        <v>930</v>
-      </c>
-      <c r="C306" s="30" t="s">
-        <v>939</v>
-      </c>
-      <c r="D306" s="40" t="s">
-        <v>931</v>
-      </c>
-      <c r="E306" s="29">
-        <v>1</v>
-      </c>
-      <c r="F306" s="29">
-        <v>1</v>
-      </c>
-      <c r="G306" s="29">
-        <v>1</v>
-      </c>
-      <c r="I306" s="41" t="s">
-        <v>938</v>
+      <c r="B306" s="45" t="s">
+        <v>926</v>
+      </c>
+      <c r="C306" s="43" t="s">
+        <v>944</v>
+      </c>
+      <c r="D306" s="45" t="s">
+        <v>927</v>
+      </c>
+      <c r="E306" s="44">
+        <v>1</v>
+      </c>
+      <c r="F306" s="44">
+        <v>1</v>
+      </c>
+      <c r="G306" s="44">
+        <v>1</v>
+      </c>
+      <c r="H306" s="44"/>
+      <c r="I306" s="43" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <v>306</v>
       </c>
-      <c r="B307" s="38" t="s">
-        <v>932</v>
-      </c>
-      <c r="C307" s="39" t="s">
-        <v>934</v>
-      </c>
-      <c r="D307" s="38" t="s">
-        <v>933</v>
-      </c>
-      <c r="E307" s="2">
-        <v>1</v>
-      </c>
-      <c r="F307" s="2">
-        <v>1</v>
-      </c>
-      <c r="G307" s="2">
-        <v>1</v>
-      </c>
-      <c r="H307" s="2"/>
-      <c r="I307" s="39" t="s">
+      <c r="B307" s="45" t="s">
+        <v>928</v>
+      </c>
+      <c r="C307" s="43" t="s">
+        <v>943</v>
+      </c>
+      <c r="D307" s="45" t="s">
+        <v>929</v>
+      </c>
+      <c r="E307" s="44">
+        <v>1</v>
+      </c>
+      <c r="F307" s="44">
+        <v>1</v>
+      </c>
+      <c r="G307" s="44">
+        <v>1</v>
+      </c>
+      <c r="H307" s="44"/>
+      <c r="I307" s="43" t="s">
         <v>940</v>
       </c>
     </row>
@@ -12375,13 +12460,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="38" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C308" s="38" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D308" s="38" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="E308" s="2">
         <v>1</v>
@@ -12395,6 +12480,59 @@
       <c r="H308" s="2"/>
       <c r="I308" s="37" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A309" s="18">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>937</v>
+      </c>
+      <c r="C309" t="s">
+        <v>936</v>
+      </c>
+      <c r="D309" t="s">
+        <v>935</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+      <c r="I309" s="37" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A310" s="18">
+        <v>309</v>
+      </c>
+      <c r="B310" s="45" t="s">
+        <v>947</v>
+      </c>
+      <c r="C310" s="43" t="s">
+        <v>945</v>
+      </c>
+      <c r="D310" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="E310" s="44">
+        <v>1</v>
+      </c>
+      <c r="F310" s="44">
+        <v>1</v>
+      </c>
+      <c r="G310" s="44">
+        <v>1</v>
+      </c>
+      <c r="H310" s="44"/>
+      <c r="I310" s="43" t="s">
+        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="958">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3863,14 +3863,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>双十二</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月14日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>双12礼盒掉落</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3895,21 +3887,9 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_jzhhl</t>
-  </si>
-  <si>
-    <t>Act_039_JZHHLManager</t>
-  </si>
-  <si>
-    <t>act_039_jzsjb</t>
-  </si>
-  <si>
     <t>Act_039_JZSJBManager</t>
   </si>
   <si>
-    <t>act_039_ty_by_drop</t>
-  </si>
-  <si>
     <t>Act_039_TYBYDROPManager</t>
   </si>
   <si>
@@ -3947,19 +3927,47 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>双十二页签→元旦活动</t>
+    <t>元旦福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_013_DLFLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_040_ydfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利→元旦好礼→欢乐福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子收集榜 → 金元宝榜→星星收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二页签→元旦活动→欢乐庆典</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二→庆典礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -3967,6 +3975,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3981,13 +3990,14 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6</t>
+      <t>11</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3996,27 +4006,51 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>饺子收集榜 → 金元宝榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>饺子换好礼→圣诞福利→元旦好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_013_DLFLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_040_ydfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12</t>
+    <t>Sys_013_FFYDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_013_ffyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅小游戏版块上浮弹幕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_zp1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_ZP1Manager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--转盘模板（畅玩礼包）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_TY_BY_HHLManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4024,7 +4058,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4107,8 +4141,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4125,18 +4165,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -4160,12 +4188,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4201,7 +4223,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4247,12 +4269,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4260,12 +4276,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4277,73 +4287,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4623,18 +4597,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I310"/>
+  <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C290" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C303" sqref="C303"/>
+      <selection pane="bottomRight" activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="17" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
@@ -4646,7 +4620,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4675,7 +4649,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4701,7 +4675,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4727,7 +4701,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4753,7 +4727,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4779,7 +4753,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4805,7 +4779,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -4831,7 +4805,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4857,7 +4831,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4883,7 +4857,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4909,7 +4883,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -4935,7 +4909,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4961,7 +4935,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -4987,7 +4961,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -5013,7 +4987,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5039,7 +5013,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -5065,7 +5039,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -5091,7 +5065,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -5117,7 +5091,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -5143,7 +5117,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -5169,7 +5143,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5195,7 +5169,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -5221,7 +5195,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -5247,7 +5221,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -5273,7 +5247,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -5299,7 +5273,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5325,7 +5299,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -5351,7 +5325,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+      <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -5377,7 +5351,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5403,7 +5377,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="18">
+      <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -5429,7 +5403,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="18">
+      <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -5455,7 +5429,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="18">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -5481,7 +5455,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="18">
+      <c r="A33" s="16">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -5507,7 +5481,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -5533,7 +5507,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="18">
+      <c r="A35" s="16">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -5559,7 +5533,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="18">
+      <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -5585,7 +5559,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="18">
+      <c r="A37" s="16">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -5611,7 +5585,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="18">
+      <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -5637,7 +5611,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="18">
+      <c r="A39" s="16">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -5663,7 +5637,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="18">
+      <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -5689,7 +5663,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="18">
+      <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -5715,7 +5689,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="18">
+      <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -5741,7 +5715,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="18">
+      <c r="A43" s="16">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -5767,7 +5741,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="18">
+      <c r="A44" s="16">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -5793,7 +5767,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="18">
+      <c r="A45" s="16">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -5819,7 +5793,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="18">
+      <c r="A46" s="16">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -5845,7 +5819,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="18">
+      <c r="A47" s="16">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -5871,7 +5845,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="18">
+      <c r="A48" s="16">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -5897,7 +5871,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="18">
+      <c r="A49" s="16">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -5923,7 +5897,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="18">
+      <c r="A50" s="16">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -5949,7 +5923,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="18">
+      <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -5975,7 +5949,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="18">
+      <c r="A52" s="16">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -5999,7 +5973,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18">
+      <c r="A53" s="16">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -6025,7 +5999,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="18">
+      <c r="A54" s="16">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -6051,7 +6025,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="18">
+      <c r="A55" s="16">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -6077,7 +6051,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="18">
+      <c r="A56" s="16">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -6103,7 +6077,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="18">
+      <c r="A57" s="16">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -6129,7 +6103,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="18">
+      <c r="A58" s="16">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -6155,7 +6129,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="18">
+      <c r="A59" s="16">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -6181,7 +6155,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="18">
+      <c r="A60" s="16">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -6207,7 +6181,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="18">
+      <c r="A61" s="16">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -6233,7 +6207,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="18">
+      <c r="A62" s="16">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -6259,7 +6233,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="18">
+      <c r="A63" s="16">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -6285,7 +6259,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="18">
+      <c r="A64" s="16">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -6311,7 +6285,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="18">
+      <c r="A65" s="16">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -6337,7 +6311,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="18">
+      <c r="A66" s="16">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -6363,7 +6337,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="18">
+      <c r="A67" s="16">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -6389,7 +6363,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="18">
+      <c r="A68" s="16">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -6415,7 +6389,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="18">
+      <c r="A69" s="16">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -6441,7 +6415,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="18">
+      <c r="A70" s="16">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -6467,7 +6441,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="18">
+      <c r="A71" s="16">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -6493,7 +6467,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="18">
+      <c r="A72" s="16">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -6519,7 +6493,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="18">
+      <c r="A73" s="16">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -6545,7 +6519,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="18">
+      <c r="A74" s="16">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -6571,7 +6545,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="18">
+      <c r="A75" s="16">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -6584,20 +6558,20 @@
         <v>222</v>
       </c>
       <c r="E75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="18">
+      <c r="A76" s="16">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -6623,7 +6597,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="18">
+      <c r="A77" s="16">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -6649,7 +6623,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="18">
+      <c r="A78" s="16">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -6675,7 +6649,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="18">
+      <c r="A79" s="16">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -6701,7 +6675,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="18">
+      <c r="A80" s="16">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -6727,7 +6701,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="18">
+      <c r="A81" s="16">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -6753,7 +6727,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="18">
+      <c r="A82" s="16">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -6779,7 +6753,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="18">
+      <c r="A83" s="16">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -6805,7 +6779,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="18">
+      <c r="A84" s="16">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -6831,7 +6805,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="18">
+      <c r="A85" s="16">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -6857,7 +6831,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="18">
+      <c r="A86" s="16">
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -6883,7 +6857,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="18">
+      <c r="A87" s="16">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -6909,7 +6883,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="18">
+      <c r="A88" s="16">
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -6935,7 +6909,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="18">
+      <c r="A89" s="16">
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -6961,7 +6935,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="18">
+      <c r="A90" s="16">
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -6987,7 +6961,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="18">
+      <c r="A91" s="16">
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -7013,7 +6987,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="18">
+      <c r="A92" s="16">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -7039,7 +7013,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="18">
+      <c r="A93" s="16">
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -7065,7 +7039,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="18">
+      <c r="A94" s="16">
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -7091,7 +7065,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="18">
+      <c r="A95" s="16">
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -7117,7 +7091,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="18">
+      <c r="A96" s="16">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -7143,7 +7117,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="18">
+      <c r="A97" s="16">
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -7169,7 +7143,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="18">
+      <c r="A98" s="16">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -7195,7 +7169,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="18">
+      <c r="A99" s="16">
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -7221,7 +7195,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="18">
+      <c r="A100" s="16">
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -7247,7 +7221,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="18">
+      <c r="A101" s="16">
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -7273,7 +7247,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="18">
+      <c r="A102" s="16">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -7299,7 +7273,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="18">
+      <c r="A103" s="16">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -7325,7 +7299,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="18">
+      <c r="A104" s="16">
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -7351,7 +7325,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="18">
+      <c r="A105" s="16">
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -7377,7 +7351,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="18">
+      <c r="A106" s="16">
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -7403,7 +7377,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="18">
+      <c r="A107" s="16">
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -7429,7 +7403,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="18">
+      <c r="A108" s="16">
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -7455,7 +7429,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="18">
+      <c r="A109" s="16">
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -7481,7 +7455,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="18">
+      <c r="A110" s="16">
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -7507,7 +7481,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="18">
+      <c r="A111" s="16">
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -7533,7 +7507,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="18">
+      <c r="A112" s="16">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -7559,7 +7533,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="18">
+      <c r="A113" s="16">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -7585,7 +7559,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="18">
+      <c r="A114" s="16">
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -7611,7 +7585,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="18">
+      <c r="A115" s="16">
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -7637,7 +7611,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="18">
+      <c r="A116" s="16">
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -7663,7 +7637,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="18">
+      <c r="A117" s="16">
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -7689,7 +7663,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="18">
+      <c r="A118" s="16">
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -7715,7 +7689,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="18">
+      <c r="A119" s="16">
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -7741,7 +7715,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="18">
+      <c r="A120" s="16">
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -7767,7 +7741,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="18">
+      <c r="A121" s="16">
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -7793,7 +7767,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="18">
+      <c r="A122" s="16">
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -7819,7 +7793,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="18">
+      <c r="A123" s="16">
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -7845,7 +7819,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="18">
+      <c r="A124" s="16">
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -7871,7 +7845,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="18">
+      <c r="A125" s="16">
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -7897,7 +7871,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="18">
+      <c r="A126" s="16">
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -7923,7 +7897,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="18">
+      <c r="A127" s="16">
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -7949,7 +7923,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="18">
+      <c r="A128" s="16">
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -7975,7 +7949,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="18">
+      <c r="A129" s="16">
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -8001,7 +7975,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="18">
+      <c r="A130" s="16">
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -8027,7 +8001,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="18">
+      <c r="A131" s="16">
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -8053,7 +8027,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="18">
+      <c r="A132" s="16">
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -8079,7 +8053,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="18">
+      <c r="A133" s="16">
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -8105,7 +8079,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="18">
+      <c r="A134" s="16">
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -8131,7 +8105,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="18">
+      <c r="A135" s="16">
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -8157,7 +8131,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="18">
+      <c r="A136" s="16">
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -8183,7 +8157,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="18">
+      <c r="A137" s="16">
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -8209,7 +8183,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="18">
+      <c r="A138" s="16">
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -8235,7 +8209,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="18">
+      <c r="A139" s="16">
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -8261,7 +8235,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="18">
+      <c r="A140" s="16">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -8287,7 +8261,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="18">
+      <c r="A141" s="16">
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -8313,7 +8287,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="18">
+      <c r="A142" s="16">
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -8339,7 +8313,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="18">
+      <c r="A143" s="16">
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -8365,7 +8339,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="18">
+      <c r="A144" s="16">
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -8391,7 +8365,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="18">
+      <c r="A145" s="16">
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -8417,7 +8391,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="18">
+      <c r="A146" s="16">
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -8443,7 +8417,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="18">
+      <c r="A147" s="16">
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -8469,7 +8443,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="18">
+      <c r="A148" s="16">
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -8495,7 +8469,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="18">
+      <c r="A149" s="16">
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -8521,7 +8495,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="18">
+      <c r="A150" s="16">
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -8547,7 +8521,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="18">
+      <c r="A151" s="16">
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -8573,7 +8547,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="18">
+      <c r="A152" s="16">
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -8599,7 +8573,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="18">
+      <c r="A153" s="16">
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -8625,7 +8599,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="18">
+      <c r="A154" s="16">
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -8651,7 +8625,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="18">
+      <c r="A155" s="16">
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -8677,7 +8651,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="18">
+      <c r="A156" s="16">
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -8703,7 +8677,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="18">
+      <c r="A157" s="16">
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -8729,7 +8703,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="18">
+      <c r="A158" s="16">
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -8755,7 +8729,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="18">
+      <c r="A159" s="16">
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
@@ -8781,7 +8755,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="18">
+      <c r="A160" s="16">
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -8807,7 +8781,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="18">
+      <c r="A161" s="16">
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
@@ -8833,7 +8807,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="18">
+      <c r="A162" s="16">
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -8859,7 +8833,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="18">
+      <c r="A163" s="16">
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -8885,7 +8859,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="18">
+      <c r="A164" s="16">
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -8911,7 +8885,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="18">
+      <c r="A165" s="16">
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -8937,7 +8911,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="18">
+      <c r="A166" s="16">
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
@@ -8963,7 +8937,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="18">
+      <c r="A167" s="16">
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
@@ -8989,7 +8963,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="18">
+      <c r="A168" s="16">
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -9015,7 +8989,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="18">
+      <c r="A169" s="16">
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -9041,7 +9015,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="18">
+      <c r="A170" s="16">
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -9065,7 +9039,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="18">
+      <c r="A171" s="16">
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -9089,7 +9063,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="18">
+      <c r="A172" s="16">
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -9113,7 +9087,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="18">
+      <c r="A173" s="16">
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -9137,7 +9111,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="18">
+      <c r="A174" s="16">
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
@@ -9163,7 +9137,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="18">
+      <c r="A175" s="16">
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
@@ -9187,7 +9161,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="18">
+      <c r="A176" s="16">
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
@@ -9211,7 +9185,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="18">
+      <c r="A177" s="16">
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -9235,7 +9209,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="18">
+      <c r="A178" s="16">
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
@@ -9261,7 +9235,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="18">
+      <c r="A179" s="16">
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -9287,7 +9261,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="18">
+      <c r="A180" s="16">
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
@@ -9311,7 +9285,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="18">
+      <c r="A181" s="16">
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
@@ -9335,7 +9309,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="18">
+      <c r="A182" s="16">
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
@@ -9359,7 +9333,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="18">
+      <c r="A183" s="16">
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
@@ -9383,7 +9357,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="18">
+      <c r="A184" s="16">
         <v>183</v>
       </c>
       <c r="B184" t="s">
@@ -9406,7 +9380,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="18">
+      <c r="A185" s="16">
         <v>184</v>
       </c>
       <c r="B185" t="s">
@@ -9429,7 +9403,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="18">
+      <c r="A186" s="16">
         <v>185</v>
       </c>
       <c r="B186" t="s">
@@ -9452,7 +9426,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="18">
+      <c r="A187" s="16">
         <v>186</v>
       </c>
       <c r="B187" t="s">
@@ -9475,7 +9449,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="18">
+      <c r="A188" s="16">
         <v>187</v>
       </c>
       <c r="B188" t="s">
@@ -9498,7 +9472,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="18">
+      <c r="A189" s="16">
         <v>188</v>
       </c>
       <c r="B189" t="s">
@@ -9521,7 +9495,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="18">
+      <c r="A190" s="16">
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -9544,7 +9518,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="18">
+      <c r="A191" s="16">
         <v>190</v>
       </c>
       <c r="B191" t="s">
@@ -9567,7 +9541,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="18">
+      <c r="A192" s="16">
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -9590,7 +9564,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A193" s="18">
+      <c r="A193" s="16">
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -9613,7 +9587,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A194" s="18">
+      <c r="A194" s="16">
         <v>193</v>
       </c>
       <c r="B194" t="s">
@@ -9636,7 +9610,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="18">
+      <c r="A195" s="16">
         <v>194</v>
       </c>
       <c r="B195" t="s">
@@ -9659,7 +9633,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="18">
+      <c r="A196" s="16">
         <v>195</v>
       </c>
       <c r="B196" t="s">
@@ -9682,7 +9656,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="18">
+      <c r="A197" s="16">
         <v>196</v>
       </c>
       <c r="B197" t="s">
@@ -9705,7 +9679,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A198" s="18">
+      <c r="A198" s="16">
         <v>197</v>
       </c>
       <c r="B198" t="s">
@@ -9728,7 +9702,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A199" s="18">
+      <c r="A199" s="16">
         <v>198</v>
       </c>
       <c r="B199" t="s">
@@ -9751,7 +9725,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A200" s="18">
+      <c r="A200" s="16">
         <v>199</v>
       </c>
       <c r="B200" t="s">
@@ -9774,7 +9748,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A201" s="18">
+      <c r="A201" s="16">
         <v>200</v>
       </c>
       <c r="B201" t="s">
@@ -9797,7 +9771,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A202" s="18">
+      <c r="A202" s="16">
         <v>201</v>
       </c>
       <c r="B202" t="s">
@@ -9820,7 +9794,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="18">
+      <c r="A203" s="16">
         <v>202</v>
       </c>
       <c r="B203" t="s">
@@ -9843,7 +9817,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="18">
+      <c r="A204" s="16">
         <v>203</v>
       </c>
       <c r="B204" t="s">
@@ -9866,7 +9840,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A205" s="18">
+      <c r="A205" s="16">
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
@@ -9892,7 +9866,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="18">
+      <c r="A206" s="16">
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
@@ -9918,7 +9892,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="18">
+      <c r="A207" s="16">
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
@@ -9944,7 +9918,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="18">
+      <c r="A208" s="16">
         <v>207</v>
       </c>
       <c r="B208" t="s">
@@ -9967,7 +9941,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="18">
+      <c r="A209" s="16">
         <v>208</v>
       </c>
       <c r="B209" t="s">
@@ -9990,7 +9964,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="18">
+      <c r="A210" s="16">
         <v>209</v>
       </c>
       <c r="B210" t="s">
@@ -10013,7 +9987,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="18">
+      <c r="A211" s="16">
         <v>210</v>
       </c>
       <c r="B211" t="s">
@@ -10036,7 +10010,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="18">
+      <c r="A212" s="16">
         <v>211</v>
       </c>
       <c r="B212" t="s">
@@ -10059,7 +10033,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="18">
+      <c r="A213" s="16">
         <v>212</v>
       </c>
       <c r="B213" t="s">
@@ -10082,7 +10056,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="18">
+      <c r="A214" s="16">
         <v>213</v>
       </c>
       <c r="B214" t="s">
@@ -10105,7 +10079,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="18">
+      <c r="A215" s="16">
         <v>214</v>
       </c>
       <c r="B215" t="s">
@@ -10128,7 +10102,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="18">
+      <c r="A216" s="16">
         <v>215</v>
       </c>
       <c r="B216" t="s">
@@ -10151,7 +10125,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="18">
+      <c r="A217" s="16">
         <v>216</v>
       </c>
       <c r="B217" t="s">
@@ -10174,7 +10148,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="18">
+      <c r="A218" s="16">
         <v>217</v>
       </c>
       <c r="B218" t="s">
@@ -10197,7 +10171,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="18">
+      <c r="A219" s="16">
         <v>218</v>
       </c>
       <c r="B219" t="s">
@@ -10220,7 +10194,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A220" s="18">
+      <c r="A220" s="16">
         <v>219</v>
       </c>
       <c r="B220" t="s">
@@ -10243,7 +10217,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A221" s="18">
+      <c r="A221" s="16">
         <v>220</v>
       </c>
       <c r="B221" t="s">
@@ -10266,7 +10240,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A222" s="18">
+      <c r="A222" s="16">
         <v>221</v>
       </c>
       <c r="B222" t="s">
@@ -10289,7 +10263,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="18">
+      <c r="A223" s="16">
         <v>222</v>
       </c>
       <c r="B223" t="s">
@@ -10312,7 +10286,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="18">
+      <c r="A224" s="16">
         <v>223</v>
       </c>
       <c r="B224" t="s">
@@ -10335,7 +10309,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A225" s="18">
+      <c r="A225" s="16">
         <v>224</v>
       </c>
       <c r="B225" t="s">
@@ -10358,7 +10332,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A226" s="18">
+      <c r="A226" s="16">
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
@@ -10381,7 +10355,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A227" s="18">
+      <c r="A227" s="16">
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
@@ -10404,7 +10378,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="18">
+      <c r="A228" s="16">
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
@@ -10427,7 +10401,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="18">
+      <c r="A229" s="16">
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
@@ -10450,7 +10424,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="18">
+      <c r="A230" s="16">
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
@@ -10473,7 +10447,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="18">
+      <c r="A231" s="16">
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
@@ -10496,7 +10470,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A232" s="18">
+      <c r="A232" s="16">
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
@@ -10519,7 +10493,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="18">
+      <c r="A233" s="16">
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -10542,7 +10516,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="18">
+      <c r="A234" s="16">
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
@@ -10565,7 +10539,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="18">
+      <c r="A235" s="16">
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
@@ -10588,7 +10562,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="18">
+      <c r="A236" s="16">
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
@@ -10614,7 +10588,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="18">
+      <c r="A237" s="16">
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
@@ -10640,7 +10614,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A238" s="18">
+      <c r="A238" s="16">
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
@@ -10666,7 +10640,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A239" s="18">
+      <c r="A239" s="16">
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
@@ -10692,7 +10666,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="18">
+      <c r="A240" s="16">
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
@@ -10718,7 +10692,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="18">
+      <c r="A241" s="16">
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
@@ -10744,7 +10718,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="18">
+      <c r="A242" s="16">
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
@@ -10770,7 +10744,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="18">
+      <c r="A243" s="16">
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
@@ -10796,7 +10770,7 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="18">
+      <c r="A244" s="16">
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
@@ -10822,7 +10796,7 @@
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="18">
+      <c r="A245" s="16">
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
@@ -10848,7 +10822,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="18">
+      <c r="A246" s="16">
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
@@ -10874,7 +10848,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A247" s="18">
+      <c r="A247" s="16">
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
@@ -10900,7 +10874,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="18">
+      <c r="A248" s="16">
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
@@ -10926,7 +10900,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="18">
+      <c r="A249" s="16">
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
@@ -10952,7 +10926,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="18">
+      <c r="A250" s="16">
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
@@ -10978,7 +10952,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="18">
+      <c r="A251" s="16">
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
@@ -11004,7 +10978,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="18">
+      <c r="A252" s="16">
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
@@ -11030,7 +11004,7 @@
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="18">
+      <c r="A253" s="16">
         <v>252</v>
       </c>
       <c r="B253" s="9" t="s">
@@ -11056,7 +11030,7 @@
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="18">
+      <c r="A254" s="16">
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
@@ -11082,7 +11056,7 @@
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="18">
+      <c r="A255" s="16">
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
@@ -11108,7 +11082,7 @@
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A256" s="18">
+      <c r="A256" s="16">
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
@@ -11133,138 +11107,138 @@
         <v>754</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="42">
+    <row r="257" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="26">
         <v>256</v>
       </c>
-      <c r="B257" s="43" t="s">
+      <c r="B257" s="27" t="s">
         <v>755</v>
       </c>
-      <c r="C257" s="43" t="s">
-        <v>939</v>
-      </c>
-      <c r="D257" s="43" t="s">
+      <c r="C257" s="27" t="s">
+        <v>933</v>
+      </c>
+      <c r="D257" s="27" t="s">
         <v>756</v>
       </c>
-      <c r="E257" s="44">
-        <v>1</v>
-      </c>
-      <c r="F257" s="44">
-        <v>1</v>
-      </c>
-      <c r="G257" s="44">
-        <v>1</v>
-      </c>
-      <c r="I257" s="31" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="18">
+      <c r="E257" s="28">
+        <v>1</v>
+      </c>
+      <c r="F257" s="28">
+        <v>1</v>
+      </c>
+      <c r="G257" s="28">
+        <v>1</v>
+      </c>
+      <c r="I257" s="22" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="16">
         <v>257</v>
       </c>
-      <c r="B258" s="17" t="s">
+      <c r="B258" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C258" s="17" t="s">
+      <c r="C258" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="D258" s="17" t="s">
+      <c r="D258" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="E258" s="19">
-        <v>0</v>
-      </c>
-      <c r="F258" s="19">
-        <v>1</v>
-      </c>
-      <c r="G258" s="19">
-        <v>1</v>
-      </c>
-      <c r="I258" s="17" t="s">
+      <c r="E258" s="17">
+        <v>0</v>
+      </c>
+      <c r="F258" s="17">
+        <v>1</v>
+      </c>
+      <c r="G258" s="17">
+        <v>1</v>
+      </c>
+      <c r="I258" s="15" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="18">
+    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="16">
         <v>258</v>
       </c>
-      <c r="B259" s="17" t="s">
+      <c r="B259" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="C259" s="17" t="s">
+      <c r="C259" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="D259" s="17" t="s">
+      <c r="D259" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="E259" s="19">
-        <v>0</v>
-      </c>
-      <c r="F259" s="19">
-        <v>1</v>
-      </c>
-      <c r="G259" s="19">
-        <v>1</v>
-      </c>
-      <c r="I259" s="17" t="s">
+      <c r="E259" s="17">
+        <v>0</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="18">
+    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="16">
         <v>259</v>
       </c>
-      <c r="B260" s="17" t="s">
+      <c r="B260" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="C260" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="D260" s="17" t="s">
+      <c r="D260" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="E260" s="19">
-        <v>1</v>
-      </c>
-      <c r="F260" s="19">
-        <v>1</v>
-      </c>
-      <c r="G260" s="19">
-        <v>1</v>
-      </c>
-      <c r="I260" s="17" t="s">
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="18">
+    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="16">
         <v>260</v>
       </c>
-      <c r="B261" s="17" t="s">
+      <c r="B261" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="C261" s="17" t="s">
+      <c r="C261" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="D261" s="17" t="s">
+      <c r="D261" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="E261" s="19">
-        <v>0</v>
-      </c>
-      <c r="F261" s="19">
-        <v>1</v>
-      </c>
-      <c r="G261" s="19">
-        <v>1</v>
-      </c>
-      <c r="I261" s="17" t="s">
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="15" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="18">
+      <c r="A262" s="16">
         <v>261</v>
       </c>
       <c r="B262" t="s">
@@ -11290,16 +11264,16 @@
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A263" s="18">
+      <c r="A263" s="16">
         <v>262</v>
       </c>
-      <c r="B263" s="17" t="s">
+      <c r="B263" s="15" t="s">
         <v>776</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="D263" s="17" t="s">
+      <c r="D263" s="15" t="s">
         <v>778</v>
       </c>
       <c r="E263">
@@ -11315,164 +11289,164 @@
         <v>645</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="18">
+    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="16">
         <v>263</v>
       </c>
-      <c r="B264" s="17" t="s">
+      <c r="B264" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="C264" s="17" t="s">
+      <c r="C264" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="D264" s="17" t="s">
+      <c r="D264" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="E264" s="19">
-        <v>0</v>
-      </c>
-      <c r="F264" s="19">
-        <v>0</v>
-      </c>
-      <c r="G264" s="19">
-        <v>0</v>
-      </c>
-      <c r="I264" s="17" t="s">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="15" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="18">
+    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="16">
         <v>264</v>
       </c>
-      <c r="B265" s="17" t="s">
+      <c r="B265" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="C265" s="17" t="s">
+      <c r="C265" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="D265" s="17" t="s">
+      <c r="D265" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="E265" s="19">
-        <v>0</v>
-      </c>
-      <c r="F265" s="19">
-        <v>0</v>
-      </c>
-      <c r="G265" s="19">
-        <v>0</v>
-      </c>
-      <c r="I265" s="17" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>0</v>
+      </c>
+      <c r="G265" s="17">
+        <v>0</v>
+      </c>
+      <c r="I265" s="15" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="18">
+    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="16">
         <v>265</v>
       </c>
-      <c r="B266" s="17" t="s">
+      <c r="B266" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="C266" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="D266" s="17" t="s">
+      <c r="D266" s="15" t="s">
         <v>788</v>
       </c>
-      <c r="E266" s="19">
-        <v>0</v>
-      </c>
-      <c r="F266" s="19">
-        <v>0</v>
-      </c>
-      <c r="G266" s="19">
-        <v>0</v>
-      </c>
-      <c r="I266" s="19" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="18">
+    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="16">
         <v>266</v>
       </c>
-      <c r="B267" s="17" t="s">
+      <c r="B267" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="C267" s="17" t="s">
+      <c r="C267" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="D267" s="22" t="s">
+      <c r="D267" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="E267" s="19">
-        <v>0</v>
-      </c>
-      <c r="F267" s="19">
-        <v>0</v>
-      </c>
-      <c r="G267" s="19">
-        <v>0</v>
-      </c>
-      <c r="I267" s="23" t="s">
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="18">
+    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="16">
         <v>267</v>
       </c>
-      <c r="B268" s="17" t="s">
+      <c r="B268" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="C268" s="17" t="s">
+      <c r="C268" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="D268" s="22" t="s">
+      <c r="D268" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="E268" s="19">
-        <v>0</v>
-      </c>
-      <c r="F268" s="19">
-        <v>0</v>
-      </c>
-      <c r="G268" s="19">
-        <v>0</v>
-      </c>
-      <c r="I268" s="23" t="s">
+      <c r="E268" s="17">
+        <v>0</v>
+      </c>
+      <c r="F268" s="17">
+        <v>0</v>
+      </c>
+      <c r="G268" s="17">
+        <v>0</v>
+      </c>
+      <c r="I268" s="19" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="18">
+    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="16">
         <v>268</v>
       </c>
-      <c r="B269" s="17" t="s">
+      <c r="B269" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="C269" s="17" t="s">
+      <c r="C269" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="D269" s="22" t="s">
+      <c r="D269" s="18" t="s">
         <v>799</v>
       </c>
-      <c r="E269" s="19">
-        <v>1</v>
-      </c>
-      <c r="F269" s="19">
-        <v>1</v>
-      </c>
-      <c r="G269" s="19">
-        <v>1</v>
-      </c>
-      <c r="I269" s="23" t="s">
+      <c r="E269" s="17">
+        <v>1</v>
+      </c>
+      <c r="F269" s="17">
+        <v>1</v>
+      </c>
+      <c r="G269" s="17">
+        <v>1</v>
+      </c>
+      <c r="I269" s="19" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="18">
+      <c r="A270" s="16">
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
@@ -11481,25 +11455,25 @@
       <c r="C270" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="D270" s="21" t="s">
+      <c r="D270" s="18" t="s">
         <v>806</v>
       </c>
-      <c r="E270" s="16">
-        <v>0</v>
-      </c>
-      <c r="F270" s="16">
-        <v>0</v>
-      </c>
-      <c r="G270" s="16">
-        <v>0</v>
-      </c>
-      <c r="H270" s="16"/>
-      <c r="I270" s="20" t="s">
+      <c r="E270" s="17">
+        <v>0</v>
+      </c>
+      <c r="F270" s="17">
+        <v>0</v>
+      </c>
+      <c r="G270" s="17">
+        <v>0</v>
+      </c>
+      <c r="H270" s="17"/>
+      <c r="I270" s="19" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="18">
+      <c r="A271" s="16">
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
@@ -11508,161 +11482,166 @@
       <c r="C271" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="D271" s="21" t="s">
+      <c r="D271" s="18" t="s">
         <v>805</v>
       </c>
-      <c r="E271" s="16">
-        <v>0</v>
-      </c>
-      <c r="F271" s="16">
-        <v>0</v>
-      </c>
-      <c r="G271" s="16">
-        <v>0</v>
-      </c>
-      <c r="H271" s="16"/>
-      <c r="I271" s="20" t="s">
+      <c r="E271" s="17">
+        <v>0</v>
+      </c>
+      <c r="F271" s="17">
+        <v>0</v>
+      </c>
+      <c r="G271" s="17">
+        <v>0</v>
+      </c>
+      <c r="H271" s="17"/>
+      <c r="I271" s="19" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="18">
+      <c r="A272" s="16">
         <v>271</v>
       </c>
-      <c r="B272" s="17" t="s">
+      <c r="B272" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="C272" s="17" t="s">
+      <c r="C272" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="D272" s="22" t="s">
+      <c r="D272" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="E272" s="19">
-        <v>1</v>
-      </c>
-      <c r="F272" s="19">
-        <v>1</v>
-      </c>
-      <c r="G272" s="19">
-        <v>1</v>
-      </c>
-      <c r="I272" s="23" t="s">
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="H272" s="17"/>
+      <c r="I272" s="19" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="18">
+      <c r="A273" s="16">
         <v>272</v>
       </c>
-      <c r="B273" s="17" t="s">
+      <c r="B273" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="C273" s="17" t="s">
+      <c r="C273" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="D273" s="22" t="s">
+      <c r="D273" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="E273" s="19">
-        <v>1</v>
-      </c>
-      <c r="F273" s="19">
-        <v>1</v>
-      </c>
-      <c r="G273" s="19">
-        <v>1</v>
-      </c>
-      <c r="I273" s="23" t="s">
+      <c r="E273" s="17">
+        <v>1</v>
+      </c>
+      <c r="F273" s="17">
+        <v>1</v>
+      </c>
+      <c r="G273" s="17">
+        <v>1</v>
+      </c>
+      <c r="H273" s="17"/>
+      <c r="I273" s="19" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="18">
+      <c r="A274" s="16">
         <v>273</v>
       </c>
-      <c r="B274" s="17" t="s">
+      <c r="B274" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="C274" s="17" t="s">
+      <c r="C274" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="D274" s="22" t="s">
+      <c r="D274" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="E274">
-        <v>1</v>
-      </c>
-      <c r="F274">
-        <v>1</v>
-      </c>
-      <c r="G274">
-        <v>1</v>
-      </c>
-      <c r="I274" s="23" t="s">
+      <c r="E274" s="17">
+        <v>1</v>
+      </c>
+      <c r="F274" s="17">
+        <v>1</v>
+      </c>
+      <c r="G274" s="17">
+        <v>1</v>
+      </c>
+      <c r="H274" s="17"/>
+      <c r="I274" s="19" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="18">
+      <c r="A275" s="16">
         <v>274</v>
       </c>
-      <c r="B275" s="17" t="s">
+      <c r="B275" s="15" t="s">
         <v>851</v>
       </c>
-      <c r="C275" s="17" t="s">
+      <c r="C275" s="15" t="s">
         <v>818</v>
       </c>
-      <c r="D275" s="22" t="s">
+      <c r="D275" s="18" t="s">
         <v>819</v>
       </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
-      </c>
-      <c r="G275">
-        <v>0</v>
-      </c>
-      <c r="I275" s="23" t="s">
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>0</v>
+      </c>
+      <c r="G275" s="17">
+        <v>0</v>
+      </c>
+      <c r="H275" s="17"/>
+      <c r="I275" s="19" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A276" s="18">
+    <row r="276" spans="1:9" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A276" s="16">
         <v>275</v>
       </c>
-      <c r="B276" s="30" t="s">
+      <c r="B276" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="C276" s="30" t="s">
+      <c r="C276" s="15" t="s">
         <v>822</v>
       </c>
-      <c r="D276" s="39" t="s">
+      <c r="D276" s="18" t="s">
         <v>824</v>
       </c>
-      <c r="E276" s="29">
-        <v>1</v>
-      </c>
-      <c r="F276" s="29">
-        <v>1</v>
-      </c>
-      <c r="G276" s="29">
-        <v>1</v>
-      </c>
-      <c r="I276" s="40" t="s">
-        <v>933</v>
+      <c r="E276" s="17">
+        <v>1</v>
+      </c>
+      <c r="F276" s="17">
+        <v>1</v>
+      </c>
+      <c r="G276" s="17">
+        <v>1</v>
+      </c>
+      <c r="H276" s="17"/>
+      <c r="I276" s="31" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="18">
+      <c r="A277" s="16">
         <v>276</v>
       </c>
-      <c r="B277" s="17" t="s">
+      <c r="B277" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="C277" s="17" t="s">
+      <c r="C277" s="15" t="s">
         <v>826</v>
       </c>
       <c r="E277">
@@ -11674,865 +11653,925 @@
       <c r="G277">
         <v>1</v>
       </c>
-      <c r="I277" s="23" t="s">
+      <c r="I277" s="19" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="18">
+    <row r="278" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="16">
         <v>277</v>
       </c>
-      <c r="B278" s="31" t="s">
+      <c r="B278" s="27" t="s">
         <v>828</v>
       </c>
-      <c r="C278" s="31" t="s">
+      <c r="C278" s="27" t="s">
+        <v>944</v>
+      </c>
+      <c r="D278" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="E278" s="27">
+        <v>0</v>
+      </c>
+      <c r="F278" s="27">
+        <v>0</v>
+      </c>
+      <c r="G278" s="27">
+        <v>0</v>
+      </c>
+      <c r="H278" s="27"/>
+      <c r="I278" s="27" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="16">
+        <v>278</v>
+      </c>
+      <c r="B279" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="D279" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="I279" s="19" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="16">
+        <v>279</v>
+      </c>
+      <c r="B280" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="16">
+        <v>280</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C281" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="D281" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="I281" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="16">
+        <v>281</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D282" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="I282" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="16">
+        <v>282</v>
+      </c>
+      <c r="B283" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="D283" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="19" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="16">
+        <v>283</v>
+      </c>
+      <c r="B284" s="20" t="s">
+        <v>845</v>
+      </c>
+      <c r="C284" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="D284" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="19" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="16">
+        <v>284</v>
+      </c>
+      <c r="B285" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="C285" s="15" t="s">
+        <v>854</v>
+      </c>
+      <c r="D285" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="E285" s="17">
+        <v>1</v>
+      </c>
+      <c r="F285" s="17">
+        <v>1</v>
+      </c>
+      <c r="G285" s="17">
+        <v>1</v>
+      </c>
+      <c r="I285" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="16">
+        <v>285</v>
+      </c>
+      <c r="B286" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="C286" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="D286" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="19" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="16">
+        <v>286</v>
+      </c>
+      <c r="B287" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="C287" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="D287" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="I287" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="16">
+        <v>287</v>
+      </c>
+      <c r="B288" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="D288" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="I288" s="19" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="16">
+        <v>288</v>
+      </c>
+      <c r="B289" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="D289" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="E289" s="17">
+        <v>0</v>
+      </c>
+      <c r="F289" s="17">
+        <v>0</v>
+      </c>
+      <c r="G289" s="17">
+        <v>0</v>
+      </c>
+      <c r="H289" s="17"/>
+      <c r="I289" s="15" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="16">
+        <v>289</v>
+      </c>
+      <c r="B290" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="D290" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="I290" s="19" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="16">
+        <v>290</v>
+      </c>
+      <c r="B291" s="20" t="s">
+        <v>875</v>
+      </c>
+      <c r="C291" s="15" t="s">
+        <v>876</v>
+      </c>
+      <c r="D291" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" s="19" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="16">
+        <v>291</v>
+      </c>
+      <c r="B292" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="C292" s="15" t="s">
+        <v>880</v>
+      </c>
+      <c r="D292" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="16">
+        <v>292</v>
+      </c>
+      <c r="B293" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="D293" s="20" t="s">
+        <v>884</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="I293" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="16">
+        <v>293</v>
+      </c>
+      <c r="B294" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="D294" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="I294" s="19" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A295" s="16">
+        <v>294</v>
+      </c>
+      <c r="B295" s="20" t="s">
+        <v>889</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="D295" s="20" t="s">
+        <v>891</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="I295" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="16">
+        <v>295</v>
+      </c>
+      <c r="B296" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="D296" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="I296" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="16">
+        <v>296</v>
+      </c>
+      <c r="B297" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="D297" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="I297" s="15" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="16">
+        <v>297</v>
+      </c>
+      <c r="B298" s="20" t="s">
+        <v>900</v>
+      </c>
+      <c r="C298" s="15" t="s">
+        <v>897</v>
+      </c>
+      <c r="D298" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="I298" s="15" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="16">
+        <v>298</v>
+      </c>
+      <c r="B299" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="D299" s="20" t="s">
+        <v>903</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="I299" s="15" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="16">
+        <v>299</v>
+      </c>
+      <c r="B300" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="C300" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="D300" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="I300" s="19" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="16">
+        <v>300</v>
+      </c>
+      <c r="B301" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="C301" s="15" t="s">
+        <v>912</v>
+      </c>
+      <c r="D301" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="E301" s="17">
+        <v>0</v>
+      </c>
+      <c r="F301" s="17">
+        <v>0</v>
+      </c>
+      <c r="G301" s="17">
+        <v>0</v>
+      </c>
+      <c r="H301" s="17"/>
+      <c r="I301" s="19" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="16">
+        <v>301</v>
+      </c>
+      <c r="B302" s="18" t="s">
+        <v>917</v>
+      </c>
+      <c r="C302" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="D302" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="E302" s="17">
+        <v>0</v>
+      </c>
+      <c r="F302" s="17">
+        <v>0</v>
+      </c>
+      <c r="G302" s="17">
+        <v>0</v>
+      </c>
+      <c r="H302" s="17"/>
+      <c r="I302" s="19" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="16">
+        <v>302</v>
+      </c>
+      <c r="B303" s="29" t="s">
+        <v>938</v>
+      </c>
+      <c r="C303" s="27" t="s">
+        <v>943</v>
+      </c>
+      <c r="D303" s="28"/>
+      <c r="E303" s="28">
+        <v>1</v>
+      </c>
+      <c r="F303" s="28">
+        <v>1</v>
+      </c>
+      <c r="G303" s="28">
+        <v>1</v>
+      </c>
+      <c r="H303" s="28"/>
+      <c r="I303" s="27" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="16">
+        <v>303</v>
+      </c>
+      <c r="B304" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="C304" s="15" t="s">
         <v>918</v>
       </c>
-      <c r="D278" s="32" t="s">
-        <v>829</v>
-      </c>
-      <c r="E278" s="47">
-        <v>0</v>
-      </c>
-      <c r="F278" s="47">
-        <v>0</v>
-      </c>
-      <c r="G278" s="47">
-        <v>0</v>
-      </c>
-      <c r="I278" s="31" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="18">
-        <v>278</v>
-      </c>
-      <c r="B279" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="C279" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="D279" s="22" t="s">
-        <v>830</v>
-      </c>
-      <c r="E279">
-        <v>1</v>
-      </c>
-      <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="G279">
-        <v>1</v>
-      </c>
-      <c r="I279" s="23" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="18">
-        <v>279</v>
-      </c>
-      <c r="B280" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="C280" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="23" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="18">
-        <v>280</v>
-      </c>
-      <c r="B281" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="C281" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="D281" s="22" t="s">
-        <v>835</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-      <c r="I281" s="23" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="18">
-        <v>281</v>
-      </c>
-      <c r="B282" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="C282" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="D282" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="E282">
-        <v>1</v>
-      </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-      <c r="G282">
-        <v>1</v>
-      </c>
-      <c r="I282" s="23" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="18">
-        <v>282</v>
-      </c>
-      <c r="B283" s="17" t="s">
-        <v>849</v>
-      </c>
-      <c r="C283" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="D283" s="22" t="s">
-        <v>850</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="23" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="18">
-        <v>283</v>
-      </c>
-      <c r="B284" s="24" t="s">
-        <v>845</v>
-      </c>
-      <c r="C284" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="D284" s="22" t="s">
-        <v>847</v>
-      </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="23" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="18">
-        <v>284</v>
-      </c>
-      <c r="B285" s="25" t="s">
-        <v>853</v>
-      </c>
-      <c r="C285" s="28" t="s">
-        <v>854</v>
-      </c>
-      <c r="D285" s="25" t="s">
-        <v>852</v>
-      </c>
-      <c r="E285" s="26">
-        <v>1</v>
-      </c>
-      <c r="F285" s="26">
-        <v>1</v>
-      </c>
-      <c r="G285" s="26">
-        <v>1</v>
-      </c>
-      <c r="I285" s="27" t="s">
+      <c r="D304" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="E304" s="17">
+        <v>0</v>
+      </c>
+      <c r="F304" s="17">
+        <v>0</v>
+      </c>
+      <c r="G304" s="17">
+        <v>0</v>
+      </c>
+      <c r="H304" s="17"/>
+      <c r="I304" s="19" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="16">
+        <v>304</v>
+      </c>
+      <c r="B305" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="C305" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="D305" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="E305" s="17">
+        <v>1</v>
+      </c>
+      <c r="F305" s="17">
+        <v>1</v>
+      </c>
+      <c r="G305" s="17">
+        <v>1</v>
+      </c>
+      <c r="H305" s="17"/>
+      <c r="I305" s="19" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="16">
+        <v>305</v>
+      </c>
+      <c r="B306" s="29" t="s">
+        <v>954</v>
+      </c>
+      <c r="C306" s="27" t="s">
+        <v>939</v>
+      </c>
+      <c r="D306" s="29" t="s">
+        <v>957</v>
+      </c>
+      <c r="E306" s="28">
+        <v>1</v>
+      </c>
+      <c r="F306" s="28">
+        <v>1</v>
+      </c>
+      <c r="G306" s="28">
+        <v>1</v>
+      </c>
+      <c r="H306" s="28"/>
+      <c r="I306" s="27" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="16">
+        <v>306</v>
+      </c>
+      <c r="B307" s="29" t="s">
+        <v>955</v>
+      </c>
+      <c r="C307" s="27" t="s">
+        <v>940</v>
+      </c>
+      <c r="D307" s="29" t="s">
+        <v>924</v>
+      </c>
+      <c r="E307" s="28">
+        <v>1</v>
+      </c>
+      <c r="F307" s="28">
+        <v>1</v>
+      </c>
+      <c r="G307" s="28">
+        <v>1</v>
+      </c>
+      <c r="H307" s="28"/>
+      <c r="I307" s="27" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A308" s="16">
+        <v>307</v>
+      </c>
+      <c r="B308" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="C308" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="H308" s="17"/>
+      <c r="I308" s="19" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="18">
-        <v>285</v>
-      </c>
-      <c r="B286" s="17" t="s">
-        <v>856</v>
-      </c>
-      <c r="C286" s="17" t="s">
-        <v>857</v>
-      </c>
-      <c r="D286" s="22" t="s">
-        <v>858</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="23" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="18">
-        <v>286</v>
-      </c>
-      <c r="B287" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="C287" s="17" t="s">
-        <v>862</v>
-      </c>
-      <c r="D287" s="22" t="s">
-        <v>860</v>
-      </c>
-      <c r="E287">
-        <v>1</v>
-      </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-      <c r="G287">
-        <v>1</v>
-      </c>
-      <c r="I287" s="23" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="18">
-        <v>287</v>
-      </c>
-      <c r="B288" s="17" t="s">
-        <v>863</v>
-      </c>
-      <c r="C288" s="17" t="s">
-        <v>864</v>
-      </c>
-      <c r="D288" s="22" t="s">
-        <v>865</v>
-      </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="I288" s="23" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="18">
-        <v>288</v>
-      </c>
-      <c r="B289" s="30" t="s">
-        <v>867</v>
-      </c>
-      <c r="C289" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="D289" s="30" t="s">
-        <v>870</v>
-      </c>
-      <c r="E289" s="47">
-        <v>0</v>
-      </c>
-      <c r="F289" s="47">
-        <v>0</v>
-      </c>
-      <c r="G289" s="47">
-        <v>0</v>
-      </c>
-      <c r="I289" s="30" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="18">
-        <v>289</v>
-      </c>
-      <c r="B290" s="17" t="s">
-        <v>871</v>
-      </c>
-      <c r="C290" s="17" t="s">
-        <v>872</v>
-      </c>
-      <c r="D290" s="22" t="s">
-        <v>873</v>
-      </c>
-      <c r="E290">
-        <v>1</v>
-      </c>
-      <c r="F290">
-        <v>1</v>
-      </c>
-      <c r="G290">
-        <v>1</v>
-      </c>
-      <c r="I290" s="23" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="18">
-        <v>290</v>
-      </c>
-      <c r="B291" s="24" t="s">
-        <v>875</v>
-      </c>
-      <c r="C291" s="17" t="s">
-        <v>876</v>
-      </c>
-      <c r="D291" s="24" t="s">
-        <v>877</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" s="23" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="18">
-        <v>291</v>
-      </c>
-      <c r="B292" s="24" t="s">
-        <v>879</v>
-      </c>
-      <c r="C292" s="17" t="s">
-        <v>880</v>
-      </c>
-      <c r="D292" s="24" t="s">
-        <v>881</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" s="23" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="18">
-        <v>292</v>
-      </c>
-      <c r="B293" s="24" t="s">
-        <v>882</v>
-      </c>
-      <c r="C293" s="17" t="s">
-        <v>887</v>
-      </c>
-      <c r="D293" s="24" t="s">
-        <v>884</v>
-      </c>
-      <c r="E293">
-        <v>1</v>
-      </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-      <c r="I293" s="23" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A294" s="18">
-        <v>293</v>
-      </c>
-      <c r="B294" s="24" t="s">
-        <v>883</v>
-      </c>
-      <c r="C294" s="17" t="s">
-        <v>888</v>
-      </c>
-      <c r="D294" s="24" t="s">
-        <v>885</v>
-      </c>
-      <c r="E294">
-        <v>1</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-      <c r="I294" s="23" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="18">
-        <v>294</v>
-      </c>
-      <c r="B295" s="24" t="s">
-        <v>889</v>
-      </c>
-      <c r="C295" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="D295" s="24" t="s">
-        <v>891</v>
-      </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295">
-        <v>1</v>
-      </c>
-      <c r="G295">
-        <v>1</v>
-      </c>
-      <c r="I295" s="23" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="18">
-        <v>295</v>
-      </c>
-      <c r="B296" s="24" t="s">
-        <v>892</v>
-      </c>
-      <c r="C296" s="17" t="s">
-        <v>893</v>
-      </c>
-      <c r="D296" s="24" t="s">
-        <v>894</v>
-      </c>
-      <c r="E296">
-        <v>1</v>
-      </c>
-      <c r="F296">
-        <v>1</v>
-      </c>
-      <c r="G296">
-        <v>1</v>
-      </c>
-      <c r="I296" s="23" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="18">
-        <v>296</v>
-      </c>
-      <c r="B297" s="24" t="s">
-        <v>895</v>
-      </c>
-      <c r="C297" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="D297" s="24" t="s">
-        <v>898</v>
-      </c>
-      <c r="E297">
-        <v>0</v>
-      </c>
-      <c r="F297">
-        <v>0</v>
-      </c>
-      <c r="G297">
-        <v>0</v>
-      </c>
-      <c r="I297" s="17" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="18">
-        <v>297</v>
-      </c>
-      <c r="B298" s="24" t="s">
-        <v>900</v>
-      </c>
-      <c r="C298" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="D298" s="24" t="s">
-        <v>899</v>
-      </c>
-      <c r="E298">
-        <v>0</v>
-      </c>
-      <c r="F298">
-        <v>0</v>
-      </c>
-      <c r="G298">
-        <v>0</v>
-      </c>
-      <c r="I298" s="17" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="18">
-        <v>298</v>
-      </c>
-      <c r="B299" s="24" t="s">
-        <v>901</v>
-      </c>
-      <c r="C299" s="17" t="s">
-        <v>902</v>
-      </c>
-      <c r="D299" s="24" t="s">
-        <v>903</v>
-      </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299">
-        <v>0</v>
-      </c>
-      <c r="G299">
-        <v>0</v>
-      </c>
-      <c r="I299" s="17" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="18">
-        <v>299</v>
-      </c>
-      <c r="B300" s="24" t="s">
-        <v>904</v>
-      </c>
-      <c r="C300" s="17" t="s">
-        <v>905</v>
-      </c>
-      <c r="D300" s="24" t="s">
-        <v>906</v>
-      </c>
-      <c r="E300">
-        <v>1</v>
-      </c>
-      <c r="F300">
-        <v>1</v>
-      </c>
-      <c r="G300">
-        <v>1</v>
-      </c>
-      <c r="I300" s="23" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="18">
-        <v>300</v>
-      </c>
-      <c r="B301" s="34" t="s">
-        <v>911</v>
-      </c>
-      <c r="C301" s="35" t="s">
-        <v>912</v>
-      </c>
-      <c r="D301" s="34" t="s">
-        <v>913</v>
-      </c>
-      <c r="E301" s="47">
-        <v>0</v>
-      </c>
-      <c r="F301" s="47">
-        <v>0</v>
-      </c>
-      <c r="G301" s="47">
-        <v>0</v>
-      </c>
-      <c r="I301" s="37" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="18">
-        <v>301</v>
-      </c>
-      <c r="B302" s="34" t="s">
-        <v>917</v>
-      </c>
-      <c r="C302" s="35" t="s">
-        <v>915</v>
-      </c>
-      <c r="D302" s="34" t="s">
-        <v>916</v>
-      </c>
-      <c r="E302" s="47">
-        <v>0</v>
-      </c>
-      <c r="F302" s="47">
-        <v>0</v>
-      </c>
-      <c r="G302" s="47">
-        <v>0</v>
-      </c>
-      <c r="I302" s="37" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="18">
-        <v>302</v>
-      </c>
-      <c r="B303" s="34" t="s">
+    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A309" s="16">
+        <v>308</v>
+      </c>
+      <c r="B309" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="C309" s="17" t="s">
+        <v>930</v>
+      </c>
+      <c r="D309" s="17" t="s">
+        <v>929</v>
+      </c>
+      <c r="E309" s="17">
+        <v>1</v>
+      </c>
+      <c r="F309" s="17">
+        <v>1</v>
+      </c>
+      <c r="G309" s="17">
+        <v>1</v>
+      </c>
+      <c r="H309" s="17"/>
+      <c r="I309" s="19" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A310" s="16">
+        <v>309</v>
+      </c>
+      <c r="B310" s="29" t="s">
+        <v>937</v>
+      </c>
+      <c r="C310" s="27" t="s">
+        <v>935</v>
+      </c>
+      <c r="D310" s="29" t="s">
+        <v>936</v>
+      </c>
+      <c r="E310" s="28">
+        <v>1</v>
+      </c>
+      <c r="F310" s="28">
+        <v>1</v>
+      </c>
+      <c r="G310" s="28">
+        <v>1</v>
+      </c>
+      <c r="H310" s="28"/>
+      <c r="I310" s="27" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A311" s="16">
+        <v>310</v>
+      </c>
+      <c r="B311" s="29" t="s">
+        <v>947</v>
+      </c>
+      <c r="C311" s="27" t="s">
         <v>948</v>
       </c>
-      <c r="C303" s="35" t="s">
-        <v>941</v>
-      </c>
-      <c r="E303" s="36">
-        <v>1</v>
-      </c>
-      <c r="F303" s="36">
-        <v>1</v>
-      </c>
-      <c r="G303" s="36">
-        <v>1</v>
-      </c>
-      <c r="I303" s="35" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A304" s="18">
-        <v>303</v>
-      </c>
-      <c r="B304" s="45" t="s">
-        <v>921</v>
-      </c>
-      <c r="C304" s="43" t="s">
-        <v>920</v>
-      </c>
-      <c r="D304" s="45" t="s">
-        <v>922</v>
-      </c>
-      <c r="E304" s="47">
-        <v>0</v>
-      </c>
-      <c r="F304" s="47">
-        <v>0</v>
-      </c>
-      <c r="G304" s="47">
-        <v>0</v>
-      </c>
-      <c r="H304" s="44"/>
-      <c r="I304" s="46" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A305" s="18">
-        <v>304</v>
-      </c>
-      <c r="B305" s="34" t="s">
-        <v>923</v>
-      </c>
-      <c r="C305" s="35" t="s">
-        <v>934</v>
-      </c>
-      <c r="D305" s="34" t="s">
-        <v>924</v>
-      </c>
-      <c r="E305" s="36">
-        <v>1</v>
-      </c>
-      <c r="F305" s="36">
-        <v>1</v>
-      </c>
-      <c r="G305" s="36">
-        <v>1</v>
-      </c>
-      <c r="I305" s="37" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A306" s="18">
-        <v>305</v>
-      </c>
-      <c r="B306" s="45" t="s">
-        <v>926</v>
-      </c>
-      <c r="C306" s="43" t="s">
-        <v>944</v>
-      </c>
-      <c r="D306" s="45" t="s">
-        <v>927</v>
-      </c>
-      <c r="E306" s="44">
-        <v>1</v>
-      </c>
-      <c r="F306" s="44">
-        <v>1</v>
-      </c>
-      <c r="G306" s="44">
-        <v>1</v>
-      </c>
-      <c r="H306" s="44"/>
-      <c r="I306" s="43" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A307" s="18">
-        <v>306</v>
-      </c>
-      <c r="B307" s="45" t="s">
-        <v>928</v>
-      </c>
-      <c r="C307" s="43" t="s">
-        <v>943</v>
-      </c>
-      <c r="D307" s="45" t="s">
-        <v>929</v>
-      </c>
-      <c r="E307" s="44">
-        <v>1</v>
-      </c>
-      <c r="F307" s="44">
-        <v>1</v>
-      </c>
-      <c r="G307" s="44">
-        <v>1</v>
-      </c>
-      <c r="H307" s="44"/>
-      <c r="I307" s="43" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A308" s="18">
-        <v>307</v>
-      </c>
-      <c r="B308" s="38" t="s">
-        <v>930</v>
-      </c>
-      <c r="C308" s="38" t="s">
-        <v>932</v>
-      </c>
-      <c r="D308" s="38" t="s">
-        <v>931</v>
-      </c>
-      <c r="E308" s="2">
-        <v>1</v>
-      </c>
-      <c r="F308" s="2">
-        <v>1</v>
-      </c>
-      <c r="G308" s="2">
-        <v>1</v>
-      </c>
-      <c r="H308" s="2"/>
-      <c r="I308" s="37" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A309" s="18">
-        <v>308</v>
-      </c>
-      <c r="B309" t="s">
-        <v>937</v>
-      </c>
-      <c r="C309" t="s">
-        <v>936</v>
-      </c>
-      <c r="D309" t="s">
-        <v>935</v>
-      </c>
-      <c r="E309">
-        <v>1</v>
-      </c>
-      <c r="F309">
-        <v>1</v>
-      </c>
-      <c r="G309">
-        <v>1</v>
-      </c>
-      <c r="I309" s="37" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A310" s="18">
-        <v>309</v>
-      </c>
-      <c r="B310" s="45" t="s">
-        <v>947</v>
-      </c>
-      <c r="C310" s="43" t="s">
-        <v>945</v>
-      </c>
-      <c r="D310" s="45" t="s">
+      <c r="D311" s="29" t="s">
         <v>946</v>
       </c>
-      <c r="E310" s="44">
-        <v>1</v>
-      </c>
-      <c r="F310" s="44">
-        <v>1</v>
-      </c>
-      <c r="G310" s="44">
-        <v>1</v>
-      </c>
-      <c r="H310" s="44"/>
-      <c r="I310" s="43" t="s">
-        <v>940</v>
+      <c r="E311" s="28">
+        <v>1</v>
+      </c>
+      <c r="F311" s="28">
+        <v>1</v>
+      </c>
+      <c r="G311" s="28">
+        <v>1</v>
+      </c>
+      <c r="I311" s="27" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A312" s="16">
+        <v>311</v>
+      </c>
+      <c r="B312" s="29" t="s">
+        <v>950</v>
+      </c>
+      <c r="C312" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D312" s="29" t="s">
+        <v>951</v>
+      </c>
+      <c r="E312" s="28">
+        <v>1</v>
+      </c>
+      <c r="F312" s="28">
+        <v>1</v>
+      </c>
+      <c r="G312" s="28">
+        <v>1</v>
+      </c>
+      <c r="I312" s="27" t="s">
+        <v>953</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="964">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3943,18 +3943,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>饺子换好礼→圣诞福利→元旦好礼→欢乐福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>饺子收集榜 → 金元宝榜→星星收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月11日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1月11日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4034,10 +4022,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_039_ty_by_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4051,6 +4035,45 @@
   </si>
   <si>
     <t>Act_039_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--礼包模板（感恩礼包）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_LB1Manager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--兑换模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--排行榜模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动模板，永久</t>
+  </si>
+  <si>
+    <t>活动模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_czzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_Act_CZZKManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4597,13 +4620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I312"/>
+  <dimension ref="A1:I314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H75" sqref="H75"/>
+      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6558,13 +6581,13 @@
         <v>222</v>
       </c>
       <c r="E75" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>648</v>
@@ -11665,7 +11688,7 @@
         <v>828</v>
       </c>
       <c r="C278" s="27" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D278" s="30" t="s">
         <v>829</v>
@@ -11681,7 +11704,7 @@
       </c>
       <c r="H278" s="27"/>
       <c r="I278" s="27" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12316,7 +12339,7 @@
         <v>938</v>
       </c>
       <c r="C303" s="27" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D303" s="28"/>
       <c r="E303" s="28">
@@ -12330,7 +12353,7 @@
       </c>
       <c r="H303" s="28"/>
       <c r="I303" s="27" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12392,13 +12415,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="29" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C306" s="27" t="s">
-        <v>939</v>
+        <v>957</v>
       </c>
       <c r="D306" s="29" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E306" s="28">
         <v>1</v>
@@ -12411,7 +12434,7 @@
       </c>
       <c r="H306" s="28"/>
       <c r="I306" s="27" t="s">
-        <v>941</v>
+        <v>959</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12419,10 +12442,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="29" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C307" s="27" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="D307" s="29" t="s">
         <v>924</v>
@@ -12438,7 +12461,7 @@
       </c>
       <c r="H307" s="28"/>
       <c r="I307" s="27" t="s">
-        <v>942</v>
+        <v>959</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12446,7 +12469,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C308" s="18" t="s">
         <v>926</v>
@@ -12499,26 +12522,26 @@
       <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="29" t="s">
+      <c r="B310" s="18" t="s">
         <v>937</v>
       </c>
-      <c r="C310" s="27" t="s">
+      <c r="C310" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="D310" s="29" t="s">
+      <c r="D310" s="18" t="s">
         <v>936</v>
       </c>
-      <c r="E310" s="28">
-        <v>1</v>
-      </c>
-      <c r="F310" s="28">
-        <v>1</v>
-      </c>
-      <c r="G310" s="28">
-        <v>1</v>
-      </c>
-      <c r="H310" s="28"/>
-      <c r="I310" s="27" t="s">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="H310" s="17"/>
+      <c r="I310" s="15" t="s">
         <v>934</v>
       </c>
     </row>
@@ -12526,52 +12549,103 @@
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="29" t="s">
-        <v>947</v>
-      </c>
-      <c r="C311" s="27" t="s">
-        <v>948</v>
-      </c>
-      <c r="D311" s="29" t="s">
+      <c r="B311" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="C311" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="D311" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="H311" s="17"/>
+      <c r="I311" s="15" t="s">
         <v>946</v>
-      </c>
-      <c r="E311" s="28">
-        <v>1</v>
-      </c>
-      <c r="F311" s="28">
-        <v>1</v>
-      </c>
-      <c r="G311" s="28">
-        <v>1</v>
-      </c>
-      <c r="I311" s="27" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="29" t="s">
-        <v>950</v>
-      </c>
-      <c r="C312" s="27" t="s">
-        <v>952</v>
-      </c>
-      <c r="D312" s="29" t="s">
-        <v>951</v>
-      </c>
-      <c r="E312" s="28">
-        <v>1</v>
-      </c>
-      <c r="F312" s="28">
-        <v>1</v>
-      </c>
-      <c r="G312" s="28">
-        <v>1</v>
-      </c>
-      <c r="I312" s="27" t="s">
-        <v>953</v>
+      <c r="B312" s="18" t="s">
+        <v>947</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="D312" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="E312" s="17">
+        <v>1</v>
+      </c>
+      <c r="F312" s="17">
+        <v>1</v>
+      </c>
+      <c r="G312" s="17">
+        <v>1</v>
+      </c>
+      <c r="H312" s="17"/>
+      <c r="I312" s="15" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A313" s="16">
+        <v>312</v>
+      </c>
+      <c r="B313" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="C313" s="27" t="s">
+        <v>954</v>
+      </c>
+      <c r="D313" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="E313" s="17">
+        <v>1</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="15" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A314" s="16">
+        <v>313</v>
+      </c>
+      <c r="B314" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="C314" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="D314" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="E314" s="17">
+        <v>0</v>
+      </c>
+      <c r="F314" s="17">
+        <v>0</v>
+      </c>
+      <c r="G314" s="17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="971">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3893,9 +3893,6 @@
     <t>Act_039_TYBYDROPManager</t>
   </si>
   <si>
-    <t>捕鱼通用掉落活动</t>
-  </si>
-  <si>
     <t>12月28日23:59:59</t>
   </si>
   <si>
@@ -4076,12 +4073,82 @@
     <t>Sys_Act_CZZKManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通用活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>掉落活动</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_collect_words</t>
+  </si>
+  <si>
+    <t>SYS_JBPManager</t>
+  </si>
+  <si>
+    <t>sys_jbp</t>
+  </si>
+  <si>
+    <t>通用活动--发财礼包模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25日 23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_Collect_WordsManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4170,8 +4237,22 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4214,6 +4295,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4246,7 +4345,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4316,9 +4415,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4337,11 +4433,50 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4620,7 +4755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I314"/>
+  <dimension ref="A1:I316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
@@ -4629,7 +4764,7 @@
       <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="17" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
@@ -4642,8 +4777,8 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4671,7 +4806,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -4697,7 +4832,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -4723,7 +4858,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -4749,7 +4884,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -4775,7 +4910,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -4801,7 +4936,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -4827,7 +4962,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -4853,7 +4988,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -4879,7 +5014,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -4905,7 +5040,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -4931,7 +5066,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -4957,7 +5092,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -4983,7 +5118,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -5009,7 +5144,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -5035,7 +5170,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -5061,7 +5196,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -5087,7 +5222,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -5113,7 +5248,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -5139,7 +5274,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -5165,7 +5300,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -5191,7 +5326,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -5217,7 +5352,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -5243,7 +5378,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -5269,7 +5404,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -5295,7 +5430,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -5321,7 +5456,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -5347,7 +5482,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -5373,7 +5508,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -5399,7 +5534,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -5425,7 +5560,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -5451,7 +5586,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -5477,7 +5612,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -5503,7 +5638,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -5529,7 +5664,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="16">
         <v>34</v>
       </c>
@@ -5555,7 +5690,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -5581,7 +5716,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -5607,7 +5742,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -5633,7 +5768,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -5659,7 +5794,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -5685,7 +5820,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -5711,7 +5846,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -5737,7 +5872,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="16">
         <v>42</v>
       </c>
@@ -5763,7 +5898,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -5789,7 +5924,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="16">
         <v>44</v>
       </c>
@@ -5815,7 +5950,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -5841,7 +5976,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="16">
         <v>46</v>
       </c>
@@ -5867,7 +6002,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -5893,7 +6028,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -5919,7 +6054,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -5945,7 +6080,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -5971,7 +6106,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="16">
         <v>51</v>
       </c>
@@ -5995,7 +6130,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="16">
         <v>52</v>
       </c>
@@ -6021,7 +6156,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="16">
         <v>53</v>
       </c>
@@ -6047,7 +6182,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="16">
         <v>54</v>
       </c>
@@ -6073,7 +6208,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="16">
         <v>55</v>
       </c>
@@ -6099,7 +6234,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="16">
         <v>56</v>
       </c>
@@ -6125,7 +6260,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="16">
         <v>57</v>
       </c>
@@ -6151,7 +6286,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="16">
         <v>58</v>
       </c>
@@ -6177,7 +6312,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6203,7 +6338,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="16">
         <v>60</v>
       </c>
@@ -6229,7 +6364,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="16">
         <v>61</v>
       </c>
@@ -6255,7 +6390,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="16">
         <v>62</v>
       </c>
@@ -6281,7 +6416,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="16">
         <v>63</v>
       </c>
@@ -6307,7 +6442,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="16">
         <v>64</v>
       </c>
@@ -6333,7 +6468,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="16">
         <v>65</v>
       </c>
@@ -6359,7 +6494,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="16">
         <v>66</v>
       </c>
@@ -6385,7 +6520,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="16">
         <v>67</v>
       </c>
@@ -6411,7 +6546,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="16">
         <v>68</v>
       </c>
@@ -6437,7 +6572,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="16">
         <v>69</v>
       </c>
@@ -6463,7 +6598,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="16">
         <v>70</v>
       </c>
@@ -6489,7 +6624,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="16">
         <v>71</v>
       </c>
@@ -6515,7 +6650,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="16">
         <v>72</v>
       </c>
@@ -6541,7 +6676,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="16.5">
       <c r="A74" s="16">
         <v>73</v>
       </c>
@@ -6567,33 +6702,33 @@
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="16">
+    <row r="75" spans="1:9" s="42" customFormat="1" ht="16.5">
+      <c r="A75" s="41">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="41" t="s">
         <v>660</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="5">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="I75" s="11" t="s">
+      <c r="E75" s="41">
+        <v>0</v>
+      </c>
+      <c r="F75" s="42">
+        <v>0</v>
+      </c>
+      <c r="G75" s="42">
+        <v>0</v>
+      </c>
+      <c r="I75" s="43" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="16.5">
       <c r="A76" s="16">
         <v>75</v>
       </c>
@@ -6619,7 +6754,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="16">
         <v>76</v>
       </c>
@@ -6645,7 +6780,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="16">
         <v>77</v>
       </c>
@@ -6671,7 +6806,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="16">
         <v>78</v>
       </c>
@@ -6697,7 +6832,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="16">
         <v>79</v>
       </c>
@@ -6723,7 +6858,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="16">
         <v>80</v>
       </c>
@@ -6749,7 +6884,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="16">
         <v>81</v>
       </c>
@@ -6775,7 +6910,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="16">
         <v>82</v>
       </c>
@@ -6801,7 +6936,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="16">
         <v>83</v>
       </c>
@@ -6827,7 +6962,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="16">
         <v>84</v>
       </c>
@@ -6853,7 +6988,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="16">
         <v>85</v>
       </c>
@@ -6879,7 +7014,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="16">
         <v>86</v>
       </c>
@@ -6905,7 +7040,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="16">
         <v>87</v>
       </c>
@@ -6931,7 +7066,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="16">
         <v>88</v>
       </c>
@@ -6957,7 +7092,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="16">
         <v>89</v>
       </c>
@@ -6983,7 +7118,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="16">
         <v>90</v>
       </c>
@@ -7009,7 +7144,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="16">
         <v>91</v>
       </c>
@@ -7035,7 +7170,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="16">
         <v>92</v>
       </c>
@@ -7061,7 +7196,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="16">
         <v>93</v>
       </c>
@@ -7087,7 +7222,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="16">
         <v>94</v>
       </c>
@@ -7113,7 +7248,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="16">
         <v>95</v>
       </c>
@@ -7139,7 +7274,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="16">
         <v>96</v>
       </c>
@@ -7165,7 +7300,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="16">
         <v>97</v>
       </c>
@@ -7191,7 +7326,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="16">
         <v>98</v>
       </c>
@@ -7217,7 +7352,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="16">
         <v>99</v>
       </c>
@@ -7243,7 +7378,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="16">
         <v>100</v>
       </c>
@@ -7269,7 +7404,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="16">
         <v>101</v>
       </c>
@@ -7295,7 +7430,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="16">
         <v>102</v>
       </c>
@@ -7321,7 +7456,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="16">
         <v>103</v>
       </c>
@@ -7347,7 +7482,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="16">
         <v>104</v>
       </c>
@@ -7373,7 +7508,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="16">
         <v>105</v>
       </c>
@@ -7399,7 +7534,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="16">
         <v>106</v>
       </c>
@@ -7425,7 +7560,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="16">
         <v>107</v>
       </c>
@@ -7451,7 +7586,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="16">
         <v>108</v>
       </c>
@@ -7477,7 +7612,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="16">
         <v>109</v>
       </c>
@@ -7503,7 +7638,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="16">
         <v>110</v>
       </c>
@@ -7529,7 +7664,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="16">
         <v>111</v>
       </c>
@@ -7555,7 +7690,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="16">
         <v>112</v>
       </c>
@@ -7581,7 +7716,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="16">
         <v>113</v>
       </c>
@@ -7607,7 +7742,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="16">
         <v>114</v>
       </c>
@@ -7633,7 +7768,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="16">
         <v>115</v>
       </c>
@@ -7659,7 +7794,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="16">
         <v>116</v>
       </c>
@@ -7685,7 +7820,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="16">
         <v>117</v>
       </c>
@@ -7711,7 +7846,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="16.5">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -7737,7 +7872,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="16">
         <v>119</v>
       </c>
@@ -7763,7 +7898,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="16">
         <v>120</v>
       </c>
@@ -7789,7 +7924,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="16">
         <v>121</v>
       </c>
@@ -7815,7 +7950,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="16">
         <v>122</v>
       </c>
@@ -7841,7 +7976,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="16">
         <v>123</v>
       </c>
@@ -7867,7 +8002,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="16">
         <v>124</v>
       </c>
@@ -7893,7 +8028,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="16">
         <v>125</v>
       </c>
@@ -7919,7 +8054,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="16">
         <v>126</v>
       </c>
@@ -7945,7 +8080,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="16">
         <v>127</v>
       </c>
@@ -7971,7 +8106,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="16">
         <v>128</v>
       </c>
@@ -7997,7 +8132,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="16">
         <v>129</v>
       </c>
@@ -8023,7 +8158,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="16">
         <v>130</v>
       </c>
@@ -8049,7 +8184,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="16">
         <v>131</v>
       </c>
@@ -8075,7 +8210,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="16">
         <v>132</v>
       </c>
@@ -8101,7 +8236,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="16">
         <v>133</v>
       </c>
@@ -8127,7 +8262,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="16">
         <v>134</v>
       </c>
@@ -8153,7 +8288,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="16">
         <v>135</v>
       </c>
@@ -8179,7 +8314,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="16">
         <v>136</v>
       </c>
@@ -8205,7 +8340,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="16">
         <v>137</v>
       </c>
@@ -8231,7 +8366,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="16">
         <v>138</v>
       </c>
@@ -8257,7 +8392,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="16">
         <v>139</v>
       </c>
@@ -8283,7 +8418,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="16">
         <v>140</v>
       </c>
@@ -8309,7 +8444,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="16">
         <v>141</v>
       </c>
@@ -8335,7 +8470,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="16">
         <v>142</v>
       </c>
@@ -8361,7 +8496,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="16">
         <v>143</v>
       </c>
@@ -8387,7 +8522,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="16">
         <v>144</v>
       </c>
@@ -8413,7 +8548,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="16">
         <v>145</v>
       </c>
@@ -8439,7 +8574,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="16">
         <v>146</v>
       </c>
@@ -8465,7 +8600,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="16">
         <v>147</v>
       </c>
@@ -8491,7 +8626,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="16">
         <v>148</v>
       </c>
@@ -8517,7 +8652,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="16">
         <v>149</v>
       </c>
@@ -8543,7 +8678,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="16">
         <v>150</v>
       </c>
@@ -8569,7 +8704,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="16">
         <v>151</v>
       </c>
@@ -8595,7 +8730,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="16">
         <v>152</v>
       </c>
@@ -8621,7 +8756,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="16">
         <v>153</v>
       </c>
@@ -8647,7 +8782,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="16">
         <v>154</v>
       </c>
@@ -8673,7 +8808,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="16">
         <v>155</v>
       </c>
@@ -8699,7 +8834,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="16">
         <v>156</v>
       </c>
@@ -8725,7 +8860,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="16">
         <v>157</v>
       </c>
@@ -8751,7 +8886,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="16">
         <v>158</v>
       </c>
@@ -8777,7 +8912,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="16">
         <v>159</v>
       </c>
@@ -8803,7 +8938,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="16">
         <v>160</v>
       </c>
@@ -8829,7 +8964,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="16">
         <v>161</v>
       </c>
@@ -8855,7 +8990,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="16">
         <v>162</v>
       </c>
@@ -8881,7 +9016,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="16">
         <v>163</v>
       </c>
@@ -8907,7 +9042,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="16">
         <v>164</v>
       </c>
@@ -8933,7 +9068,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="16">
         <v>165</v>
       </c>
@@ -8959,7 +9094,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="16">
         <v>166</v>
       </c>
@@ -8985,7 +9120,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="16">
         <v>167</v>
       </c>
@@ -9011,7 +9146,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="16">
         <v>168</v>
       </c>
@@ -9037,7 +9172,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="16">
         <v>169</v>
       </c>
@@ -9061,7 +9196,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="16">
         <v>170</v>
       </c>
@@ -9085,7 +9220,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="16">
         <v>171</v>
       </c>
@@ -9109,7 +9244,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="16">
         <v>172</v>
       </c>
@@ -9133,7 +9268,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="16">
         <v>173</v>
       </c>
@@ -9159,7 +9294,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="16">
         <v>174</v>
       </c>
@@ -9183,7 +9318,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="16">
         <v>175</v>
       </c>
@@ -9207,7 +9342,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="16">
         <v>176</v>
       </c>
@@ -9231,7 +9366,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="16">
         <v>177</v>
       </c>
@@ -9257,7 +9392,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="16">
         <v>178</v>
       </c>
@@ -9283,7 +9418,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="16.5">
       <c r="A180" s="16">
         <v>179</v>
       </c>
@@ -9307,7 +9442,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A181" s="16">
         <v>180</v>
       </c>
@@ -9331,7 +9466,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A182" s="16">
         <v>181</v>
       </c>
@@ -9355,7 +9490,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A183" s="16">
         <v>182</v>
       </c>
@@ -9379,7 +9514,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="16">
         <v>183</v>
       </c>
@@ -9402,7 +9537,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="16">
         <v>184</v>
       </c>
@@ -9425,7 +9560,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="16">
         <v>185</v>
       </c>
@@ -9448,7 +9583,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="16">
         <v>186</v>
       </c>
@@ -9471,7 +9606,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="16">
         <v>187</v>
       </c>
@@ -9494,7 +9629,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="16">
         <v>188</v>
       </c>
@@ -9517,7 +9652,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="16">
         <v>189</v>
       </c>
@@ -9540,7 +9675,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="16">
         <v>190</v>
       </c>
@@ -9563,7 +9698,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="16">
         <v>191</v>
       </c>
@@ -9586,7 +9721,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="16">
         <v>192</v>
       </c>
@@ -9609,7 +9744,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="16">
         <v>193</v>
       </c>
@@ -9632,7 +9767,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="16">
         <v>194</v>
       </c>
@@ -9655,7 +9790,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="16">
         <v>195</v>
       </c>
@@ -9678,7 +9813,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="16">
         <v>196</v>
       </c>
@@ -9701,7 +9836,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="16">
         <v>197</v>
       </c>
@@ -9724,7 +9859,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="16">
         <v>198</v>
       </c>
@@ -9747,7 +9882,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="16">
         <v>199</v>
       </c>
@@ -9770,7 +9905,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="16">
         <v>200</v>
       </c>
@@ -9793,7 +9928,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="16">
         <v>201</v>
       </c>
@@ -9816,7 +9951,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="16">
         <v>202</v>
       </c>
@@ -9839,7 +9974,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="16">
         <v>203</v>
       </c>
@@ -9862,7 +9997,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="16">
         <v>204</v>
       </c>
@@ -9888,7 +10023,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="16">
         <v>205</v>
       </c>
@@ -9914,7 +10049,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="16">
         <v>206</v>
       </c>
@@ -9940,7 +10075,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="16">
         <v>207</v>
       </c>
@@ -9963,7 +10098,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="16">
         <v>208</v>
       </c>
@@ -9986,7 +10121,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="16">
         <v>209</v>
       </c>
@@ -10009,7 +10144,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="16">
         <v>210</v>
       </c>
@@ -10032,7 +10167,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="16">
         <v>211</v>
       </c>
@@ -10055,7 +10190,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="16">
         <v>212</v>
       </c>
@@ -10078,7 +10213,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="16">
         <v>213</v>
       </c>
@@ -10101,7 +10236,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="16">
         <v>214</v>
       </c>
@@ -10124,7 +10259,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="16">
         <v>215</v>
       </c>
@@ -10147,7 +10282,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="16">
         <v>216</v>
       </c>
@@ -10170,7 +10305,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="16">
         <v>217</v>
       </c>
@@ -10193,7 +10328,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="16">
         <v>218</v>
       </c>
@@ -10216,7 +10351,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="16">
         <v>219</v>
       </c>
@@ -10239,7 +10374,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="16">
         <v>220</v>
       </c>
@@ -10262,7 +10397,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="16">
         <v>221</v>
       </c>
@@ -10285,7 +10420,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="16">
         <v>222</v>
       </c>
@@ -10308,7 +10443,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="16">
         <v>223</v>
       </c>
@@ -10331,7 +10466,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="16">
         <v>224</v>
       </c>
@@ -10354,7 +10489,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="16">
         <v>225</v>
       </c>
@@ -10377,7 +10512,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="16">
         <v>226</v>
       </c>
@@ -10400,7 +10535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="16">
         <v>227</v>
       </c>
@@ -10423,7 +10558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="16">
         <v>228</v>
       </c>
@@ -10446,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="16">
         <v>229</v>
       </c>
@@ -10469,7 +10604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="16">
         <v>230</v>
       </c>
@@ -10492,7 +10627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="16">
         <v>231</v>
       </c>
@@ -10515,7 +10650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="16">
         <v>232</v>
       </c>
@@ -10538,7 +10673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="16">
         <v>233</v>
       </c>
@@ -10561,7 +10696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="16">
         <v>234</v>
       </c>
@@ -10584,7 +10719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="16">
         <v>235</v>
       </c>
@@ -10610,7 +10745,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="16">
         <v>236</v>
       </c>
@@ -10636,7 +10771,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="16">
         <v>237</v>
       </c>
@@ -10662,7 +10797,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="16">
         <v>238</v>
       </c>
@@ -10688,7 +10823,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="16">
         <v>239</v>
       </c>
@@ -10714,7 +10849,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="16">
         <v>240</v>
       </c>
@@ -10740,7 +10875,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="16">
         <v>241</v>
       </c>
@@ -10766,7 +10901,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="16">
         <v>242</v>
       </c>
@@ -10792,7 +10927,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="16">
         <v>243</v>
       </c>
@@ -10818,7 +10953,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="16">
         <v>244</v>
       </c>
@@ -10844,7 +10979,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="16">
         <v>245</v>
       </c>
@@ -10870,7 +11005,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="16">
         <v>246</v>
       </c>
@@ -10896,7 +11031,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="16">
         <v>247</v>
       </c>
@@ -10922,7 +11057,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="16">
         <v>248</v>
       </c>
@@ -10948,7 +11083,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="16">
         <v>249</v>
       </c>
@@ -10974,7 +11109,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="16">
         <v>250</v>
       </c>
@@ -11000,7 +11135,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="16">
         <v>251</v>
       </c>
@@ -11026,7 +11161,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="16">
         <v>252</v>
       </c>
@@ -11052,33 +11187,34 @@
         <v>738</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="16">
         <v>253</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="31" t="s">
         <v>742</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="D254" s="31" t="s">
         <v>743</v>
       </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="9" t="s">
+      <c r="E254" s="32">
+        <v>1</v>
+      </c>
+      <c r="F254" s="32">
+        <v>1</v>
+      </c>
+      <c r="G254" s="32">
+        <v>1</v>
+      </c>
+      <c r="H254" s="32"/>
+      <c r="I254" s="31" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="16">
         <v>254</v>
       </c>
@@ -11104,7 +11240,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="16.5">
       <c r="A256" s="16">
         <v>255</v>
       </c>
@@ -11130,33 +11266,33 @@
         <v>754</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="26">
+    <row r="257" spans="1:9" s="27" customFormat="1" ht="16.5">
+      <c r="A257" s="25">
         <v>256</v>
       </c>
-      <c r="B257" s="27" t="s">
+      <c r="B257" s="26" t="s">
         <v>755</v>
       </c>
-      <c r="C257" s="27" t="s">
+      <c r="C257" s="26" t="s">
+        <v>932</v>
+      </c>
+      <c r="D257" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="E257" s="27">
+        <v>1</v>
+      </c>
+      <c r="F257" s="27">
+        <v>1</v>
+      </c>
+      <c r="G257" s="27">
+        <v>1</v>
+      </c>
+      <c r="I257" s="22" t="s">
         <v>933</v>
       </c>
-      <c r="D257" s="27" t="s">
-        <v>756</v>
-      </c>
-      <c r="E257" s="28">
-        <v>1</v>
-      </c>
-      <c r="F257" s="28">
-        <v>1</v>
-      </c>
-      <c r="G257" s="28">
-        <v>1</v>
-      </c>
-      <c r="I257" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A258" s="16">
         <v>257</v>
       </c>
@@ -11182,7 +11318,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A259" s="16">
         <v>258</v>
       </c>
@@ -11208,7 +11344,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A260" s="16">
         <v>259</v>
       </c>
@@ -11234,7 +11370,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A261" s="16">
         <v>260</v>
       </c>
@@ -11260,7 +11396,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="16">
         <v>261</v>
       </c>
@@ -11286,7 +11422,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="16.5">
       <c r="A263" s="16">
         <v>262</v>
       </c>
@@ -11312,7 +11448,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A264" s="16">
         <v>263</v>
       </c>
@@ -11338,7 +11474,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A265" s="16">
         <v>264</v>
       </c>
@@ -11364,7 +11500,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A266" s="16">
         <v>265</v>
       </c>
@@ -11390,7 +11526,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A267" s="16">
         <v>266</v>
       </c>
@@ -11416,7 +11552,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A268" s="16">
         <v>267</v>
       </c>
@@ -11442,7 +11578,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A269" s="16">
         <v>268</v>
       </c>
@@ -11468,7 +11604,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="16.5">
       <c r="A270" s="16">
         <v>269</v>
       </c>
@@ -11495,7 +11631,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="16.5">
       <c r="A271" s="16">
         <v>270</v>
       </c>
@@ -11522,7 +11658,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="16.5">
       <c r="A272" s="16">
         <v>271</v>
       </c>
@@ -11549,7 +11685,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="16.5">
       <c r="A273" s="16">
         <v>272</v>
       </c>
@@ -11576,7 +11712,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="16.5">
       <c r="A274" s="16">
         <v>273</v>
       </c>
@@ -11603,7 +11739,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="16.5">
       <c r="A275" s="16">
         <v>274</v>
       </c>
@@ -11630,7 +11766,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" s="21" customFormat="1" ht="17.25">
       <c r="A276" s="16">
         <v>275</v>
       </c>
@@ -11644,7 +11780,7 @@
         <v>824</v>
       </c>
       <c r="E276" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276" s="17">
         <v>1</v>
@@ -11653,11 +11789,11 @@
         <v>1</v>
       </c>
       <c r="H276" s="17"/>
-      <c r="I276" s="31" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I276" s="29" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="16.5">
       <c r="A277" s="16">
         <v>276</v>
       </c>
@@ -11668,7 +11804,7 @@
         <v>826</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277">
         <v>1</v>
@@ -11680,34 +11816,34 @@
         <v>827</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A278" s="16">
         <v>277</v>
       </c>
-      <c r="B278" s="27" t="s">
+      <c r="B278" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="C278" s="27" t="s">
-        <v>941</v>
-      </c>
-      <c r="D278" s="30" t="s">
+      <c r="C278" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="D278" s="35" t="s">
         <v>829</v>
       </c>
-      <c r="E278" s="27">
-        <v>0</v>
-      </c>
-      <c r="F278" s="27">
-        <v>0</v>
-      </c>
-      <c r="G278" s="27">
-        <v>0</v>
-      </c>
-      <c r="H278" s="27"/>
-      <c r="I278" s="27" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E278" s="15">
+        <v>0</v>
+      </c>
+      <c r="F278" s="15">
+        <v>0</v>
+      </c>
+      <c r="G278" s="15">
+        <v>0</v>
+      </c>
+      <c r="H278" s="15"/>
+      <c r="I278" s="15" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="16">
         <v>278</v>
       </c>
@@ -11721,7 +11857,7 @@
         <v>830</v>
       </c>
       <c r="E279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F279">
         <v>1</v>
@@ -11733,7 +11869,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="16">
         <v>279</v>
       </c>
@@ -11756,7 +11892,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="16">
         <v>280</v>
       </c>
@@ -11782,7 +11918,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="16">
         <v>281</v>
       </c>
@@ -11796,7 +11932,7 @@
         <v>836</v>
       </c>
       <c r="E282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -11808,7 +11944,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="16">
         <v>282</v>
       </c>
@@ -11834,59 +11970,59 @@
         <v>844</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="16">
+    <row r="284" spans="1:9" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A284" s="36">
         <v>283</v>
       </c>
-      <c r="B284" s="20" t="s">
+      <c r="B284" s="38" t="s">
         <v>845</v>
       </c>
-      <c r="C284" s="15" t="s">
+      <c r="C284" s="37" t="s">
         <v>846</v>
       </c>
-      <c r="D284" s="18" t="s">
+      <c r="D284" s="38" t="s">
         <v>847</v>
       </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="19" t="s">
+      <c r="E284" s="39">
+        <v>1</v>
+      </c>
+      <c r="F284" s="39">
+        <v>1</v>
+      </c>
+      <c r="G284" s="39">
+        <v>1</v>
+      </c>
+      <c r="I284" s="40" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="16">
+    <row r="285" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A285" s="36">
         <v>284</v>
       </c>
-      <c r="B285" s="18" t="s">
+      <c r="B285" s="38" t="s">
         <v>853</v>
       </c>
-      <c r="C285" s="15" t="s">
+      <c r="C285" s="37" t="s">
         <v>854</v>
       </c>
-      <c r="D285" s="18" t="s">
+      <c r="D285" s="38" t="s">
         <v>852</v>
       </c>
-      <c r="E285" s="17">
-        <v>1</v>
-      </c>
-      <c r="F285" s="17">
-        <v>1</v>
-      </c>
-      <c r="G285" s="17">
-        <v>1</v>
-      </c>
-      <c r="I285" s="19" t="s">
+      <c r="E285" s="39">
+        <v>1</v>
+      </c>
+      <c r="F285" s="39">
+        <v>1</v>
+      </c>
+      <c r="G285" s="39">
+        <v>1</v>
+      </c>
+      <c r="I285" s="40" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="16.5">
       <c r="A286" s="16">
         <v>285</v>
       </c>
@@ -11912,59 +12048,59 @@
         <v>859</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="16">
+    <row r="287" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A287" s="36">
         <v>286</v>
       </c>
-      <c r="B287" s="15" t="s">
+      <c r="B287" s="37" t="s">
         <v>861</v>
       </c>
-      <c r="C287" s="15" t="s">
+      <c r="C287" s="37" t="s">
         <v>862</v>
       </c>
-      <c r="D287" s="18" t="s">
+      <c r="D287" s="38" t="s">
         <v>860</v>
       </c>
-      <c r="E287">
-        <v>1</v>
-      </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-      <c r="G287">
-        <v>1</v>
-      </c>
-      <c r="I287" s="19" t="s">
+      <c r="E287" s="39">
+        <v>1</v>
+      </c>
+      <c r="F287" s="39">
+        <v>1</v>
+      </c>
+      <c r="G287" s="39">
+        <v>1</v>
+      </c>
+      <c r="I287" s="40" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="16">
+    <row r="288" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A288" s="36">
         <v>287</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="37" t="s">
         <v>863</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="37" t="s">
         <v>864</v>
       </c>
-      <c r="D288" s="18" t="s">
+      <c r="D288" s="38" t="s">
         <v>865</v>
       </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="I288" s="19" t="s">
+      <c r="E288" s="39">
+        <v>1</v>
+      </c>
+      <c r="F288" s="39">
+        <v>1</v>
+      </c>
+      <c r="G288" s="39">
+        <v>1</v>
+      </c>
+      <c r="I288" s="40" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A289" s="16">
         <v>288</v>
       </c>
@@ -11991,189 +12127,189 @@
         <v>868</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="16">
+    <row r="290" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A290" s="36">
         <v>289</v>
       </c>
-      <c r="B290" s="15" t="s">
+      <c r="B290" s="37" t="s">
         <v>871</v>
       </c>
-      <c r="C290" s="15" t="s">
+      <c r="C290" s="37" t="s">
         <v>872</v>
       </c>
-      <c r="D290" s="18" t="s">
+      <c r="D290" s="38" t="s">
         <v>873</v>
       </c>
-      <c r="E290">
-        <v>1</v>
-      </c>
-      <c r="F290">
-        <v>1</v>
-      </c>
-      <c r="G290">
-        <v>1</v>
-      </c>
-      <c r="I290" s="19" t="s">
+      <c r="E290" s="39">
+        <v>1</v>
+      </c>
+      <c r="F290" s="39">
+        <v>1</v>
+      </c>
+      <c r="G290" s="39">
+        <v>1</v>
+      </c>
+      <c r="I290" s="40" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="16">
+    <row r="291" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A291" s="36">
         <v>290</v>
       </c>
-      <c r="B291" s="20" t="s">
+      <c r="B291" s="38" t="s">
         <v>875</v>
       </c>
-      <c r="C291" s="15" t="s">
+      <c r="C291" s="37" t="s">
         <v>876</v>
       </c>
-      <c r="D291" s="20" t="s">
+      <c r="D291" s="38" t="s">
         <v>877</v>
       </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" s="19" t="s">
+      <c r="E291" s="39">
+        <v>1</v>
+      </c>
+      <c r="F291" s="39">
+        <v>1</v>
+      </c>
+      <c r="G291" s="39">
+        <v>1</v>
+      </c>
+      <c r="I291" s="40" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="16">
+    <row r="292" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A292" s="36">
         <v>291</v>
       </c>
-      <c r="B292" s="20" t="s">
+      <c r="B292" s="38" t="s">
         <v>879</v>
       </c>
-      <c r="C292" s="15" t="s">
+      <c r="C292" s="37" t="s">
         <v>880</v>
       </c>
-      <c r="D292" s="20" t="s">
+      <c r="D292" s="38" t="s">
         <v>881</v>
       </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" s="19" t="s">
+      <c r="E292" s="39">
+        <v>1</v>
+      </c>
+      <c r="F292" s="39">
+        <v>1</v>
+      </c>
+      <c r="G292" s="39">
+        <v>1</v>
+      </c>
+      <c r="I292" s="40" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="16">
+    <row r="293" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A293" s="36">
         <v>292</v>
       </c>
-      <c r="B293" s="20" t="s">
+      <c r="B293" s="38" t="s">
         <v>882</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="C293" s="37" t="s">
         <v>887</v>
       </c>
-      <c r="D293" s="20" t="s">
+      <c r="D293" s="38" t="s">
         <v>884</v>
       </c>
-      <c r="E293">
-        <v>1</v>
-      </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-      <c r="I293" s="19" t="s">
+      <c r="E293" s="39">
+        <v>1</v>
+      </c>
+      <c r="F293" s="39">
+        <v>1</v>
+      </c>
+      <c r="G293" s="39">
+        <v>1</v>
+      </c>
+      <c r="I293" s="40" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A294" s="16">
+    <row r="294" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A294" s="36">
         <v>293</v>
       </c>
-      <c r="B294" s="20" t="s">
+      <c r="B294" s="38" t="s">
         <v>883</v>
       </c>
-      <c r="C294" s="15" t="s">
+      <c r="C294" s="37" t="s">
         <v>888</v>
       </c>
-      <c r="D294" s="20" t="s">
+      <c r="D294" s="38" t="s">
         <v>885</v>
       </c>
-      <c r="E294">
-        <v>1</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-      <c r="I294" s="19" t="s">
+      <c r="E294" s="39">
+        <v>1</v>
+      </c>
+      <c r="F294" s="39">
+        <v>1</v>
+      </c>
+      <c r="G294" s="39">
+        <v>1</v>
+      </c>
+      <c r="I294" s="40" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="16">
+    <row r="295" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A295" s="36">
         <v>294</v>
       </c>
-      <c r="B295" s="20" t="s">
+      <c r="B295" s="38" t="s">
         <v>889</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="C295" s="37" t="s">
         <v>890</v>
       </c>
-      <c r="D295" s="20" t="s">
+      <c r="D295" s="38" t="s">
         <v>891</v>
       </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295">
-        <v>1</v>
-      </c>
-      <c r="G295">
-        <v>1</v>
-      </c>
-      <c r="I295" s="19" t="s">
+      <c r="E295" s="39">
+        <v>1</v>
+      </c>
+      <c r="F295" s="39">
+        <v>1</v>
+      </c>
+      <c r="G295" s="39">
+        <v>1</v>
+      </c>
+      <c r="I295" s="40" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="16">
+    <row r="296" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A296" s="36">
         <v>295</v>
       </c>
-      <c r="B296" s="20" t="s">
+      <c r="B296" s="38" t="s">
         <v>892</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="C296" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="D296" s="20" t="s">
+      <c r="D296" s="38" t="s">
         <v>894</v>
       </c>
-      <c r="E296">
-        <v>1</v>
-      </c>
-      <c r="F296">
-        <v>1</v>
-      </c>
-      <c r="G296">
-        <v>1</v>
-      </c>
-      <c r="I296" s="19" t="s">
+      <c r="E296" s="39">
+        <v>1</v>
+      </c>
+      <c r="F296" s="39">
+        <v>1</v>
+      </c>
+      <c r="G296" s="39">
+        <v>1</v>
+      </c>
+      <c r="I296" s="40" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" ht="16.5">
       <c r="A297" s="16">
         <v>296</v>
       </c>
@@ -12199,7 +12335,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" ht="16.5">
       <c r="A298" s="16">
         <v>297</v>
       </c>
@@ -12225,7 +12361,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
@@ -12251,33 +12387,33 @@
         <v>910</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="16">
+    <row r="300" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A300" s="36">
         <v>299</v>
       </c>
-      <c r="B300" s="20" t="s">
+      <c r="B300" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="C300" s="15" t="s">
+      <c r="C300" s="37" t="s">
         <v>905</v>
       </c>
-      <c r="D300" s="20" t="s">
+      <c r="D300" s="38" t="s">
         <v>906</v>
       </c>
-      <c r="E300">
-        <v>1</v>
-      </c>
-      <c r="F300">
-        <v>1</v>
-      </c>
-      <c r="G300">
-        <v>1</v>
-      </c>
-      <c r="I300" s="19" t="s">
+      <c r="E300" s="39">
+        <v>1</v>
+      </c>
+      <c r="F300" s="39">
+        <v>1</v>
+      </c>
+      <c r="G300" s="39">
+        <v>1</v>
+      </c>
+      <c r="I300" s="40" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
@@ -12304,7 +12440,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
@@ -12331,32 +12467,32 @@
         <v>914</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="29" t="s">
-        <v>938</v>
-      </c>
-      <c r="C303" s="27" t="s">
-        <v>940</v>
-      </c>
-      <c r="D303" s="28"/>
-      <c r="E303" s="28">
-        <v>1</v>
-      </c>
-      <c r="F303" s="28">
-        <v>1</v>
-      </c>
-      <c r="G303" s="28">
-        <v>1</v>
-      </c>
-      <c r="H303" s="28"/>
-      <c r="I303" s="27" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B303" s="28" t="s">
+        <v>937</v>
+      </c>
+      <c r="C303" s="26" t="s">
+        <v>939</v>
+      </c>
+      <c r="D303" s="27"/>
+      <c r="E303" s="27">
+        <v>1</v>
+      </c>
+      <c r="F303" s="27">
+        <v>1</v>
+      </c>
+      <c r="G303" s="27">
+        <v>1</v>
+      </c>
+      <c r="H303" s="27"/>
+      <c r="I303" s="26" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
@@ -12383,126 +12519,125 @@
         <v>914</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A305" s="16">
+    <row r="305" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A305" s="36">
         <v>304</v>
       </c>
-      <c r="B305" s="18" t="s">
+      <c r="B305" s="38" t="s">
         <v>921</v>
       </c>
-      <c r="C305" s="15" t="s">
-        <v>928</v>
-      </c>
-      <c r="D305" s="18" t="s">
+      <c r="C305" s="37" t="s">
+        <v>927</v>
+      </c>
+      <c r="D305" s="38" t="s">
         <v>922</v>
       </c>
-      <c r="E305" s="17">
-        <v>1</v>
-      </c>
-      <c r="F305" s="17">
-        <v>1</v>
-      </c>
-      <c r="G305" s="17">
-        <v>1</v>
-      </c>
-      <c r="H305" s="17"/>
-      <c r="I305" s="19" t="s">
+      <c r="E305" s="39">
+        <v>1</v>
+      </c>
+      <c r="F305" s="39">
+        <v>1</v>
+      </c>
+      <c r="G305" s="39">
+        <v>1</v>
+      </c>
+      <c r="I305" s="40" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="29" t="s">
-        <v>950</v>
-      </c>
-      <c r="C306" s="27" t="s">
-        <v>957</v>
-      </c>
-      <c r="D306" s="29" t="s">
-        <v>953</v>
-      </c>
-      <c r="E306" s="28">
-        <v>1</v>
-      </c>
-      <c r="F306" s="28">
-        <v>1</v>
-      </c>
-      <c r="G306" s="28">
-        <v>1</v>
-      </c>
-      <c r="H306" s="28"/>
-      <c r="I306" s="27" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B306" s="28" t="s">
+        <v>949</v>
+      </c>
+      <c r="C306" s="26" t="s">
+        <v>956</v>
+      </c>
+      <c r="D306" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="E306" s="27">
+        <v>1</v>
+      </c>
+      <c r="F306" s="27">
+        <v>1</v>
+      </c>
+      <c r="G306" s="27">
+        <v>1</v>
+      </c>
+      <c r="H306" s="27"/>
+      <c r="I306" s="26" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="29" t="s">
-        <v>951</v>
-      </c>
-      <c r="C307" s="27" t="s">
+      <c r="B307" s="28" t="s">
+        <v>950</v>
+      </c>
+      <c r="C307" s="26" t="s">
+        <v>957</v>
+      </c>
+      <c r="D307" s="28" t="s">
+        <v>924</v>
+      </c>
+      <c r="E307" s="27">
+        <v>1</v>
+      </c>
+      <c r="F307" s="27">
+        <v>1</v>
+      </c>
+      <c r="G307" s="27">
+        <v>1</v>
+      </c>
+      <c r="H307" s="27"/>
+      <c r="I307" s="26" t="s">
         <v>958</v>
       </c>
-      <c r="D307" s="29" t="s">
-        <v>924</v>
-      </c>
-      <c r="E307" s="28">
-        <v>1</v>
-      </c>
-      <c r="F307" s="28">
-        <v>1</v>
-      </c>
-      <c r="G307" s="28">
-        <v>1</v>
-      </c>
-      <c r="H307" s="28"/>
-      <c r="I307" s="27" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="18" t="s">
-        <v>952</v>
-      </c>
-      <c r="C308" s="18" t="s">
-        <v>926</v>
-      </c>
-      <c r="D308" s="18" t="s">
+      <c r="B308" s="30" t="s">
+        <v>951</v>
+      </c>
+      <c r="C308" s="30" t="s">
+        <v>963</v>
+      </c>
+      <c r="D308" s="30" t="s">
         <v>925</v>
       </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="H308" s="17"/>
-      <c r="I308" s="19" t="s">
+      <c r="E308" s="32">
+        <v>1</v>
+      </c>
+      <c r="F308" s="32">
+        <v>1</v>
+      </c>
+      <c r="G308" s="32">
+        <v>1</v>
+      </c>
+      <c r="H308" s="32"/>
+      <c r="I308" s="33" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" ht="16.5">
       <c r="A309" s="16">
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12515,24 +12650,24 @@
       </c>
       <c r="H309" s="17"/>
       <c r="I309" s="19" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="16.5">
       <c r="A310" s="16">
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C310" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="D310" s="18" t="s">
         <v>935</v>
       </c>
-      <c r="D310" s="18" t="s">
-        <v>936</v>
-      </c>
       <c r="E310" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F310" s="17">
         <v>1</v>
@@ -12542,48 +12677,47 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A311" s="16">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A311" s="36">
         <v>310</v>
       </c>
-      <c r="B311" s="18" t="s">
+      <c r="B311" s="38" t="s">
+        <v>943</v>
+      </c>
+      <c r="C311" s="37" t="s">
         <v>944</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="38" t="s">
+        <v>942</v>
+      </c>
+      <c r="E311" s="39">
+        <v>1</v>
+      </c>
+      <c r="F311" s="39">
+        <v>1</v>
+      </c>
+      <c r="G311" s="39">
+        <v>1</v>
+      </c>
+      <c r="I311" s="37" t="s">
         <v>945</v>
       </c>
-      <c r="D311" s="18" t="s">
-        <v>943</v>
-      </c>
-      <c r="E311" s="17">
-        <v>1</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="H311" s="17"/>
-      <c r="I311" s="15" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:9" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>946</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="D312" s="18" t="s">
         <v>947</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>949</v>
-      </c>
-      <c r="D312" s="18" t="s">
-        <v>948</v>
       </c>
       <c r="E312" s="17">
         <v>1</v>
@@ -12596,22 +12730,22 @@
       </c>
       <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="C313" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="D313" s="18" t="s">
         <v>955</v>
       </c>
-      <c r="C313" s="27" t="s">
-        <v>954</v>
-      </c>
-      <c r="D313" s="18" t="s">
-        <v>956</v>
-      </c>
       <c r="E313" s="17">
         <v>1</v>
       </c>
@@ -12622,22 +12756,22 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="16.5">
       <c r="A314" s="16">
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>961</v>
       </c>
-      <c r="C314" s="15" t="s">
+      <c r="D314" s="18" t="s">
         <v>962</v>
       </c>
-      <c r="D314" s="18" t="s">
-        <v>963</v>
-      </c>
       <c r="E314" s="17">
         <v>0</v>
       </c>
@@ -12646,6 +12780,58 @@
       </c>
       <c r="G314" s="17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="17.25">
+      <c r="A315" s="16">
+        <v>314</v>
+      </c>
+      <c r="B315" s="34" t="s">
+        <v>964</v>
+      </c>
+      <c r="C315" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="D315" s="20" t="s">
+        <v>970</v>
+      </c>
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="9" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="17.25">
+      <c r="A316" s="16">
+        <v>315</v>
+      </c>
+      <c r="B316" s="34" t="s">
+        <v>966</v>
+      </c>
+      <c r="C316" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="D316" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="E316" s="17">
+        <v>1</v>
+      </c>
+      <c r="F316" s="17">
+        <v>1</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+      <c r="I316" s="19" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -12664,19 +12850,19 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -16,14 +16,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$233</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="990">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -647,15 +647,6 @@
   </si>
   <si>
     <t>SYSXYManager</t>
-  </si>
-  <si>
-    <t>hall_activity</t>
-  </si>
-  <si>
-    <t>系统：大厅活动</t>
-  </si>
-  <si>
-    <t>GameActivityManager</t>
   </si>
   <si>
     <t>sys_act_base</t>
@@ -3158,14 +3149,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GameComAct1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameComAct1Manager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用活动模板1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3887,12 +3870,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
-    <t>Act_039_TYBYDROPManager</t>
-  </si>
-  <si>
     <t>12月28日23:59:59</t>
   </si>
   <si>
@@ -3924,10 +3901,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>元旦福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_013_DLFLManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3936,61 +3909,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_038_s12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1月11日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>双十二页签→元旦活动→欢乐庆典</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>双十二→庆典礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Sys_013_FFYDManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4019,22 +3945,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_jzsjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_by_drop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_039_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用活动--礼包模板（感恩礼包）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4056,10 +3966,6 @@
   </si>
   <si>
     <t>活动模板，永久</t>
-  </si>
-  <si>
-    <t>活动模板，永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>sys_act_czzk</t>
@@ -4109,9 +4015,6 @@
     <t>act_ty_collect_words</t>
   </si>
   <si>
-    <t>SYS_JBPManager</t>
-  </si>
-  <si>
     <t>sys_jbp</t>
   </si>
   <si>
@@ -4141,6 +4044,173 @@
   </si>
   <si>
     <t>Act_Ty_Collect_WordsManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_015_YYBJSJManager</t>
+  </si>
+  <si>
+    <t>赢一把就睡觉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_JBPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_QJD1Manager</t>
+  </si>
+  <si>
+    <t>疯狂敲金蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_041_yybjsj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_fkqjd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TYBYDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+  </si>
+  <si>
+    <t>活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_002_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_002_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_001_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳掉落皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹掉落皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4252,7 +4322,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4309,7 +4379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4345,7 +4427,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4421,9 +4503,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4436,25 +4515,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4469,6 +4539,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4477,6 +4553,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4755,13 +4855,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I316"/>
+  <dimension ref="A1:P323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomRight" activeCell="B331" sqref="B331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4791,7 +4891,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -4803,7 +4903,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -4829,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -4855,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -4881,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -4907,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -4933,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -4959,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -4985,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -5011,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -5037,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -5063,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -5089,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -5115,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -5141,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -5167,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -5193,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5219,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5245,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5271,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5297,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5323,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5349,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5375,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5401,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5427,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5453,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5464,7 +5564,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -5479,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5505,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5531,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5557,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5583,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5609,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5635,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5661,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5687,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5713,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -5739,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -5765,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -5791,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -5817,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -5843,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -5869,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -5895,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -5921,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -5947,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -5973,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -5999,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -6025,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -6036,7 +6136,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -6051,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -6077,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -6103,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -6127,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6153,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -6161,7 +6261,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6179,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -6187,7 +6287,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6205,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6231,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6257,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6283,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6309,7 +6409,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5">
@@ -6335,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6361,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6387,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6413,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6439,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6465,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
@@ -6491,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6508,16 +6608,16 @@
         <v>199</v>
       </c>
       <c r="E67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6543,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6560,16 +6660,16 @@
         <v>205</v>
       </c>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6595,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6621,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6647,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6673,59 +6773,59 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16.5">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="40" customFormat="1" ht="16.5">
       <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="39" t="s">
+        <v>657</v>
+      </c>
+      <c r="C74" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="E74" s="39">
+        <v>0</v>
+      </c>
+      <c r="F74" s="40">
+        <v>0</v>
+      </c>
+      <c r="G74" s="40">
+        <v>0</v>
+      </c>
+      <c r="I74" s="41" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5">
+      <c r="A75" s="16">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E74" s="5">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="42" customFormat="1" ht="16.5">
-      <c r="A75" s="41">
-        <v>74</v>
-      </c>
-      <c r="B75" s="41" t="s">
-        <v>660</v>
-      </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="41">
-        <v>0</v>
-      </c>
-      <c r="F75" s="42">
-        <v>0</v>
-      </c>
-      <c r="G75" s="42">
-        <v>0</v>
-      </c>
-      <c r="I75" s="43" t="s">
-        <v>648</v>
+      <c r="E75" s="5">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5">
@@ -6742,16 +6842,16 @@
         <v>225</v>
       </c>
       <c r="E76" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -6776,8 +6876,8 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="I77" s="12" t="s">
-        <v>652</v>
+      <c r="I77" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -6794,16 +6894,16 @@
         <v>231</v>
       </c>
       <c r="E78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -6820,15 +6920,15 @@
         <v>234</v>
       </c>
       <c r="E79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="I79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -6855,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -6881,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -6907,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -6933,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -6959,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -6976,16 +7076,16 @@
         <v>252</v>
       </c>
       <c r="E85" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -7011,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -7037,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -7063,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -7080,16 +7180,16 @@
         <v>264</v>
       </c>
       <c r="E89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -7106,16 +7206,16 @@
         <v>267</v>
       </c>
       <c r="E90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -7132,16 +7232,16 @@
         <v>270</v>
       </c>
       <c r="E91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -7158,16 +7258,16 @@
         <v>273</v>
       </c>
       <c r="E92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -7184,16 +7284,16 @@
         <v>276</v>
       </c>
       <c r="E93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7218,8 +7318,8 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="I94" s="12" t="s">
-        <v>646</v>
+      <c r="I94" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7245,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7271,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7297,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7323,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7349,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7366,16 +7466,16 @@
         <v>297</v>
       </c>
       <c r="E100" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>651</v>
+        <v>1</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7392,16 +7492,16 @@
         <v>300</v>
       </c>
       <c r="E101" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>646</v>
+        <v>679</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7426,8 +7526,8 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="I102" s="12" t="s">
-        <v>682</v>
+      <c r="I102" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7444,16 +7544,16 @@
         <v>306</v>
       </c>
       <c r="E103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7470,15 +7570,15 @@
         <v>309</v>
       </c>
       <c r="E104" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="I104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -7504,8 +7604,8 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="I105" s="11" t="s">
-        <v>649</v>
+      <c r="I105" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7530,8 +7630,8 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="I106" s="12" t="s">
-        <v>646</v>
+      <c r="I106" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7557,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7609,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7635,7 +7735,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7661,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7687,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7713,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -7739,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -7765,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -7817,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -7843,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5">
@@ -7869,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -7895,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -7921,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -7947,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -7973,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -7999,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -8025,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -8042,16 +8142,16 @@
         <v>375</v>
       </c>
       <c r="E126" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -8068,15 +8168,15 @@
         <v>378</v>
       </c>
       <c r="E127" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="I127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -8103,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -8129,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -8155,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -8181,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8207,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8259,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8285,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8311,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8337,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8363,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8389,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8415,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8441,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8458,16 +8558,16 @@
         <v>423</v>
       </c>
       <c r="E142" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8478,22 +8578,22 @@
         <v>424</v>
       </c>
       <c r="C143" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="E143" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8501,25 +8601,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="E144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8527,25 +8627,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="E145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>646</v>
+        <v>693</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8553,10 +8653,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>653</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>432</v>
@@ -8571,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8596,8 +8696,8 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="I147" s="12" t="s">
-        <v>696</v>
+      <c r="I147" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8623,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8649,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8675,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8700,8 +8800,8 @@
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="I151" s="11" t="s">
-        <v>648</v>
+      <c r="I151" s="12" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -8726,8 +8826,8 @@
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="I152" s="12" t="s">
-        <v>855</v>
+      <c r="I152" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -8753,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -8779,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -8805,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -8815,12 +8915,12 @@
       <c r="B156" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -8831,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -8839,14 +8939,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -8856,8 +8956,8 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="I157" s="11" t="s">
-        <v>649</v>
+      <c r="I157" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -8865,10 +8965,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>654</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>466</v>
@@ -8882,8 +8982,8 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="I158" s="12" t="s">
-        <v>646</v>
+      <c r="I158" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -8909,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -8935,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -8961,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -8978,16 +9078,16 @@
         <v>478</v>
       </c>
       <c r="E162" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -9004,16 +9104,16 @@
         <v>481</v>
       </c>
       <c r="E163" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="I163" s="12" t="s">
-        <v>697</v>
+        <v>0</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -9027,19 +9127,19 @@
         <v>483</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>484</v>
+        <v>614</v>
       </c>
       <c r="E164" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -9047,25 +9147,25 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>617</v>
-      </c>
       <c r="E165" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="I165" s="12" t="s">
-        <v>646</v>
+        <v>0</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -9075,23 +9175,23 @@
       <c r="B166" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="E166" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="I166" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -9099,25 +9199,25 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>640</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E167" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="I167" s="12" t="s">
-        <v>647</v>
+        <v>0</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -9143,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -9156,9 +9256,7 @@
       <c r="C169" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>497</v>
-      </c>
+      <c r="D169" s="5"/>
       <c r="E169" s="5">
         <v>0</v>
       </c>
@@ -9168,8 +9266,8 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="I169" s="11" t="s">
-        <v>648</v>
+      <c r="I169" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -9177,23 +9275,23 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -9201,10 +9299,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9217,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9225,10 +9323,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>503</v>
+        <v>658</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>659</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9241,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9249,22 +9347,24 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>662</v>
-      </c>
-      <c r="D173" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="E173" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="I173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I173" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -9278,9 +9378,7 @@
       <c r="C174" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>506</v>
-      </c>
+      <c r="D174" s="5"/>
       <c r="E174" s="5">
         <v>0</v>
       </c>
@@ -9291,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9299,23 +9397,23 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="I175" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I175" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9323,23 +9421,23 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="I176" s="12" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9347,23 +9445,25 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D177" s="5"/>
       <c r="E177" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I177" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9389,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9402,44 +9502,42 @@
       <c r="C179" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>518</v>
-      </c>
+      <c r="D179" s="5"/>
       <c r="E179" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="I179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I179" s="11" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5">
+    <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A180" s="16">
         <v>179</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
+      <c r="D180" s="7"/>
+      <c r="E180" s="7">
+        <v>0</v>
+      </c>
+      <c r="F180" s="2">
+        <v>0</v>
+      </c>
+      <c r="G180" s="2">
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9447,10 +9545,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9463,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9471,10 +9569,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9487,31 +9585,30 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="16">
         <v>182</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" t="s">
+        <v>524</v>
+      </c>
+      <c r="C183" t="s">
         <v>525</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7">
-        <v>0</v>
-      </c>
-      <c r="F183" s="2">
-        <v>0</v>
-      </c>
-      <c r="G183" s="2">
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9519,11 +9616,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>526</v>
+      </c>
+      <c r="C184" t="s">
         <v>527</v>
       </c>
-      <c r="C184" t="s">
-        <v>528</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -9534,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9542,11 +9639,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>528</v>
+      </c>
+      <c r="C185" t="s">
         <v>529</v>
       </c>
-      <c r="C185" t="s">
-        <v>530</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -9557,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9565,11 +9662,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>530</v>
+      </c>
+      <c r="C186" t="s">
         <v>531</v>
       </c>
-      <c r="C186" t="s">
-        <v>532</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -9580,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9588,11 +9685,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>532</v>
+      </c>
+      <c r="C187" t="s">
         <v>533</v>
       </c>
-      <c r="C187" t="s">
-        <v>534</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -9603,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9611,11 +9708,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>534</v>
+      </c>
+      <c r="C188" t="s">
         <v>535</v>
       </c>
-      <c r="C188" t="s">
-        <v>536</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -9626,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9634,11 +9731,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>536</v>
+      </c>
+      <c r="C189" t="s">
         <v>537</v>
       </c>
-      <c r="C189" t="s">
-        <v>538</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -9649,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9657,11 +9754,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>538</v>
+      </c>
+      <c r="C190" t="s">
         <v>539</v>
       </c>
-      <c r="C190" t="s">
-        <v>540</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -9672,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9680,11 +9777,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>540</v>
+      </c>
+      <c r="C191" t="s">
         <v>541</v>
       </c>
-      <c r="C191" t="s">
-        <v>542</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -9695,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -9703,11 +9800,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>542</v>
+      </c>
+      <c r="C192" t="s">
         <v>543</v>
       </c>
-      <c r="C192" t="s">
-        <v>544</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -9718,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -9726,11 +9823,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>544</v>
+      </c>
+      <c r="C193" t="s">
         <v>545</v>
       </c>
-      <c r="C193" t="s">
-        <v>546</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -9741,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -9749,11 +9846,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>546</v>
+      </c>
+      <c r="C194" t="s">
         <v>547</v>
       </c>
-      <c r="C194" t="s">
-        <v>548</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -9764,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -9772,11 +9869,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>548</v>
+      </c>
+      <c r="C195" t="s">
         <v>549</v>
       </c>
-      <c r="C195" t="s">
-        <v>550</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -9787,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -9795,10 +9892,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>550</v>
+      </c>
+      <c r="C196" t="s">
         <v>551</v>
-      </c>
-      <c r="C196" t="s">
-        <v>552</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -9818,11 +9915,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>552</v>
+      </c>
+      <c r="C197" t="s">
         <v>553</v>
       </c>
-      <c r="C197" t="s">
-        <v>554</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -9833,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -9841,11 +9938,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>554</v>
+      </c>
+      <c r="C198" t="s">
         <v>555</v>
       </c>
-      <c r="C198" t="s">
-        <v>556</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -9856,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -9864,11 +9961,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>556</v>
+      </c>
+      <c r="C199" t="s">
         <v>557</v>
       </c>
-      <c r="C199" t="s">
-        <v>558</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -9879,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -9887,11 +9984,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>558</v>
+      </c>
+      <c r="C200" t="s">
         <v>559</v>
       </c>
-      <c r="C200" t="s">
-        <v>560</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -9902,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -9910,11 +10007,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>560</v>
+      </c>
+      <c r="C201" t="s">
         <v>561</v>
       </c>
-      <c r="C201" t="s">
-        <v>562</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -9925,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -9933,11 +10030,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>562</v>
+      </c>
+      <c r="C202" t="s">
         <v>563</v>
       </c>
-      <c r="C202" t="s">
-        <v>564</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -9948,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -9956,11 +10053,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>564</v>
+      </c>
+      <c r="C203" t="s">
         <v>565</v>
       </c>
-      <c r="C203" t="s">
-        <v>566</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -9971,30 +10068,33 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="16">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>567</v>
+      <c r="B204" s="9" t="s">
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>568</v>
+        <v>566</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>609</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="I204" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I204" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -10002,14 +10102,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C205" t="s">
+        <v>567</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C205" t="s">
-        <v>569</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -10020,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -10028,14 +10128,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C206" t="s">
+        <v>568</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C206" t="s">
-        <v>570</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>614</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -10046,32 +10146,29 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="16">
         <v>206</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>615</v>
+      <c r="B207" t="s">
+        <v>569</v>
       </c>
       <c r="C207" t="s">
-        <v>571</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>616</v>
+        <v>570</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="I207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I207" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -10080,11 +10177,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>571</v>
+      </c>
+      <c r="C208" t="s">
         <v>572</v>
       </c>
-      <c r="C208" t="s">
-        <v>573</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -10095,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -10103,11 +10200,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>573</v>
+      </c>
+      <c r="C209" t="s">
         <v>574</v>
       </c>
-      <c r="C209" t="s">
-        <v>575</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -10118,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -10126,11 +10223,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>575</v>
+      </c>
+      <c r="C210" t="s">
         <v>576</v>
       </c>
-      <c r="C210" t="s">
-        <v>577</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -10141,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -10149,22 +10246,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>577</v>
+      </c>
+      <c r="C211" t="s">
         <v>578</v>
       </c>
-      <c r="C211" t="s">
-        <v>579</v>
-      </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="I211" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I211" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -10172,22 +10269,22 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>579</v>
+      </c>
+      <c r="C212" t="s">
         <v>580</v>
       </c>
-      <c r="C212" t="s">
-        <v>581</v>
-      </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="I212" s="12" t="s">
-        <v>646</v>
+        <v>0</v>
+      </c>
+      <c r="I212" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -10195,11 +10292,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>581</v>
+      </c>
+      <c r="C213" t="s">
         <v>582</v>
       </c>
-      <c r="C213" t="s">
-        <v>583</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -10210,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10218,11 +10315,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>583</v>
+      </c>
+      <c r="C214" t="s">
         <v>584</v>
       </c>
-      <c r="C214" t="s">
-        <v>585</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -10233,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10241,11 +10338,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>585</v>
+      </c>
+      <c r="C215" t="s">
         <v>586</v>
       </c>
-      <c r="C215" t="s">
-        <v>587</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -10256,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10264,11 +10361,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>587</v>
+      </c>
+      <c r="C216" t="s">
         <v>588</v>
       </c>
-      <c r="C216" t="s">
-        <v>589</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -10279,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10287,10 +10384,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>589</v>
+      </c>
+      <c r="C217" t="s">
         <v>590</v>
-      </c>
-      <c r="C217" t="s">
-        <v>591</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -10310,11 +10407,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>591</v>
+      </c>
+      <c r="C218" t="s">
         <v>592</v>
       </c>
-      <c r="C218" t="s">
-        <v>593</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -10325,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10333,11 +10430,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>593</v>
+      </c>
+      <c r="C219" t="s">
         <v>594</v>
       </c>
-      <c r="C219" t="s">
-        <v>595</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -10348,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10356,11 +10453,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>595</v>
+      </c>
+      <c r="C220" t="s">
         <v>596</v>
       </c>
-      <c r="C220" t="s">
-        <v>597</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -10371,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10379,11 +10476,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>597</v>
+      </c>
+      <c r="C221" t="s">
         <v>598</v>
       </c>
-      <c r="C221" t="s">
-        <v>599</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -10394,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10402,11 +10499,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>599</v>
+      </c>
+      <c r="C222" t="s">
         <v>600</v>
       </c>
-      <c r="C222" t="s">
-        <v>601</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -10417,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10425,11 +10522,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>601</v>
+      </c>
+      <c r="C223" t="s">
         <v>602</v>
       </c>
-      <c r="C223" t="s">
-        <v>603</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -10440,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10448,11 +10545,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>603</v>
+      </c>
+      <c r="C224" t="s">
         <v>604</v>
       </c>
-      <c r="C224" t="s">
-        <v>605</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -10463,18 +10560,18 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="16">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>606</v>
+      <c r="B225" s="9" t="s">
+        <v>652</v>
       </c>
       <c r="C225" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10494,22 +10591,22 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="C226" t="s">
-        <v>608</v>
+        <v>617</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>616</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="I226" s="11" t="s">
-        <v>651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5">
@@ -10517,13 +10614,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D227" t="s">
         <v>620</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>619</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10545,7 +10642,7 @@
       <c r="C228" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="9" t="s">
         <v>623</v>
       </c>
       <c r="E228">
@@ -10586,13 +10683,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10609,13 +10706,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10632,22 +10729,22 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5">
@@ -10655,22 +10752,22 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5">
@@ -10678,22 +10775,22 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5">
@@ -10701,22 +10798,25 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>665</v>
+        <v>809</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>666</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I235" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -10724,10 +10824,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>814</v>
+        <v>670</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>669</v>
@@ -10741,8 +10841,8 @@
       <c r="G236">
         <v>1</v>
       </c>
-      <c r="I236" t="s">
-        <v>667</v>
+      <c r="I236" s="9" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10750,14 +10850,14 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C237" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="D237" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="D237" s="9" t="s">
-        <v>672</v>
-      </c>
       <c r="E237">
         <v>1</v>
       </c>
@@ -10767,8 +10867,8 @@
       <c r="G237">
         <v>1</v>
       </c>
-      <c r="I237" s="9" t="s">
-        <v>671</v>
+      <c r="I237" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10776,10 +10876,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>676</v>
@@ -10802,13 +10902,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>681</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -10820,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10828,13 +10928,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="C240" s="9" t="s">
-        <v>684</v>
-      </c>
       <c r="D240" s="9" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -10845,8 +10945,8 @@
       <c r="G240">
         <v>1</v>
       </c>
-      <c r="I240" t="s">
-        <v>686</v>
+      <c r="I240" s="9" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -10854,13 +10954,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -10872,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="I241" s="9" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -10880,13 +10980,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -10898,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -10906,13 +11006,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -10924,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="I243" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -10932,13 +11032,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -10950,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -10958,13 +11058,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10976,7 +11076,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -10984,13 +11084,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11002,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11010,13 +11110,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -11028,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11036,13 +11136,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>719</v>
-      </c>
       <c r="D248" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -11054,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11065,10 +11165,10 @@
         <v>724</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -11080,7 +11180,7 @@
         <v>1</v>
       </c>
       <c r="I249" s="9" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11088,14 +11188,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C250" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D250" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="D250" s="9" t="s">
-        <v>729</v>
-      </c>
       <c r="E250">
         <v>1</v>
       </c>
@@ -11106,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11117,10 +11217,10 @@
         <v>732</v>
       </c>
       <c r="C251" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>731</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -11140,78 +11240,78 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="C252" t="s">
+        <v>740</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252" s="9" t="s">
         <v>735</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="I252" s="9" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="16">
         <v>252</v>
       </c>
-      <c r="B253" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="C253" t="s">
-        <v>745</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>1</v>
-      </c>
-      <c r="I253" s="9" t="s">
-        <v>738</v>
+      <c r="B253" s="29" t="s">
+        <v>965</v>
+      </c>
+      <c r="C253" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="D253" s="29" t="s">
+        <v>966</v>
+      </c>
+      <c r="E253" s="30">
+        <v>1</v>
+      </c>
+      <c r="F253" s="30">
+        <v>1</v>
+      </c>
+      <c r="G253" s="30">
+        <v>1</v>
+      </c>
+      <c r="H253" s="30"/>
+      <c r="I253" s="29" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="16">
         <v>253</v>
       </c>
-      <c r="B254" s="31" t="s">
+      <c r="B254" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="C254" s="32" t="s">
+      <c r="C254" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="D254" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="D254" s="31" t="s">
-        <v>743</v>
-      </c>
-      <c r="E254" s="32">
-        <v>1</v>
-      </c>
-      <c r="F254" s="32">
-        <v>1</v>
-      </c>
-      <c r="G254" s="32">
-        <v>1</v>
-      </c>
-      <c r="H254" s="32"/>
-      <c r="I254" s="31" t="s">
-        <v>739</v>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11219,77 +11319,77 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="D255" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="16.5">
+    </row>
+    <row r="256" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A256" s="16">
         <v>255</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="C256" s="25" t="s">
+        <v>925</v>
+      </c>
+      <c r="D256" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="E256" s="26">
+        <v>1</v>
+      </c>
+      <c r="F256" s="26">
+        <v>1</v>
+      </c>
+      <c r="G256" s="26">
+        <v>1</v>
+      </c>
+      <c r="I256" s="22" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A257" s="16">
+        <v>256</v>
+      </c>
+      <c r="B257" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="C257" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="D257" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="E257" s="17">
+        <v>0</v>
+      </c>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
+      <c r="G257" s="17">
+        <v>1</v>
+      </c>
+      <c r="I257" s="15" t="s">
         <v>752</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" s="27" customFormat="1" ht="16.5">
-      <c r="A257" s="25">
-        <v>256</v>
-      </c>
-      <c r="B257" s="26" t="s">
-        <v>755</v>
-      </c>
-      <c r="C257" s="26" t="s">
-        <v>932</v>
-      </c>
-      <c r="D257" s="26" t="s">
-        <v>756</v>
-      </c>
-      <c r="E257" s="27">
-        <v>1</v>
-      </c>
-      <c r="F257" s="27">
-        <v>1</v>
-      </c>
-      <c r="G257" s="27">
-        <v>1</v>
-      </c>
-      <c r="I257" s="22" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11297,14 +11397,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C258" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="D258" s="15" t="s">
-        <v>759</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11315,7 +11415,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11323,25 +11423,25 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="D259" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="E259" s="17">
+        <v>1</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
         <v>762</v>
-      </c>
-      <c r="D259" s="15" t="s">
-        <v>763</v>
-      </c>
-      <c r="E259" s="17">
-        <v>0</v>
-      </c>
-      <c r="F259" s="17">
-        <v>1</v>
-      </c>
-      <c r="G259" s="17">
-        <v>1</v>
-      </c>
-      <c r="I259" s="15" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11349,67 +11449,67 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="C260" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="D260" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>0</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="E260" s="17">
-        <v>1</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
+    </row>
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="16">
         <v>260</v>
       </c>
-      <c r="B261" s="15" t="s">
+      <c r="B261" t="s">
+        <v>767</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="D261" t="s">
         <v>768</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>769</v>
-      </c>
-      <c r="D261" s="15" t="s">
-        <v>770</v>
-      </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="16">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="C262" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="D262" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="E262" s="5">
+      <c r="E262">
         <v>1</v>
       </c>
       <c r="F262">
@@ -11419,33 +11519,33 @@
         <v>1</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="16.5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A263" s="16">
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="C263" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="D263" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
         <v>777</v>
-      </c>
-      <c r="D263" s="15" t="s">
-        <v>778</v>
-      </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-      <c r="I263" s="12" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11453,14 +11553,14 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="D264" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="D264" s="15" t="s">
-        <v>781</v>
-      </c>
       <c r="E264" s="17">
         <v>0</v>
       </c>
@@ -11471,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="I264" s="15" t="s">
-        <v>782</v>
+        <v>642</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11479,25 +11579,25 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="C265" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="D265" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>0</v>
+      </c>
+      <c r="G265" s="17">
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
         <v>784</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="E265" s="17">
-        <v>0</v>
-      </c>
-      <c r="F265" s="17">
-        <v>0</v>
-      </c>
-      <c r="G265" s="17">
-        <v>0</v>
-      </c>
-      <c r="I265" s="15" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11505,25 +11605,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C266" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="D266" s="15" t="s">
+      <c r="D266" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>788</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="17" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11531,14 +11631,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>792</v>
-      </c>
-      <c r="D267" s="18" t="s">
-        <v>791</v>
-      </c>
       <c r="E267" s="17">
         <v>0</v>
       </c>
@@ -11549,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="19" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11557,51 +11657,52 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="C268" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="D268" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="C268" s="15" t="s">
-        <v>796</v>
-      </c>
-      <c r="D268" s="18" t="s">
-        <v>795</v>
-      </c>
       <c r="E268" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" s="19" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="16.5">
       <c r="A269" s="16">
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E269" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F269" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269" s="17">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" s="17"/>
       <c r="I269" s="19" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.5">
@@ -11609,13 +11710,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11628,7 +11729,7 @@
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="19" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.5">
@@ -11636,26 +11737,26 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C271" s="15" t="s">
         <v>804</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E271" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271" s="17"/>
       <c r="I271" s="19" t="s">
-        <v>737</v>
+        <v>805</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5">
@@ -11663,10 +11764,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>807</v>
-      </c>
-      <c r="C272" s="15" t="s">
-        <v>809</v>
       </c>
       <c r="D272" s="18" t="s">
         <v>808</v>
@@ -11682,7 +11783,7 @@
       </c>
       <c r="H272" s="17"/>
       <c r="I272" s="19" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5">
@@ -11690,13 +11791,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C273" s="15" t="s">
         <v>812</v>
       </c>
       <c r="D273" s="18" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E273" s="17">
         <v>1</v>
@@ -11709,7 +11810,7 @@
       </c>
       <c r="H273" s="17"/>
       <c r="I273" s="19" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5">
@@ -11717,37 +11818,37 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>815</v>
+        <v>846</v>
       </c>
       <c r="C274" s="15" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D274" s="18" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274" s="17"/>
       <c r="I274" s="19" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="16.5">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="21" customFormat="1" ht="17.25">
       <c r="A275" s="16">
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D275" s="18" t="s">
         <v>819</v>
@@ -11756,91 +11857,90 @@
         <v>0</v>
       </c>
       <c r="F275" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275" s="17"/>
-      <c r="I275" s="19" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="21" customFormat="1" ht="17.25">
+      <c r="I275" s="28" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="16.5">
       <c r="A276" s="16">
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C276" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="D276" s="18" t="s">
-        <v>824</v>
-      </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="H276" s="17"/>
-      <c r="I276" s="29" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="16.5">
+    </row>
+    <row r="277" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="16">
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>826</v>
-      </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
+        <v>930</v>
+      </c>
+      <c r="D277" s="32" t="s">
+        <v>824</v>
+      </c>
+      <c r="E277" s="15">
+        <v>0</v>
+      </c>
+      <c r="F277" s="15">
+        <v>0</v>
+      </c>
+      <c r="G277" s="15">
+        <v>0</v>
+      </c>
+      <c r="H277" s="15"/>
+      <c r="I277" s="15" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="16">
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>940</v>
-      </c>
-      <c r="D278" s="35" t="s">
-        <v>829</v>
-      </c>
-      <c r="E278" s="15">
-        <v>0</v>
-      </c>
-      <c r="F278" s="15">
-        <v>0</v>
-      </c>
-      <c r="G278" s="15">
-        <v>0</v>
-      </c>
-      <c r="H278" s="15"/>
-      <c r="I278" s="15" t="s">
-        <v>938</v>
+        <v>837</v>
+      </c>
+      <c r="D278" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="I278" s="19" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11848,25 +11948,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>842</v>
-      </c>
-      <c r="D279" s="18" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E279">
         <v>0</v>
       </c>
       <c r="F279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -11874,10 +11971,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>832</v>
+        <v>835</v>
+      </c>
+      <c r="D280" s="18" t="s">
+        <v>830</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -11889,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -11897,25 +11997,25 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E281">
         <v>0</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -11923,393 +12023,393 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="D282" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>839</v>
       </c>
-      <c r="C282" s="15" t="s">
-        <v>841</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-      <c r="G282">
-        <v>1</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="16.5">
+    </row>
+    <row r="283" spans="1:9" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="16">
         <v>282</v>
       </c>
-      <c r="B283" s="15" t="s">
+      <c r="B283" s="34" t="s">
+        <v>840</v>
+      </c>
+      <c r="C283" s="33" t="s">
+        <v>841</v>
+      </c>
+      <c r="D283" s="34" t="s">
+        <v>842</v>
+      </c>
+      <c r="E283" s="35">
+        <v>1</v>
+      </c>
+      <c r="F283" s="35">
+        <v>1</v>
+      </c>
+      <c r="G283" s="35">
+        <v>1</v>
+      </c>
+      <c r="I283" s="36" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A284" s="16">
+        <v>283</v>
+      </c>
+      <c r="B284" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="C284" s="33" t="s">
         <v>849</v>
       </c>
-      <c r="C283" s="15" t="s">
-        <v>843</v>
-      </c>
-      <c r="D283" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A284" s="36">
-        <v>283</v>
-      </c>
-      <c r="B284" s="38" t="s">
-        <v>845</v>
-      </c>
-      <c r="C284" s="37" t="s">
-        <v>846</v>
-      </c>
-      <c r="D284" s="38" t="s">
+      <c r="D284" s="34" t="s">
         <v>847</v>
       </c>
-      <c r="E284" s="39">
-        <v>1</v>
-      </c>
-      <c r="F284" s="39">
-        <v>1</v>
-      </c>
-      <c r="G284" s="39">
-        <v>1</v>
-      </c>
-      <c r="I284" s="40" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A285" s="36">
+      <c r="E284" s="35">
+        <v>1</v>
+      </c>
+      <c r="F284" s="35">
+        <v>1</v>
+      </c>
+      <c r="G284" s="35">
+        <v>1</v>
+      </c>
+      <c r="I284" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="16.5">
+      <c r="A285" s="16">
         <v>284</v>
       </c>
-      <c r="B285" s="38" t="s">
+      <c r="B285" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="C285" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="D285" s="18" t="s">
         <v>853</v>
       </c>
-      <c r="C285" s="37" t="s">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="19" t="s">
         <v>854</v>
       </c>
-      <c r="D285" s="38" t="s">
-        <v>852</v>
-      </c>
-      <c r="E285" s="39">
-        <v>1</v>
-      </c>
-      <c r="F285" s="39">
-        <v>1</v>
-      </c>
-      <c r="G285" s="39">
-        <v>1</v>
-      </c>
-      <c r="I285" s="40" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" ht="16.5">
+    </row>
+    <row r="286" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A286" s="16">
         <v>285</v>
       </c>
-      <c r="B286" s="15" t="s">
+      <c r="B286" s="33" t="s">
         <v>856</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="C286" s="33" t="s">
         <v>857</v>
       </c>
-      <c r="D286" s="18" t="s">
+      <c r="D286" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="E286" s="35">
+        <v>1</v>
+      </c>
+      <c r="F286" s="35">
+        <v>1</v>
+      </c>
+      <c r="G286" s="35">
+        <v>1</v>
+      </c>
+      <c r="I286" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A287" s="16">
+        <v>286</v>
+      </c>
+      <c r="B287" s="33" t="s">
         <v>858</v>
       </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="19" t="s">
+      <c r="C287" s="33" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A287" s="36">
-        <v>286</v>
-      </c>
-      <c r="B287" s="37" t="s">
+      <c r="D287" s="34" t="s">
+        <v>860</v>
+      </c>
+      <c r="E287" s="35">
+        <v>1</v>
+      </c>
+      <c r="F287" s="35">
+        <v>1</v>
+      </c>
+      <c r="G287" s="35">
+        <v>1</v>
+      </c>
+      <c r="I287" s="36" t="s">
         <v>861</v>
       </c>
-      <c r="C287" s="37" t="s">
+    </row>
+    <row r="288" spans="1:9" s="21" customFormat="1" ht="16.5">
+      <c r="A288" s="16">
+        <v>287</v>
+      </c>
+      <c r="B288" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="D287" s="38" t="s">
-        <v>860</v>
-      </c>
-      <c r="E287" s="39">
-        <v>1</v>
-      </c>
-      <c r="F287" s="39">
-        <v>1</v>
-      </c>
-      <c r="G287" s="39">
-        <v>1</v>
-      </c>
-      <c r="I287" s="40" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A288" s="36">
-        <v>287</v>
-      </c>
-      <c r="B288" s="37" t="s">
+      <c r="C288" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="D288" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="E288" s="17">
+        <v>1</v>
+      </c>
+      <c r="F288" s="17">
+        <v>1</v>
+      </c>
+      <c r="G288" s="17">
+        <v>1</v>
+      </c>
+      <c r="H288" s="17"/>
+      <c r="I288" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="C288" s="37" t="s">
-        <v>864</v>
-      </c>
-      <c r="D288" s="38" t="s">
-        <v>865</v>
-      </c>
-      <c r="E288" s="39">
-        <v>1</v>
-      </c>
-      <c r="F288" s="39">
-        <v>1</v>
-      </c>
-      <c r="G288" s="39">
-        <v>1</v>
-      </c>
-      <c r="I288" s="40" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="21" customFormat="1" ht="16.5">
+    </row>
+    <row r="289" spans="1:16" s="35" customFormat="1" ht="16.5">
       <c r="A289" s="16">
         <v>288</v>
       </c>
-      <c r="B289" s="15" t="s">
+      <c r="B289" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="C289" s="33" t="s">
         <v>867</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="D289" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="E289" s="35">
+        <v>1</v>
+      </c>
+      <c r="F289" s="35">
+        <v>1</v>
+      </c>
+      <c r="G289" s="35">
+        <v>1</v>
+      </c>
+      <c r="I289" s="36" t="s">
         <v>869</v>
       </c>
-      <c r="D289" s="15" t="s">
+    </row>
+    <row r="290" spans="1:16" s="35" customFormat="1" ht="16.5">
+      <c r="A290" s="16">
+        <v>289</v>
+      </c>
+      <c r="B290" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="E289" s="17">
-        <v>0</v>
-      </c>
-      <c r="F289" s="17">
-        <v>0</v>
-      </c>
-      <c r="G289" s="17">
-        <v>0</v>
-      </c>
-      <c r="H289" s="17"/>
-      <c r="I289" s="15" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A290" s="36">
-        <v>289</v>
-      </c>
-      <c r="B290" s="37" t="s">
+      <c r="C290" s="33" t="s">
         <v>871</v>
       </c>
-      <c r="C290" s="37" t="s">
+      <c r="D290" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="D290" s="38" t="s">
+      <c r="E290" s="35">
+        <v>1</v>
+      </c>
+      <c r="F290" s="35">
+        <v>1</v>
+      </c>
+      <c r="G290" s="35">
+        <v>1</v>
+      </c>
+      <c r="I290" s="36" t="s">
         <v>873</v>
       </c>
-      <c r="E290" s="39">
-        <v>1</v>
-      </c>
-      <c r="F290" s="39">
-        <v>1</v>
-      </c>
-      <c r="G290" s="39">
-        <v>1</v>
-      </c>
-      <c r="I290" s="40" t="s">
+    </row>
+    <row r="291" spans="1:16" s="35" customFormat="1" ht="16.5">
+      <c r="A291" s="16">
+        <v>290</v>
+      </c>
+      <c r="B291" s="34" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A291" s="36">
-        <v>290</v>
-      </c>
-      <c r="B291" s="38" t="s">
+      <c r="C291" s="33" t="s">
         <v>875</v>
       </c>
-      <c r="C291" s="37" t="s">
+      <c r="D291" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="D291" s="38" t="s">
+      <c r="E291" s="35">
+        <v>1</v>
+      </c>
+      <c r="F291" s="35">
+        <v>1</v>
+      </c>
+      <c r="G291" s="35">
+        <v>1</v>
+      </c>
+      <c r="I291" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" s="35" customFormat="1" ht="16.5">
+      <c r="A292" s="16">
+        <v>291</v>
+      </c>
+      <c r="B292" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="E291" s="39">
-        <v>1</v>
-      </c>
-      <c r="F291" s="39">
-        <v>1</v>
-      </c>
-      <c r="G291" s="39">
-        <v>1</v>
-      </c>
-      <c r="I291" s="40" t="s">
+      <c r="C292" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="D292" s="34" t="s">
+        <v>879</v>
+      </c>
+      <c r="E292" s="35">
+        <v>1</v>
+      </c>
+      <c r="F292" s="35">
+        <v>1</v>
+      </c>
+      <c r="G292" s="35">
+        <v>1</v>
+      </c>
+      <c r="I292" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" s="35" customFormat="1" ht="16.5">
+      <c r="A293" s="16">
+        <v>292</v>
+      </c>
+      <c r="B293" s="34" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A292" s="36">
-        <v>291</v>
-      </c>
-      <c r="B292" s="38" t="s">
-        <v>879</v>
-      </c>
-      <c r="C292" s="37" t="s">
+      <c r="C293" s="33" t="s">
+        <v>883</v>
+      </c>
+      <c r="D293" s="34" t="s">
         <v>880</v>
       </c>
-      <c r="D292" s="38" t="s">
+      <c r="E293" s="35">
+        <v>1</v>
+      </c>
+      <c r="F293" s="35">
+        <v>1</v>
+      </c>
+      <c r="G293" s="35">
+        <v>1</v>
+      </c>
+      <c r="I293" s="36" t="s">
         <v>881</v>
       </c>
-      <c r="E292" s="39">
-        <v>1</v>
-      </c>
-      <c r="F292" s="39">
-        <v>1</v>
-      </c>
-      <c r="G292" s="39">
-        <v>1</v>
-      </c>
-      <c r="I292" s="40" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A293" s="36">
-        <v>292</v>
-      </c>
-      <c r="B293" s="38" t="s">
-        <v>882</v>
-      </c>
-      <c r="C293" s="37" t="s">
+    </row>
+    <row r="294" spans="1:16" s="35" customFormat="1" ht="16.5">
+      <c r="A294" s="16">
+        <v>293</v>
+      </c>
+      <c r="B294" s="34" t="s">
+        <v>884</v>
+      </c>
+      <c r="C294" s="33" t="s">
+        <v>885</v>
+      </c>
+      <c r="D294" s="34" t="s">
+        <v>886</v>
+      </c>
+      <c r="E294" s="35">
+        <v>1</v>
+      </c>
+      <c r="F294" s="35">
+        <v>1</v>
+      </c>
+      <c r="G294" s="35">
+        <v>1</v>
+      </c>
+      <c r="I294" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" s="35" customFormat="1" ht="16.5">
+      <c r="A295" s="16">
+        <v>294</v>
+      </c>
+      <c r="B295" s="34" t="s">
         <v>887</v>
       </c>
-      <c r="D293" s="38" t="s">
-        <v>884</v>
-      </c>
-      <c r="E293" s="39">
-        <v>1</v>
-      </c>
-      <c r="F293" s="39">
-        <v>1</v>
-      </c>
-      <c r="G293" s="39">
-        <v>1</v>
-      </c>
-      <c r="I293" s="40" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A294" s="36">
-        <v>293</v>
-      </c>
-      <c r="B294" s="38" t="s">
-        <v>883</v>
-      </c>
-      <c r="C294" s="37" t="s">
+      <c r="C295" s="33" t="s">
         <v>888</v>
       </c>
-      <c r="D294" s="38" t="s">
-        <v>885</v>
-      </c>
-      <c r="E294" s="39">
-        <v>1</v>
-      </c>
-      <c r="F294" s="39">
-        <v>1</v>
-      </c>
-      <c r="G294" s="39">
-        <v>1</v>
-      </c>
-      <c r="I294" s="40" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A295" s="36">
-        <v>294</v>
-      </c>
-      <c r="B295" s="38" t="s">
+      <c r="D295" s="34" t="s">
         <v>889</v>
       </c>
-      <c r="C295" s="37" t="s">
+      <c r="E295" s="35">
+        <v>1</v>
+      </c>
+      <c r="F295" s="35">
+        <v>1</v>
+      </c>
+      <c r="G295" s="35">
+        <v>1</v>
+      </c>
+      <c r="I295" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" ht="16.5">
+      <c r="A296" s="16">
+        <v>295</v>
+      </c>
+      <c r="B296" s="20" t="s">
         <v>890</v>
       </c>
-      <c r="D295" s="38" t="s">
+      <c r="C296" s="15" t="s">
         <v>891</v>
       </c>
-      <c r="E295" s="39">
-        <v>1</v>
-      </c>
-      <c r="F295" s="39">
-        <v>1</v>
-      </c>
-      <c r="G295" s="39">
-        <v>1</v>
-      </c>
-      <c r="I295" s="40" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A296" s="36">
-        <v>295</v>
-      </c>
-      <c r="B296" s="38" t="s">
-        <v>892</v>
-      </c>
-      <c r="C296" s="37" t="s">
+      <c r="D296" s="20" t="s">
         <v>893</v>
       </c>
-      <c r="D296" s="38" t="s">
-        <v>894</v>
-      </c>
-      <c r="E296" s="39">
-        <v>1</v>
-      </c>
-      <c r="F296" s="39">
-        <v>1</v>
-      </c>
-      <c r="G296" s="39">
-        <v>1</v>
-      </c>
-      <c r="I296" s="40" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" ht="16.5">
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="I296" s="15" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" ht="16.5">
       <c r="A297" s="16">
         <v>296</v>
       </c>
@@ -12317,10 +12417,10 @@
         <v>895</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D297" s="20" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -12332,21 +12432,21 @@
         <v>0</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" ht="16.5">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" ht="16.5">
       <c r="A298" s="16">
         <v>297</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C298" s="15" t="s">
         <v>897</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -12358,73 +12458,82 @@
         <v>0</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" ht="16.5">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="20" t="s">
+      <c r="B299" s="34" t="s">
+        <v>899</v>
+      </c>
+      <c r="C299" s="33" t="s">
+        <v>900</v>
+      </c>
+      <c r="D299" s="34" t="s">
         <v>901</v>
       </c>
-      <c r="C299" s="15" t="s">
+      <c r="E299" s="35">
+        <v>1</v>
+      </c>
+      <c r="F299" s="35">
+        <v>1</v>
+      </c>
+      <c r="G299" s="35">
+        <v>1</v>
+      </c>
+      <c r="H299" s="35"/>
+      <c r="I299" s="36" t="s">
         <v>902</v>
       </c>
-      <c r="D299" s="20" t="s">
-        <v>903</v>
-      </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299">
-        <v>0</v>
-      </c>
-      <c r="G299">
-        <v>0</v>
-      </c>
-      <c r="I299" s="15" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A300" s="36">
+    </row>
+    <row r="300" spans="1:16" s="23" customFormat="1" ht="16.5">
+      <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="38" t="s">
-        <v>904</v>
-      </c>
-      <c r="C300" s="37" t="s">
-        <v>905</v>
-      </c>
-      <c r="D300" s="38" t="s">
+      <c r="B300" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="E300" s="39">
-        <v>1</v>
-      </c>
-      <c r="F300" s="39">
-        <v>1</v>
-      </c>
-      <c r="G300" s="39">
-        <v>1</v>
-      </c>
-      <c r="I300" s="40" t="s">
+      <c r="C300" s="15" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
+      <c r="D300" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="E300" s="17">
+        <v>0</v>
+      </c>
+      <c r="F300" s="17">
+        <v>0</v>
+      </c>
+      <c r="G300" s="17">
+        <v>0</v>
+      </c>
+      <c r="H300" s="17"/>
+      <c r="I300" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="J300" s="17"/>
+      <c r="K300" s="17"/>
+      <c r="L300" s="17"/>
+      <c r="M300" s="17"/>
+      <c r="N300" s="17"/>
+      <c r="O300" s="17"/>
+      <c r="P300" s="17"/>
+    </row>
+    <row r="301" spans="1:16" s="23" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
       <c r="B301" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="C301" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="D301" s="18" t="s">
         <v>911</v>
-      </c>
-      <c r="C301" s="15" t="s">
-        <v>912</v>
-      </c>
-      <c r="D301" s="18" t="s">
-        <v>913</v>
       </c>
       <c r="E301" s="17">
         <v>0</v>
@@ -12437,21 +12546,28 @@
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="19" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
+        <v>909</v>
+      </c>
+      <c r="J301" s="17"/>
+      <c r="K301" s="17"/>
+      <c r="L301" s="17"/>
+      <c r="M301" s="17"/>
+      <c r="N301" s="17"/>
+      <c r="O301" s="17"/>
+      <c r="P301" s="17"/>
+    </row>
+    <row r="302" spans="1:16" s="23" customFormat="1" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C302" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="D302" s="18" t="s">
         <v>915</v>
-      </c>
-      <c r="D302" s="18" t="s">
-        <v>916</v>
       </c>
       <c r="E302" s="17">
         <v>0</v>
@@ -12464,246 +12580,257 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" s="23" customFormat="1" ht="16.5">
+        <v>909</v>
+      </c>
+      <c r="J302" s="17"/>
+      <c r="K302" s="17"/>
+      <c r="L302" s="17"/>
+      <c r="M302" s="17"/>
+      <c r="N302" s="17"/>
+      <c r="O302" s="17"/>
+      <c r="P302" s="17"/>
+    </row>
+    <row r="303" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="28" t="s">
-        <v>937</v>
-      </c>
-      <c r="C303" s="26" t="s">
-        <v>939</v>
-      </c>
-      <c r="D303" s="27"/>
-      <c r="E303" s="27">
-        <v>1</v>
-      </c>
-      <c r="F303" s="27">
-        <v>1</v>
-      </c>
-      <c r="G303" s="27">
-        <v>1</v>
-      </c>
-      <c r="H303" s="27"/>
-      <c r="I303" s="26" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
+      <c r="B303" s="34" t="s">
+        <v>916</v>
+      </c>
+      <c r="C303" s="33" t="s">
+        <v>920</v>
+      </c>
+      <c r="D303" s="34" t="s">
+        <v>917</v>
+      </c>
+      <c r="E303" s="35">
+        <v>1</v>
+      </c>
+      <c r="F303" s="35">
+        <v>1</v>
+      </c>
+      <c r="G303" s="35">
+        <v>1</v>
+      </c>
+      <c r="H303" s="35"/>
+      <c r="I303" s="36" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="18" t="s">
-        <v>919</v>
-      </c>
-      <c r="C304" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="D304" s="18" t="s">
-        <v>920</v>
-      </c>
-      <c r="E304" s="17">
-        <v>0</v>
-      </c>
-      <c r="F304" s="17">
-        <v>0</v>
-      </c>
-      <c r="G304" s="17">
-        <v>0</v>
-      </c>
-      <c r="H304" s="17"/>
-      <c r="I304" s="19" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A305" s="36">
+      <c r="B304" s="42" t="s">
+        <v>969</v>
+      </c>
+      <c r="C304" s="43" t="s">
+        <v>941</v>
+      </c>
+      <c r="D304" s="42" t="s">
+        <v>973</v>
+      </c>
+      <c r="E304" s="44">
+        <v>1</v>
+      </c>
+      <c r="F304" s="44">
+        <v>1</v>
+      </c>
+      <c r="G304" s="44">
+        <v>1</v>
+      </c>
+      <c r="H304" s="44"/>
+      <c r="I304" s="43" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="38" t="s">
-        <v>921</v>
-      </c>
-      <c r="C305" s="37" t="s">
-        <v>927</v>
-      </c>
-      <c r="D305" s="38" t="s">
-        <v>922</v>
-      </c>
-      <c r="E305" s="39">
-        <v>1</v>
-      </c>
-      <c r="F305" s="39">
-        <v>1</v>
-      </c>
-      <c r="G305" s="39">
-        <v>1</v>
-      </c>
-      <c r="I305" s="40" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5">
+      <c r="B305" s="42" t="s">
+        <v>970</v>
+      </c>
+      <c r="C305" s="43" t="s">
+        <v>942</v>
+      </c>
+      <c r="D305" s="42" t="s">
+        <v>974</v>
+      </c>
+      <c r="E305" s="44">
+        <v>1</v>
+      </c>
+      <c r="F305" s="44">
+        <v>1</v>
+      </c>
+      <c r="G305" s="44">
+        <v>1</v>
+      </c>
+      <c r="H305" s="44"/>
+      <c r="I305" s="43" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="28" t="s">
-        <v>949</v>
-      </c>
-      <c r="C306" s="26" t="s">
-        <v>956</v>
-      </c>
-      <c r="D306" s="28" t="s">
-        <v>952</v>
-      </c>
-      <c r="E306" s="27">
-        <v>1</v>
-      </c>
-      <c r="F306" s="27">
-        <v>1</v>
-      </c>
-      <c r="G306" s="27">
-        <v>1</v>
-      </c>
-      <c r="H306" s="27"/>
-      <c r="I306" s="26" t="s">
-        <v>958</v>
+      <c r="B306" s="42" t="s">
+        <v>967</v>
+      </c>
+      <c r="C306" s="42" t="s">
+        <v>947</v>
+      </c>
+      <c r="D306" s="42" t="s">
+        <v>968</v>
+      </c>
+      <c r="E306" s="44">
+        <v>1</v>
+      </c>
+      <c r="F306" s="44">
+        <v>1</v>
+      </c>
+      <c r="G306" s="44">
+        <v>1</v>
+      </c>
+      <c r="H306" s="44"/>
+      <c r="I306" s="45" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="28" t="s">
-        <v>950</v>
-      </c>
-      <c r="C307" s="26" t="s">
-        <v>957</v>
-      </c>
-      <c r="D307" s="28" t="s">
+      <c r="B307" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="C307" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="D307" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="E307" s="17">
+        <v>1</v>
+      </c>
+      <c r="F307" s="17">
+        <v>1</v>
+      </c>
+      <c r="G307" s="17">
+        <v>1</v>
+      </c>
+      <c r="H307" s="17"/>
+      <c r="I307" s="19" t="s">
         <v>924</v>
-      </c>
-      <c r="E307" s="27">
-        <v>1</v>
-      </c>
-      <c r="F307" s="27">
-        <v>1</v>
-      </c>
-      <c r="G307" s="27">
-        <v>1</v>
-      </c>
-      <c r="H307" s="27"/>
-      <c r="I307" s="26" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="30" t="s">
-        <v>951</v>
-      </c>
-      <c r="C308" s="30" t="s">
-        <v>963</v>
-      </c>
-      <c r="D308" s="30" t="s">
-        <v>925</v>
-      </c>
-      <c r="E308" s="32">
-        <v>1</v>
-      </c>
-      <c r="F308" s="32">
-        <v>1</v>
-      </c>
-      <c r="G308" s="32">
-        <v>1</v>
-      </c>
-      <c r="H308" s="32"/>
-      <c r="I308" s="33" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="16.5">
+      <c r="B308" s="18" t="s">
+        <v>928</v>
+      </c>
+      <c r="C308" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>927</v>
+      </c>
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="H308" s="17"/>
+      <c r="I308" s="15" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="17" t="s">
-        <v>930</v>
-      </c>
-      <c r="C309" s="17" t="s">
-        <v>929</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>928</v>
-      </c>
-      <c r="E309" s="17">
-        <v>1</v>
-      </c>
-      <c r="F309" s="17">
-        <v>1</v>
-      </c>
-      <c r="G309" s="17">
-        <v>1</v>
-      </c>
-      <c r="H309" s="17"/>
-      <c r="I309" s="19" t="s">
+      <c r="B309" s="34" t="s">
+        <v>932</v>
+      </c>
+      <c r="C309" s="33" t="s">
+        <v>933</v>
+      </c>
+      <c r="D309" s="34" t="s">
         <v>931</v>
+      </c>
+      <c r="E309" s="35">
+        <v>1</v>
+      </c>
+      <c r="F309" s="35">
+        <v>1</v>
+      </c>
+      <c r="G309" s="35">
+        <v>1</v>
+      </c>
+      <c r="H309" s="35"/>
+      <c r="I309" s="33" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
       <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="18" t="s">
+      <c r="B310" s="34" t="s">
+        <v>935</v>
+      </c>
+      <c r="C310" s="33" t="s">
+        <v>937</v>
+      </c>
+      <c r="D310" s="34" t="s">
         <v>936</v>
       </c>
-      <c r="C310" s="15" t="s">
-        <v>934</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>935</v>
-      </c>
-      <c r="E310" s="17">
-        <v>0</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="H310" s="17"/>
-      <c r="I310" s="15" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A311" s="36">
+      <c r="E310" s="35">
+        <v>1</v>
+      </c>
+      <c r="F310" s="35">
+        <v>1</v>
+      </c>
+      <c r="G310" s="35">
+        <v>1</v>
+      </c>
+      <c r="H310" s="35"/>
+      <c r="I310" s="33" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="38" t="s">
-        <v>943</v>
-      </c>
-      <c r="C311" s="37" t="s">
-        <v>944</v>
-      </c>
-      <c r="D311" s="38" t="s">
-        <v>942</v>
-      </c>
-      <c r="E311" s="39">
-        <v>1</v>
-      </c>
-      <c r="F311" s="39">
-        <v>1</v>
-      </c>
-      <c r="G311" s="39">
-        <v>1</v>
-      </c>
-      <c r="I311" s="37" t="s">
-        <v>945</v>
+      <c r="B311" s="34" t="s">
+        <v>939</v>
+      </c>
+      <c r="C311" s="33" t="s">
+        <v>938</v>
+      </c>
+      <c r="D311" s="34" t="s">
+        <v>940</v>
+      </c>
+      <c r="E311" s="35">
+        <v>1</v>
+      </c>
+      <c r="F311" s="35">
+        <v>1</v>
+      </c>
+      <c r="G311" s="35">
+        <v>1</v>
+      </c>
+      <c r="H311" s="35"/>
+      <c r="I311" s="33" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12711,41 +12838,37 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="D312" s="18" t="s">
         <v>946</v>
       </c>
-      <c r="C312" s="15" t="s">
-        <v>948</v>
-      </c>
-      <c r="D312" s="18" t="s">
-        <v>947</v>
-      </c>
       <c r="E312" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G312" s="17">
-        <v>1</v>
-      </c>
-      <c r="H312" s="17"/>
-      <c r="I312" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="17.25">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="18" t="s">
-        <v>954</v>
+      <c r="B313" s="31" t="s">
+        <v>948</v>
       </c>
       <c r="C313" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="D313" s="20" t="s">
         <v>953</v>
       </c>
-      <c r="D313" s="18" t="s">
-        <v>955</v>
-      </c>
       <c r="E313" s="17">
         <v>1</v>
       </c>
@@ -12755,87 +12878,267 @@
       <c r="G313" s="17">
         <v>1</v>
       </c>
-      <c r="I313" s="15" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" ht="16.5">
+      <c r="I313" s="9" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="17.25">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="18" t="s">
-        <v>960</v>
+      <c r="B314" s="31" t="s">
+        <v>949</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>961</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>962</v>
+        <v>951</v>
+      </c>
+      <c r="D314" s="31" t="s">
+        <v>957</v>
       </c>
       <c r="E314" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F314" s="17">
-        <v>0</v>
-      </c>
-      <c r="G314" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="17.25">
+        <v>1</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="I314" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="34" t="s">
-        <v>964</v>
-      </c>
-      <c r="C315" s="15" t="s">
-        <v>967</v>
-      </c>
-      <c r="D315" s="20" t="s">
-        <v>970</v>
-      </c>
-      <c r="E315" s="17">
-        <v>1</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="9" t="s">
-        <v>969</v>
+      <c r="B315" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="C315" s="25" t="s">
+        <v>955</v>
+      </c>
+      <c r="D315" s="27" t="s">
+        <v>954</v>
+      </c>
+      <c r="E315" s="26">
+        <v>1</v>
+      </c>
+      <c r="F315" s="26">
+        <v>1</v>
+      </c>
+      <c r="G315" s="26">
+        <v>1</v>
+      </c>
+      <c r="H315" s="26"/>
+      <c r="I315" s="37" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="34" t="s">
-        <v>966</v>
-      </c>
-      <c r="C316" s="15" t="s">
-        <v>968</v>
-      </c>
-      <c r="D316" s="34" t="s">
-        <v>965</v>
-      </c>
-      <c r="E316" s="17">
-        <v>1</v>
-      </c>
-      <c r="F316" s="17">
-        <v>1</v>
-      </c>
-      <c r="G316">
-        <v>1</v>
-      </c>
-      <c r="I316" s="19" t="s">
-        <v>647</v>
+      <c r="B316" s="38" t="s">
+        <v>962</v>
+      </c>
+      <c r="C316" s="25" t="s">
+        <v>959</v>
+      </c>
+      <c r="D316" s="38" t="s">
+        <v>958</v>
+      </c>
+      <c r="E316" s="26">
+        <v>1</v>
+      </c>
+      <c r="F316" s="26">
+        <v>1</v>
+      </c>
+      <c r="G316" s="26">
+        <v>1</v>
+      </c>
+      <c r="H316" s="26"/>
+      <c r="I316" s="25" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="16.5">
+      <c r="A317" s="16">
+        <v>316</v>
+      </c>
+      <c r="B317" s="47" t="s">
+        <v>980</v>
+      </c>
+      <c r="C317" s="48" t="s">
+        <v>963</v>
+      </c>
+      <c r="D317" s="46"/>
+      <c r="E317" s="46">
+        <v>1</v>
+      </c>
+      <c r="F317" s="46">
+        <v>1</v>
+      </c>
+      <c r="G317" s="46">
+        <v>1</v>
+      </c>
+      <c r="H317" s="46"/>
+      <c r="I317" s="48" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="16.5">
+      <c r="A318" s="16">
+        <v>317</v>
+      </c>
+      <c r="B318" s="47" t="s">
+        <v>981</v>
+      </c>
+      <c r="C318" s="48" t="s">
+        <v>964</v>
+      </c>
+      <c r="D318" s="46"/>
+      <c r="E318" s="46">
+        <v>1</v>
+      </c>
+      <c r="F318" s="46">
+        <v>1</v>
+      </c>
+      <c r="G318" s="46">
+        <v>1</v>
+      </c>
+      <c r="H318" s="46"/>
+      <c r="I318" s="48" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A319" s="16">
+        <v>318</v>
+      </c>
+      <c r="B319" s="47" t="s">
+        <v>978</v>
+      </c>
+      <c r="C319" s="46" t="s">
+        <v>988</v>
+      </c>
+      <c r="D319" s="46"/>
+      <c r="E319" s="46">
+        <v>1</v>
+      </c>
+      <c r="F319" s="46">
+        <v>1</v>
+      </c>
+      <c r="G319" s="46">
+        <v>1</v>
+      </c>
+      <c r="H319" s="46"/>
+      <c r="I319" s="48" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="16.5">
+      <c r="A320" s="16">
+        <v>319</v>
+      </c>
+      <c r="B320" s="47" t="s">
+        <v>979</v>
+      </c>
+      <c r="C320" s="48" t="s">
+        <v>989</v>
+      </c>
+      <c r="D320" s="46"/>
+      <c r="E320" s="46">
+        <v>1</v>
+      </c>
+      <c r="F320" s="46">
+        <v>1</v>
+      </c>
+      <c r="G320" s="46">
+        <v>1</v>
+      </c>
+      <c r="H320" s="46"/>
+      <c r="I320" s="48" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="16.5">
+      <c r="A321" s="16">
+        <v>320</v>
+      </c>
+      <c r="B321" s="47" t="s">
+        <v>987</v>
+      </c>
+      <c r="C321" s="48" t="s">
+        <v>982</v>
+      </c>
+      <c r="D321" s="46"/>
+      <c r="E321" s="46">
+        <v>1</v>
+      </c>
+      <c r="F321" s="46">
+        <v>1</v>
+      </c>
+      <c r="G321" s="46">
+        <v>1</v>
+      </c>
+      <c r="H321" s="46"/>
+      <c r="I321" s="48" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="16.5">
+      <c r="A322" s="16">
+        <v>321</v>
+      </c>
+      <c r="B322" s="47" t="s">
+        <v>984</v>
+      </c>
+      <c r="C322" s="48" t="s">
+        <v>985</v>
+      </c>
+      <c r="D322" s="46"/>
+      <c r="E322" s="46">
+        <v>1</v>
+      </c>
+      <c r="F322" s="46">
+        <v>1</v>
+      </c>
+      <c r="G322" s="46">
+        <v>1</v>
+      </c>
+      <c r="H322" s="46"/>
+      <c r="I322" s="48" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="16.5">
+      <c r="A323" s="16">
+        <v>322</v>
+      </c>
+      <c r="B323" s="47" t="s">
+        <v>976</v>
+      </c>
+      <c r="C323" s="48" t="s">
+        <v>977</v>
+      </c>
+      <c r="D323" s="46"/>
+      <c r="E323" s="46">
+        <v>1</v>
+      </c>
+      <c r="F323" s="46">
+        <v>1</v>
+      </c>
+      <c r="G323" s="46">
+        <v>1</v>
+      </c>
+      <c r="H323" s="46"/>
+      <c r="I323" s="49" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H234"/>
+  <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12858,7 +13161,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$233</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="988">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3649,14 +3649,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_034_ldfd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>立冬福袋</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3815,10 +3807,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>11月30日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_038_s12dhhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3966,6 +3954,10 @@
   </si>
   <si>
     <t>活动模板，永久</t>
+  </si>
+  <si>
+    <t>活动模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>sys_act_czzk</t>
@@ -4115,6 +4107,18 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>act_ty_task</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4131,6 +4135,46 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>act_ty_by_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4139,11 +4183,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>活动模板，永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8号</t>
+    <t>act_ty_by_hhl_style/act_001_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_002_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4162,55 +4206,27 @@
     <t>sys_act_base_style</t>
   </si>
   <si>
+    <t>act_034_ldfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_002_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_003_taiyang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <t>太阳掉落皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹掉落皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>act_ty_sjb_style/act_001_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_002_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_001_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳掉落皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹掉落皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4385,13 +4401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4427,7 +4443,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4554,19 +4570,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4575,7 +4585,16 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4855,13 +4874,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P323"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C304" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B331" sqref="B331"/>
+      <selection pane="bottomRight" activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11266,13 +11285,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="29" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C253" s="30" t="s">
         <v>739</v>
       </c>
       <c r="D253" s="29" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E253" s="30">
         <v>1</v>
@@ -11348,7 +11367,7 @@
         <v>750</v>
       </c>
       <c r="C256" s="25" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D256" s="25" t="s">
         <v>751</v>
@@ -11363,7 +11382,7 @@
         <v>1</v>
       </c>
       <c r="I256" s="22" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11864,7 +11883,7 @@
       </c>
       <c r="H275" s="17"/>
       <c r="I275" s="28" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="16.5">
@@ -11898,7 +11917,7 @@
         <v>823</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D277" s="32" t="s">
         <v>824</v>
@@ -11914,7 +11933,7 @@
       </c>
       <c r="H277" s="15"/>
       <c r="I277" s="15" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -12178,93 +12197,93 @@
       <c r="A288" s="16">
         <v>287</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="29" t="s">
+        <v>982</v>
+      </c>
+      <c r="C288" s="29" t="s">
         <v>862</v>
       </c>
-      <c r="C288" s="15" t="s">
-        <v>864</v>
-      </c>
-      <c r="D288" s="15" t="s">
-        <v>865</v>
-      </c>
-      <c r="E288" s="17">
-        <v>1</v>
-      </c>
-      <c r="F288" s="17">
-        <v>1</v>
-      </c>
-      <c r="G288" s="17">
-        <v>1</v>
-      </c>
-      <c r="H288" s="17"/>
-      <c r="I288" s="15" t="s">
+      <c r="D288" s="29" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" s="35" customFormat="1" ht="16.5">
+      <c r="E288" s="30">
+        <v>1</v>
+      </c>
+      <c r="F288" s="30">
+        <v>1</v>
+      </c>
+      <c r="G288" s="30">
+        <v>1</v>
+      </c>
+      <c r="H288" s="30"/>
+      <c r="I288" s="29" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A289" s="16">
         <v>288</v>
       </c>
       <c r="B289" s="33" t="s">
+        <v>864</v>
+      </c>
+      <c r="C289" s="33" t="s">
+        <v>865</v>
+      </c>
+      <c r="D289" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="C289" s="33" t="s">
+      <c r="E289" s="35">
+        <v>1</v>
+      </c>
+      <c r="F289" s="35">
+        <v>1</v>
+      </c>
+      <c r="G289" s="35">
+        <v>1</v>
+      </c>
+      <c r="I289" s="36" t="s">
         <v>867</v>
       </c>
-      <c r="D289" s="34" t="s">
-        <v>868</v>
-      </c>
-      <c r="E289" s="35">
-        <v>1</v>
-      </c>
-      <c r="F289" s="35">
-        <v>1</v>
-      </c>
-      <c r="G289" s="35">
-        <v>1</v>
-      </c>
-      <c r="I289" s="36" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="290" spans="1:16" s="35" customFormat="1" ht="16.5">
+    </row>
+    <row r="290" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A290" s="16">
         <v>289</v>
       </c>
       <c r="B290" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="D290" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="C290" s="33" t="s">
+      <c r="E290" s="35">
+        <v>1</v>
+      </c>
+      <c r="F290" s="35">
+        <v>1</v>
+      </c>
+      <c r="G290" s="35">
+        <v>1</v>
+      </c>
+      <c r="I290" s="36" t="s">
         <v>871</v>
       </c>
-      <c r="D290" s="34" t="s">
-        <v>872</v>
-      </c>
-      <c r="E290" s="35">
-        <v>1</v>
-      </c>
-      <c r="F290" s="35">
-        <v>1</v>
-      </c>
-      <c r="G290" s="35">
-        <v>1</v>
-      </c>
-      <c r="I290" s="36" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="291" spans="1:16" s="35" customFormat="1" ht="16.5">
+    </row>
+    <row r="291" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A291" s="16">
         <v>290</v>
       </c>
       <c r="B291" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="C291" s="33" t="s">
+        <v>873</v>
+      </c>
+      <c r="D291" s="34" t="s">
         <v>874</v>
-      </c>
-      <c r="C291" s="33" t="s">
-        <v>875</v>
-      </c>
-      <c r="D291" s="34" t="s">
-        <v>876</v>
       </c>
       <c r="E291" s="35">
         <v>1</v>
@@ -12279,18 +12298,18 @@
         <v>642</v>
       </c>
     </row>
-    <row r="292" spans="1:16" s="35" customFormat="1" ht="16.5">
+    <row r="292" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A292" s="16">
         <v>291</v>
       </c>
       <c r="B292" s="34" t="s">
+        <v>875</v>
+      </c>
+      <c r="C292" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="D292" s="34" t="s">
         <v>877</v>
-      </c>
-      <c r="C292" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="D292" s="34" t="s">
-        <v>879</v>
       </c>
       <c r="E292" s="35">
         <v>1</v>
@@ -12305,19 +12324,19 @@
         <v>642</v>
       </c>
     </row>
-    <row r="293" spans="1:16" s="35" customFormat="1" ht="16.5">
+    <row r="293" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A293" s="16">
         <v>292</v>
       </c>
       <c r="B293" s="34" t="s">
+        <v>876</v>
+      </c>
+      <c r="C293" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="D293" s="34" t="s">
         <v>878</v>
       </c>
-      <c r="C293" s="33" t="s">
-        <v>883</v>
-      </c>
-      <c r="D293" s="34" t="s">
-        <v>880</v>
-      </c>
       <c r="E293" s="35">
         <v>1</v>
       </c>
@@ -12328,21 +12347,21 @@
         <v>1</v>
       </c>
       <c r="I293" s="36" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="294" spans="1:16" s="35" customFormat="1" ht="16.5">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A294" s="16">
         <v>293</v>
       </c>
       <c r="B294" s="34" t="s">
+        <v>882</v>
+      </c>
+      <c r="C294" s="33" t="s">
+        <v>883</v>
+      </c>
+      <c r="D294" s="34" t="s">
         <v>884</v>
-      </c>
-      <c r="C294" s="33" t="s">
-        <v>885</v>
-      </c>
-      <c r="D294" s="34" t="s">
-        <v>886</v>
       </c>
       <c r="E294" s="35">
         <v>1</v>
@@ -12357,18 +12376,18 @@
         <v>642</v>
       </c>
     </row>
-    <row r="295" spans="1:16" s="35" customFormat="1" ht="16.5">
+    <row r="295" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A295" s="16">
         <v>294</v>
       </c>
       <c r="B295" s="34" t="s">
+        <v>885</v>
+      </c>
+      <c r="C295" s="33" t="s">
+        <v>886</v>
+      </c>
+      <c r="D295" s="34" t="s">
         <v>887</v>
-      </c>
-      <c r="C295" s="33" t="s">
-        <v>888</v>
-      </c>
-      <c r="D295" s="34" t="s">
-        <v>889</v>
       </c>
       <c r="E295" s="35">
         <v>1</v>
@@ -12383,19 +12402,19 @@
         <v>642</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="16.5">
+    <row r="296" spans="1:9" ht="16.5">
       <c r="A296" s="16">
         <v>295</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C296" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="D296" s="20" t="s">
         <v>891</v>
       </c>
-      <c r="D296" s="20" t="s">
-        <v>893</v>
-      </c>
       <c r="E296">
         <v>0</v>
       </c>
@@ -12406,22 +12425,22 @@
         <v>0</v>
       </c>
       <c r="I296" s="15" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="297" spans="1:16" ht="16.5">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="16.5">
       <c r="A297" s="16">
         <v>296</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C297" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="D297" s="20" t="s">
         <v>892</v>
       </c>
-      <c r="D297" s="20" t="s">
-        <v>894</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -12432,22 +12451,22 @@
         <v>0</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="298" spans="1:16" ht="16.5">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="16.5">
       <c r="A298" s="16">
         <v>297</v>
       </c>
       <c r="B298" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="C298" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D298" s="20" t="s">
         <v>896</v>
       </c>
-      <c r="C298" s="15" t="s">
-        <v>897</v>
-      </c>
-      <c r="D298" s="20" t="s">
-        <v>898</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12458,48 +12477,47 @@
         <v>0</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="299" spans="1:16" s="17" customFormat="1" ht="16.5">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
       <c r="B299" s="34" t="s">
+        <v>897</v>
+      </c>
+      <c r="C299" s="33" t="s">
+        <v>898</v>
+      </c>
+      <c r="D299" s="34" t="s">
         <v>899</v>
       </c>
-      <c r="C299" s="33" t="s">
+      <c r="E299" s="35">
+        <v>1</v>
+      </c>
+      <c r="F299" s="35">
+        <v>1</v>
+      </c>
+      <c r="G299" s="35">
+        <v>1</v>
+      </c>
+      <c r="I299" s="36" t="s">
         <v>900</v>
       </c>
-      <c r="D299" s="34" t="s">
-        <v>901</v>
-      </c>
-      <c r="E299" s="35">
-        <v>1</v>
-      </c>
-      <c r="F299" s="35">
-        <v>1</v>
-      </c>
-      <c r="G299" s="35">
-        <v>1</v>
-      </c>
-      <c r="H299" s="35"/>
-      <c r="I299" s="36" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="300" spans="1:16" s="23" customFormat="1" ht="16.5">
+    </row>
+    <row r="300" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A300" s="16">
         <v>299</v>
       </c>
       <c r="B300" s="18" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C300" s="15" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D300" s="18" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E300" s="17">
         <v>0</v>
@@ -12512,28 +12530,21 @@
       </c>
       <c r="H300" s="17"/>
       <c r="I300" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="J300" s="17"/>
-      <c r="K300" s="17"/>
-      <c r="L300" s="17"/>
-      <c r="M300" s="17"/>
-      <c r="N300" s="17"/>
-      <c r="O300" s="17"/>
-      <c r="P300" s="17"/>
-    </row>
-    <row r="301" spans="1:16" s="23" customFormat="1" ht="16.5">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C301" s="15" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D301" s="18" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E301" s="17">
         <v>0</v>
@@ -12546,28 +12557,21 @@
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="J301" s="17"/>
-      <c r="K301" s="17"/>
-      <c r="L301" s="17"/>
-      <c r="M301" s="17"/>
-      <c r="N301" s="17"/>
-      <c r="O301" s="17"/>
-      <c r="P301" s="17"/>
-    </row>
-    <row r="302" spans="1:16" s="23" customFormat="1" ht="16.5">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D302" s="18" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E302" s="17">
         <v>0</v>
@@ -12580,28 +12584,21 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="J302" s="17"/>
-      <c r="K302" s="17"/>
-      <c r="L302" s="17"/>
-      <c r="M302" s="17"/>
-      <c r="N302" s="17"/>
-      <c r="O302" s="17"/>
-      <c r="P302" s="17"/>
-    </row>
-    <row r="303" spans="1:16" s="17" customFormat="1" ht="16.5">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
       <c r="B303" s="34" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C303" s="33" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D303" s="34" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E303" s="35">
         <v>1</v>
@@ -12612,89 +12609,88 @@
       <c r="G303" s="35">
         <v>1</v>
       </c>
-      <c r="H303" s="35"/>
       <c r="I303" s="36" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="304" spans="1:16" s="17" customFormat="1" ht="16.5">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="42" t="s">
-        <v>969</v>
-      </c>
-      <c r="C304" s="43" t="s">
-        <v>941</v>
-      </c>
-      <c r="D304" s="42" t="s">
-        <v>973</v>
-      </c>
-      <c r="E304" s="44">
-        <v>1</v>
-      </c>
-      <c r="F304" s="44">
-        <v>1</v>
-      </c>
-      <c r="G304" s="44">
-        <v>1</v>
-      </c>
-      <c r="H304" s="44"/>
-      <c r="I304" s="43" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B304" s="45" t="s">
+        <v>974</v>
+      </c>
+      <c r="C304" s="46" t="s">
+        <v>938</v>
+      </c>
+      <c r="D304" s="45" t="s">
+        <v>978</v>
+      </c>
+      <c r="E304" s="47">
+        <v>1</v>
+      </c>
+      <c r="F304" s="47">
+        <v>1</v>
+      </c>
+      <c r="G304" s="47">
+        <v>1</v>
+      </c>
+      <c r="H304" s="47"/>
+      <c r="I304" s="46" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="42" t="s">
-        <v>970</v>
-      </c>
-      <c r="C305" s="43" t="s">
-        <v>942</v>
-      </c>
-      <c r="D305" s="42" t="s">
-        <v>974</v>
-      </c>
-      <c r="E305" s="44">
-        <v>1</v>
-      </c>
-      <c r="F305" s="44">
-        <v>1</v>
-      </c>
-      <c r="G305" s="44">
-        <v>1</v>
-      </c>
-      <c r="H305" s="44"/>
-      <c r="I305" s="43" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B305" s="45" t="s">
+        <v>975</v>
+      </c>
+      <c r="C305" s="46" t="s">
+        <v>939</v>
+      </c>
+      <c r="D305" s="45" t="s">
+        <v>979</v>
+      </c>
+      <c r="E305" s="47">
+        <v>1</v>
+      </c>
+      <c r="F305" s="47">
+        <v>1</v>
+      </c>
+      <c r="G305" s="47">
+        <v>1</v>
+      </c>
+      <c r="H305" s="47"/>
+      <c r="I305" s="46" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="42" t="s">
-        <v>967</v>
-      </c>
-      <c r="C306" s="42" t="s">
-        <v>947</v>
-      </c>
-      <c r="D306" s="42" t="s">
+      <c r="B306" s="45" t="s">
         <v>968</v>
       </c>
-      <c r="E306" s="44">
-        <v>1</v>
-      </c>
-      <c r="F306" s="44">
-        <v>1</v>
-      </c>
-      <c r="G306" s="44">
-        <v>1</v>
-      </c>
-      <c r="H306" s="44"/>
-      <c r="I306" s="45" t="s">
+      <c r="C306" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="D306" s="45" t="s">
+        <v>969</v>
+      </c>
+      <c r="E306" s="47">
+        <v>1</v>
+      </c>
+      <c r="F306" s="47">
+        <v>1</v>
+      </c>
+      <c r="G306" s="47">
+        <v>1</v>
+      </c>
+      <c r="H306" s="47"/>
+      <c r="I306" s="48" t="s">
         <v>642</v>
       </c>
     </row>
@@ -12703,13 +12699,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="17" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C307" s="17" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -12722,7 +12718,7 @@
       </c>
       <c r="H307" s="17"/>
       <c r="I307" s="19" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12730,13 +12726,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="D308" s="18" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E308" s="17">
         <v>1</v>
@@ -12749,88 +12745,86 @@
       </c>
       <c r="H308" s="17"/>
       <c r="I308" s="15" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A309" s="16">
         <v>308</v>
       </c>
       <c r="B309" s="34" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C309" s="33" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D309" s="34" t="s">
+        <v>928</v>
+      </c>
+      <c r="E309" s="35">
+        <v>1</v>
+      </c>
+      <c r="F309" s="35">
+        <v>1</v>
+      </c>
+      <c r="G309" s="35">
+        <v>1</v>
+      </c>
+      <c r="I309" s="33" t="s">
         <v>931</v>
-      </c>
-      <c r="E309" s="35">
-        <v>1</v>
-      </c>
-      <c r="F309" s="35">
-        <v>1</v>
-      </c>
-      <c r="G309" s="35">
-        <v>1</v>
-      </c>
-      <c r="H309" s="35"/>
-      <c r="I309" s="33" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
       <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="34" t="s">
-        <v>935</v>
-      </c>
-      <c r="C310" s="33" t="s">
-        <v>937</v>
-      </c>
-      <c r="D310" s="34" t="s">
-        <v>936</v>
-      </c>
-      <c r="E310" s="35">
-        <v>1</v>
-      </c>
-      <c r="F310" s="35">
-        <v>1</v>
-      </c>
-      <c r="G310" s="35">
-        <v>1</v>
-      </c>
-      <c r="H310" s="35"/>
-      <c r="I310" s="33" t="s">
-        <v>943</v>
+      <c r="B310" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="C310" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="D310" s="18" t="s">
+        <v>933</v>
+      </c>
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="H310" s="17"/>
+      <c r="I310" s="15" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="34" t="s">
-        <v>939</v>
-      </c>
-      <c r="C311" s="33" t="s">
-        <v>938</v>
-      </c>
-      <c r="D311" s="34" t="s">
-        <v>940</v>
-      </c>
-      <c r="E311" s="35">
-        <v>1</v>
-      </c>
-      <c r="F311" s="35">
-        <v>1</v>
-      </c>
-      <c r="G311" s="35">
-        <v>1</v>
-      </c>
-      <c r="H311" s="35"/>
-      <c r="I311" s="33" t="s">
-        <v>971</v>
+      <c r="B311" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="C311" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="D311" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="I311" s="15" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12838,13 +12832,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>943</v>
+      </c>
+      <c r="D312" s="18" t="s">
         <v>944</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>945</v>
-      </c>
-      <c r="D312" s="18" t="s">
-        <v>946</v>
       </c>
       <c r="E312" s="17">
         <v>0</v>
@@ -12861,25 +12855,25 @@
         <v>312</v>
       </c>
       <c r="B313" s="31" t="s">
+        <v>946</v>
+      </c>
+      <c r="C313" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="D313" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="E313" s="17">
+        <v>1</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="9" t="s">
         <v>950</v>
-      </c>
-      <c r="D313" s="20" t="s">
-        <v>953</v>
-      </c>
-      <c r="E313" s="17">
-        <v>1</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="9" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="17.25">
@@ -12887,13 +12881,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="31" t="s">
+        <v>947</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="C314" s="15" t="s">
-        <v>951</v>
-      </c>
       <c r="D314" s="31" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E314" s="17">
         <v>1</v>
@@ -12913,13 +12907,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="27" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C315" s="25" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D315" s="27" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E315" s="26">
         <v>1</v>
@@ -12932,7 +12926,7 @@
       </c>
       <c r="H315" s="26"/>
       <c r="I315" s="37" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12940,13 +12934,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="38" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C316" s="25" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D316" s="38" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E316" s="26">
         <v>1</v>
@@ -12959,56 +12953,56 @@
       </c>
       <c r="H316" s="26"/>
       <c r="I316" s="25" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="47" t="s">
-        <v>980</v>
-      </c>
-      <c r="C317" s="48" t="s">
-        <v>963</v>
-      </c>
-      <c r="D317" s="46"/>
-      <c r="E317" s="46">
-        <v>1</v>
-      </c>
-      <c r="F317" s="46">
-        <v>1</v>
-      </c>
-      <c r="G317" s="46">
-        <v>1</v>
-      </c>
-      <c r="H317" s="46"/>
-      <c r="I317" s="48" t="s">
-        <v>960</v>
+      <c r="B317" s="44" t="s">
+        <v>987</v>
+      </c>
+      <c r="C317" s="42" t="s">
+        <v>961</v>
+      </c>
+      <c r="D317" s="43"/>
+      <c r="E317" s="43">
+        <v>1</v>
+      </c>
+      <c r="F317" s="43">
+        <v>1</v>
+      </c>
+      <c r="G317" s="43">
+        <v>1</v>
+      </c>
+      <c r="H317" s="43"/>
+      <c r="I317" s="42" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="47" t="s">
-        <v>981</v>
-      </c>
-      <c r="C318" s="48" t="s">
-        <v>964</v>
-      </c>
-      <c r="D318" s="46"/>
-      <c r="E318" s="46">
-        <v>1</v>
-      </c>
-      <c r="F318" s="46">
-        <v>1</v>
-      </c>
-      <c r="G318" s="46">
-        <v>1</v>
-      </c>
-      <c r="H318" s="46"/>
-      <c r="I318" s="48" t="s">
+      <c r="B318" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="C318" s="42" t="s">
+        <v>962</v>
+      </c>
+      <c r="D318" s="43"/>
+      <c r="E318" s="43">
+        <v>1</v>
+      </c>
+      <c r="F318" s="43">
+        <v>1</v>
+      </c>
+      <c r="G318" s="43">
+        <v>1</v>
+      </c>
+      <c r="H318" s="43"/>
+      <c r="I318" s="42" t="s">
         <v>972</v>
       </c>
     </row>
@@ -13016,124 +13010,124 @@
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="47" t="s">
-        <v>978</v>
-      </c>
-      <c r="C319" s="46" t="s">
-        <v>988</v>
-      </c>
-      <c r="D319" s="46"/>
-      <c r="E319" s="46">
-        <v>1</v>
-      </c>
-      <c r="F319" s="46">
-        <v>1</v>
-      </c>
-      <c r="G319" s="46">
-        <v>1</v>
-      </c>
-      <c r="H319" s="46"/>
-      <c r="I319" s="48" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" ht="16.5">
+      <c r="B319" s="44" t="s">
+        <v>971</v>
+      </c>
+      <c r="C319" s="43" t="s">
+        <v>985</v>
+      </c>
+      <c r="D319" s="43"/>
+      <c r="E319" s="43">
+        <v>1</v>
+      </c>
+      <c r="F319" s="43">
+        <v>1</v>
+      </c>
+      <c r="G319" s="43">
+        <v>1</v>
+      </c>
+      <c r="H319" s="43"/>
+      <c r="I319" s="42" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="47" t="s">
-        <v>979</v>
-      </c>
-      <c r="C320" s="48" t="s">
-        <v>989</v>
-      </c>
-      <c r="D320" s="46"/>
-      <c r="E320" s="46">
-        <v>1</v>
-      </c>
-      <c r="F320" s="46">
-        <v>1</v>
-      </c>
-      <c r="G320" s="46">
-        <v>1</v>
-      </c>
-      <c r="H320" s="46"/>
-      <c r="I320" s="48" t="s">
-        <v>972</v>
+      <c r="B320" s="44" t="s">
+        <v>970</v>
+      </c>
+      <c r="C320" s="42" t="s">
+        <v>986</v>
+      </c>
+      <c r="D320" s="43"/>
+      <c r="E320" s="43">
+        <v>1</v>
+      </c>
+      <c r="F320" s="43">
+        <v>1</v>
+      </c>
+      <c r="G320" s="43">
+        <v>1</v>
+      </c>
+      <c r="H320" s="43"/>
+      <c r="I320" s="42" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="47" t="s">
-        <v>987</v>
-      </c>
-      <c r="C321" s="48" t="s">
-        <v>982</v>
-      </c>
-      <c r="D321" s="46"/>
-      <c r="E321" s="46">
-        <v>1</v>
-      </c>
-      <c r="F321" s="46">
-        <v>1</v>
-      </c>
-      <c r="G321" s="46">
-        <v>1</v>
-      </c>
-      <c r="H321" s="46"/>
-      <c r="I321" s="48" t="s">
-        <v>983</v>
+      <c r="B321" s="44" t="s">
+        <v>976</v>
+      </c>
+      <c r="C321" s="42" t="s">
+        <v>964</v>
+      </c>
+      <c r="D321" s="43"/>
+      <c r="E321" s="43">
+        <v>1</v>
+      </c>
+      <c r="F321" s="43">
+        <v>1</v>
+      </c>
+      <c r="G321" s="43">
+        <v>1</v>
+      </c>
+      <c r="H321" s="43"/>
+      <c r="I321" s="42" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="47" t="s">
-        <v>984</v>
-      </c>
-      <c r="C322" s="48" t="s">
-        <v>985</v>
-      </c>
-      <c r="D322" s="46"/>
-      <c r="E322" s="46">
-        <v>1</v>
-      </c>
-      <c r="F322" s="46">
-        <v>1</v>
-      </c>
-      <c r="G322" s="46">
-        <v>1</v>
-      </c>
-      <c r="H322" s="46"/>
-      <c r="I322" s="48" t="s">
-        <v>986</v>
+      <c r="B322" s="44" t="s">
+        <v>977</v>
+      </c>
+      <c r="C322" s="42" t="s">
+        <v>965</v>
+      </c>
+      <c r="D322" s="43"/>
+      <c r="E322" s="43">
+        <v>1</v>
+      </c>
+      <c r="F322" s="43">
+        <v>1</v>
+      </c>
+      <c r="G322" s="43">
+        <v>1</v>
+      </c>
+      <c r="H322" s="43"/>
+      <c r="I322" s="42" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
       <c r="A323" s="16">
         <v>322</v>
       </c>
-      <c r="B323" s="47" t="s">
-        <v>976</v>
-      </c>
-      <c r="C323" s="48" t="s">
-        <v>977</v>
-      </c>
-      <c r="D323" s="46"/>
-      <c r="E323" s="46">
-        <v>1</v>
-      </c>
-      <c r="F323" s="46">
-        <v>1</v>
-      </c>
-      <c r="G323" s="46">
-        <v>1</v>
-      </c>
-      <c r="H323" s="46"/>
-      <c r="I323" s="49" t="s">
+      <c r="B323" s="49" t="s">
+        <v>981</v>
+      </c>
+      <c r="C323" s="42" t="s">
+        <v>984</v>
+      </c>
+      <c r="D323" s="43"/>
+      <c r="E323" s="43">
+        <v>1</v>
+      </c>
+      <c r="F323" s="43">
+        <v>1</v>
+      </c>
+      <c r="G323" s="43">
+        <v>1</v>
+      </c>
+      <c r="H323" s="43"/>
+      <c r="I323" s="50" t="s">
         <v>642</v>
       </c>
     </row>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5065,10 +5065,10 @@
   <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C235" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E250" sqref="E250"/>
+      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7049,7 +7049,7 @@
         <v>221</v>
       </c>
       <c r="E76" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="28">
         <v>1</v>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1041">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -692,9 +692,6 @@
   </si>
   <si>
     <t>FKRKManager</t>
-  </si>
-  <si>
-    <t>系统升级引导</t>
   </si>
   <si>
     <t>XTSJYDManager</t>
@@ -3002,6 +2999,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>by3d_zdkp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>3D捕鱼自动开炮</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4338,11 +4339,61 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_ty_by_hhl_style/act_004_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_006_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月9日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_3dby_xyxtg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_3DBY_XYXTGManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_008_meigui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_041_xyxfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by3d_zdkp</t>
+  </si>
+  <si>
+    <t>系统升级引导</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1_style/act_002_tylb1</t>
+  </si>
+  <si>
+    <t>通用礼包1皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4350,7 +4401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4465,8 +4516,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4493,18 +4550,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4523,25 +4568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4577,7 +4604,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4641,92 +4668,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4740,50 +4716,53 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5062,19 +5041,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I338"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C326" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomRight" activeCell="C347" sqref="C347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
@@ -5085,10 +5064,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>980</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -5098,7 +5077,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -5110,7 +5089,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -5136,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5162,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5188,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5214,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5240,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5266,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5292,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5318,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5344,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5370,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5396,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5422,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5448,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5474,7 +5453,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5500,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5526,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5552,14 +5531,14 @@
         <v>1</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
@@ -5578,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5604,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -5630,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5656,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5682,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -5708,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -5734,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5771,7 +5750,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>82</v>
@@ -5786,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -5812,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5838,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -5864,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5890,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -5916,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -5942,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -5968,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -5994,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -6020,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -6046,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -6072,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -6098,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -6124,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -6150,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -6176,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -6202,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -6228,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -6254,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -6280,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -6306,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -6332,7 +6311,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -6343,7 +6322,7 @@
         <v>981</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>146</v>
@@ -6358,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -6384,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -6410,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -6434,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6460,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -6468,7 +6447,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>158</v>
@@ -6486,14 +6465,14 @@
         <v>0</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="15">
         <v>54</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="38" t="s">
         <v>979</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -6512,14 +6491,14 @@
         <v>1</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="38" t="s">
         <v>162</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -6538,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -6564,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -6590,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -6616,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="2" customFormat="1">
@@ -6626,7 +6605,7 @@
       <c r="B60" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="34" t="s">
         <v>977</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -6641,7 +6620,7 @@
       <c r="G60" s="2">
         <v>1</v>
       </c>
-      <c r="I60" s="50" t="s">
+      <c r="I60" s="33" t="s">
         <v>978</v>
       </c>
     </row>
@@ -6668,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -6694,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -6720,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -6746,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -6772,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -6798,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -6824,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -6850,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -6876,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -6902,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -6928,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -6954,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -6980,33 +6959,33 @@
         <v>1</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="36" customFormat="1">
-      <c r="A74" s="15">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="46" customFormat="1">
+      <c r="A74" s="43">
         <v>73</v>
       </c>
-      <c r="B74" s="35" t="s">
-        <v>652</v>
-      </c>
-      <c r="C74" s="35" t="s">
+      <c r="B74" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D74" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="D74" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" s="35">
-        <v>0</v>
-      </c>
-      <c r="F74" s="36">
-        <v>0</v>
-      </c>
-      <c r="G74" s="36">
-        <v>0</v>
-      </c>
-      <c r="I74" s="37" t="s">
-        <v>641</v>
+      <c r="E74" s="43">
+        <v>1</v>
+      </c>
+      <c r="F74" s="46">
+        <v>1</v>
+      </c>
+      <c r="G74" s="46">
+        <v>1</v>
+      </c>
+      <c r="I74" s="51" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -7014,14 +6993,14 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="E75" s="5">
         <v>1</v>
       </c>
@@ -7032,32 +7011,32 @@
         <v>1</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="28" customFormat="1">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="25" customFormat="1">
       <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="D76" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="E76" s="45">
-        <v>0</v>
-      </c>
-      <c r="F76" s="28">
-        <v>1</v>
-      </c>
-      <c r="G76" s="28">
-        <v>1</v>
-      </c>
-      <c r="I76" s="46" t="s">
+      <c r="E76" s="31">
+        <v>0</v>
+      </c>
+      <c r="F76" s="25">
+        <v>1</v>
+      </c>
+      <c r="G76" s="25">
+        <v>1</v>
+      </c>
+      <c r="I76" s="32" t="s">
         <v>959</v>
       </c>
     </row>
@@ -7066,14 +7045,14 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="E77" s="5">
         <v>0</v>
       </c>
@@ -7084,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -7092,14 +7071,14 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="E78" s="5">
         <v>1</v>
       </c>
@@ -7110,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -7118,14 +7097,14 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="E79" s="5">
         <v>0</v>
       </c>
@@ -7136,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -7144,14 +7123,14 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="E80" s="5">
         <v>0</v>
       </c>
@@ -7162,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -7170,14 +7149,14 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="E81" s="5">
         <v>0</v>
       </c>
@@ -7188,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -7196,14 +7175,14 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="E82" s="5">
         <v>0</v>
       </c>
@@ -7214,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -7222,14 +7201,14 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="E83" s="5">
         <v>0</v>
       </c>
@@ -7240,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -7248,14 +7227,14 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="E84" s="5">
         <v>0</v>
       </c>
@@ -7266,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -7274,14 +7253,14 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="E85" s="5">
         <v>1</v>
       </c>
@@ -7292,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -7300,14 +7279,14 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="E86" s="5">
         <v>1</v>
       </c>
@@ -7318,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -7326,14 +7305,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
@@ -7344,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -7352,14 +7331,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="E88" s="5">
         <v>1</v>
       </c>
@@ -7370,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -7378,14 +7357,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="E89" s="5">
         <v>0</v>
       </c>
@@ -7396,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -7404,14 +7383,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="E90" s="5">
         <v>1</v>
       </c>
@@ -7422,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -7430,14 +7409,14 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="E91" s="5">
         <v>0</v>
       </c>
@@ -7448,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -7456,51 +7435,51 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="E92" s="5">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="46" customFormat="1">
+      <c r="A93" s="43">
+        <v>92</v>
+      </c>
+      <c r="B93" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="E92" s="5">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="15">
-        <v>92</v>
-      </c>
-      <c r="B93" s="5" t="s">
+      <c r="C93" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="D93" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E93" s="5">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>639</v>
+      <c r="E93" s="43">
+        <v>0</v>
+      </c>
+      <c r="F93" s="46">
+        <v>1</v>
+      </c>
+      <c r="G93" s="46">
+        <v>1</v>
+      </c>
+      <c r="I93" s="49" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -7508,14 +7487,14 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="E94" s="5">
         <v>0</v>
       </c>
@@ -7526,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -7534,14 +7513,14 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>278</v>
-      </c>
       <c r="E95" s="5">
         <v>0</v>
       </c>
@@ -7552,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -7560,14 +7539,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="E96" s="5">
         <v>0</v>
       </c>
@@ -7578,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -7586,14 +7565,14 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>284</v>
-      </c>
       <c r="E97" s="5">
         <v>0</v>
       </c>
@@ -7604,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -7612,14 +7591,14 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>287</v>
-      </c>
       <c r="E98" s="5">
         <v>0</v>
       </c>
@@ -7630,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -7638,14 +7617,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="E99" s="5">
         <v>0</v>
       </c>
@@ -7656,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -7664,14 +7643,14 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>293</v>
-      </c>
       <c r="E100" s="5">
         <v>1</v>
       </c>
@@ -7682,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -7690,14 +7669,14 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E101" s="5">
         <v>0</v>
       </c>
@@ -7708,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -7716,14 +7695,14 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>299</v>
-      </c>
       <c r="E102" s="5">
         <v>0</v>
       </c>
@@ -7734,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -7742,14 +7721,14 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="E103" s="5">
         <v>1</v>
       </c>
@@ -7760,7 +7739,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -7768,14 +7747,14 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="E104" s="5">
         <v>0</v>
       </c>
@@ -7786,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -7794,14 +7773,14 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="E105" s="5">
         <v>0</v>
       </c>
@@ -7812,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -7820,14 +7799,14 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="E106" s="5">
         <v>0</v>
       </c>
@@ -7838,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -7846,14 +7825,14 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="E107" s="5">
         <v>0</v>
       </c>
@@ -7864,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -7872,14 +7851,14 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="E108" s="5">
         <v>0</v>
       </c>
@@ -7890,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -7898,14 +7877,14 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="E109" s="5">
         <v>0</v>
       </c>
@@ -7916,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -7924,14 +7903,14 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
@@ -7942,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -7950,14 +7929,14 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="E111" s="5">
         <v>0</v>
       </c>
@@ -7968,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -7976,14 +7955,14 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="E112" s="5">
         <v>0</v>
       </c>
@@ -7994,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -8002,14 +7981,14 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>332</v>
-      </c>
       <c r="E113" s="5">
         <v>0</v>
       </c>
@@ -8020,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -8028,14 +8007,14 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>335</v>
-      </c>
       <c r="E114" s="5">
         <v>0</v>
       </c>
@@ -8046,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -8054,14 +8033,14 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="E115" s="5">
         <v>0</v>
       </c>
@@ -8072,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -8080,14 +8059,14 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="E116" s="5">
         <v>0</v>
       </c>
@@ -8098,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -8106,14 +8085,14 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>344</v>
-      </c>
       <c r="E117" s="5">
         <v>0</v>
       </c>
@@ -8124,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -8132,14 +8111,14 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>347</v>
-      </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
@@ -8150,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="2" customFormat="1">
@@ -8158,14 +8137,14 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="D119" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>350</v>
-      </c>
       <c r="E119" s="6">
         <v>1</v>
       </c>
@@ -8175,8 +8154,8 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="64" t="s">
-        <v>641</v>
+      <c r="I119" s="41" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -8184,14 +8163,14 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="E120" s="5">
         <v>0</v>
       </c>
@@ -8202,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -8210,14 +8189,14 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>356</v>
-      </c>
       <c r="E121" s="5">
         <v>0</v>
       </c>
@@ -8228,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -8236,14 +8215,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="E122" s="5">
         <v>0</v>
       </c>
@@ -8254,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -8262,14 +8241,14 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>362</v>
-      </c>
       <c r="E123" s="5">
         <v>0</v>
       </c>
@@ -8280,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -8288,14 +8267,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>365</v>
-      </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
@@ -8306,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -8314,14 +8293,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>368</v>
-      </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
@@ -8332,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -8340,14 +8319,14 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>371</v>
-      </c>
       <c r="E126" s="5">
         <v>1</v>
       </c>
@@ -8358,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -8366,14 +8345,14 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>374</v>
-      </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
@@ -8384,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -8392,14 +8371,14 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>377</v>
-      </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
@@ -8410,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -8418,14 +8397,14 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="E129" s="5">
         <v>0</v>
       </c>
@@ -8436,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -8444,14 +8423,14 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="E130" s="5">
         <v>0</v>
       </c>
@@ -8462,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -8470,14 +8449,14 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>386</v>
-      </c>
       <c r="E131" s="5">
         <v>0</v>
       </c>
@@ -8488,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -8496,14 +8475,14 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>389</v>
-      </c>
       <c r="E132" s="5">
         <v>0</v>
       </c>
@@ -8514,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -8522,14 +8501,14 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>392</v>
-      </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
@@ -8540,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -8548,14 +8527,14 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>395</v>
-      </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
@@ -8566,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -8574,14 +8553,14 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
@@ -8592,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -8600,14 +8579,14 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>401</v>
-      </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
@@ -8618,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -8626,14 +8605,14 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="E137" s="5">
         <v>0</v>
       </c>
@@ -8644,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -8652,14 +8631,14 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E138" s="5">
         <v>0</v>
       </c>
@@ -8670,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -8678,14 +8657,14 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>410</v>
-      </c>
       <c r="E139" s="5">
         <v>0</v>
       </c>
@@ -8696,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -8704,14 +8683,14 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>413</v>
-      </c>
       <c r="E140" s="5">
         <v>0</v>
       </c>
@@ -8722,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -8730,14 +8709,14 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="D141" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>416</v>
-      </c>
       <c r="E141" s="5">
         <v>0</v>
       </c>
@@ -8748,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -8756,14 +8735,14 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="E142" s="5">
         <v>1</v>
       </c>
@@ -8774,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -8782,14 +8761,14 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>421</v>
-      </c>
       <c r="E143" s="5">
         <v>0</v>
       </c>
@@ -8800,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -8808,14 +8787,14 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="E144" s="5">
         <v>1</v>
       </c>
@@ -8826,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -8834,14 +8813,14 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C145" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>425</v>
-      </c>
       <c r="E145" s="5">
         <v>0</v>
       </c>
@@ -8852,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -8860,14 +8839,14 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="E146" s="5">
         <v>0</v>
       </c>
@@ -8878,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -8886,14 +8865,14 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>431</v>
-      </c>
       <c r="E147" s="5">
         <v>0</v>
       </c>
@@ -8904,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -8912,14 +8891,14 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>434</v>
-      </c>
       <c r="E148" s="5">
         <v>0</v>
       </c>
@@ -8930,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -8938,14 +8917,14 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>437</v>
-      </c>
       <c r="E149" s="5">
         <v>0</v>
       </c>
@@ -8956,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -8964,14 +8943,14 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>440</v>
-      </c>
       <c r="E150" s="5">
         <v>0</v>
       </c>
@@ -8982,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -8990,13 +8969,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="D151" s="5" t="s">
         <v>442</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>443</v>
       </c>
       <c r="E151" s="5">
         <v>0</v>
@@ -9016,14 +8995,14 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>446</v>
-      </c>
       <c r="E152" s="5">
         <v>0</v>
       </c>
@@ -9034,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -9042,14 +9021,14 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="E153" s="5">
         <v>0</v>
       </c>
@@ -9060,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -9068,14 +9047,14 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>452</v>
-      </c>
       <c r="E154" s="5">
         <v>0</v>
       </c>
@@ -9086,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -9094,14 +9073,14 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>455</v>
-      </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
@@ -9112,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -9120,14 +9099,14 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -9138,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -9146,14 +9125,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C157" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -9164,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -9172,14 +9151,14 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="D158" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
@@ -9190,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -9198,14 +9177,14 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>465</v>
-      </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
@@ -9216,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -9224,14 +9203,14 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="D160" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="E160" s="5">
         <v>0</v>
       </c>
@@ -9242,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -9250,14 +9229,14 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="D161" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="E161" s="5">
         <v>0</v>
       </c>
@@ -9268,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -9276,14 +9255,14 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>474</v>
-      </c>
       <c r="E162" s="5">
         <v>1</v>
       </c>
@@ -9294,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -9302,14 +9281,14 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>477</v>
-      </c>
       <c r="E163" s="5">
         <v>0</v>
       </c>
@@ -9320,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -9328,13 +9307,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="D164" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
@@ -9346,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -9354,14 +9333,14 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>482</v>
-      </c>
       <c r="E165" s="5">
         <v>0</v>
       </c>
@@ -9372,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -9380,14 +9359,14 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C166" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>484</v>
-      </c>
       <c r="E166" s="5">
         <v>1</v>
       </c>
@@ -9398,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -9406,14 +9385,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="D167" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>487</v>
-      </c>
       <c r="E167" s="5">
         <v>0</v>
       </c>
@@ -9424,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -9432,14 +9411,14 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="D168" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>490</v>
-      </c>
       <c r="E168" s="5">
         <v>0</v>
       </c>
@@ -9450,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -9458,10 +9437,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>492</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5">
@@ -9474,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -9482,10 +9461,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -9498,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -9506,10 +9485,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9522,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -9530,10 +9509,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C172" s="9" t="s">
         <v>653</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>654</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9546,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -9554,14 +9533,14 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="D173" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>499</v>
-      </c>
       <c r="E173" s="5">
         <v>0</v>
       </c>
@@ -9572,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -9580,10 +9559,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5">
@@ -9596,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -9604,10 +9583,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
@@ -9620,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -9628,10 +9607,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
@@ -9644,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -9652,14 +9631,14 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>508</v>
-      </c>
       <c r="E177" s="5">
         <v>1</v>
       </c>
@@ -9670,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -9678,14 +9657,14 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="D178" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>511</v>
-      </c>
       <c r="E178" s="5">
         <v>1</v>
       </c>
@@ -9696,7 +9675,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -9704,10 +9683,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5">
@@ -9720,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="2" customFormat="1">
@@ -9728,10 +9707,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>515</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="6">
@@ -9744,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1">
@@ -9752,10 +9731,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C181" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="6">
@@ -9768,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1">
@@ -9776,10 +9755,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="6">
@@ -9792,19 +9771,19 @@
         <v>0</v>
       </c>
       <c r="I182" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="15">
         <v>182</v>
       </c>
-      <c r="B183" s="56" t="s">
+      <c r="B183" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="C183" t="s">
         <v>520</v>
       </c>
-      <c r="C183" t="s">
-        <v>521</v>
-      </c>
       <c r="E183">
         <v>0</v>
       </c>
@@ -9815,19 +9794,19 @@
         <v>0</v>
       </c>
       <c r="I183" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="15">
         <v>183</v>
       </c>
-      <c r="B184" s="56" t="s">
+      <c r="B184" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="C184" t="s">
         <v>522</v>
       </c>
-      <c r="C184" t="s">
-        <v>523</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -9838,19 +9817,19 @@
         <v>0</v>
       </c>
       <c r="I184" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="15">
         <v>184</v>
       </c>
-      <c r="B185" s="56" t="s">
+      <c r="B185" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="C185" t="s">
         <v>524</v>
       </c>
-      <c r="C185" t="s">
-        <v>525</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -9861,19 +9840,19 @@
         <v>0</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="15">
         <v>185</v>
       </c>
-      <c r="B186" s="56" t="s">
+      <c r="B186" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="C186" t="s">
         <v>526</v>
       </c>
-      <c r="C186" t="s">
-        <v>527</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -9884,19 +9863,19 @@
         <v>0</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="15">
         <v>186</v>
       </c>
-      <c r="B187" s="56" t="s">
+      <c r="B187" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="C187" t="s">
         <v>528</v>
       </c>
-      <c r="C187" t="s">
-        <v>529</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -9907,19 +9886,19 @@
         <v>0</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="15">
         <v>187</v>
       </c>
-      <c r="B188" s="56" t="s">
+      <c r="B188" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="C188" t="s">
         <v>530</v>
       </c>
-      <c r="C188" t="s">
-        <v>531</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -9930,19 +9909,19 @@
         <v>0</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="15">
         <v>188</v>
       </c>
-      <c r="B189" s="56" t="s">
+      <c r="B189" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="C189" t="s">
         <v>532</v>
       </c>
-      <c r="C189" t="s">
-        <v>533</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -9953,19 +9932,19 @@
         <v>0</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="15">
         <v>189</v>
       </c>
-      <c r="B190" s="56" t="s">
+      <c r="B190" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="C190" t="s">
         <v>534</v>
       </c>
-      <c r="C190" t="s">
-        <v>535</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -9976,19 +9955,19 @@
         <v>0</v>
       </c>
       <c r="I190" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="15">
         <v>190</v>
       </c>
-      <c r="B191" s="56" t="s">
+      <c r="B191" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="C191" t="s">
         <v>536</v>
       </c>
-      <c r="C191" t="s">
-        <v>537</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -9999,19 +9978,19 @@
         <v>0</v>
       </c>
       <c r="I191" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="15">
         <v>191</v>
       </c>
-      <c r="B192" s="56" t="s">
+      <c r="B192" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="C192" t="s">
         <v>538</v>
       </c>
-      <c r="C192" t="s">
-        <v>539</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -10022,19 +10001,19 @@
         <v>0</v>
       </c>
       <c r="I192" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="15">
         <v>192</v>
       </c>
-      <c r="B193" s="56" t="s">
+      <c r="B193" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="C193" t="s">
         <v>540</v>
       </c>
-      <c r="C193" t="s">
-        <v>541</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -10045,19 +10024,19 @@
         <v>0</v>
       </c>
       <c r="I193" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="15">
         <v>193</v>
       </c>
-      <c r="B194" s="56" t="s">
+      <c r="B194" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="C194" t="s">
         <v>542</v>
       </c>
-      <c r="C194" t="s">
-        <v>543</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -10068,19 +10047,19 @@
         <v>0</v>
       </c>
       <c r="I194" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="15">
         <v>194</v>
       </c>
-      <c r="B195" s="56" t="s">
+      <c r="B195" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="C195" t="s">
         <v>544</v>
       </c>
-      <c r="C195" t="s">
-        <v>545</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -10091,19 +10070,19 @@
         <v>0</v>
       </c>
       <c r="I195" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="15">
         <v>195</v>
       </c>
-      <c r="B196" s="56" t="s">
+      <c r="B196" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="C196" t="s">
         <v>546</v>
       </c>
-      <c r="C196" t="s">
-        <v>547</v>
-      </c>
       <c r="E196">
         <v>0</v>
       </c>
@@ -10114,19 +10093,19 @@
         <v>0</v>
       </c>
       <c r="I196" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="15">
         <v>196</v>
       </c>
-      <c r="B197" s="56" t="s">
+      <c r="B197" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="C197" t="s">
         <v>548</v>
       </c>
-      <c r="C197" t="s">
-        <v>549</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -10137,19 +10116,19 @@
         <v>0</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="15">
         <v>197</v>
       </c>
-      <c r="B198" s="56" t="s">
+      <c r="B198" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="C198" t="s">
         <v>550</v>
       </c>
-      <c r="C198" t="s">
-        <v>551</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -10160,19 +10139,19 @@
         <v>0</v>
       </c>
       <c r="I198" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="15">
         <v>198</v>
       </c>
-      <c r="B199" s="56" t="s">
+      <c r="B199" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="C199" t="s">
         <v>552</v>
       </c>
-      <c r="C199" t="s">
-        <v>553</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -10183,19 +10162,19 @@
         <v>0</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="15">
         <v>199</v>
       </c>
-      <c r="B200" s="56" t="s">
+      <c r="B200" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="C200" t="s">
         <v>554</v>
       </c>
-      <c r="C200" t="s">
-        <v>555</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -10206,19 +10185,19 @@
         <v>0</v>
       </c>
       <c r="I200" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="15">
         <v>200</v>
       </c>
-      <c r="B201" s="56" t="s">
+      <c r="B201" s="38" t="s">
+        <v>555</v>
+      </c>
+      <c r="C201" t="s">
         <v>556</v>
       </c>
-      <c r="C201" t="s">
-        <v>557</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -10229,19 +10208,19 @@
         <v>0</v>
       </c>
       <c r="I201" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="15">
         <v>201</v>
       </c>
-      <c r="B202" s="56" t="s">
+      <c r="B202" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="C202" t="s">
         <v>558</v>
       </c>
-      <c r="C202" t="s">
-        <v>559</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -10252,19 +10231,19 @@
         <v>0</v>
       </c>
       <c r="I202" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="15">
         <v>202</v>
       </c>
-      <c r="B203" s="56" t="s">
+      <c r="B203" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="C203" t="s">
         <v>560</v>
       </c>
-      <c r="C203" t="s">
-        <v>561</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -10275,22 +10254,22 @@
         <v>0</v>
       </c>
       <c r="I203" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="15">
         <v>203</v>
       </c>
-      <c r="B204" s="56" t="s">
+      <c r="B204" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="C204" t="s">
+        <v>561</v>
+      </c>
+      <c r="D204" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="C204" t="s">
-        <v>562</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>605</v>
-      </c>
       <c r="E204">
         <v>1</v>
       </c>
@@ -10301,22 +10280,22 @@
         <v>1</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="15">
         <v>204</v>
       </c>
-      <c r="B205" s="56" t="s">
+      <c r="B205" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="C205" t="s">
+        <v>562</v>
+      </c>
+      <c r="D205" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="C205" t="s">
-        <v>563</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>607</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -10327,22 +10306,22 @@
         <v>1</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="15">
         <v>205</v>
       </c>
-      <c r="B206" s="56" t="s">
+      <c r="B206" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="C206" t="s">
+        <v>563</v>
+      </c>
+      <c r="D206" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="C206" t="s">
-        <v>564</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>609</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -10353,19 +10332,19 @@
         <v>1</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="15">
         <v>206</v>
       </c>
-      <c r="B207" s="56" t="s">
+      <c r="B207" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="C207" t="s">
         <v>565</v>
       </c>
-      <c r="C207" t="s">
-        <v>566</v>
-      </c>
       <c r="E207">
         <v>0</v>
       </c>
@@ -10376,19 +10355,19 @@
         <v>0</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="15">
         <v>207</v>
       </c>
-      <c r="B208" s="56" t="s">
+      <c r="B208" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="C208" t="s">
         <v>567</v>
       </c>
-      <c r="C208" t="s">
-        <v>568</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -10399,19 +10378,19 @@
         <v>0</v>
       </c>
       <c r="I208" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="15">
         <v>208</v>
       </c>
-      <c r="B209" s="56" t="s">
+      <c r="B209" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="C209" t="s">
         <v>569</v>
       </c>
-      <c r="C209" t="s">
-        <v>570</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -10422,19 +10401,19 @@
         <v>0</v>
       </c>
       <c r="I209" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="15">
         <v>209</v>
       </c>
-      <c r="B210" s="56" t="s">
+      <c r="B210" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="C210" t="s">
         <v>571</v>
       </c>
-      <c r="C210" t="s">
-        <v>572</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -10445,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I210" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="15">
         <v>210</v>
       </c>
-      <c r="B211" s="56" t="s">
+      <c r="B211" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="C211" t="s">
         <v>573</v>
       </c>
-      <c r="C211" t="s">
-        <v>574</v>
-      </c>
       <c r="E211">
         <v>1</v>
       </c>
@@ -10468,19 +10447,19 @@
         <v>1</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="15">
         <v>211</v>
       </c>
-      <c r="B212" s="56" t="s">
+      <c r="B212" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="C212" t="s">
         <v>575</v>
       </c>
-      <c r="C212" t="s">
-        <v>576</v>
-      </c>
       <c r="E212">
         <v>0</v>
       </c>
@@ -10491,19 +10470,19 @@
         <v>0</v>
       </c>
       <c r="I212" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="15">
         <v>212</v>
       </c>
-      <c r="B213" s="56" t="s">
+      <c r="B213" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="C213" t="s">
         <v>577</v>
       </c>
-      <c r="C213" t="s">
-        <v>578</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -10514,19 +10493,19 @@
         <v>0</v>
       </c>
       <c r="I213" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="15">
         <v>213</v>
       </c>
-      <c r="B214" s="56" t="s">
+      <c r="B214" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="C214" t="s">
         <v>579</v>
       </c>
-      <c r="C214" t="s">
-        <v>580</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -10537,19 +10516,19 @@
         <v>0</v>
       </c>
       <c r="I214" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="15">
         <v>214</v>
       </c>
-      <c r="B215" s="56" t="s">
+      <c r="B215" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="C215" t="s">
         <v>581</v>
       </c>
-      <c r="C215" t="s">
-        <v>582</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -10560,19 +10539,19 @@
         <v>0</v>
       </c>
       <c r="I215" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="15">
         <v>215</v>
       </c>
-      <c r="B216" s="56" t="s">
+      <c r="B216" s="38" t="s">
+        <v>582</v>
+      </c>
+      <c r="C216" t="s">
         <v>583</v>
       </c>
-      <c r="C216" t="s">
-        <v>584</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -10583,19 +10562,19 @@
         <v>0</v>
       </c>
       <c r="I216" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="15">
         <v>216</v>
       </c>
-      <c r="B217" s="56" t="s">
+      <c r="B217" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="C217" t="s">
         <v>585</v>
       </c>
-      <c r="C217" t="s">
-        <v>586</v>
-      </c>
       <c r="E217">
         <v>0</v>
       </c>
@@ -10606,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="I217" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="15">
         <v>217</v>
       </c>
-      <c r="B218" s="56" t="s">
+      <c r="B218" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="C218" t="s">
         <v>587</v>
       </c>
-      <c r="C218" t="s">
-        <v>588</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -10629,19 +10608,19 @@
         <v>0</v>
       </c>
       <c r="I218" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="15">
         <v>218</v>
       </c>
-      <c r="B219" s="56" t="s">
+      <c r="B219" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="C219" t="s">
         <v>589</v>
       </c>
-      <c r="C219" t="s">
-        <v>590</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -10652,19 +10631,19 @@
         <v>0</v>
       </c>
       <c r="I219" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="15">
         <v>219</v>
       </c>
-      <c r="B220" s="56" t="s">
+      <c r="B220" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="C220" t="s">
         <v>591</v>
       </c>
-      <c r="C220" t="s">
-        <v>592</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -10675,19 +10654,19 @@
         <v>0</v>
       </c>
       <c r="I220" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="15">
         <v>220</v>
       </c>
-      <c r="B221" s="56" t="s">
+      <c r="B221" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="C221" t="s">
         <v>593</v>
       </c>
-      <c r="C221" t="s">
-        <v>594</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -10698,19 +10677,19 @@
         <v>0</v>
       </c>
       <c r="I221" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="15">
         <v>221</v>
       </c>
-      <c r="B222" s="56" t="s">
+      <c r="B222" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="C222" t="s">
         <v>595</v>
       </c>
-      <c r="C222" t="s">
-        <v>596</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -10721,19 +10700,19 @@
         <v>0</v>
       </c>
       <c r="I222" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="15">
         <v>222</v>
       </c>
-      <c r="B223" s="56" t="s">
+      <c r="B223" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="C223" t="s">
         <v>597</v>
       </c>
-      <c r="C223" t="s">
-        <v>598</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -10744,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="I223" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="15">
         <v>223</v>
       </c>
-      <c r="B224" s="56" t="s">
+      <c r="B224" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="C224" t="s">
         <v>599</v>
       </c>
-      <c r="C224" t="s">
-        <v>600</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -10767,18 +10746,18 @@
         <v>0</v>
       </c>
       <c r="I224" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="15">
         <v>224</v>
       </c>
-      <c r="B225" s="56" t="s">
-        <v>647</v>
+      <c r="B225" s="38" t="s">
+        <v>646</v>
       </c>
       <c r="C225" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10790,21 +10769,21 @@
         <v>0</v>
       </c>
       <c r="I225" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="15">
         <v>225</v>
       </c>
-      <c r="B226" s="56" t="s">
-        <v>613</v>
+      <c r="B226" s="38" t="s">
+        <v>612</v>
       </c>
       <c r="C226" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D226" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>612</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10820,14 +10799,14 @@
       <c r="A227" s="15">
         <v>226</v>
       </c>
-      <c r="B227" s="56" t="s">
+      <c r="B227" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="C227" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="C227" s="8" t="s">
+      <c r="D227" t="s">
         <v>615</v>
-      </c>
-      <c r="D227" t="s">
-        <v>616</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10843,14 +10822,14 @@
       <c r="A228" s="15">
         <v>227</v>
       </c>
-      <c r="B228" s="56" t="s">
+      <c r="B228" s="38" t="s">
+        <v>616</v>
+      </c>
+      <c r="C228" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="D228" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>619</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10866,14 +10845,14 @@
       <c r="A229" s="15">
         <v>228</v>
       </c>
-      <c r="B229" s="56" t="s">
+      <c r="B229" s="38" t="s">
+        <v>619</v>
+      </c>
+      <c r="C229" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="D229" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="D229" s="8" t="s">
-        <v>622</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10889,14 +10868,14 @@
       <c r="A230" s="15">
         <v>229</v>
       </c>
-      <c r="B230" s="56" t="s">
+      <c r="B230" s="38" t="s">
+        <v>625</v>
+      </c>
+      <c r="C230" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="C230" s="8" t="s">
+      <c r="D230" s="8" t="s">
         <v>627</v>
-      </c>
-      <c r="D230" s="8" t="s">
-        <v>628</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10912,14 +10891,14 @@
       <c r="A231" s="15">
         <v>230</v>
       </c>
-      <c r="B231" s="56" t="s">
+      <c r="B231" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="C231" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="C231" s="8" t="s">
-        <v>625</v>
-      </c>
       <c r="D231" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10935,14 +10914,14 @@
       <c r="A232" s="15">
         <v>231</v>
       </c>
-      <c r="B232" s="56" t="s">
+      <c r="B232" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D232" s="8" t="s">
         <v>634</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>635</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -10958,14 +10937,14 @@
       <c r="A233" s="15">
         <v>232</v>
       </c>
-      <c r="B233" s="56" t="s">
+      <c r="B233" s="38" t="s">
+        <v>647</v>
+      </c>
+      <c r="C233" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="C233" s="8" t="s">
+      <c r="D233" s="8" t="s">
         <v>649</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>650</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10981,14 +10960,14 @@
       <c r="A234" s="15">
         <v>233</v>
       </c>
-      <c r="B234" s="56" t="s">
+      <c r="B234" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="C234" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="C234" s="8" t="s">
+      <c r="D234" s="8" t="s">
         <v>656</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>657</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -11004,14 +10983,14 @@
       <c r="A235" s="15">
         <v>234</v>
       </c>
-      <c r="B235" s="56" t="s">
-        <v>659</v>
+      <c r="B235" s="38" t="s">
+        <v>658</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>801</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -11023,21 +11002,21 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="15">
         <v>235</v>
       </c>
-      <c r="B236" s="56" t="s">
+      <c r="B236" s="38" t="s">
+        <v>660</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="D236" s="8" t="s">
         <v>661</v>
-      </c>
-      <c r="C236" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>662</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -11056,196 +11035,196 @@
       <c r="A237" s="15">
         <v>236</v>
       </c>
-      <c r="B237" s="56" t="s">
+      <c r="B237" s="38" t="s">
+        <v>663</v>
+      </c>
+      <c r="C237" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="D237" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="D237" s="8" t="s">
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
         <v>666</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="15">
         <v>237</v>
       </c>
-      <c r="B238" s="56" t="s">
+      <c r="B238" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="D238" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="C238" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="D238" s="8" t="s">
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>669</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="15">
         <v>238</v>
       </c>
-      <c r="B239" s="56" t="s">
+      <c r="B239" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>675</v>
-      </c>
-      <c r="C239" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="15">
         <v>239</v>
       </c>
-      <c r="B240" s="56" t="s">
+      <c r="B240" s="38" t="s">
+        <v>676</v>
+      </c>
+      <c r="C240" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="C240" s="8" t="s">
+      <c r="D240" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="D240" s="8" t="s">
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" s="8" t="s">
         <v>679</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" s="8" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="15">
         <v>240</v>
       </c>
-      <c r="B241" s="56" t="s">
+      <c r="B241" s="38" t="s">
+        <v>680</v>
+      </c>
+      <c r="C241" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="C241" s="8" t="s">
+      <c r="D241" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="D241" s="8" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="8" t="s">
         <v>683</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="8" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="15">
         <v>241</v>
       </c>
-      <c r="B242" s="56" t="s">
+      <c r="B242" s="38" t="s">
+        <v>688</v>
+      </c>
+      <c r="C242" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="D242" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="D242" s="8" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="8" t="s">
         <v>691</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="8" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="15">
         <v>242</v>
       </c>
-      <c r="B243" s="56" t="s">
+      <c r="B243" s="38" t="s">
+        <v>692</v>
+      </c>
+      <c r="C243" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="C243" s="8" t="s">
+      <c r="D243" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D243" s="8" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="8" t="s">
         <v>695</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="8" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="15">
         <v>243</v>
       </c>
-      <c r="B244" s="56" t="s">
-        <v>697</v>
+      <c r="B244" s="38" t="s">
+        <v>696</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -11257,21 +11236,21 @@
         <v>1</v>
       </c>
       <c r="I244" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="15">
         <v>244</v>
       </c>
-      <c r="B245" s="56" t="s">
-        <v>698</v>
+      <c r="B245" s="38" t="s">
+        <v>697</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11283,21 +11262,21 @@
         <v>1</v>
       </c>
       <c r="I245" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="15">
         <v>245</v>
       </c>
-      <c r="B246" s="56" t="s">
-        <v>699</v>
+      <c r="B246" s="38" t="s">
+        <v>698</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11309,67 +11288,67 @@
         <v>1</v>
       </c>
       <c r="I246" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="15">
         <v>246</v>
       </c>
-      <c r="B247" s="56" t="s">
+      <c r="B247" s="38" t="s">
+        <v>709</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="D247" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="C247" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="D247" s="8" t="s">
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="I247" s="8" t="s">
         <v>711</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>1</v>
-      </c>
-      <c r="I247" s="8" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="15">
         <v>247</v>
       </c>
-      <c r="B248" s="56" t="s">
+      <c r="B248" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="D248" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="C248" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="D248" s="8" t="s">
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="8" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="15">
         <v>248</v>
       </c>
-      <c r="B249" s="56" t="s">
-        <v>1027</v>
+      <c r="B249" s="38" t="s">
+        <v>716</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>717</v>
@@ -11394,7 +11373,7 @@
       <c r="A250" s="15">
         <v>249</v>
       </c>
-      <c r="B250" s="56" t="s">
+      <c r="B250" s="38" t="s">
         <v>721</v>
       </c>
       <c r="C250" s="8" t="s">
@@ -11420,7 +11399,7 @@
       <c r="A251" s="15">
         <v>250</v>
       </c>
-      <c r="B251" s="56" t="s">
+      <c r="B251" s="38" t="s">
         <v>724</v>
       </c>
       <c r="C251" s="8" t="s">
@@ -11446,7 +11425,7 @@
       <c r="A252" s="15">
         <v>251</v>
       </c>
-      <c r="B252" s="56" t="s">
+      <c r="B252" s="38" t="s">
         <v>729</v>
       </c>
       <c r="C252" t="s">
@@ -11472,26 +11451,26 @@
       <c r="A253" s="15">
         <v>252</v>
       </c>
-      <c r="B253" s="57" t="s">
+      <c r="B253" s="39" t="s">
         <v>951</v>
       </c>
-      <c r="C253" s="28" t="s">
+      <c r="C253" s="25" t="s">
         <v>731</v>
       </c>
-      <c r="D253" s="27" t="s">
+      <c r="D253" s="24" t="s">
         <v>952</v>
       </c>
-      <c r="E253" s="28">
-        <v>1</v>
-      </c>
-      <c r="F253" s="28">
-        <v>1</v>
-      </c>
-      <c r="G253" s="28">
-        <v>1</v>
-      </c>
-      <c r="H253" s="28"/>
-      <c r="I253" s="27" t="s">
+      <c r="E253" s="25">
+        <v>1</v>
+      </c>
+      <c r="F253" s="25">
+        <v>1</v>
+      </c>
+      <c r="G253" s="25">
+        <v>1</v>
+      </c>
+      <c r="H253" s="25"/>
+      <c r="I253" s="24" t="s">
         <v>728</v>
       </c>
     </row>
@@ -11499,7 +11478,7 @@
       <c r="A254" s="15">
         <v>253</v>
       </c>
-      <c r="B254" s="56" t="s">
+      <c r="B254" s="38" t="s">
         <v>734</v>
       </c>
       <c r="C254" s="8" t="s">
@@ -11525,7 +11504,7 @@
       <c r="A255" s="15">
         <v>254</v>
       </c>
-      <c r="B255" s="56" t="s">
+      <c r="B255" s="38" t="s">
         <v>738</v>
       </c>
       <c r="C255" s="8" t="s">
@@ -11547,37 +11526,38 @@
         <v>741</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="25" customFormat="1">
+    <row r="256" spans="1:9" s="22" customFormat="1">
       <c r="A256" s="15">
         <v>255</v>
       </c>
-      <c r="B256" s="58" t="s">
+      <c r="B256" s="48" t="s">
         <v>742</v>
       </c>
-      <c r="C256" s="24" t="s">
+      <c r="C256" s="45" t="s">
         <v>914</v>
       </c>
-      <c r="D256" s="24" t="s">
+      <c r="D256" s="45" t="s">
         <v>743</v>
       </c>
-      <c r="E256" s="25">
-        <v>1</v>
-      </c>
-      <c r="F256" s="25">
-        <v>1</v>
-      </c>
-      <c r="G256" s="25">
-        <v>1</v>
-      </c>
-      <c r="I256" s="21" t="s">
-        <v>915</v>
+      <c r="E256" s="46">
+        <v>0</v>
+      </c>
+      <c r="F256" s="46">
+        <v>0</v>
+      </c>
+      <c r="G256" s="46">
+        <v>0</v>
+      </c>
+      <c r="H256" s="46"/>
+      <c r="I256" s="45" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
       <c r="A257" s="15">
         <v>256</v>
       </c>
-      <c r="B257" s="30" t="s">
+      <c r="B257" s="26" t="s">
         <v>747</v>
       </c>
       <c r="C257" s="14" t="s">
@@ -11603,7 +11583,7 @@
       <c r="A258" s="15">
         <v>257</v>
       </c>
-      <c r="B258" s="30" t="s">
+      <c r="B258" s="26" t="s">
         <v>748</v>
       </c>
       <c r="C258" s="14" t="s">
@@ -11629,7 +11609,7 @@
       <c r="A259" s="15">
         <v>258</v>
       </c>
-      <c r="B259" s="30" t="s">
+      <c r="B259" s="26" t="s">
         <v>751</v>
       </c>
       <c r="C259" s="14" t="s">
@@ -11655,7 +11635,7 @@
       <c r="A260" s="15">
         <v>259</v>
       </c>
-      <c r="B260" s="30" t="s">
+      <c r="B260" s="26" t="s">
         <v>755</v>
       </c>
       <c r="C260" s="14" t="s">
@@ -11681,7 +11661,7 @@
       <c r="A261" s="15">
         <v>260</v>
       </c>
-      <c r="B261" s="56" t="s">
+      <c r="B261" s="38" t="s">
         <v>759</v>
       </c>
       <c r="C261" s="8" t="s">
@@ -11707,7 +11687,7 @@
       <c r="A262" s="15">
         <v>261</v>
       </c>
-      <c r="B262" s="30" t="s">
+      <c r="B262" s="26" t="s">
         <v>763</v>
       </c>
       <c r="C262" s="8" t="s">
@@ -11726,14 +11706,14 @@
         <v>1</v>
       </c>
       <c r="I262" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="263" spans="1:9" s="16" customFormat="1">
       <c r="A263" s="15">
         <v>262</v>
       </c>
-      <c r="B263" s="30" t="s">
+      <c r="B263" s="26" t="s">
         <v>766</v>
       </c>
       <c r="C263" s="14" t="s">
@@ -11759,7 +11739,7 @@
       <c r="A264" s="15">
         <v>263</v>
       </c>
-      <c r="B264" s="30" t="s">
+      <c r="B264" s="26" t="s">
         <v>770</v>
       </c>
       <c r="C264" s="14" t="s">
@@ -11778,14 +11758,14 @@
         <v>0</v>
       </c>
       <c r="I264" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="16" customFormat="1">
       <c r="A265" s="15">
         <v>264</v>
       </c>
-      <c r="B265" s="30" t="s">
+      <c r="B265" s="26" t="s">
         <v>773</v>
       </c>
       <c r="C265" s="14" t="s">
@@ -11811,7 +11791,7 @@
       <c r="A266" s="15">
         <v>265</v>
       </c>
-      <c r="B266" s="30" t="s">
+      <c r="B266" s="26" t="s">
         <v>777</v>
       </c>
       <c r="C266" s="14" t="s">
@@ -11837,7 +11817,7 @@
       <c r="A267" s="15">
         <v>266</v>
       </c>
-      <c r="B267" s="30" t="s">
+      <c r="B267" s="26" t="s">
         <v>781</v>
       </c>
       <c r="C267" s="14" t="s">
@@ -11863,7 +11843,7 @@
       <c r="A268" s="15">
         <v>267</v>
       </c>
-      <c r="B268" s="30" t="s">
+      <c r="B268" s="26" t="s">
         <v>787</v>
       </c>
       <c r="C268" s="14" t="s">
@@ -11889,7 +11869,7 @@
       <c r="A269" s="15">
         <v>268</v>
       </c>
-      <c r="B269" s="30" t="s">
+      <c r="B269" s="26" t="s">
         <v>788</v>
       </c>
       <c r="C269" s="14" t="s">
@@ -11916,7 +11896,7 @@
       <c r="A270" s="15">
         <v>269</v>
       </c>
-      <c r="B270" s="30" t="s">
+      <c r="B270" s="26" t="s">
         <v>790</v>
       </c>
       <c r="C270" s="14" t="s">
@@ -11943,7 +11923,7 @@
       <c r="A271" s="15">
         <v>270</v>
       </c>
-      <c r="B271" s="30" t="s">
+      <c r="B271" s="26" t="s">
         <v>794</v>
       </c>
       <c r="C271" s="14" t="s">
@@ -11970,7 +11950,7 @@
       <c r="A272" s="15">
         <v>271</v>
       </c>
-      <c r="B272" s="30" t="s">
+      <c r="B272" s="26" t="s">
         <v>798</v>
       </c>
       <c r="C272" s="14" t="s">
@@ -11997,7 +11977,7 @@
       <c r="A273" s="15">
         <v>272</v>
       </c>
-      <c r="B273" s="30" t="s">
+      <c r="B273" s="26" t="s">
         <v>802</v>
       </c>
       <c r="C273" s="14" t="s">
@@ -12024,7 +12004,7 @@
       <c r="A274" s="15">
         <v>273</v>
       </c>
-      <c r="B274" s="30" t="s">
+      <c r="B274" s="26" t="s">
         <v>837</v>
       </c>
       <c r="C274" s="14" t="s">
@@ -12051,7 +12031,7 @@
       <c r="A275" s="15">
         <v>274</v>
       </c>
-      <c r="B275" s="30" t="s">
+      <c r="B275" s="26" t="s">
         <v>809</v>
       </c>
       <c r="C275" s="14" t="s">
@@ -12070,30 +12050,30 @@
         <v>1</v>
       </c>
       <c r="H275" s="16"/>
-      <c r="I275" s="26" t="s">
+      <c r="I275" s="23" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
-      <c r="A276" s="15">
+    <row r="276" spans="1:9" s="46" customFormat="1">
+      <c r="A276" s="43">
         <v>275</v>
       </c>
-      <c r="B276" s="30" t="s">
+      <c r="B276" s="48" t="s">
         <v>811</v>
       </c>
-      <c r="C276" s="14" t="s">
+      <c r="C276" s="45" t="s">
         <v>812</v>
       </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276">
-        <v>1</v>
-      </c>
-      <c r="G276">
-        <v>1</v>
-      </c>
-      <c r="I276" s="18" t="s">
+      <c r="E276" s="46">
+        <v>1</v>
+      </c>
+      <c r="F276" s="46">
+        <v>1</v>
+      </c>
+      <c r="G276" s="46">
+        <v>1</v>
+      </c>
+      <c r="I276" s="47" t="s">
         <v>813</v>
       </c>
     </row>
@@ -12101,13 +12081,13 @@
       <c r="A277" s="15">
         <v>276</v>
       </c>
-      <c r="B277" s="30" t="s">
+      <c r="B277" s="26" t="s">
         <v>814</v>
       </c>
       <c r="C277" s="14" t="s">
         <v>919</v>
       </c>
-      <c r="D277" s="30" t="s">
+      <c r="D277" s="26" t="s">
         <v>815</v>
       </c>
       <c r="E277" s="14">
@@ -12128,7 +12108,7 @@
       <c r="A278" s="15">
         <v>277</v>
       </c>
-      <c r="B278" s="30" t="s">
+      <c r="B278" s="26" t="s">
         <v>824</v>
       </c>
       <c r="C278" s="14" t="s">
@@ -12154,7 +12134,7 @@
       <c r="A279" s="15">
         <v>278</v>
       </c>
-      <c r="B279" s="30" t="s">
+      <c r="B279" s="26" t="s">
         <v>819</v>
       </c>
       <c r="C279" s="14" t="s">
@@ -12177,7 +12157,7 @@
       <c r="A280" s="15">
         <v>279</v>
       </c>
-      <c r="B280" s="30" t="s">
+      <c r="B280" s="26" t="s">
         <v>823</v>
       </c>
       <c r="C280" s="14" t="s">
@@ -12203,7 +12183,7 @@
       <c r="A281" s="15">
         <v>280</v>
       </c>
-      <c r="B281" s="30" t="s">
+      <c r="B281" s="26" t="s">
         <v>825</v>
       </c>
       <c r="C281" s="14" t="s">
@@ -12229,7 +12209,7 @@
       <c r="A282" s="15">
         <v>281</v>
       </c>
-      <c r="B282" s="30" t="s">
+      <c r="B282" s="26" t="s">
         <v>835</v>
       </c>
       <c r="C282" s="14" t="s">
@@ -12251,63 +12231,63 @@
         <v>830</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="33" customFormat="1" ht="17.25" customHeight="1">
+    <row r="283" spans="1:9" s="29" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="15">
         <v>282</v>
       </c>
-      <c r="B283" s="32" t="s">
+      <c r="B283" s="28" t="s">
         <v>831</v>
       </c>
-      <c r="C283" s="31" t="s">
+      <c r="C283" s="27" t="s">
         <v>832</v>
       </c>
-      <c r="D283" s="32" t="s">
+      <c r="D283" s="28" t="s">
         <v>833</v>
       </c>
-      <c r="E283" s="33">
-        <v>1</v>
-      </c>
-      <c r="F283" s="33">
-        <v>1</v>
-      </c>
-      <c r="G283" s="33">
-        <v>1</v>
-      </c>
-      <c r="I283" s="34" t="s">
+      <c r="E283" s="29">
+        <v>1</v>
+      </c>
+      <c r="F283" s="29">
+        <v>1</v>
+      </c>
+      <c r="G283" s="29">
+        <v>1</v>
+      </c>
+      <c r="I283" s="30" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="33" customFormat="1">
+    <row r="284" spans="1:9" s="29" customFormat="1">
       <c r="A284" s="15">
         <v>283</v>
       </c>
-      <c r="B284" s="32" t="s">
+      <c r="B284" s="28" t="s">
         <v>839</v>
       </c>
-      <c r="C284" s="31" t="s">
+      <c r="C284" s="27" t="s">
         <v>840</v>
       </c>
-      <c r="D284" s="32" t="s">
+      <c r="D284" s="28" t="s">
         <v>838</v>
       </c>
-      <c r="E284" s="33">
-        <v>1</v>
-      </c>
-      <c r="F284" s="33">
-        <v>1</v>
-      </c>
-      <c r="G284" s="33">
-        <v>1</v>
-      </c>
-      <c r="I284" s="34" t="s">
-        <v>638</v>
+      <c r="E284" s="29">
+        <v>1</v>
+      </c>
+      <c r="F284" s="29">
+        <v>1</v>
+      </c>
+      <c r="G284" s="29">
+        <v>1</v>
+      </c>
+      <c r="I284" s="30" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="15">
         <v>284</v>
       </c>
-      <c r="B285" s="30" t="s">
+      <c r="B285" s="26" t="s">
         <v>842</v>
       </c>
       <c r="C285" s="14" t="s">
@@ -12329,265 +12309,264 @@
         <v>845</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="33" customFormat="1">
+    <row r="286" spans="1:9" s="29" customFormat="1">
       <c r="A286" s="15">
         <v>285</v>
       </c>
-      <c r="B286" s="59" t="s">
+      <c r="B286" s="40" t="s">
         <v>847</v>
       </c>
-      <c r="C286" s="31" t="s">
+      <c r="C286" s="27" t="s">
         <v>848</v>
       </c>
-      <c r="D286" s="32" t="s">
+      <c r="D286" s="28" t="s">
         <v>846</v>
       </c>
-      <c r="E286" s="33">
-        <v>1</v>
-      </c>
-      <c r="F286" s="33">
-        <v>1</v>
-      </c>
-      <c r="G286" s="33">
-        <v>1</v>
-      </c>
-      <c r="I286" s="34" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="33" customFormat="1">
+      <c r="E286" s="29">
+        <v>1</v>
+      </c>
+      <c r="F286" s="29">
+        <v>1</v>
+      </c>
+      <c r="G286" s="29">
+        <v>1</v>
+      </c>
+      <c r="I286" s="30" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="29" customFormat="1">
       <c r="A287" s="15">
         <v>286</v>
       </c>
-      <c r="B287" s="59" t="s">
+      <c r="B287" s="40" t="s">
         <v>849</v>
       </c>
-      <c r="C287" s="31" t="s">
+      <c r="C287" s="27" t="s">
         <v>850</v>
       </c>
-      <c r="D287" s="32" t="s">
+      <c r="D287" s="28" t="s">
         <v>851</v>
       </c>
-      <c r="E287" s="33">
-        <v>1</v>
-      </c>
-      <c r="F287" s="33">
-        <v>1</v>
-      </c>
-      <c r="G287" s="33">
-        <v>1</v>
-      </c>
-      <c r="I287" s="34" t="s">
+      <c r="E287" s="29">
+        <v>1</v>
+      </c>
+      <c r="F287" s="29">
+        <v>1</v>
+      </c>
+      <c r="G287" s="29">
+        <v>1</v>
+      </c>
+      <c r="I287" s="30" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="20" customFormat="1">
+    <row r="288" spans="1:9" s="16" customFormat="1">
       <c r="A288" s="15">
         <v>287</v>
       </c>
-      <c r="B288" s="57" t="s">
+      <c r="B288" s="26" t="s">
         <v>853</v>
       </c>
-      <c r="C288" s="27" t="s">
+      <c r="C288" s="14" t="s">
         <v>854</v>
       </c>
-      <c r="D288" s="27" t="s">
+      <c r="D288" s="14" t="s">
         <v>855</v>
       </c>
-      <c r="E288" s="28">
-        <v>1</v>
-      </c>
-      <c r="F288" s="28">
-        <v>1</v>
-      </c>
-      <c r="G288" s="28">
-        <v>1</v>
-      </c>
-      <c r="H288" s="28"/>
-      <c r="I288" s="27" t="s">
+      <c r="E288" s="16">
+        <v>0</v>
+      </c>
+      <c r="F288" s="16">
+        <v>0</v>
+      </c>
+      <c r="G288" s="16">
+        <v>0</v>
+      </c>
+      <c r="I288" s="14" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="33" customFormat="1">
+    <row r="289" spans="1:9" s="29" customFormat="1">
       <c r="A289" s="15">
         <v>288</v>
       </c>
-      <c r="B289" s="59" t="s">
+      <c r="B289" s="40" t="s">
         <v>856</v>
       </c>
-      <c r="C289" s="31" t="s">
+      <c r="C289" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="D289" s="32" t="s">
+      <c r="D289" s="28" t="s">
         <v>858</v>
       </c>
-      <c r="E289" s="33">
-        <v>1</v>
-      </c>
-      <c r="F289" s="33">
-        <v>1</v>
-      </c>
-      <c r="G289" s="33">
-        <v>1</v>
-      </c>
-      <c r="I289" s="34" t="s">
+      <c r="E289" s="29">
+        <v>1</v>
+      </c>
+      <c r="F289" s="29">
+        <v>1</v>
+      </c>
+      <c r="G289" s="29">
+        <v>1</v>
+      </c>
+      <c r="I289" s="30" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="33" customFormat="1">
+    <row r="290" spans="1:9" s="29" customFormat="1">
       <c r="A290" s="15">
         <v>289</v>
       </c>
-      <c r="B290" s="32" t="s">
+      <c r="B290" s="28" t="s">
         <v>860</v>
       </c>
-      <c r="C290" s="31" t="s">
+      <c r="C290" s="27" t="s">
         <v>861</v>
       </c>
-      <c r="D290" s="32" t="s">
+      <c r="D290" s="28" t="s">
         <v>862</v>
       </c>
-      <c r="E290" s="33">
-        <v>1</v>
-      </c>
-      <c r="F290" s="33">
-        <v>1</v>
-      </c>
-      <c r="G290" s="33">
-        <v>1</v>
-      </c>
-      <c r="I290" s="34" t="s">
+      <c r="E290" s="29">
+        <v>1</v>
+      </c>
+      <c r="F290" s="29">
+        <v>1</v>
+      </c>
+      <c r="G290" s="29">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="33" customFormat="1">
+    <row r="291" spans="1:9" s="29" customFormat="1">
       <c r="A291" s="15">
         <v>290</v>
       </c>
-      <c r="B291" s="32" t="s">
+      <c r="B291" s="28" t="s">
         <v>864</v>
       </c>
-      <c r="C291" s="31" t="s">
+      <c r="C291" s="27" t="s">
         <v>865</v>
       </c>
-      <c r="D291" s="32" t="s">
+      <c r="D291" s="28" t="s">
         <v>866</v>
       </c>
-      <c r="E291" s="33">
-        <v>1</v>
-      </c>
-      <c r="F291" s="33">
-        <v>1</v>
-      </c>
-      <c r="G291" s="33">
-        <v>1</v>
-      </c>
-      <c r="I291" s="34" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" s="33" customFormat="1">
+      <c r="E291" s="29">
+        <v>1</v>
+      </c>
+      <c r="F291" s="29">
+        <v>1</v>
+      </c>
+      <c r="G291" s="29">
+        <v>1</v>
+      </c>
+      <c r="I291" s="30" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" s="29" customFormat="1">
       <c r="A292" s="15">
         <v>291</v>
       </c>
-      <c r="B292" s="32" t="s">
+      <c r="B292" s="28" t="s">
         <v>867</v>
       </c>
-      <c r="C292" s="31" t="s">
+      <c r="C292" s="27" t="s">
         <v>872</v>
       </c>
-      <c r="D292" s="32" t="s">
+      <c r="D292" s="28" t="s">
         <v>869</v>
       </c>
-      <c r="E292" s="33">
-        <v>1</v>
-      </c>
-      <c r="F292" s="33">
-        <v>1</v>
-      </c>
-      <c r="G292" s="33">
-        <v>1</v>
-      </c>
-      <c r="I292" s="34" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" s="33" customFormat="1">
+      <c r="E292" s="29">
+        <v>1</v>
+      </c>
+      <c r="F292" s="29">
+        <v>1</v>
+      </c>
+      <c r="G292" s="29">
+        <v>1</v>
+      </c>
+      <c r="I292" s="30" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" s="29" customFormat="1">
       <c r="A293" s="15">
         <v>292</v>
       </c>
-      <c r="B293" s="32" t="s">
+      <c r="B293" s="28" t="s">
         <v>868</v>
       </c>
-      <c r="C293" s="31" t="s">
+      <c r="C293" s="27" t="s">
         <v>873</v>
       </c>
-      <c r="D293" s="32" t="s">
+      <c r="D293" s="28" t="s">
         <v>870</v>
       </c>
-      <c r="E293" s="33">
-        <v>1</v>
-      </c>
-      <c r="F293" s="33">
-        <v>1</v>
-      </c>
-      <c r="G293" s="33">
-        <v>1</v>
-      </c>
-      <c r="I293" s="34" t="s">
+      <c r="E293" s="29">
+        <v>1</v>
+      </c>
+      <c r="F293" s="29">
+        <v>1</v>
+      </c>
+      <c r="G293" s="29">
+        <v>1</v>
+      </c>
+      <c r="I293" s="30" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="33" customFormat="1">
+    <row r="294" spans="1:9" s="29" customFormat="1">
       <c r="A294" s="15">
         <v>293</v>
       </c>
-      <c r="B294" s="32" t="s">
+      <c r="B294" s="28" t="s">
         <v>874</v>
       </c>
-      <c r="C294" s="31" t="s">
+      <c r="C294" s="27" t="s">
         <v>875</v>
       </c>
-      <c r="D294" s="32" t="s">
+      <c r="D294" s="28" t="s">
         <v>876</v>
       </c>
-      <c r="E294" s="33">
-        <v>1</v>
-      </c>
-      <c r="F294" s="33">
-        <v>1</v>
-      </c>
-      <c r="G294" s="33">
-        <v>1</v>
-      </c>
-      <c r="I294" s="34" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" s="33" customFormat="1">
+      <c r="E294" s="29">
+        <v>1</v>
+      </c>
+      <c r="F294" s="29">
+        <v>1</v>
+      </c>
+      <c r="G294" s="29">
+        <v>1</v>
+      </c>
+      <c r="I294" s="30" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" s="29" customFormat="1">
       <c r="A295" s="15">
         <v>294</v>
       </c>
-      <c r="B295" s="32" t="s">
+      <c r="B295" s="28" t="s">
         <v>877</v>
       </c>
-      <c r="C295" s="31" t="s">
+      <c r="C295" s="27" t="s">
         <v>878</v>
       </c>
-      <c r="D295" s="32" t="s">
+      <c r="D295" s="28" t="s">
         <v>879</v>
       </c>
-      <c r="E295" s="33">
-        <v>1</v>
-      </c>
-      <c r="F295" s="33">
-        <v>1</v>
-      </c>
-      <c r="G295" s="33">
-        <v>1</v>
-      </c>
-      <c r="I295" s="34" t="s">
-        <v>638</v>
+      <c r="E295" s="29">
+        <v>1</v>
+      </c>
+      <c r="F295" s="29">
+        <v>1</v>
+      </c>
+      <c r="G295" s="29">
+        <v>1</v>
+      </c>
+      <c r="I295" s="30" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -12668,33 +12647,33 @@
         <v>894</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="33" customFormat="1">
+    <row r="299" spans="1:9" s="16" customFormat="1">
       <c r="A299" s="15">
         <v>298</v>
       </c>
-      <c r="B299" s="32" t="s">
+      <c r="B299" s="17" t="s">
         <v>889</v>
       </c>
-      <c r="C299" s="31" t="s">
+      <c r="C299" s="14" t="s">
         <v>890</v>
       </c>
-      <c r="D299" s="32" t="s">
+      <c r="D299" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="E299" s="33">
-        <v>1</v>
-      </c>
-      <c r="F299" s="33">
-        <v>1</v>
-      </c>
-      <c r="G299" s="33">
-        <v>1</v>
-      </c>
-      <c r="I299" s="34" t="s">
+      <c r="E299" s="16">
+        <v>1</v>
+      </c>
+      <c r="F299" s="16">
+        <v>1</v>
+      </c>
+      <c r="G299" s="16">
+        <v>1</v>
+      </c>
+      <c r="I299" s="18" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="22" customFormat="1">
+    <row r="300" spans="1:9" s="16" customFormat="1">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12716,12 +12695,11 @@
       <c r="G300" s="16">
         <v>0</v>
       </c>
-      <c r="H300" s="16"/>
       <c r="I300" s="18" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="22" customFormat="1">
+    <row r="301" spans="1:9" s="16" customFormat="1">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12743,12 +12721,11 @@
       <c r="G301" s="16">
         <v>0</v>
       </c>
-      <c r="H301" s="16"/>
       <c r="I301" s="18" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="22" customFormat="1">
+    <row r="302" spans="1:9" s="16" customFormat="1">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12770,123 +12747,119 @@
       <c r="G302" s="16">
         <v>0</v>
       </c>
-      <c r="H302" s="16"/>
       <c r="I302" s="18" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="33" customFormat="1">
+    <row r="303" spans="1:9" s="16" customFormat="1">
       <c r="A303" s="15">
         <v>302</v>
       </c>
-      <c r="B303" s="32" t="s">
+      <c r="B303" s="17" t="s">
         <v>905</v>
       </c>
-      <c r="C303" s="31" t="s">
+      <c r="C303" s="14" t="s">
         <v>909</v>
       </c>
-      <c r="D303" s="32" t="s">
+      <c r="D303" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="E303" s="33">
-        <v>1</v>
-      </c>
-      <c r="F303" s="33">
-        <v>1</v>
-      </c>
-      <c r="G303" s="33">
-        <v>1</v>
-      </c>
-      <c r="I303" s="34" t="s">
+      <c r="E303" s="16">
+        <v>1</v>
+      </c>
+      <c r="F303" s="16">
+        <v>1</v>
+      </c>
+      <c r="G303" s="16">
+        <v>1</v>
+      </c>
+      <c r="I303" s="18" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="20" customFormat="1">
+    <row r="304" spans="1:9" s="16" customFormat="1">
       <c r="A304" s="15">
         <v>303</v>
       </c>
-      <c r="B304" s="41" t="s">
+      <c r="B304" s="17" t="s">
         <v>971</v>
       </c>
-      <c r="C304" s="42" t="s">
+      <c r="C304" s="14" t="s">
         <v>929</v>
       </c>
-      <c r="D304" s="41" t="s">
+      <c r="D304" s="17" t="s">
         <v>956</v>
       </c>
-      <c r="E304" s="43">
-        <v>1</v>
-      </c>
-      <c r="F304" s="43">
-        <v>1</v>
-      </c>
-      <c r="G304" s="43">
-        <v>1</v>
-      </c>
-      <c r="H304" s="43"/>
-      <c r="I304" s="42" t="s">
+      <c r="E304" s="16">
+        <v>1</v>
+      </c>
+      <c r="F304" s="16">
+        <v>1</v>
+      </c>
+      <c r="G304" s="16">
+        <v>1</v>
+      </c>
+      <c r="I304" s="14" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" s="16" customFormat="1">
       <c r="A305" s="15">
         <v>304</v>
       </c>
-      <c r="B305" s="41" t="s">
+      <c r="B305" s="17" t="s">
         <v>955</v>
       </c>
-      <c r="C305" s="42" t="s">
+      <c r="C305" s="14" t="s">
         <v>930</v>
       </c>
-      <c r="D305" s="41" t="s">
+      <c r="D305" s="17" t="s">
         <v>957</v>
       </c>
-      <c r="E305" s="43">
-        <v>1</v>
-      </c>
-      <c r="F305" s="43">
-        <v>1</v>
-      </c>
-      <c r="G305" s="43">
-        <v>1</v>
-      </c>
-      <c r="H305" s="43"/>
-      <c r="I305" s="42" t="s">
+      <c r="E305" s="16">
+        <v>1</v>
+      </c>
+      <c r="F305" s="16">
+        <v>1</v>
+      </c>
+      <c r="G305" s="16">
+        <v>1</v>
+      </c>
+      <c r="I305" s="14" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" s="16" customFormat="1">
       <c r="A306" s="15">
         <v>305</v>
       </c>
-      <c r="B306" s="41" t="s">
+      <c r="B306" s="17" t="s">
         <v>953</v>
       </c>
-      <c r="C306" s="41" t="s">
+      <c r="C306" s="17" t="s">
         <v>936</v>
       </c>
-      <c r="D306" s="41" t="s">
+      <c r="D306" s="17" t="s">
         <v>954</v>
       </c>
-      <c r="E306" s="43">
-        <v>1</v>
-      </c>
-      <c r="F306" s="43">
-        <v>1</v>
-      </c>
-      <c r="G306" s="43">
-        <v>1</v>
-      </c>
-      <c r="H306" s="43"/>
-      <c r="I306" s="44" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
+      <c r="E306" s="16">
+        <v>1</v>
+      </c>
+      <c r="F306" s="16">
+        <v>1</v>
+      </c>
+      <c r="G306" s="16">
+        <v>1</v>
+      </c>
+      <c r="I306" s="18" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" s="16" customFormat="1">
       <c r="A307" s="15">
         <v>306</v>
       </c>
-      <c r="B307" s="30" t="s">
+      <c r="B307" s="26" t="s">
         <v>912</v>
       </c>
       <c r="C307" s="16" t="s">
@@ -12904,12 +12877,11 @@
       <c r="G307" s="16">
         <v>1</v>
       </c>
-      <c r="H307" s="16"/>
       <c r="I307" s="18" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" s="16" customFormat="1">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -12931,38 +12903,37 @@
       <c r="G308" s="16">
         <v>1</v>
       </c>
-      <c r="H308" s="16"/>
       <c r="I308" s="14" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="33" customFormat="1">
+    <row r="309" spans="1:9" s="16" customFormat="1">
       <c r="A309" s="15">
         <v>308</v>
       </c>
-      <c r="B309" s="32" t="s">
+      <c r="B309" s="17" t="s">
         <v>921</v>
       </c>
-      <c r="C309" s="31" t="s">
+      <c r="C309" s="14" t="s">
         <v>922</v>
       </c>
-      <c r="D309" s="32" t="s">
+      <c r="D309" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="E309" s="33">
-        <v>1</v>
-      </c>
-      <c r="F309" s="33">
-        <v>1</v>
-      </c>
-      <c r="G309" s="33">
-        <v>1</v>
-      </c>
-      <c r="I309" s="31" t="s">
+      <c r="E309" s="16">
+        <v>1</v>
+      </c>
+      <c r="F309" s="16">
+        <v>1</v>
+      </c>
+      <c r="G309" s="16">
+        <v>1</v>
+      </c>
+      <c r="I309" s="14" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" s="16" customFormat="1">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -12984,38 +12955,37 @@
       <c r="G310" s="16">
         <v>1</v>
       </c>
-      <c r="H310" s="16"/>
       <c r="I310" s="14" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="2" customFormat="1">
+    <row r="311" spans="1:9" s="46" customFormat="1">
       <c r="A311" s="15">
         <v>310</v>
       </c>
-      <c r="B311" s="47" t="s">
+      <c r="B311" s="44" t="s">
         <v>969</v>
       </c>
-      <c r="C311" s="48" t="s">
+      <c r="C311" s="45" t="s">
         <v>927</v>
       </c>
-      <c r="D311" s="47" t="s">
+      <c r="D311" s="44" t="s">
         <v>928</v>
       </c>
-      <c r="E311" s="2">
-        <v>1</v>
-      </c>
-      <c r="F311" s="2">
-        <v>1</v>
-      </c>
-      <c r="G311" s="2">
-        <v>1</v>
-      </c>
-      <c r="I311" s="48" t="s">
+      <c r="E311" s="46">
+        <v>1</v>
+      </c>
+      <c r="F311" s="46">
+        <v>1</v>
+      </c>
+      <c r="G311" s="46">
+        <v>1</v>
+      </c>
+      <c r="I311" s="45" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" s="16" customFormat="1">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -13038,43 +13008,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="2" customFormat="1" ht="17.25">
+    <row r="313" spans="1:9" s="16" customFormat="1" ht="17.25">
       <c r="A313" s="15">
         <v>312</v>
       </c>
-      <c r="B313" s="60" t="s">
+      <c r="B313" s="36" t="s">
         <v>937</v>
       </c>
-      <c r="C313" s="48" t="s">
+      <c r="C313" s="14" t="s">
         <v>939</v>
       </c>
-      <c r="D313" s="47" t="s">
+      <c r="D313" s="17" t="s">
         <v>942</v>
       </c>
-      <c r="E313" s="2">
-        <v>1</v>
-      </c>
-      <c r="F313" s="2">
-        <v>1</v>
-      </c>
-      <c r="G313" s="2">
-        <v>1</v>
-      </c>
-      <c r="I313" s="48" t="s">
+      <c r="E313" s="16">
+        <v>0</v>
+      </c>
+      <c r="F313" s="16">
+        <v>1</v>
+      </c>
+      <c r="G313" s="16">
+        <v>1</v>
+      </c>
+      <c r="I313" s="14" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="17.25">
+    <row r="314" spans="1:9" s="16" customFormat="1" ht="17.25">
       <c r="A314" s="15">
         <v>313</v>
       </c>
-      <c r="B314" s="54" t="s">
+      <c r="B314" s="36" t="s">
         <v>938</v>
       </c>
       <c r="C314" s="14" t="s">
         <v>940</v>
       </c>
-      <c r="D314" s="29" t="s">
+      <c r="D314" s="35" t="s">
         <v>945</v>
       </c>
       <c r="E314" s="16">
@@ -13083,37 +13053,36 @@
       <c r="F314" s="16">
         <v>1</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="16">
         <v>1</v>
       </c>
       <c r="I314" s="18" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" s="16" customFormat="1">
       <c r="A315" s="15">
         <v>314</v>
       </c>
-      <c r="B315" s="47" t="s">
+      <c r="B315" s="17" t="s">
         <v>948</v>
       </c>
-      <c r="C315" s="48" t="s">
+      <c r="C315" s="14" t="s">
         <v>944</v>
       </c>
-      <c r="D315" s="47" t="s">
+      <c r="D315" s="17" t="s">
         <v>943</v>
       </c>
-      <c r="E315" s="2">
-        <v>1</v>
-      </c>
-      <c r="F315" s="2">
-        <v>1</v>
-      </c>
-      <c r="G315" s="2">
-        <v>1</v>
-      </c>
-      <c r="H315" s="2"/>
-      <c r="I315" s="48" t="s">
+      <c r="E315" s="16">
+        <v>0</v>
+      </c>
+      <c r="F315" s="16">
+        <v>1</v>
+      </c>
+      <c r="G315" s="16">
+        <v>1</v>
+      </c>
+      <c r="I315" s="14" t="s">
         <v>963</v>
       </c>
     </row>
@@ -13121,13 +13090,13 @@
       <c r="A316" s="15">
         <v>315</v>
       </c>
-      <c r="B316" s="53" t="s">
+      <c r="B316" s="36" t="s">
         <v>949</v>
       </c>
       <c r="C316" s="14" t="s">
         <v>947</v>
       </c>
-      <c r="D316" s="52" t="s">
+      <c r="D316" s="35" t="s">
         <v>946</v>
       </c>
       <c r="E316" s="16">
@@ -13140,56 +13109,52 @@
         <v>1</v>
       </c>
       <c r="I316" s="14" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" s="16" customFormat="1">
       <c r="A317" s="15">
         <v>316</v>
       </c>
-      <c r="B317" s="40" t="s">
+      <c r="B317" s="17" t="s">
         <v>990</v>
       </c>
-      <c r="C317" s="38" t="s">
+      <c r="C317" s="14" t="s">
         <v>991</v>
       </c>
-      <c r="D317" s="39"/>
-      <c r="E317" s="39">
-        <v>1</v>
-      </c>
-      <c r="F317" s="39">
-        <v>1</v>
-      </c>
-      <c r="G317" s="39">
-        <v>1</v>
-      </c>
-      <c r="H317" s="39"/>
-      <c r="I317" s="38" t="s">
+      <c r="E317" s="16">
+        <v>0</v>
+      </c>
+      <c r="F317" s="16">
+        <v>1</v>
+      </c>
+      <c r="G317" s="16">
+        <v>1</v>
+      </c>
+      <c r="I317" s="14" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" s="16" customFormat="1">
       <c r="A318" s="15">
         <v>317</v>
       </c>
-      <c r="B318" s="40" t="s">
+      <c r="B318" s="17" t="s">
         <v>993</v>
       </c>
-      <c r="C318" s="38" t="s">
+      <c r="C318" s="14" t="s">
         <v>994</v>
       </c>
-      <c r="D318" s="39"/>
-      <c r="E318" s="39">
-        <v>1</v>
-      </c>
-      <c r="F318" s="39">
-        <v>1</v>
-      </c>
-      <c r="G318" s="39">
-        <v>1</v>
-      </c>
-      <c r="H318" s="39"/>
-      <c r="I318" s="38" t="s">
+      <c r="E318" s="16">
+        <v>0</v>
+      </c>
+      <c r="F318" s="16">
+        <v>1</v>
+      </c>
+      <c r="G318" s="16">
+        <v>1</v>
+      </c>
+      <c r="I318" s="14" t="s">
         <v>995</v>
       </c>
     </row>
@@ -13197,24 +13162,22 @@
       <c r="A319" s="15">
         <v>318</v>
       </c>
-      <c r="B319" s="40" t="s">
+      <c r="B319" s="17" t="s">
         <v>996</v>
       </c>
-      <c r="C319" s="39" t="s">
+      <c r="C319" s="16" t="s">
         <v>997</v>
       </c>
-      <c r="D319" s="39"/>
-      <c r="E319" s="39">
-        <v>1</v>
-      </c>
-      <c r="F319" s="39">
-        <v>1</v>
-      </c>
-      <c r="G319" s="39">
-        <v>1</v>
-      </c>
-      <c r="H319" s="39"/>
-      <c r="I319" s="38" t="s">
+      <c r="E319" s="16">
+        <v>0</v>
+      </c>
+      <c r="F319" s="16">
+        <v>1</v>
+      </c>
+      <c r="G319" s="16">
+        <v>1</v>
+      </c>
+      <c r="I319" s="14" t="s">
         <v>992</v>
       </c>
     </row>
@@ -13222,178 +13185,166 @@
       <c r="A320" s="15">
         <v>319</v>
       </c>
-      <c r="B320" s="40" t="s">
+      <c r="B320" s="17" t="s">
         <v>998</v>
       </c>
-      <c r="C320" s="38" t="s">
+      <c r="C320" s="14" t="s">
         <v>999</v>
       </c>
-      <c r="D320" s="39"/>
-      <c r="E320" s="39">
-        <v>1</v>
-      </c>
-      <c r="F320" s="39">
-        <v>1</v>
-      </c>
-      <c r="G320" s="39">
-        <v>1</v>
-      </c>
-      <c r="H320" s="39"/>
-      <c r="I320" s="38" t="s">
+      <c r="E320" s="16">
+        <v>0</v>
+      </c>
+      <c r="F320" s="16">
+        <v>1</v>
+      </c>
+      <c r="G320" s="16">
+        <v>1</v>
+      </c>
+      <c r="I320" s="14" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" s="16" customFormat="1">
       <c r="A321" s="15">
         <v>320</v>
       </c>
-      <c r="B321" s="40" t="s">
+      <c r="B321" s="17" t="s">
         <v>1000</v>
       </c>
-      <c r="C321" s="38" t="s">
+      <c r="C321" s="14" t="s">
         <v>1001</v>
       </c>
-      <c r="D321" s="39"/>
-      <c r="E321" s="39">
-        <v>1</v>
-      </c>
-      <c r="F321" s="39">
-        <v>1</v>
-      </c>
-      <c r="G321" s="39">
-        <v>1</v>
-      </c>
-      <c r="H321" s="39"/>
-      <c r="I321" s="38" t="s">
+      <c r="E321" s="16">
+        <v>0</v>
+      </c>
+      <c r="F321" s="16">
+        <v>1</v>
+      </c>
+      <c r="G321" s="16">
+        <v>1</v>
+      </c>
+      <c r="I321" s="14" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" s="16" customFormat="1">
       <c r="A322" s="15">
         <v>321</v>
       </c>
-      <c r="B322" s="40" t="s">
+      <c r="B322" s="17" t="s">
         <v>1002</v>
       </c>
-      <c r="C322" s="38" t="s">
+      <c r="C322" s="14" t="s">
         <v>1003</v>
       </c>
-      <c r="D322" s="39"/>
-      <c r="E322" s="39">
-        <v>1</v>
-      </c>
-      <c r="F322" s="39">
-        <v>1</v>
-      </c>
-      <c r="G322" s="39">
-        <v>1</v>
-      </c>
-      <c r="H322" s="39"/>
-      <c r="I322" s="38" t="s">
+      <c r="E322" s="16">
+        <v>0</v>
+      </c>
+      <c r="F322" s="16">
+        <v>1</v>
+      </c>
+      <c r="G322" s="16">
+        <v>1</v>
+      </c>
+      <c r="I322" s="14" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" s="16" customFormat="1">
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="62" t="s">
+      <c r="B323" s="42" t="s">
         <v>1004</v>
       </c>
-      <c r="C323" s="38" t="s">
+      <c r="C323" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="D323" s="39"/>
-      <c r="E323" s="39">
-        <v>1</v>
-      </c>
-      <c r="F323" s="39">
-        <v>1</v>
-      </c>
-      <c r="G323" s="39">
-        <v>1</v>
-      </c>
-      <c r="H323" s="39"/>
-      <c r="I323" s="63" t="s">
+      <c r="E323" s="16">
+        <v>1</v>
+      </c>
+      <c r="F323" s="16">
+        <v>1</v>
+      </c>
+      <c r="G323" s="16">
+        <v>1</v>
+      </c>
+      <c r="I323" s="18" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" s="16" customFormat="1">
       <c r="A324" s="15">
         <v>323</v>
       </c>
-      <c r="B324" s="47" t="s">
+      <c r="B324" s="17" t="s">
         <v>960</v>
       </c>
-      <c r="C324" s="48" t="s">
+      <c r="C324" s="14" t="s">
         <v>961</v>
       </c>
-      <c r="D324" s="47" t="s">
+      <c r="D324" s="17" t="s">
         <v>962</v>
       </c>
-      <c r="E324" s="2">
-        <v>1</v>
-      </c>
-      <c r="F324" s="2">
-        <v>1</v>
-      </c>
-      <c r="G324" s="2">
-        <v>1</v>
-      </c>
-      <c r="H324" s="2"/>
-      <c r="I324" s="48" t="s">
+      <c r="E324" s="16">
+        <v>0</v>
+      </c>
+      <c r="F324" s="16">
+        <v>1</v>
+      </c>
+      <c r="G324" s="16">
+        <v>1</v>
+      </c>
+      <c r="I324" s="14" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" s="16" customFormat="1">
       <c r="A325" s="15">
         <v>324</v>
       </c>
-      <c r="B325" s="47" t="s">
+      <c r="B325" s="17" t="s">
         <v>964</v>
       </c>
-      <c r="C325" s="48" t="s">
+      <c r="C325" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="D325" s="47" t="s">
+      <c r="D325" s="17" t="s">
         <v>966</v>
       </c>
-      <c r="E325" s="2">
-        <v>1</v>
-      </c>
-      <c r="F325" s="2">
-        <v>1</v>
-      </c>
-      <c r="G325" s="2">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2"/>
-      <c r="I325" s="48" t="s">
+      <c r="E325" s="16">
+        <v>0</v>
+      </c>
+      <c r="F325" s="16">
+        <v>1</v>
+      </c>
+      <c r="G325" s="16">
+        <v>1</v>
+      </c>
+      <c r="I325" s="14" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" s="16" customFormat="1">
       <c r="A326" s="15">
         <v>325</v>
       </c>
-      <c r="B326" s="47" t="s">
+      <c r="B326" s="17" t="s">
         <v>967</v>
       </c>
-      <c r="C326" s="48" t="s">
+      <c r="C326" s="14" t="s">
         <v>968</v>
       </c>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2">
-        <v>1</v>
-      </c>
-      <c r="F326" s="2">
-        <v>1</v>
-      </c>
-      <c r="G326" s="2">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2"/>
-      <c r="I326" s="48" t="s">
+      <c r="E326" s="16">
+        <v>0</v>
+      </c>
+      <c r="F326" s="16">
+        <v>1</v>
+      </c>
+      <c r="G326" s="16">
+        <v>1</v>
+      </c>
+      <c r="I326" s="14" t="s">
         <v>963</v>
       </c>
     </row>
@@ -13401,308 +13352,409 @@
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="61" t="s">
+      <c r="B327" s="26" t="s">
         <v>970</v>
       </c>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2">
-        <v>1</v>
-      </c>
-      <c r="F327" s="2">
-        <v>1</v>
-      </c>
-      <c r="G327" s="2">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2"/>
-      <c r="I327" s="49" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9">
+      <c r="E327" s="16">
+        <v>1</v>
+      </c>
+      <c r="F327" s="16">
+        <v>1</v>
+      </c>
+      <c r="G327" s="16">
+        <v>1</v>
+      </c>
+      <c r="I327" s="18" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" s="16" customFormat="1">
       <c r="A328" s="15">
         <v>327</v>
       </c>
-      <c r="B328" s="47" t="s">
+      <c r="B328" s="17" t="s">
         <v>973</v>
       </c>
-      <c r="C328" s="47" t="s">
+      <c r="C328" s="17" t="s">
         <v>972</v>
       </c>
-      <c r="D328" s="47" t="s">
+      <c r="D328" s="17" t="s">
         <v>974</v>
       </c>
-      <c r="E328" s="2">
-        <v>1</v>
-      </c>
-      <c r="F328" s="2">
-        <v>1</v>
-      </c>
-      <c r="G328" s="2">
-        <v>1</v>
-      </c>
-      <c r="H328" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I328" s="48" t="s">
+      <c r="E328" s="16">
+        <v>0</v>
+      </c>
+      <c r="F328" s="16">
+        <v>1</v>
+      </c>
+      <c r="G328" s="16">
+        <v>1</v>
+      </c>
+      <c r="H328" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I328" s="14" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" s="16" customFormat="1">
       <c r="A329" s="15">
         <v>328</v>
       </c>
-      <c r="B329" s="47" t="s">
+      <c r="B329" s="17" t="s">
         <v>983</v>
       </c>
-      <c r="C329" s="49" t="s">
+      <c r="C329" s="18" t="s">
         <v>986</v>
       </c>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2">
-        <v>1</v>
-      </c>
-      <c r="F329" s="2">
-        <v>1</v>
-      </c>
-      <c r="G329" s="2">
-        <v>1</v>
-      </c>
-      <c r="H329" s="2"/>
-      <c r="I329" s="48" t="s">
+      <c r="E329" s="16">
+        <v>0</v>
+      </c>
+      <c r="F329" s="16">
+        <v>1</v>
+      </c>
+      <c r="G329" s="16">
+        <v>1</v>
+      </c>
+      <c r="I329" s="14" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" s="16" customFormat="1">
       <c r="A330" s="15">
         <v>329</v>
       </c>
-      <c r="B330" s="47" t="s">
+      <c r="B330" s="17" t="s">
         <v>984</v>
       </c>
-      <c r="C330" s="49" t="s">
+      <c r="C330" s="18" t="s">
         <v>987</v>
       </c>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2">
-        <v>1</v>
-      </c>
-      <c r="F330" s="2">
-        <v>1</v>
-      </c>
-      <c r="G330" s="2">
-        <v>1</v>
-      </c>
-      <c r="H330" s="2"/>
-      <c r="I330" s="48" t="s">
+      <c r="E330" s="16">
+        <v>0</v>
+      </c>
+      <c r="F330" s="16">
+        <v>1</v>
+      </c>
+      <c r="G330" s="16">
+        <v>1</v>
+      </c>
+      <c r="I330" s="14" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" s="16" customFormat="1">
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="47" t="s">
+      <c r="B331" s="17" t="s">
         <v>985</v>
       </c>
-      <c r="C331" s="49" t="s">
+      <c r="C331" s="18" t="s">
         <v>988</v>
       </c>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2">
-        <v>1</v>
-      </c>
-      <c r="F331" s="2">
-        <v>1</v>
-      </c>
-      <c r="G331" s="2">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2"/>
-      <c r="I331" s="48" t="s">
+      <c r="E331" s="16">
+        <v>0</v>
+      </c>
+      <c r="F331" s="16">
+        <v>1</v>
+      </c>
+      <c r="G331" s="16">
+        <v>1</v>
+      </c>
+      <c r="I331" s="14" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" s="16" customFormat="1">
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="47" t="s">
+      <c r="B332" s="17" t="s">
         <v>1011</v>
       </c>
-      <c r="C332" s="49" t="s">
+      <c r="C332" s="18" t="s">
         <v>1013</v>
       </c>
-      <c r="D332" s="47" t="s">
+      <c r="D332" s="17" t="s">
         <v>1012</v>
       </c>
-      <c r="E332" s="2">
-        <v>1</v>
-      </c>
-      <c r="F332" s="2">
-        <v>1</v>
-      </c>
-      <c r="G332" s="2">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2"/>
-      <c r="I332" s="48" t="s">
+      <c r="E332" s="16">
+        <v>0</v>
+      </c>
+      <c r="F332" s="16">
+        <v>1</v>
+      </c>
+      <c r="G332" s="16">
+        <v>1</v>
+      </c>
+      <c r="I332" s="14" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" s="16" customFormat="1">
       <c r="A333" s="15">
         <v>332</v>
       </c>
-      <c r="B333" s="65" t="s">
+      <c r="B333" s="17" t="s">
         <v>1008</v>
       </c>
-      <c r="C333" s="66" t="s">
+      <c r="C333" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="D333" s="65" t="s">
+      <c r="D333" s="17" t="s">
         <v>1009</v>
       </c>
-      <c r="E333" s="67">
-        <v>1</v>
-      </c>
-      <c r="F333" s="67">
-        <v>1</v>
-      </c>
-      <c r="G333" s="67">
-        <v>1</v>
-      </c>
-      <c r="H333" s="67"/>
-      <c r="I333" s="68" t="s">
+      <c r="E333" s="16">
+        <v>0</v>
+      </c>
+      <c r="F333" s="16">
+        <v>1</v>
+      </c>
+      <c r="G333" s="16">
+        <v>1</v>
+      </c>
+      <c r="I333" s="14" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" s="16" customFormat="1">
       <c r="A334" s="15">
         <v>333</v>
       </c>
-      <c r="B334" s="47" t="s">
+      <c r="B334" s="17" t="s">
         <v>1014</v>
       </c>
-      <c r="C334" s="48" t="s">
+      <c r="C334" s="14" t="s">
         <v>1022</v>
       </c>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2">
-        <v>1</v>
-      </c>
-      <c r="F334" s="2">
-        <v>1</v>
-      </c>
-      <c r="G334" s="2">
-        <v>1</v>
-      </c>
-      <c r="H334" s="2"/>
-      <c r="I334" s="48" t="s">
+      <c r="E334" s="16">
+        <v>0</v>
+      </c>
+      <c r="F334" s="16">
+        <v>1</v>
+      </c>
+      <c r="G334" s="16">
+        <v>1</v>
+      </c>
+      <c r="I334" s="14" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" s="16" customFormat="1">
       <c r="A335" s="15">
         <v>334</v>
       </c>
-      <c r="B335" s="47" t="s">
+      <c r="B335" s="17" t="s">
         <v>1015</v>
       </c>
-      <c r="C335" s="48" t="s">
+      <c r="C335" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2">
-        <v>1</v>
-      </c>
-      <c r="F335" s="2">
-        <v>1</v>
-      </c>
-      <c r="G335" s="2">
-        <v>1</v>
-      </c>
-      <c r="H335" s="2"/>
-      <c r="I335" s="48" t="s">
+      <c r="E335" s="16">
+        <v>0</v>
+      </c>
+      <c r="F335" s="16">
+        <v>1</v>
+      </c>
+      <c r="G335" s="16">
+        <v>1</v>
+      </c>
+      <c r="I335" s="14" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" s="16" customFormat="1">
       <c r="A336" s="15">
         <v>335</v>
       </c>
-      <c r="B336" s="47" t="s">
+      <c r="B336" s="17" t="s">
         <v>1025</v>
       </c>
-      <c r="C336" s="48" t="s">
+      <c r="C336" s="14" t="s">
         <v>1024</v>
       </c>
-      <c r="D336" s="2"/>
-      <c r="E336" s="2">
-        <v>1</v>
-      </c>
-      <c r="F336" s="2">
-        <v>1</v>
-      </c>
-      <c r="G336" s="2">
-        <v>1</v>
-      </c>
-      <c r="H336" s="2"/>
-      <c r="I336" s="48" t="s">
+      <c r="E336" s="16">
+        <v>0</v>
+      </c>
+      <c r="F336" s="16">
+        <v>1</v>
+      </c>
+      <c r="G336" s="16">
+        <v>1</v>
+      </c>
+      <c r="I336" s="14" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" s="16" customFormat="1">
       <c r="A337" s="15">
         <v>336</v>
       </c>
-      <c r="B337" s="47" t="s">
+      <c r="B337" s="17" t="s">
         <v>1016</v>
       </c>
-      <c r="C337" s="48" t="s">
+      <c r="C337" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="D337" s="2"/>
-      <c r="E337" s="2">
-        <v>1</v>
-      </c>
-      <c r="F337" s="2">
-        <v>1</v>
-      </c>
-      <c r="G337" s="2">
-        <v>1</v>
-      </c>
-      <c r="H337" s="2"/>
-      <c r="I337" s="48" t="s">
+      <c r="E337" s="16">
+        <v>0</v>
+      </c>
+      <c r="F337" s="16">
+        <v>1</v>
+      </c>
+      <c r="G337" s="16">
+        <v>1</v>
+      </c>
+      <c r="I337" s="14" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" s="16" customFormat="1">
       <c r="A338" s="15">
         <v>337</v>
       </c>
-      <c r="B338" s="61" t="s">
+      <c r="B338" s="26" t="s">
         <v>1021</v>
       </c>
-      <c r="C338" s="48" t="s">
+      <c r="C338" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="D338" s="48" t="s">
+      <c r="D338" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="E338" s="2">
-        <v>1</v>
-      </c>
-      <c r="F338" s="2">
-        <v>1</v>
-      </c>
-      <c r="G338" s="2">
-        <v>1</v>
-      </c>
-      <c r="H338" s="2"/>
-      <c r="I338" s="48" t="s">
+      <c r="E338" s="16">
+        <v>1</v>
+      </c>
+      <c r="F338" s="16">
+        <v>1</v>
+      </c>
+      <c r="G338" s="16">
+        <v>1</v>
+      </c>
+      <c r="I338" s="14" t="s">
         <v>1020</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" s="46" customFormat="1">
+      <c r="A339" s="15">
+        <v>338</v>
+      </c>
+      <c r="B339" s="44" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C339" s="45" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E339" s="46">
+        <v>1</v>
+      </c>
+      <c r="F339" s="46">
+        <v>1</v>
+      </c>
+      <c r="G339" s="46">
+        <v>1</v>
+      </c>
+      <c r="I339" s="45" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" s="46" customFormat="1">
+      <c r="A340" s="15">
+        <v>339</v>
+      </c>
+      <c r="B340" s="44" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C340" s="45" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E340" s="46">
+        <v>1</v>
+      </c>
+      <c r="F340" s="46">
+        <v>1</v>
+      </c>
+      <c r="G340" s="46">
+        <v>1</v>
+      </c>
+      <c r="I340" s="45" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" s="46" customFormat="1">
+      <c r="A341" s="15">
+        <v>340</v>
+      </c>
+      <c r="B341" s="44" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C341" s="47" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E341" s="46">
+        <v>1</v>
+      </c>
+      <c r="F341" s="46">
+        <v>1</v>
+      </c>
+      <c r="G341" s="46">
+        <v>1</v>
+      </c>
+      <c r="I341" s="45" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" s="15">
+        <v>341</v>
+      </c>
+      <c r="B342" s="38" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C342" s="47" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E342" s="46">
+        <v>1</v>
+      </c>
+      <c r="F342" s="46">
+        <v>1</v>
+      </c>
+      <c r="G342" s="46">
+        <v>1</v>
+      </c>
+      <c r="H342" s="46"/>
+      <c r="I342" s="45" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" s="15">
+        <v>342</v>
+      </c>
+      <c r="B343" s="52" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C343" s="47" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D343" s="46"/>
+      <c r="E343" s="46">
+        <v>1</v>
+      </c>
+      <c r="F343" s="46">
+        <v>1</v>
+      </c>
+      <c r="G343" s="46">
+        <v>1</v>
+      </c>
+      <c r="H343" s="46"/>
+      <c r="I343" s="45" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -13729,7 +13781,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1052">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>FKRKManager</t>
+  </si>
+  <si>
+    <t>系统升级引导</t>
   </si>
   <si>
     <t>XTSJYDManager</t>
@@ -3103,14 +3106,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_025_jrth</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_025_JRTHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3379,10 +3374,6 @@
   </si>
   <si>
     <t>小游戏福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3768,9 +3759,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>12月28日23:59:59</t>
-  </si>
-  <si>
     <t>cjj互导</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3788,10 +3776,6 @@
   </si>
   <si>
     <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠→金牛幸运宝箱</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4015,10 +3999,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>过大年--消消乐争霸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_045_XXLBDManger</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4386,14 +4366,79 @@
     <t>actp_own_task_p_041_xyxfl</t>
   </si>
   <si>
-    <t>系统升级引导</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_lb1_style/act_002_tylb1</t>
-  </si>
-  <si>
-    <t>通用礼包1皮肤</t>
+    <t>act_ty_by_hhl_style/act_005_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_jbzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_Act_JBZKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_xrxsfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_XRXSFLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_009_lihe</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_007_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_jrth</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买+自动抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_JRTHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐争霸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒boss皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4401,7 +4446,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4478,13 +4523,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
@@ -4516,14 +4554,8 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4544,18 +4576,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4563,6 +4583,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4604,7 +4630,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4665,43 +4691,43 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4710,22 +4736,22 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4734,35 +4760,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5041,13 +5055,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I343"/>
+  <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C326" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C347" sqref="C347"/>
+      <selection pane="bottomRight" activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5064,11 +5078,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -5077,7 +5091,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -5089,7 +5103,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -5115,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5141,7 +5155,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5167,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5193,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5219,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5245,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5271,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5297,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5323,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5349,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5375,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5401,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5427,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5453,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5479,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5505,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5531,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5557,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5583,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -5609,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5635,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5661,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -5687,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -5713,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5739,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5750,7 +5764,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>82</v>
@@ -5765,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -5791,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5817,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -5843,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5869,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -5895,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -5921,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -5947,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -5973,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -5999,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -6025,7 +6039,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -6051,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -6077,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -6103,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -6129,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -6155,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -6181,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -6207,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -6233,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -6259,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -6285,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -6311,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -6319,10 +6333,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>146</v>
@@ -6337,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -6363,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -6389,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -6413,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6439,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -6447,7 +6461,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>158</v>
@@ -6465,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -6473,7 +6487,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>160</v>
@@ -6491,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -6517,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -6543,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -6569,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -6577,7 +6591,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>171</v>
@@ -6595,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="2" customFormat="1">
@@ -6606,7 +6620,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>174</v>
@@ -6621,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -6647,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -6673,7 +6687,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -6699,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -6725,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -6751,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -6777,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -6803,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -6829,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -6855,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -6881,7 +6895,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -6907,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -6933,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -6959,33 +6973,33 @@
         <v>1</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="46" customFormat="1">
-      <c r="A74" s="43">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="29" customFormat="1">
+      <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="C74" s="50" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D74" s="43" t="s">
+      <c r="B74" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="C74" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="E74" s="43">
-        <v>1</v>
-      </c>
-      <c r="F74" s="46">
-        <v>1</v>
-      </c>
-      <c r="G74" s="46">
-        <v>1</v>
-      </c>
-      <c r="I74" s="51" t="s">
-        <v>640</v>
+      <c r="D74" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" s="28">
+        <v>0</v>
+      </c>
+      <c r="F74" s="29">
+        <v>0</v>
+      </c>
+      <c r="G74" s="29">
+        <v>0</v>
+      </c>
+      <c r="I74" s="30" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -6993,13 +7007,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
@@ -7011,33 +7025,33 @@
         <v>1</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="25" customFormat="1">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="22" customFormat="1">
       <c r="A76" s="15">
         <v>75</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E76" s="31">
         <v>0</v>
       </c>
-      <c r="F76" s="25">
-        <v>1</v>
-      </c>
-      <c r="G76" s="25">
+      <c r="F76" s="22">
+        <v>1</v>
+      </c>
+      <c r="G76" s="22">
         <v>1</v>
       </c>
       <c r="I76" s="32" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -7045,13 +7059,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
@@ -7063,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -7071,13 +7085,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E78" s="5">
         <v>1</v>
@@ -7089,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -7097,13 +7111,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -7115,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -7123,13 +7137,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -7141,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -7149,13 +7163,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -7167,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -7175,13 +7189,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -7193,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -7201,13 +7215,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -7219,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -7227,13 +7241,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -7245,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -7253,13 +7267,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E85" s="5">
         <v>1</v>
@@ -7271,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -7279,13 +7293,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E86" s="5">
         <v>1</v>
@@ -7297,7 +7311,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -7305,13 +7319,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E87" s="5">
         <v>1</v>
@@ -7323,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -7331,13 +7345,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E88" s="5">
         <v>1</v>
@@ -7349,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -7357,13 +7371,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -7375,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -7383,13 +7397,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E90" s="5">
         <v>1</v>
@@ -7401,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -7409,13 +7423,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E91" s="5">
         <v>0</v>
@@ -7427,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -7435,13 +7449,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E92" s="5">
         <v>1</v>
@@ -7453,33 +7467,33 @@
         <v>1</v>
       </c>
       <c r="I92" s="11" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="15">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="I93" s="11" t="s">
         <v>639</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="46" customFormat="1">
-      <c r="A93" s="43">
-        <v>92</v>
-      </c>
-      <c r="B93" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="C93" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="D93" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="E93" s="43">
-        <v>0</v>
-      </c>
-      <c r="F93" s="46">
-        <v>1</v>
-      </c>
-      <c r="G93" s="46">
-        <v>1</v>
-      </c>
-      <c r="I93" s="49" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -7487,13 +7501,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -7505,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -7513,13 +7527,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -7531,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -7539,13 +7553,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -7557,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -7565,13 +7579,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -7583,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -7591,13 +7605,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E98" s="5">
         <v>0</v>
@@ -7609,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -7617,13 +7631,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
@@ -7635,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -7643,13 +7657,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E100" s="5">
         <v>1</v>
@@ -7661,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -7669,13 +7683,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -7687,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -7695,13 +7709,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -7713,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -7721,13 +7735,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E103" s="5">
         <v>1</v>
@@ -7739,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -7747,13 +7761,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E104" s="5">
         <v>0</v>
@@ -7765,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -7773,13 +7787,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E105" s="5">
         <v>0</v>
@@ -7791,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -7799,13 +7813,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
@@ -7817,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -7825,13 +7839,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
@@ -7843,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -7851,13 +7865,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E108" s="5">
         <v>0</v>
@@ -7869,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -7877,13 +7891,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
@@ -7895,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -7903,13 +7917,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -7921,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -7929,13 +7943,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
@@ -7947,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -7955,13 +7969,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
@@ -7973,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -7981,13 +7995,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E113" s="5">
         <v>0</v>
@@ -7999,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -8007,13 +8021,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E114" s="5">
         <v>0</v>
@@ -8025,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -8033,13 +8047,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E115" s="5">
         <v>0</v>
@@ -8051,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -8059,13 +8073,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E116" s="5">
         <v>0</v>
@@ -8077,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -8085,13 +8099,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
@@ -8103,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -8111,13 +8125,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -8129,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="2" customFormat="1">
@@ -8137,13 +8151,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E119" s="6">
         <v>1</v>
@@ -8155,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="41" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -8163,13 +8177,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -8181,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -8189,13 +8203,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E121" s="5">
         <v>0</v>
@@ -8207,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -8215,13 +8229,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E122" s="5">
         <v>0</v>
@@ -8233,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -8241,13 +8255,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E123" s="5">
         <v>0</v>
@@ -8259,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -8267,13 +8281,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
@@ -8285,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -8293,13 +8307,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
@@ -8311,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -8319,13 +8333,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E126" s="5">
         <v>1</v>
@@ -8337,7 +8351,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -8345,13 +8359,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
@@ -8363,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -8371,13 +8385,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
@@ -8389,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -8397,13 +8411,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E129" s="5">
         <v>0</v>
@@ -8415,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -8423,13 +8437,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E130" s="5">
         <v>0</v>
@@ -8441,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -8449,13 +8463,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E131" s="5">
         <v>0</v>
@@ -8467,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -8475,13 +8489,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
@@ -8493,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -8501,13 +8515,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
@@ -8519,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -8527,13 +8541,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
@@ -8545,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -8553,13 +8567,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
@@ -8571,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -8579,13 +8593,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
@@ -8597,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -8605,13 +8619,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E137" s="5">
         <v>0</v>
@@ -8623,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -8631,13 +8645,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E138" s="5">
         <v>0</v>
@@ -8649,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -8657,13 +8671,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
@@ -8675,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -8683,13 +8697,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E140" s="5">
         <v>0</v>
@@ -8701,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -8709,13 +8723,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E141" s="5">
         <v>0</v>
@@ -8727,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -8735,13 +8749,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E142" s="5">
         <v>1</v>
@@ -8753,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -8761,13 +8775,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E143" s="5">
         <v>0</v>
@@ -8779,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -8787,13 +8801,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E144" s="5">
         <v>1</v>
@@ -8805,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -8813,13 +8827,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E145" s="5">
         <v>0</v>
@@ -8831,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -8839,13 +8853,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E146" s="5">
         <v>0</v>
@@ -8857,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -8865,13 +8879,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -8883,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -8891,13 +8905,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -8909,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -8917,13 +8931,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E149" s="5">
         <v>0</v>
@@ -8935,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -8943,13 +8957,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E150" s="5">
         <v>0</v>
@@ -8961,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -8969,13 +8983,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E151" s="5">
         <v>0</v>
@@ -8987,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -8995,13 +9009,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E152" s="5">
         <v>0</v>
@@ -9013,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -9021,13 +9035,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E153" s="5">
         <v>0</v>
@@ -9039,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -9047,13 +9061,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E154" s="5">
         <v>0</v>
@@ -9065,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -9073,13 +9087,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
@@ -9091,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -9099,13 +9113,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
@@ -9117,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -9125,13 +9139,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
@@ -9143,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -9151,13 +9165,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
@@ -9169,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -9177,13 +9191,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
@@ -9195,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -9203,13 +9217,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E160" s="5">
         <v>0</v>
@@ -9221,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -9229,13 +9243,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E161" s="5">
         <v>0</v>
@@ -9247,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -9255,13 +9269,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E162" s="5">
         <v>1</v>
@@ -9273,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -9281,13 +9295,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E163" s="5">
         <v>0</v>
@@ -9299,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -9307,13 +9321,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
@@ -9325,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -9333,13 +9347,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E165" s="5">
         <v>0</v>
@@ -9351,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -9359,13 +9373,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E166" s="5">
         <v>1</v>
@@ -9377,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -9385,13 +9399,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E167" s="5">
         <v>0</v>
@@ -9403,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -9411,13 +9425,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E168" s="5">
         <v>0</v>
@@ -9429,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -9437,10 +9451,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5">
@@ -9453,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -9461,10 +9475,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -9477,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -9485,10 +9499,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9501,7 +9515,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -9509,10 +9523,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9525,7 +9539,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -9533,13 +9547,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E173" s="5">
         <v>0</v>
@@ -9551,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -9559,10 +9573,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5">
@@ -9575,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -9583,10 +9597,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
@@ -9599,7 +9613,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -9607,10 +9621,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
@@ -9623,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -9631,13 +9645,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E177" s="5">
         <v>1</v>
@@ -9649,7 +9663,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -9657,13 +9671,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E178" s="5">
         <v>1</v>
@@ -9675,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -9683,10 +9697,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5">
@@ -9699,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="2" customFormat="1">
@@ -9707,10 +9721,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="6">
@@ -9723,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1">
@@ -9731,10 +9745,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="6">
@@ -9747,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1">
@@ -9755,10 +9769,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="6">
@@ -9771,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="I182" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -9779,10 +9793,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="38" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C183" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -9794,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -9802,10 +9816,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="38" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C184" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -9817,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -9825,10 +9839,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="38" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C185" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -9840,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -9848,10 +9862,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="38" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C186" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -9863,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -9871,10 +9885,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="38" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C187" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -9886,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -9894,10 +9908,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C188" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -9909,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -9917,10 +9931,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="38" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C189" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -9932,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -9940,10 +9954,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="38" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C190" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -9955,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -9963,10 +9977,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="38" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C191" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -9978,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -9986,10 +10000,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="38" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C192" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -10001,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -10009,10 +10023,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="38" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C193" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -10024,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -10032,10 +10046,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="38" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C194" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -10047,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -10055,10 +10069,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="38" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C195" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -10070,7 +10084,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -10078,10 +10092,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="38" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C196" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -10093,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -10101,10 +10115,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="38" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C197" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -10116,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -10124,10 +10138,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="38" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C198" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -10139,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -10147,10 +10161,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="38" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C199" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -10162,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -10170,10 +10184,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="38" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C200" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -10185,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -10193,10 +10207,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="38" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C201" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -10208,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -10216,10 +10230,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="38" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C202" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -10231,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -10239,10 +10253,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="38" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C203" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -10254,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -10262,13 +10276,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="38" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C204" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -10280,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -10288,13 +10302,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="38" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C205" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -10306,7 +10320,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -10314,13 +10328,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="38" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C206" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -10332,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -10340,10 +10354,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="38" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C207" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -10355,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -10363,10 +10377,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="38" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C208" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -10378,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -10386,10 +10400,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="38" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C209" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -10401,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -10409,10 +10423,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="38" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C210" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -10424,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -10432,10 +10446,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="38" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C211" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -10447,7 +10461,7 @@
         <v>1</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -10455,10 +10469,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="38" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C212" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -10470,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="I212" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -10478,10 +10492,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="38" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C213" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -10493,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -10501,10 +10515,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="38" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C214" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -10516,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -10524,10 +10538,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="38" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C215" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -10539,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -10547,10 +10561,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="38" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C216" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -10562,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -10570,10 +10584,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="38" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C217" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -10585,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -10593,10 +10607,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="38" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C218" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -10608,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -10616,10 +10630,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="38" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C219" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -10631,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -10639,10 +10653,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="38" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C220" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -10654,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -10662,10 +10676,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="38" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C221" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -10677,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -10685,10 +10699,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="38" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C222" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -10700,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -10708,10 +10722,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="38" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C223" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -10723,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -10731,10 +10745,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="38" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C224" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -10746,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -10754,10 +10768,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="38" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C225" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10769,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="I225" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -10777,13 +10791,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D226" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>611</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10800,13 +10814,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="38" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D227" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10823,13 +10837,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="38" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10846,13 +10860,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="38" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10869,13 +10883,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="38" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10892,13 +10906,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="D231" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>622</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10915,13 +10929,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="38" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C232" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="D232" s="8" t="s">
         <v>635</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>634</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -10938,13 +10952,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="38" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10961,13 +10975,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="38" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -10984,25 +10998,25 @@
         <v>234</v>
       </c>
       <c r="B235" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="I235" t="s">
         <v>658</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="E235">
-        <v>1</v>
-      </c>
-      <c r="F235">
-        <v>1</v>
-      </c>
-      <c r="G235">
-        <v>1</v>
-      </c>
-      <c r="I235" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -11010,14 +11024,14 @@
         <v>235</v>
       </c>
       <c r="B236" s="38" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C236" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="D236" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="D236" s="8" t="s">
-        <v>661</v>
-      </c>
       <c r="E236">
         <v>0</v>
       </c>
@@ -11028,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -11036,13 +11050,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="38" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -11054,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -11062,25 +11076,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="38" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C238" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>670</v>
-      </c>
-      <c r="D238" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -11088,14 +11102,14 @@
         <v>238</v>
       </c>
       <c r="B239" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="C239" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="C239" s="8" t="s">
+      <c r="D239" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="D239" s="8" t="s">
-        <v>672</v>
-      </c>
       <c r="E239">
         <v>1</v>
       </c>
@@ -11106,7 +11120,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -11114,13 +11128,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="38" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -11132,7 +11146,7 @@
         <v>1</v>
       </c>
       <c r="I240" s="8" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -11140,13 +11154,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="38" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -11158,7 +11172,7 @@
         <v>1</v>
       </c>
       <c r="I241" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -11166,13 +11180,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -11184,7 +11198,7 @@
         <v>1</v>
       </c>
       <c r="I242" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -11192,13 +11206,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="38" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -11210,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="I243" s="8" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -11218,13 +11232,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="38" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -11236,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -11244,13 +11258,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="38" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11262,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -11270,13 +11284,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="38" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11288,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -11296,13 +11310,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="38" t="s">
+        <v>710</v>
+      </c>
+      <c r="C247" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="C247" s="8" t="s">
-        <v>708</v>
-      </c>
       <c r="D247" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -11314,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="8" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -11322,13 +11336,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="C248" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="C248" s="8" t="s">
-        <v>712</v>
-      </c>
       <c r="D248" s="8" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -11340,7 +11354,7 @@
         <v>1</v>
       </c>
       <c r="I248" s="8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -11348,13 +11362,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -11366,7 +11380,7 @@
         <v>1</v>
       </c>
       <c r="I249" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -11374,14 +11388,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="38" t="s">
+        <v>722</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="D250" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="C250" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="D250" s="8" t="s">
-        <v>720</v>
-      </c>
       <c r="E250">
         <v>1</v>
       </c>
@@ -11392,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="I250" s="8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -11400,13 +11414,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -11418,7 +11432,7 @@
         <v>1</v>
       </c>
       <c r="I251" s="8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -11426,13 +11440,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C252" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -11444,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="I252" s="8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -11452,26 +11466,26 @@
         <v>252</v>
       </c>
       <c r="B253" s="39" t="s">
-        <v>951</v>
-      </c>
-      <c r="C253" s="25" t="s">
-        <v>731</v>
-      </c>
-      <c r="D253" s="24" t="s">
-        <v>952</v>
-      </c>
-      <c r="E253" s="25">
-        <v>1</v>
-      </c>
-      <c r="F253" s="25">
-        <v>1</v>
-      </c>
-      <c r="G253" s="25">
-        <v>1</v>
-      </c>
-      <c r="H253" s="25"/>
-      <c r="I253" s="24" t="s">
-        <v>728</v>
+        <v>947</v>
+      </c>
+      <c r="C253" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="D253" s="21" t="s">
+        <v>948</v>
+      </c>
+      <c r="E253" s="22">
+        <v>1</v>
+      </c>
+      <c r="F253" s="22">
+        <v>1</v>
+      </c>
+      <c r="G253" s="22">
+        <v>1</v>
+      </c>
+      <c r="H253" s="22"/>
+      <c r="I253" s="21" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -11479,13 +11493,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="38" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -11497,7 +11511,7 @@
         <v>1</v>
       </c>
       <c r="I254" s="8" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -11505,13 +11519,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -11523,49 +11537,48 @@
         <v>1</v>
       </c>
       <c r="I255" s="8" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" s="22" customFormat="1">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" s="16" customFormat="1">
       <c r="A256" s="15">
         <v>255</v>
       </c>
-      <c r="B256" s="48" t="s">
-        <v>742</v>
-      </c>
-      <c r="C256" s="45" t="s">
-        <v>914</v>
-      </c>
-      <c r="D256" s="45" t="s">
-        <v>743</v>
-      </c>
-      <c r="E256" s="46">
-        <v>0</v>
-      </c>
-      <c r="F256" s="46">
-        <v>0</v>
-      </c>
-      <c r="G256" s="46">
-        <v>0</v>
-      </c>
-      <c r="H256" s="46"/>
-      <c r="I256" s="45" t="s">
-        <v>1031</v>
+      <c r="B256" s="23" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C256" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D256" s="14" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E256" s="16">
+        <v>0</v>
+      </c>
+      <c r="F256" s="16">
+        <v>0</v>
+      </c>
+      <c r="G256" s="16">
+        <v>0</v>
+      </c>
+      <c r="I256" s="14" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
       <c r="A257" s="15">
         <v>256</v>
       </c>
-      <c r="B257" s="26" t="s">
-        <v>747</v>
+      <c r="B257" s="23" t="s">
+        <v>746</v>
       </c>
       <c r="C257" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="D257" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="D257" s="14" t="s">
-        <v>746</v>
-      </c>
       <c r="E257" s="16">
         <v>0</v>
       </c>
@@ -11576,22 +11589,22 @@
         <v>1</v>
       </c>
       <c r="I257" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="16" customFormat="1">
       <c r="A258" s="15">
         <v>257</v>
       </c>
-      <c r="B258" s="26" t="s">
+      <c r="B258" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="C258" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="C258" s="14" t="s">
+      <c r="D258" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="D258" s="14" t="s">
-        <v>750</v>
-      </c>
       <c r="E258" s="16">
         <v>0</v>
       </c>
@@ -11602,59 +11615,59 @@
         <v>1</v>
       </c>
       <c r="I258" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="16" customFormat="1">
       <c r="A259" s="15">
         <v>258</v>
       </c>
-      <c r="B259" s="26" t="s">
+      <c r="B259" s="23" t="s">
+        <v>750</v>
+      </c>
+      <c r="C259" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="C259" s="14" t="s">
+      <c r="D259" s="14" t="s">
         <v>752</v>
       </c>
-      <c r="D259" s="14" t="s">
+      <c r="E259" s="16">
+        <v>1</v>
+      </c>
+      <c r="F259" s="16">
+        <v>1</v>
+      </c>
+      <c r="G259" s="16">
+        <v>1</v>
+      </c>
+      <c r="I259" s="14" t="s">
         <v>753</v>
-      </c>
-      <c r="E259" s="16">
-        <v>1</v>
-      </c>
-      <c r="F259" s="16">
-        <v>1</v>
-      </c>
-      <c r="G259" s="16">
-        <v>1</v>
-      </c>
-      <c r="I259" s="14" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="16" customFormat="1">
       <c r="A260" s="15">
         <v>259</v>
       </c>
-      <c r="B260" s="26" t="s">
+      <c r="B260" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="C260" s="14" t="s">
         <v>755</v>
       </c>
-      <c r="C260" s="14" t="s">
+      <c r="D260" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="D260" s="14" t="s">
+      <c r="E260" s="16">
+        <v>0</v>
+      </c>
+      <c r="F260" s="16">
+        <v>1</v>
+      </c>
+      <c r="G260" s="16">
+        <v>1</v>
+      </c>
+      <c r="I260" s="14" t="s">
         <v>757</v>
-      </c>
-      <c r="E260" s="16">
-        <v>0</v>
-      </c>
-      <c r="F260" s="16">
-        <v>1</v>
-      </c>
-      <c r="G260" s="16">
-        <v>1</v>
-      </c>
-      <c r="I260" s="14" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -11662,40 +11675,40 @@
         <v>260</v>
       </c>
       <c r="B261" s="38" t="s">
+        <v>758</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="D261" t="s">
         <v>759</v>
       </c>
-      <c r="C261" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="D261" t="s">
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="11" t="s">
         <v>760</v>
-      </c>
-      <c r="E261" s="5">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="11" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="15">
         <v>261</v>
       </c>
-      <c r="B262" s="26" t="s">
+      <c r="B262" s="23" t="s">
+        <v>762</v>
+      </c>
+      <c r="C262" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="C262" s="8" t="s">
+      <c r="D262" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="D262" s="14" t="s">
-        <v>765</v>
-      </c>
       <c r="E262">
         <v>1</v>
       </c>
@@ -11706,48 +11719,48 @@
         <v>1</v>
       </c>
       <c r="I262" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="263" spans="1:9" s="16" customFormat="1">
       <c r="A263" s="15">
         <v>262</v>
       </c>
-      <c r="B263" s="26" t="s">
+      <c r="B263" s="23" t="s">
+        <v>765</v>
+      </c>
+      <c r="C263" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="C263" s="14" t="s">
+      <c r="D263" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="D263" s="14" t="s">
+      <c r="E263" s="16">
+        <v>0</v>
+      </c>
+      <c r="F263" s="16">
+        <v>0</v>
+      </c>
+      <c r="G263" s="16">
+        <v>0</v>
+      </c>
+      <c r="I263" s="14" t="s">
         <v>768</v>
-      </c>
-      <c r="E263" s="16">
-        <v>0</v>
-      </c>
-      <c r="F263" s="16">
-        <v>0</v>
-      </c>
-      <c r="G263" s="16">
-        <v>0</v>
-      </c>
-      <c r="I263" s="14" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="16" customFormat="1">
       <c r="A264" s="15">
         <v>263</v>
       </c>
-      <c r="B264" s="26" t="s">
+      <c r="B264" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="C264" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="C264" s="14" t="s">
+      <c r="D264" s="14" t="s">
         <v>771</v>
       </c>
-      <c r="D264" s="14" t="s">
-        <v>772</v>
-      </c>
       <c r="E264" s="16">
         <v>0</v>
       </c>
@@ -11758,74 +11771,74 @@
         <v>0</v>
       </c>
       <c r="I264" s="14" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="16" customFormat="1">
       <c r="A265" s="15">
         <v>264</v>
       </c>
-      <c r="B265" s="26" t="s">
+      <c r="B265" s="23" t="s">
+        <v>772</v>
+      </c>
+      <c r="C265" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="C265" s="14" t="s">
+      <c r="D265" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="D265" s="14" t="s">
+      <c r="E265" s="16">
+        <v>0</v>
+      </c>
+      <c r="F265" s="16">
+        <v>0</v>
+      </c>
+      <c r="G265" s="16">
+        <v>0</v>
+      </c>
+      <c r="I265" s="16" t="s">
         <v>775</v>
-      </c>
-      <c r="E265" s="16">
-        <v>0</v>
-      </c>
-      <c r="F265" s="16">
-        <v>0</v>
-      </c>
-      <c r="G265" s="16">
-        <v>0</v>
-      </c>
-      <c r="I265" s="16" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="16" customFormat="1">
       <c r="A266" s="15">
         <v>265</v>
       </c>
-      <c r="B266" s="26" t="s">
+      <c r="B266" s="23" t="s">
+        <v>776</v>
+      </c>
+      <c r="C266" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="D266" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="C266" s="14" t="s">
+      <c r="E266" s="16">
+        <v>0</v>
+      </c>
+      <c r="F266" s="16">
+        <v>0</v>
+      </c>
+      <c r="G266" s="16">
+        <v>0</v>
+      </c>
+      <c r="I266" s="18" t="s">
         <v>779</v>
-      </c>
-      <c r="D266" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="E266" s="16">
-        <v>0</v>
-      </c>
-      <c r="F266" s="16">
-        <v>0</v>
-      </c>
-      <c r="G266" s="16">
-        <v>0</v>
-      </c>
-      <c r="I266" s="18" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="16" customFormat="1">
       <c r="A267" s="15">
         <v>266</v>
       </c>
-      <c r="B267" s="26" t="s">
+      <c r="B267" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="C267" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="D267" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="C267" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="D267" s="17" t="s">
-        <v>782</v>
-      </c>
       <c r="E267" s="16">
         <v>0</v>
       </c>
@@ -11836,22 +11849,22 @@
         <v>0</v>
       </c>
       <c r="I267" s="18" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="16" customFormat="1">
       <c r="A268" s="15">
         <v>267</v>
       </c>
-      <c r="B268" s="26" t="s">
-        <v>787</v>
+      <c r="B268" s="23" t="s">
+        <v>786</v>
       </c>
       <c r="C268" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="D268" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="D268" s="17" t="s">
-        <v>786</v>
-      </c>
       <c r="E268" s="16">
         <v>1</v>
       </c>
@@ -11862,21 +11875,21 @@
         <v>1</v>
       </c>
       <c r="I268" s="18" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" s="15">
         <v>268</v>
       </c>
-      <c r="B269" s="26" t="s">
+      <c r="B269" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="C269" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="C269" s="14" t="s">
-        <v>789</v>
-      </c>
       <c r="D269" s="17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E269" s="16">
         <v>0</v>
@@ -11889,21 +11902,21 @@
       </c>
       <c r="H269" s="16"/>
       <c r="I269" s="18" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="15">
         <v>269</v>
       </c>
-      <c r="B270" s="26" t="s">
+      <c r="B270" s="23" t="s">
+        <v>789</v>
+      </c>
+      <c r="C270" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="C270" s="14" t="s">
+      <c r="D270" s="17" t="s">
         <v>791</v>
-      </c>
-      <c r="D270" s="17" t="s">
-        <v>792</v>
       </c>
       <c r="E270" s="16">
         <v>0</v>
@@ -11916,21 +11929,21 @@
       </c>
       <c r="H270" s="16"/>
       <c r="I270" s="18" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="15">
         <v>270</v>
       </c>
-      <c r="B271" s="26" t="s">
+      <c r="B271" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="C271" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="D271" s="17" t="s">
         <v>794</v>
-      </c>
-      <c r="C271" s="14" t="s">
-        <v>796</v>
-      </c>
-      <c r="D271" s="17" t="s">
-        <v>795</v>
       </c>
       <c r="E271" s="16">
         <v>1</v>
@@ -11943,21 +11956,21 @@
       </c>
       <c r="H271" s="16"/>
       <c r="I271" s="18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="15">
         <v>271</v>
       </c>
-      <c r="B272" s="26" t="s">
+      <c r="B272" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="C272" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="C272" s="14" t="s">
+      <c r="D272" s="17" t="s">
         <v>799</v>
-      </c>
-      <c r="D272" s="17" t="s">
-        <v>800</v>
       </c>
       <c r="E272" s="16">
         <v>1</v>
@@ -11970,21 +11983,21 @@
       </c>
       <c r="H272" s="16"/>
       <c r="I272" s="18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" s="15">
         <v>272</v>
       </c>
-      <c r="B273" s="26" t="s">
+      <c r="B273" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="D273" s="17" t="s">
         <v>802</v>
-      </c>
-      <c r="C273" s="14" t="s">
-        <v>804</v>
-      </c>
-      <c r="D273" s="17" t="s">
-        <v>803</v>
       </c>
       <c r="E273" s="16">
         <v>0</v>
@@ -11997,21 +12010,21 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="15">
         <v>273</v>
       </c>
-      <c r="B274" s="26" t="s">
-        <v>837</v>
+      <c r="B274" s="23" t="s">
+        <v>835</v>
       </c>
       <c r="C274" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="D274" s="17" t="s">
         <v>805</v>
-      </c>
-      <c r="D274" s="17" t="s">
-        <v>806</v>
       </c>
       <c r="E274" s="16">
         <v>0</v>
@@ -12024,46 +12037,45 @@
       </c>
       <c r="H274" s="16"/>
       <c r="I274" s="18" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="46" customFormat="1">
+      <c r="A275" s="43">
+        <v>274</v>
+      </c>
+      <c r="B275" s="47" t="s">
+        <v>808</v>
+      </c>
+      <c r="C275" s="45" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" s="20" customFormat="1" ht="17.25">
-      <c r="A275" s="15">
-        <v>274</v>
-      </c>
-      <c r="B275" s="26" t="s">
+      <c r="D275" s="44" t="s">
         <v>809</v>
       </c>
-      <c r="C275" s="14" t="s">
-        <v>808</v>
-      </c>
-      <c r="D275" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="E275" s="16">
-        <v>0</v>
-      </c>
-      <c r="F275" s="16">
-        <v>1</v>
-      </c>
-      <c r="G275" s="16">
-        <v>1</v>
-      </c>
-      <c r="H275" s="16"/>
-      <c r="I275" s="23" t="s">
-        <v>908</v>
+      <c r="E275" s="46">
+        <v>1</v>
+      </c>
+      <c r="F275" s="46">
+        <v>1</v>
+      </c>
+      <c r="G275" s="46">
+        <v>1</v>
+      </c>
+      <c r="I275" s="45" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="46" customFormat="1">
       <c r="A276" s="43">
         <v>275</v>
       </c>
-      <c r="B276" s="48" t="s">
+      <c r="B276" s="47" t="s">
+        <v>810</v>
+      </c>
+      <c r="C276" s="45" t="s">
         <v>811</v>
       </c>
-      <c r="C276" s="45" t="s">
-        <v>812</v>
-      </c>
       <c r="E276" s="46">
         <v>1</v>
       </c>
@@ -12073,22 +12085,22 @@
       <c r="G276" s="46">
         <v>1</v>
       </c>
-      <c r="I276" s="47" t="s">
-        <v>813</v>
+      <c r="I276" s="45" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="15">
         <v>276</v>
       </c>
-      <c r="B277" s="26" t="s">
-        <v>814</v>
+      <c r="B277" s="23" t="s">
+        <v>812</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>919</v>
-      </c>
-      <c r="D277" s="26" t="s">
-        <v>815</v>
+        <v>915</v>
+      </c>
+      <c r="D277" s="23" t="s">
+        <v>813</v>
       </c>
       <c r="E277" s="14">
         <v>0</v>
@@ -12101,21 +12113,21 @@
       </c>
       <c r="H277" s="14"/>
       <c r="I277" s="14" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="15">
         <v>277</v>
       </c>
-      <c r="B278" s="26" t="s">
-        <v>824</v>
+      <c r="B278" s="23" t="s">
+        <v>822</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12127,44 +12139,44 @@
         <v>1</v>
       </c>
       <c r="I278" s="18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="15">
         <v>278</v>
       </c>
-      <c r="B279" s="26" t="s">
-        <v>819</v>
+      <c r="B279" s="23" t="s">
+        <v>817</v>
       </c>
       <c r="C279" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="18" t="s">
         <v>818</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="18" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="15">
         <v>279</v>
       </c>
-      <c r="B280" s="26" t="s">
-        <v>823</v>
+      <c r="B280" s="23" t="s">
+        <v>821</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12176,21 +12188,21 @@
         <v>0</v>
       </c>
       <c r="I280" s="18" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" s="15">
         <v>280</v>
       </c>
-      <c r="B281" s="26" t="s">
+      <c r="B281" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="C281" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="C281" s="14" t="s">
-        <v>827</v>
-      </c>
       <c r="D281" s="17" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12202,21 +12214,21 @@
         <v>1</v>
       </c>
       <c r="I281" s="18" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" s="15">
         <v>281</v>
       </c>
-      <c r="B282" s="26" t="s">
-        <v>835</v>
+      <c r="B282" s="23" t="s">
+        <v>833</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12228,152 +12240,152 @@
         <v>0</v>
       </c>
       <c r="I282" s="18" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" s="29" customFormat="1" ht="17.25" customHeight="1">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" s="26" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="15">
         <v>282</v>
       </c>
-      <c r="B283" s="28" t="s">
+      <c r="B283" s="25" t="s">
+        <v>829</v>
+      </c>
+      <c r="C283" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D283" s="25" t="s">
         <v>831</v>
       </c>
-      <c r="C283" s="27" t="s">
+      <c r="E283" s="26">
+        <v>1</v>
+      </c>
+      <c r="F283" s="26">
+        <v>1</v>
+      </c>
+      <c r="G283" s="26">
+        <v>1</v>
+      </c>
+      <c r="I283" s="27" t="s">
         <v>832</v>
       </c>
-      <c r="D283" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="E283" s="29">
-        <v>1</v>
-      </c>
-      <c r="F283" s="29">
-        <v>1</v>
-      </c>
-      <c r="G283" s="29">
-        <v>1</v>
-      </c>
-      <c r="I283" s="30" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" s="29" customFormat="1">
+    </row>
+    <row r="284" spans="1:9" s="26" customFormat="1">
       <c r="A284" s="15">
         <v>283</v>
       </c>
-      <c r="B284" s="28" t="s">
-        <v>839</v>
-      </c>
-      <c r="C284" s="27" t="s">
-        <v>840</v>
-      </c>
-      <c r="D284" s="28" t="s">
+      <c r="B284" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="C284" s="24" t="s">
         <v>838</v>
       </c>
-      <c r="E284" s="29">
-        <v>1</v>
-      </c>
-      <c r="F284" s="29">
-        <v>1</v>
-      </c>
-      <c r="G284" s="29">
-        <v>1</v>
-      </c>
-      <c r="I284" s="30" t="s">
-        <v>637</v>
+      <c r="D284" s="25" t="s">
+        <v>836</v>
+      </c>
+      <c r="E284" s="26">
+        <v>1</v>
+      </c>
+      <c r="F284" s="26">
+        <v>1</v>
+      </c>
+      <c r="G284" s="26">
+        <v>1</v>
+      </c>
+      <c r="I284" s="27" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="15">
         <v>284</v>
       </c>
-      <c r="B285" s="26" t="s">
+      <c r="B285" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="C285" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="D285" s="17" t="s">
         <v>842</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="D285" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285">
-        <v>0</v>
-      </c>
-      <c r="I285" s="18" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" s="29" customFormat="1">
+    </row>
+    <row r="286" spans="1:9" s="26" customFormat="1">
       <c r="A286" s="15">
         <v>285</v>
       </c>
       <c r="B286" s="40" t="s">
-        <v>847</v>
-      </c>
-      <c r="C286" s="27" t="s">
-        <v>848</v>
-      </c>
-      <c r="D286" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="C286" s="24" t="s">
         <v>846</v>
       </c>
-      <c r="E286" s="29">
-        <v>1</v>
-      </c>
-      <c r="F286" s="29">
-        <v>1</v>
-      </c>
-      <c r="G286" s="29">
-        <v>1</v>
-      </c>
-      <c r="I286" s="30" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="29" customFormat="1">
+      <c r="D286" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="E286" s="26">
+        <v>1</v>
+      </c>
+      <c r="F286" s="26">
+        <v>1</v>
+      </c>
+      <c r="G286" s="26">
+        <v>1</v>
+      </c>
+      <c r="I286" s="27" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="26" customFormat="1">
       <c r="A287" s="15">
         <v>286</v>
       </c>
       <c r="B287" s="40" t="s">
+        <v>847</v>
+      </c>
+      <c r="C287" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="D287" s="25" t="s">
         <v>849</v>
       </c>
-      <c r="C287" s="27" t="s">
+      <c r="E287" s="26">
+        <v>1</v>
+      </c>
+      <c r="F287" s="26">
+        <v>1</v>
+      </c>
+      <c r="G287" s="26">
+        <v>1</v>
+      </c>
+      <c r="I287" s="27" t="s">
         <v>850</v>
-      </c>
-      <c r="D287" s="28" t="s">
-        <v>851</v>
-      </c>
-      <c r="E287" s="29">
-        <v>1</v>
-      </c>
-      <c r="F287" s="29">
-        <v>1</v>
-      </c>
-      <c r="G287" s="29">
-        <v>1</v>
-      </c>
-      <c r="I287" s="30" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="16" customFormat="1">
       <c r="A288" s="15">
         <v>287</v>
       </c>
-      <c r="B288" s="26" t="s">
+      <c r="B288" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="C288" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="D288" s="14" t="s">
         <v>853</v>
       </c>
-      <c r="C288" s="14" t="s">
-        <v>854</v>
-      </c>
-      <c r="D288" s="14" t="s">
-        <v>855</v>
-      </c>
       <c r="E288" s="16">
         <v>0</v>
       </c>
@@ -12384,189 +12396,189 @@
         <v>0</v>
       </c>
       <c r="I288" s="14" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="29" customFormat="1">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="26" customFormat="1">
       <c r="A289" s="15">
         <v>288</v>
       </c>
       <c r="B289" s="40" t="s">
+        <v>854</v>
+      </c>
+      <c r="C289" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="D289" s="25" t="s">
         <v>856</v>
       </c>
-      <c r="C289" s="27" t="s">
+      <c r="E289" s="26">
+        <v>1</v>
+      </c>
+      <c r="F289" s="26">
+        <v>1</v>
+      </c>
+      <c r="G289" s="26">
+        <v>1</v>
+      </c>
+      <c r="I289" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="D289" s="28" t="s">
-        <v>858</v>
-      </c>
-      <c r="E289" s="29">
-        <v>1</v>
-      </c>
-      <c r="F289" s="29">
-        <v>1</v>
-      </c>
-      <c r="G289" s="29">
-        <v>1</v>
-      </c>
-      <c r="I289" s="30" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" s="29" customFormat="1">
+    </row>
+    <row r="290" spans="1:9" s="26" customFormat="1">
       <c r="A290" s="15">
         <v>289</v>
       </c>
-      <c r="B290" s="28" t="s">
+      <c r="B290" s="25" t="s">
+        <v>858</v>
+      </c>
+      <c r="C290" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="D290" s="25" t="s">
         <v>860</v>
       </c>
-      <c r="C290" s="27" t="s">
+      <c r="E290" s="26">
+        <v>1</v>
+      </c>
+      <c r="F290" s="26">
+        <v>1</v>
+      </c>
+      <c r="G290" s="26">
+        <v>1</v>
+      </c>
+      <c r="I290" s="27" t="s">
         <v>861</v>
       </c>
-      <c r="D290" s="28" t="s">
-        <v>862</v>
-      </c>
-      <c r="E290" s="29">
-        <v>1</v>
-      </c>
-      <c r="F290" s="29">
-        <v>1</v>
-      </c>
-      <c r="G290" s="29">
-        <v>1</v>
-      </c>
-      <c r="I290" s="30" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" s="29" customFormat="1">
+    </row>
+    <row r="291" spans="1:9" s="26" customFormat="1">
       <c r="A291" s="15">
         <v>290</v>
       </c>
-      <c r="B291" s="28" t="s">
+      <c r="B291" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="C291" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="D291" s="25" t="s">
         <v>864</v>
       </c>
-      <c r="C291" s="27" t="s">
-        <v>865</v>
-      </c>
-      <c r="D291" s="28" t="s">
-        <v>866</v>
-      </c>
-      <c r="E291" s="29">
-        <v>1</v>
-      </c>
-      <c r="F291" s="29">
-        <v>1</v>
-      </c>
-      <c r="G291" s="29">
-        <v>1</v>
-      </c>
-      <c r="I291" s="30" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" s="29" customFormat="1">
+      <c r="E291" s="26">
+        <v>1</v>
+      </c>
+      <c r="F291" s="26">
+        <v>1</v>
+      </c>
+      <c r="G291" s="26">
+        <v>1</v>
+      </c>
+      <c r="I291" s="27" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" s="26" customFormat="1">
       <c r="A292" s="15">
         <v>291</v>
       </c>
-      <c r="B292" s="28" t="s">
+      <c r="B292" s="25" t="s">
+        <v>865</v>
+      </c>
+      <c r="C292" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="D292" s="25" t="s">
         <v>867</v>
       </c>
-      <c r="C292" s="27" t="s">
-        <v>872</v>
-      </c>
-      <c r="D292" s="28" t="s">
-        <v>869</v>
-      </c>
-      <c r="E292" s="29">
-        <v>1</v>
-      </c>
-      <c r="F292" s="29">
-        <v>1</v>
-      </c>
-      <c r="G292" s="29">
-        <v>1</v>
-      </c>
-      <c r="I292" s="30" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" s="29" customFormat="1">
+      <c r="E292" s="26">
+        <v>1</v>
+      </c>
+      <c r="F292" s="26">
+        <v>1</v>
+      </c>
+      <c r="G292" s="26">
+        <v>1</v>
+      </c>
+      <c r="I292" s="27" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" s="26" customFormat="1">
       <c r="A293" s="15">
         <v>292</v>
       </c>
-      <c r="B293" s="28" t="s">
+      <c r="B293" s="25" t="s">
+        <v>866</v>
+      </c>
+      <c r="C293" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="D293" s="25" t="s">
         <v>868</v>
       </c>
-      <c r="C293" s="27" t="s">
-        <v>873</v>
-      </c>
-      <c r="D293" s="28" t="s">
-        <v>870</v>
-      </c>
-      <c r="E293" s="29">
-        <v>1</v>
-      </c>
-      <c r="F293" s="29">
-        <v>1</v>
-      </c>
-      <c r="G293" s="29">
-        <v>1</v>
-      </c>
-      <c r="I293" s="30" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" s="29" customFormat="1">
+      <c r="E293" s="26">
+        <v>1</v>
+      </c>
+      <c r="F293" s="26">
+        <v>1</v>
+      </c>
+      <c r="G293" s="26">
+        <v>1</v>
+      </c>
+      <c r="I293" s="27" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" s="26" customFormat="1">
       <c r="A294" s="15">
         <v>293</v>
       </c>
-      <c r="B294" s="28" t="s">
+      <c r="B294" s="25" t="s">
+        <v>872</v>
+      </c>
+      <c r="C294" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="D294" s="25" t="s">
         <v>874</v>
       </c>
-      <c r="C294" s="27" t="s">
-        <v>875</v>
-      </c>
-      <c r="D294" s="28" t="s">
-        <v>876</v>
-      </c>
-      <c r="E294" s="29">
-        <v>1</v>
-      </c>
-      <c r="F294" s="29">
-        <v>1</v>
-      </c>
-      <c r="G294" s="29">
-        <v>1</v>
-      </c>
-      <c r="I294" s="30" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" s="29" customFormat="1">
+      <c r="E294" s="26">
+        <v>1</v>
+      </c>
+      <c r="F294" s="26">
+        <v>1</v>
+      </c>
+      <c r="G294" s="26">
+        <v>1</v>
+      </c>
+      <c r="I294" s="27" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" s="26" customFormat="1">
       <c r="A295" s="15">
         <v>294</v>
       </c>
-      <c r="B295" s="28" t="s">
+      <c r="B295" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="C295" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>877</v>
       </c>
-      <c r="C295" s="27" t="s">
-        <v>878</v>
-      </c>
-      <c r="D295" s="28" t="s">
-        <v>879</v>
-      </c>
-      <c r="E295" s="29">
-        <v>1</v>
-      </c>
-      <c r="F295" s="29">
-        <v>1</v>
-      </c>
-      <c r="G295" s="29">
-        <v>1</v>
-      </c>
-      <c r="I295" s="30" t="s">
-        <v>637</v>
+      <c r="E295" s="26">
+        <v>1</v>
+      </c>
+      <c r="F295" s="26">
+        <v>1</v>
+      </c>
+      <c r="G295" s="26">
+        <v>1</v>
+      </c>
+      <c r="I295" s="27" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -12574,14 +12586,14 @@
         <v>295</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C296" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="D296" s="19" t="s">
         <v>881</v>
       </c>
-      <c r="D296" s="19" t="s">
-        <v>883</v>
-      </c>
       <c r="E296">
         <v>0</v>
       </c>
@@ -12592,7 +12604,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="14" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -12600,14 +12612,14 @@
         <v>296</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C297" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="D297" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D297" s="19" t="s">
-        <v>884</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -12618,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="14" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -12626,14 +12638,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="C298" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="D298" s="19" t="s">
         <v>886</v>
       </c>
-      <c r="C298" s="14" t="s">
-        <v>887</v>
-      </c>
-      <c r="D298" s="19" t="s">
-        <v>888</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12644,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="14" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="16" customFormat="1">
@@ -12652,25 +12664,25 @@
         <v>298</v>
       </c>
       <c r="B299" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="C299" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="D299" s="17" t="s">
         <v>889</v>
       </c>
-      <c r="C299" s="14" t="s">
+      <c r="E299" s="16">
+        <v>1</v>
+      </c>
+      <c r="F299" s="16">
+        <v>1</v>
+      </c>
+      <c r="G299" s="16">
+        <v>1</v>
+      </c>
+      <c r="I299" s="18" t="s">
         <v>890</v>
-      </c>
-      <c r="D299" s="17" t="s">
-        <v>891</v>
-      </c>
-      <c r="E299" s="16">
-        <v>1</v>
-      </c>
-      <c r="F299" s="16">
-        <v>1</v>
-      </c>
-      <c r="G299" s="16">
-        <v>1</v>
-      </c>
-      <c r="I299" s="18" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="16" customFormat="1">
@@ -12678,25 +12690,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="C300" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="D300" s="17" t="s">
         <v>895</v>
       </c>
-      <c r="C300" s="14" t="s">
+      <c r="E300" s="16">
+        <v>0</v>
+      </c>
+      <c r="F300" s="16">
+        <v>0</v>
+      </c>
+      <c r="G300" s="16">
+        <v>0</v>
+      </c>
+      <c r="I300" s="18" t="s">
         <v>896</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="E300" s="16">
-        <v>0</v>
-      </c>
-      <c r="F300" s="16">
-        <v>0</v>
-      </c>
-      <c r="G300" s="16">
-        <v>0</v>
-      </c>
-      <c r="I300" s="18" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="16" customFormat="1">
@@ -12704,13 +12716,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E301" s="16">
         <v>0</v>
@@ -12722,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="16" customFormat="1">
@@ -12730,14 +12742,14 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C302" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="D302" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="D302" s="17" t="s">
-        <v>904</v>
-      </c>
       <c r="E302" s="16">
         <v>0</v>
       </c>
@@ -12748,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="16" customFormat="1">
@@ -12756,25 +12768,25 @@
         <v>302</v>
       </c>
       <c r="B303" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="C303" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="D303" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="E303" s="16">
+        <v>1</v>
+      </c>
+      <c r="F303" s="16">
+        <v>1</v>
+      </c>
+      <c r="G303" s="16">
+        <v>1</v>
+      </c>
+      <c r="I303" s="18" t="s">
         <v>905</v>
-      </c>
-      <c r="C303" s="14" t="s">
-        <v>909</v>
-      </c>
-      <c r="D303" s="17" t="s">
-        <v>906</v>
-      </c>
-      <c r="E303" s="16">
-        <v>1</v>
-      </c>
-      <c r="F303" s="16">
-        <v>1</v>
-      </c>
-      <c r="G303" s="16">
-        <v>1</v>
-      </c>
-      <c r="I303" s="18" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="16" customFormat="1">
@@ -12782,13 +12794,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="E304" s="16">
         <v>1</v>
@@ -12800,7 +12812,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="14" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="16" customFormat="1">
@@ -12808,13 +12820,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E305" s="16">
         <v>1</v>
@@ -12826,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="14" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="16" customFormat="1">
@@ -12834,13 +12846,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="E306" s="16">
         <v>1</v>
@@ -12852,33 +12864,33 @@
         <v>1</v>
       </c>
       <c r="I306" s="18" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="307" spans="1:9" s="16" customFormat="1">
       <c r="A307" s="15">
         <v>306</v>
       </c>
-      <c r="B307" s="26" t="s">
-        <v>912</v>
+      <c r="B307" s="23" t="s">
+        <v>909</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D307" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="E307" s="16">
+        <v>1</v>
+      </c>
+      <c r="F307" s="16">
+        <v>1</v>
+      </c>
+      <c r="G307" s="16">
+        <v>1</v>
+      </c>
+      <c r="I307" s="18" t="s">
         <v>910</v>
-      </c>
-      <c r="E307" s="16">
-        <v>1</v>
-      </c>
-      <c r="F307" s="16">
-        <v>1</v>
-      </c>
-      <c r="G307" s="16">
-        <v>1</v>
-      </c>
-      <c r="I307" s="18" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="16" customFormat="1">
@@ -12886,13 +12898,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="E308" s="16">
         <v>1</v>
@@ -12904,7 +12916,7 @@
         <v>1</v>
       </c>
       <c r="I308" s="14" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="16" customFormat="1">
@@ -12912,13 +12924,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="E309" s="16">
         <v>1</v>
@@ -12930,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="I309" s="14" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="16" customFormat="1">
@@ -12938,13 +12950,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="17" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E310" s="16">
         <v>1</v>
@@ -12956,7 +12968,7 @@
         <v>1</v>
       </c>
       <c r="I310" s="14" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="46" customFormat="1">
@@ -12964,25 +12976,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="44" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C311" s="45" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D311" s="44" t="s">
+        <v>924</v>
+      </c>
+      <c r="E311" s="46">
+        <v>1</v>
+      </c>
+      <c r="F311" s="46">
+        <v>1</v>
+      </c>
+      <c r="G311" s="46">
+        <v>1</v>
+      </c>
+      <c r="I311" s="45" t="s">
         <v>928</v>
-      </c>
-      <c r="E311" s="46">
-        <v>1</v>
-      </c>
-      <c r="F311" s="46">
-        <v>1</v>
-      </c>
-      <c r="G311" s="46">
-        <v>1</v>
-      </c>
-      <c r="I311" s="45" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="16" customFormat="1">
@@ -12990,13 +13002,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E312" s="16">
         <v>0</v>
@@ -13013,25 +13025,25 @@
         <v>312</v>
       </c>
       <c r="B313" s="36" t="s">
+        <v>933</v>
+      </c>
+      <c r="C313" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="D313" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="E313" s="16">
+        <v>0</v>
+      </c>
+      <c r="F313" s="16">
+        <v>1</v>
+      </c>
+      <c r="G313" s="16">
+        <v>1</v>
+      </c>
+      <c r="I313" s="14" t="s">
         <v>937</v>
-      </c>
-      <c r="C313" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="D313" s="17" t="s">
-        <v>942</v>
-      </c>
-      <c r="E313" s="16">
-        <v>0</v>
-      </c>
-      <c r="F313" s="16">
-        <v>1</v>
-      </c>
-      <c r="G313" s="16">
-        <v>1</v>
-      </c>
-      <c r="I313" s="14" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13039,13 +13051,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="36" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D314" s="35" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="E314" s="16">
         <v>1</v>
@@ -13057,7 +13069,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="18" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="16" customFormat="1">
@@ -13065,13 +13077,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E315" s="16">
         <v>0</v>
@@ -13083,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13091,13 +13103,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D316" s="35" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="E316" s="16">
         <v>0</v>
@@ -13109,7 +13121,7 @@
         <v>1</v>
       </c>
       <c r="I316" s="14" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="16" customFormat="1">
@@ -13117,10 +13129,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="17" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E317" s="16">
         <v>0</v>
@@ -13132,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="14" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="16" customFormat="1">
@@ -13140,10 +13152,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="17" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="E318" s="16">
         <v>0</v>
@@ -13155,7 +13167,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="14" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="16" customFormat="1">
@@ -13163,10 +13175,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="17" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="E319" s="16">
         <v>0</v>
@@ -13178,7 +13190,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="14" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="16" customFormat="1">
@@ -13186,10 +13198,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="E320" s="16">
         <v>0</v>
@@ -13201,7 +13213,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="14" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="16" customFormat="1">
@@ -13209,10 +13221,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="17" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="E321" s="16">
         <v>0</v>
@@ -13224,7 +13236,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="14" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="16" customFormat="1">
@@ -13232,10 +13244,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="17" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="E322" s="16">
         <v>0</v>
@@ -13247,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="14" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
@@ -13255,10 +13267,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="42" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E323" s="16">
         <v>1</v>
@@ -13270,33 +13282,33 @@
         <v>1</v>
       </c>
       <c r="I323" s="18" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" s="16" customFormat="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" s="46" customFormat="1">
       <c r="A324" s="15">
         <v>323</v>
       </c>
-      <c r="B324" s="17" t="s">
-        <v>960</v>
-      </c>
-      <c r="C324" s="14" t="s">
-        <v>961</v>
-      </c>
-      <c r="D324" s="17" t="s">
-        <v>962</v>
-      </c>
-      <c r="E324" s="16">
-        <v>0</v>
-      </c>
-      <c r="F324" s="16">
-        <v>1</v>
-      </c>
-      <c r="G324" s="16">
-        <v>1</v>
-      </c>
-      <c r="I324" s="14" t="s">
-        <v>963</v>
+      <c r="B324" s="44" t="s">
+        <v>956</v>
+      </c>
+      <c r="C324" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D324" s="44" t="s">
+        <v>957</v>
+      </c>
+      <c r="E324" s="46">
+        <v>1</v>
+      </c>
+      <c r="F324" s="46">
+        <v>1</v>
+      </c>
+      <c r="G324" s="46">
+        <v>1</v>
+      </c>
+      <c r="I324" s="45" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13304,13 +13316,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E325" s="16">
         <v>0</v>
@@ -13322,7 +13334,7 @@
         <v>1</v>
       </c>
       <c r="I325" s="14" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="16" customFormat="1">
@@ -13330,10 +13342,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="C326" s="14" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="E326" s="16">
         <v>0</v>
@@ -13345,27 +13357,27 @@
         <v>1</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" s="16" customFormat="1">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" s="46" customFormat="1">
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="26" t="s">
-        <v>970</v>
-      </c>
-      <c r="E327" s="16">
-        <v>1</v>
-      </c>
-      <c r="F327" s="16">
-        <v>1</v>
-      </c>
-      <c r="G327" s="16">
-        <v>1</v>
-      </c>
-      <c r="I327" s="18" t="s">
-        <v>637</v>
+      <c r="B327" s="47" t="s">
+        <v>965</v>
+      </c>
+      <c r="E327" s="46">
+        <v>1</v>
+      </c>
+      <c r="F327" s="46">
+        <v>1</v>
+      </c>
+      <c r="G327" s="46">
+        <v>1</v>
+      </c>
+      <c r="I327" s="48" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="16" customFormat="1">
@@ -13373,13 +13385,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C328" s="17" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="E328" s="16">
         <v>0</v>
@@ -13391,10 +13403,10 @@
         <v>1</v>
       </c>
       <c r="H328" s="16" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="I328" s="14" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
@@ -13402,10 +13414,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="17" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C329" s="18" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="E329" s="16">
         <v>0</v>
@@ -13417,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="14" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
@@ -13425,22 +13437,22 @@
         <v>329</v>
       </c>
       <c r="B330" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="C330" s="18" t="s">
+        <v>982</v>
+      </c>
+      <c r="E330" s="16">
+        <v>0</v>
+      </c>
+      <c r="F330" s="16">
+        <v>1</v>
+      </c>
+      <c r="G330" s="16">
+        <v>1</v>
+      </c>
+      <c r="I330" s="14" t="s">
         <v>984</v>
-      </c>
-      <c r="C330" s="18" t="s">
-        <v>987</v>
-      </c>
-      <c r="E330" s="16">
-        <v>0</v>
-      </c>
-      <c r="F330" s="16">
-        <v>1</v>
-      </c>
-      <c r="G330" s="16">
-        <v>1</v>
-      </c>
-      <c r="I330" s="14" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="16" customFormat="1">
@@ -13448,10 +13460,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C331" s="18" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="E331" s="16">
         <v>0</v>
@@ -13463,7 +13475,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="14" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="16" customFormat="1">
@@ -13471,13 +13483,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="17" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C332" s="18" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="E332" s="16">
         <v>0</v>
@@ -13489,7 +13501,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="14" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="16" customFormat="1">
@@ -13497,13 +13509,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="17" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C333" s="18" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="E333" s="16">
         <v>0</v>
@@ -13515,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="14" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="16" customFormat="1">
@@ -13523,10 +13535,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="17" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="E334" s="16">
         <v>0</v>
@@ -13538,7 +13550,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="14" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="16" customFormat="1">
@@ -13546,10 +13558,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="E335" s="16">
         <v>0</v>
@@ -13561,7 +13573,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="14" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="16" customFormat="1">
@@ -13569,10 +13581,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="E336" s="16">
         <v>0</v>
@@ -13584,7 +13596,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="14" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="16" customFormat="1">
@@ -13592,10 +13604,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="17" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="E337" s="16">
         <v>0</v>
@@ -13607,21 +13619,21 @@
         <v>1</v>
       </c>
       <c r="I337" s="14" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="338" spans="1:9" s="16" customFormat="1">
       <c r="A338" s="15">
         <v>337</v>
       </c>
-      <c r="B338" s="26" t="s">
-        <v>1021</v>
+      <c r="B338" s="23" t="s">
+        <v>1016</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="E338" s="16">
         <v>1</v>
@@ -13633,128 +13645,223 @@
         <v>1</v>
       </c>
       <c r="I338" s="14" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" s="46" customFormat="1">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" s="16" customFormat="1">
       <c r="A339" s="15">
         <v>338</v>
       </c>
-      <c r="B339" s="44" t="s">
+      <c r="B339" s="17" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C339" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E339" s="16">
+        <v>0</v>
+      </c>
+      <c r="F339" s="16">
+        <v>1</v>
+      </c>
+      <c r="G339" s="16">
+        <v>1</v>
+      </c>
+      <c r="I339" s="14" t="s">
         <v>1026</v>
       </c>
-      <c r="C339" s="45" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E339" s="46">
-        <v>1</v>
-      </c>
-      <c r="F339" s="46">
-        <v>1</v>
-      </c>
-      <c r="G339" s="46">
-        <v>1</v>
-      </c>
-      <c r="I339" s="45" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" s="46" customFormat="1">
+    </row>
+    <row r="340" spans="1:9" s="16" customFormat="1">
       <c r="A340" s="15">
         <v>339</v>
       </c>
-      <c r="B340" s="44" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C340" s="45" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E340" s="46">
-        <v>1</v>
-      </c>
-      <c r="F340" s="46">
-        <v>1</v>
-      </c>
-      <c r="G340" s="46">
-        <v>1</v>
-      </c>
-      <c r="I340" s="45" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" s="46" customFormat="1">
+      <c r="B340" s="17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C340" s="14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E340" s="16">
+        <v>0</v>
+      </c>
+      <c r="F340" s="16">
+        <v>1</v>
+      </c>
+      <c r="G340" s="16">
+        <v>1</v>
+      </c>
+      <c r="I340" s="14" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" s="16" customFormat="1">
       <c r="A341" s="15">
         <v>340</v>
       </c>
-      <c r="B341" s="44" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C341" s="47" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E341" s="46">
-        <v>1</v>
-      </c>
-      <c r="F341" s="46">
-        <v>1</v>
-      </c>
-      <c r="G341" s="46">
-        <v>1</v>
-      </c>
-      <c r="I341" s="45" t="s">
+      <c r="B341" s="17" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="342" spans="1:9">
+      <c r="C341" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E341" s="16">
+        <v>0</v>
+      </c>
+      <c r="F341" s="16">
+        <v>1</v>
+      </c>
+      <c r="G341" s="16">
+        <v>1</v>
+      </c>
+      <c r="I341" s="14" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" s="16" customFormat="1">
       <c r="A342" s="15">
         <v>341</v>
       </c>
-      <c r="B342" s="38" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C342" s="47" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D342" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E342" s="46">
-        <v>1</v>
-      </c>
-      <c r="F342" s="46">
-        <v>1</v>
-      </c>
-      <c r="G342" s="46">
-        <v>1</v>
-      </c>
-      <c r="H342" s="46"/>
-      <c r="I342" s="45" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9">
+      <c r="B342" s="23" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C342" s="18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D342" s="16" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E342" s="16">
+        <v>1</v>
+      </c>
+      <c r="F342" s="16">
+        <v>1</v>
+      </c>
+      <c r="G342" s="16">
+        <v>1</v>
+      </c>
+      <c r="I342" s="14" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" s="46" customFormat="1">
       <c r="A343" s="15">
         <v>342</v>
       </c>
-      <c r="B343" s="52" t="s">
+      <c r="B343" s="44" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C343" s="45" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E343" s="46">
+        <v>1</v>
+      </c>
+      <c r="F343" s="46">
+        <v>1</v>
+      </c>
+      <c r="G343" s="46">
+        <v>1</v>
+      </c>
+      <c r="I343" s="45" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" s="15">
+        <v>343</v>
+      </c>
+      <c r="B344" s="38" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C344" s="18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E344" s="16">
+        <v>1</v>
+      </c>
+      <c r="F344" s="16">
+        <v>1</v>
+      </c>
+      <c r="G344" s="16">
+        <v>1</v>
+      </c>
+      <c r="I344" s="14" t="s">
         <v>1039</v>
       </c>
-      <c r="C343" s="47" t="s">
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" s="15">
+        <v>344</v>
+      </c>
+      <c r="B345" s="38" t="s">
         <v>1040</v>
       </c>
-      <c r="D343" s="46"/>
-      <c r="E343" s="46">
-        <v>1</v>
-      </c>
-      <c r="F343" s="46">
-        <v>1</v>
-      </c>
-      <c r="G343" s="46">
-        <v>1</v>
-      </c>
-      <c r="H343" s="46"/>
-      <c r="I343" s="45" t="s">
-        <v>637</v>
+      <c r="C345" s="18" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E345" s="16">
+        <v>1</v>
+      </c>
+      <c r="F345" s="16">
+        <v>1</v>
+      </c>
+      <c r="G345" s="16">
+        <v>1</v>
+      </c>
+      <c r="I345" s="14" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" s="46" customFormat="1">
+      <c r="A346" s="15">
+        <v>345</v>
+      </c>
+      <c r="B346" s="44" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C346" s="45" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E346" s="46">
+        <v>1</v>
+      </c>
+      <c r="F346" s="46">
+        <v>1</v>
+      </c>
+      <c r="G346" s="46">
+        <v>1</v>
+      </c>
+      <c r="I346" s="45" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" s="46" customFormat="1">
+      <c r="A347" s="15">
+        <v>346</v>
+      </c>
+      <c r="B347" s="44" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C347" s="45" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E347" s="46">
+        <v>1</v>
+      </c>
+      <c r="F347" s="46">
+        <v>1</v>
+      </c>
+      <c r="G347" s="46">
+        <v>1</v>
+      </c>
+      <c r="I347" s="45" t="s">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -13781,7 +13888,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1023">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4028,10 +4028,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4115,30 +4111,6 @@
     </r>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_005_fudai</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福袋boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小汤圆boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2月</t>
     </r>
@@ -4156,93 +4128,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_001_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_003_taiyang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳掉落皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_004_baozhu</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹掉落皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_001_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_002_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
-  </si>
-  <si>
-    <t>活动皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4271,22 +4156,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_003_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_004_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_003_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>红包鱼提示</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4303,42 +4172,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>集字榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_005_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_004_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_006_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3月9日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4359,21 +4192,9 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_008_meigui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_041_xyxfl</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_005_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3月15日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4410,18 +4231,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_009_lihe</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_007_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_jrth</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4438,7 +4247,58 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>礼盒boss皮肤</t>
+    <t>3月22日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>换好礼皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_normal_001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周常活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_009</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1_style/act_002_tylb1</t>
+  </si>
+  <si>
+    <t>通用礼包皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_010_taohua</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_006_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月22日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_008_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4446,7 +4306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4554,6 +4414,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4630,7 +4496,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4757,9 +4623,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4775,7 +4638,16 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5055,13 +4927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I347"/>
+  <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C302" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C333" sqref="C333"/>
+      <selection pane="bottomRight" activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5082,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -6333,7 +6205,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>631</v>
@@ -6487,7 +6359,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>160</v>
@@ -6591,7 +6463,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>171</v>
@@ -6620,7 +6492,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>174</v>
@@ -6635,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -11042,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -11545,13 +11417,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>1047</v>
+        <v>1005</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>1048</v>
+        <v>1006</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>1049</v>
+        <v>1007</v>
       </c>
       <c r="E256" s="16">
         <v>0</v>
@@ -11563,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="I256" s="14" t="s">
-        <v>1026</v>
+        <v>990</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
@@ -12010,7 +11882,7 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -12040,53 +11912,53 @@
         <v>806</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="46" customFormat="1">
-      <c r="A275" s="43">
+    <row r="275" spans="1:9" s="16" customFormat="1">
+      <c r="A275" s="15">
         <v>274</v>
       </c>
-      <c r="B275" s="47" t="s">
+      <c r="B275" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="C275" s="45" t="s">
+      <c r="C275" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="D275" s="44" t="s">
+      <c r="D275" s="17" t="s">
         <v>809</v>
       </c>
-      <c r="E275" s="46">
-        <v>1</v>
-      </c>
-      <c r="F275" s="46">
-        <v>1</v>
-      </c>
-      <c r="G275" s="46">
-        <v>1</v>
-      </c>
-      <c r="I275" s="45" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="46" customFormat="1">
-      <c r="A276" s="43">
+      <c r="E275" s="16">
+        <v>0</v>
+      </c>
+      <c r="F275" s="16">
+        <v>0</v>
+      </c>
+      <c r="G275" s="16">
+        <v>0</v>
+      </c>
+      <c r="I275" s="14" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="45" customFormat="1">
+      <c r="A276" s="42">
         <v>275</v>
       </c>
-      <c r="B276" s="47" t="s">
+      <c r="B276" s="46" t="s">
         <v>810</v>
       </c>
-      <c r="C276" s="45" t="s">
+      <c r="C276" s="44" t="s">
         <v>811</v>
       </c>
-      <c r="E276" s="46">
-        <v>1</v>
-      </c>
-      <c r="F276" s="46">
-        <v>1</v>
-      </c>
-      <c r="G276" s="46">
-        <v>1</v>
-      </c>
-      <c r="I276" s="45" t="s">
-        <v>1035</v>
+      <c r="E276" s="45">
+        <v>1</v>
+      </c>
+      <c r="F276" s="45">
+        <v>1</v>
+      </c>
+      <c r="G276" s="45">
+        <v>1</v>
+      </c>
+      <c r="I276" s="44" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -12794,7 +12666,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C304" s="14" t="s">
         <v>925</v>
@@ -12945,55 +12817,55 @@
         <v>919</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="16" customFormat="1">
-      <c r="A310" s="15">
+    <row r="310" spans="1:9" s="45" customFormat="1">
+      <c r="A310" s="42">
         <v>309</v>
       </c>
-      <c r="B310" s="17" t="s">
+      <c r="B310" s="43" t="s">
         <v>920</v>
       </c>
-      <c r="C310" s="14" t="s">
+      <c r="C310" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="D310" s="17" t="s">
+      <c r="D310" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="E310" s="16">
-        <v>1</v>
-      </c>
-      <c r="F310" s="16">
-        <v>1</v>
-      </c>
-      <c r="G310" s="16">
-        <v>1</v>
-      </c>
-      <c r="I310" s="14" t="s">
+      <c r="E310" s="45">
+        <v>1</v>
+      </c>
+      <c r="F310" s="45">
+        <v>1</v>
+      </c>
+      <c r="G310" s="45">
+        <v>1</v>
+      </c>
+      <c r="I310" s="44" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="46" customFormat="1">
+    <row r="311" spans="1:9" s="16" customFormat="1">
       <c r="A311" s="15">
         <v>310</v>
       </c>
-      <c r="B311" s="44" t="s">
+      <c r="B311" s="17" t="s">
         <v>964</v>
       </c>
-      <c r="C311" s="45" t="s">
+      <c r="C311" s="14" t="s">
         <v>923</v>
       </c>
-      <c r="D311" s="44" t="s">
+      <c r="D311" s="17" t="s">
         <v>924</v>
       </c>
-      <c r="E311" s="46">
-        <v>1</v>
-      </c>
-      <c r="F311" s="46">
-        <v>1</v>
-      </c>
-      <c r="G311" s="46">
-        <v>1</v>
-      </c>
-      <c r="I311" s="45" t="s">
+      <c r="E311" s="16">
+        <v>0</v>
+      </c>
+      <c r="F311" s="16">
+        <v>0</v>
+      </c>
+      <c r="G311" s="16">
+        <v>0</v>
+      </c>
+      <c r="I311" s="14" t="s">
         <v>928</v>
       </c>
     </row>
@@ -13037,10 +12909,10 @@
         <v>0</v>
       </c>
       <c r="F313" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G313" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" s="14" t="s">
         <v>937</v>
@@ -13089,10 +12961,10 @@
         <v>0</v>
       </c>
       <c r="F315" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G315" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" s="14" t="s">
         <v>958</v>
@@ -13115,200 +12987,204 @@
         <v>0</v>
       </c>
       <c r="F316" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G316" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" s="14" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="16" customFormat="1">
+    <row r="317" spans="1:9" s="45" customFormat="1">
       <c r="A317" s="15">
         <v>316</v>
       </c>
-      <c r="B317" s="17" t="s">
-        <v>985</v>
-      </c>
-      <c r="C317" s="14" t="s">
-        <v>986</v>
-      </c>
-      <c r="E317" s="16">
-        <v>0</v>
-      </c>
-      <c r="F317" s="16">
-        <v>1</v>
-      </c>
-      <c r="G317" s="16">
-        <v>1</v>
-      </c>
-      <c r="I317" s="14" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" s="16" customFormat="1">
+      <c r="B317" s="43" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C317" s="44" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E317" s="45">
+        <v>1</v>
+      </c>
+      <c r="F317" s="45">
+        <v>1</v>
+      </c>
+      <c r="G317" s="45">
+        <v>1</v>
+      </c>
+      <c r="I317" s="44" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" s="45" customFormat="1">
       <c r="A318" s="15">
         <v>317</v>
       </c>
-      <c r="B318" s="17" t="s">
-        <v>988</v>
-      </c>
-      <c r="C318" s="14" t="s">
-        <v>989</v>
-      </c>
-      <c r="E318" s="16">
-        <v>0</v>
-      </c>
-      <c r="F318" s="16">
-        <v>1</v>
-      </c>
-      <c r="G318" s="16">
-        <v>1</v>
-      </c>
-      <c r="I318" s="14" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="16" customFormat="1">
+      <c r="B318" s="43" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C318" s="44" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E318" s="45">
+        <v>1</v>
+      </c>
+      <c r="F318" s="45">
+        <v>1</v>
+      </c>
+      <c r="G318" s="45">
+        <v>1</v>
+      </c>
+      <c r="I318" s="44" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="45" customFormat="1">
       <c r="A319" s="15">
         <v>318</v>
       </c>
-      <c r="B319" s="17" t="s">
-        <v>991</v>
-      </c>
-      <c r="C319" s="16" t="s">
-        <v>992</v>
-      </c>
-      <c r="E319" s="16">
-        <v>0</v>
-      </c>
-      <c r="F319" s="16">
-        <v>1</v>
-      </c>
-      <c r="G319" s="16">
-        <v>1</v>
-      </c>
-      <c r="I319" s="14" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" s="16" customFormat="1">
+      <c r="B319" s="43" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C319" s="44" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E319" s="45">
+        <v>1</v>
+      </c>
+      <c r="F319" s="45">
+        <v>1</v>
+      </c>
+      <c r="G319" s="45">
+        <v>1</v>
+      </c>
+      <c r="I319" s="44" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" s="45" customFormat="1">
       <c r="A320" s="15">
         <v>319</v>
       </c>
-      <c r="B320" s="17" t="s">
-        <v>993</v>
-      </c>
-      <c r="C320" s="14" t="s">
-        <v>994</v>
-      </c>
-      <c r="E320" s="16">
-        <v>0</v>
-      </c>
-      <c r="F320" s="16">
-        <v>1</v>
-      </c>
-      <c r="G320" s="16">
-        <v>1</v>
-      </c>
-      <c r="I320" s="14" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" s="16" customFormat="1">
+      <c r="B320" s="47" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C320" s="44" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E320" s="45">
+        <v>1</v>
+      </c>
+      <c r="F320" s="45">
+        <v>1</v>
+      </c>
+      <c r="G320" s="45">
+        <v>1</v>
+      </c>
+      <c r="I320" s="48" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" s="45" customFormat="1">
       <c r="A321" s="15">
         <v>320</v>
       </c>
-      <c r="B321" s="17" t="s">
-        <v>995</v>
-      </c>
-      <c r="C321" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="E321" s="16">
-        <v>0</v>
-      </c>
-      <c r="F321" s="16">
-        <v>1</v>
-      </c>
-      <c r="G321" s="16">
-        <v>1</v>
-      </c>
-      <c r="I321" s="14" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" s="16" customFormat="1">
+      <c r="B321" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C321" s="44" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E321" s="45">
+        <v>1</v>
+      </c>
+      <c r="F321" s="45">
+        <v>1</v>
+      </c>
+      <c r="G321" s="45">
+        <v>1</v>
+      </c>
+      <c r="I321" s="48" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" s="45" customFormat="1">
       <c r="A322" s="15">
         <v>321</v>
       </c>
-      <c r="B322" s="17" t="s">
-        <v>997</v>
-      </c>
-      <c r="C322" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="E322" s="16">
-        <v>0</v>
-      </c>
-      <c r="F322" s="16">
-        <v>1</v>
-      </c>
-      <c r="G322" s="16">
-        <v>1</v>
-      </c>
-      <c r="I322" s="14" t="s">
-        <v>990</v>
+      <c r="B322" s="43" t="s">
+        <v>956</v>
+      </c>
+      <c r="C322" s="44" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D322" s="43" t="s">
+        <v>957</v>
+      </c>
+      <c r="E322" s="45">
+        <v>1</v>
+      </c>
+      <c r="F322" s="45">
+        <v>1</v>
+      </c>
+      <c r="G322" s="45">
+        <v>1</v>
+      </c>
+      <c r="I322" s="44" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="42" t="s">
-        <v>999</v>
+      <c r="B323" s="50" t="s">
+        <v>1014</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>1000</v>
-      </c>
+        <v>1015</v>
+      </c>
+      <c r="D323" s="17"/>
       <c r="E323" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F323" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G323" s="16">
-        <v>1</v>
-      </c>
-      <c r="I323" s="18" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" s="46" customFormat="1">
+        <v>0</v>
+      </c>
+      <c r="I323" s="14" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" s="16" customFormat="1">
       <c r="A324" s="15">
         <v>323</v>
       </c>
-      <c r="B324" s="44" t="s">
-        <v>956</v>
-      </c>
-      <c r="C324" s="45" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D324" s="44" t="s">
-        <v>957</v>
-      </c>
-      <c r="E324" s="46">
-        <v>1</v>
-      </c>
-      <c r="F324" s="46">
-        <v>1</v>
-      </c>
-      <c r="G324" s="46">
-        <v>1</v>
-      </c>
-      <c r="I324" s="45" t="s">
-        <v>1035</v>
+      <c r="B324" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="C324" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="D324" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="E324" s="16">
+        <v>0</v>
+      </c>
+      <c r="F324" s="16">
+        <v>0</v>
+      </c>
+      <c r="G324" s="16">
+        <v>0</v>
+      </c>
+      <c r="I324" s="14" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13316,22 +13192,19 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>960</v>
-      </c>
-      <c r="D325" s="17" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E325" s="16">
         <v>0</v>
       </c>
       <c r="F325" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G325" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" s="14" t="s">
         <v>958</v>
@@ -13342,42 +13215,54 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>962</v>
-      </c>
-      <c r="C326" s="14" t="s">
-        <v>963</v>
+        <v>967</v>
+      </c>
+      <c r="C326" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="D326" s="17" t="s">
+        <v>968</v>
       </c>
       <c r="E326" s="16">
         <v>0</v>
       </c>
       <c r="F326" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G326" s="16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H326" s="16" t="s">
+        <v>995</v>
       </c>
       <c r="I326" s="14" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="46" customFormat="1">
+    <row r="327" spans="1:9" s="16" customFormat="1">
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="47" t="s">
-        <v>965</v>
-      </c>
-      <c r="E327" s="46">
-        <v>1</v>
-      </c>
-      <c r="F327" s="46">
-        <v>1</v>
-      </c>
-      <c r="G327" s="46">
-        <v>1</v>
-      </c>
-      <c r="I327" s="48" t="s">
-        <v>638</v>
+      <c r="B327" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="C327" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="D327" s="17" t="s">
+        <v>984</v>
+      </c>
+      <c r="E327" s="16">
+        <v>0</v>
+      </c>
+      <c r="F327" s="16">
+        <v>0</v>
+      </c>
+      <c r="G327" s="16">
+        <v>0</v>
+      </c>
+      <c r="I327" s="14" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="16" customFormat="1">
@@ -13385,42 +13270,42 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>968</v>
-      </c>
-      <c r="C328" s="17" t="s">
-        <v>967</v>
+        <v>980</v>
+      </c>
+      <c r="C328" s="18" t="s">
+        <v>979</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="E328" s="16">
         <v>0</v>
       </c>
       <c r="F328" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G328" s="16">
-        <v>1</v>
-      </c>
-      <c r="H328" s="16" t="s">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="I328" s="14" t="s">
-        <v>958</v>
+        <v>982</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
       <c r="A329" s="15">
         <v>328</v>
       </c>
-      <c r="B329" s="17" t="s">
-        <v>978</v>
-      </c>
-      <c r="C329" s="18" t="s">
-        <v>981</v>
+      <c r="B329" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="C329" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="D329" s="14" t="s">
+        <v>987</v>
       </c>
       <c r="E329" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F329" s="16">
         <v>1</v>
@@ -13429,21 +13314,24 @@
         <v>1</v>
       </c>
       <c r="I329" s="14" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
       <c r="A330" s="15">
         <v>329</v>
       </c>
-      <c r="B330" s="17" t="s">
-        <v>979</v>
+      <c r="B330" s="23" t="s">
+        <v>991</v>
       </c>
       <c r="C330" s="18" t="s">
-        <v>982</v>
+        <v>992</v>
+      </c>
+      <c r="D330" s="16" t="s">
+        <v>993</v>
       </c>
       <c r="E330" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F330" s="16">
         <v>1</v>
@@ -13452,21 +13340,24 @@
         <v>1</v>
       </c>
       <c r="I330" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" s="16" customFormat="1">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="17" t="s">
-        <v>980</v>
+      <c r="B331" s="38" t="s">
+        <v>997</v>
       </c>
       <c r="C331" s="18" t="s">
-        <v>983</v>
+        <v>998</v>
+      </c>
+      <c r="D331" t="s">
+        <v>999</v>
       </c>
       <c r="E331" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F331" s="16">
         <v>1</v>
@@ -13475,24 +13366,24 @@
         <v>1</v>
       </c>
       <c r="I331" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" s="16" customFormat="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="17" t="s">
-        <v>1006</v>
+      <c r="B332" s="38" t="s">
+        <v>1001</v>
       </c>
       <c r="C332" s="18" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D332" s="17" t="s">
-        <v>1007</v>
+        <v>1003</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1002</v>
       </c>
       <c r="E332" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F332" s="16">
         <v>1</v>
@@ -13501,367 +13392,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" s="16" customFormat="1">
-      <c r="A333" s="15">
-        <v>332</v>
-      </c>
-      <c r="B333" s="17" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C333" s="18" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D333" s="17" t="s">
         <v>1004</v>
-      </c>
-      <c r="E333" s="16">
-        <v>0</v>
-      </c>
-      <c r="F333" s="16">
-        <v>1</v>
-      </c>
-      <c r="G333" s="16">
-        <v>1</v>
-      </c>
-      <c r="I333" s="14" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" s="16" customFormat="1">
-      <c r="A334" s="15">
-        <v>333</v>
-      </c>
-      <c r="B334" s="17" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C334" s="14" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E334" s="16">
-        <v>0</v>
-      </c>
-      <c r="F334" s="16">
-        <v>1</v>
-      </c>
-      <c r="G334" s="16">
-        <v>1</v>
-      </c>
-      <c r="I334" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" s="16" customFormat="1">
-      <c r="A335" s="15">
-        <v>334</v>
-      </c>
-      <c r="B335" s="17" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C335" s="14" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E335" s="16">
-        <v>0</v>
-      </c>
-      <c r="F335" s="16">
-        <v>1</v>
-      </c>
-      <c r="G335" s="16">
-        <v>1</v>
-      </c>
-      <c r="I335" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" s="16" customFormat="1">
-      <c r="A336" s="15">
-        <v>335</v>
-      </c>
-      <c r="B336" s="17" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C336" s="14" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E336" s="16">
-        <v>0</v>
-      </c>
-      <c r="F336" s="16">
-        <v>1</v>
-      </c>
-      <c r="G336" s="16">
-        <v>1</v>
-      </c>
-      <c r="I336" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" s="16" customFormat="1">
-      <c r="A337" s="15">
-        <v>336</v>
-      </c>
-      <c r="B337" s="17" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C337" s="14" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E337" s="16">
-        <v>0</v>
-      </c>
-      <c r="F337" s="16">
-        <v>1</v>
-      </c>
-      <c r="G337" s="16">
-        <v>1</v>
-      </c>
-      <c r="I337" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" s="16" customFormat="1">
-      <c r="A338" s="15">
-        <v>337</v>
-      </c>
-      <c r="B338" s="23" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C338" s="14" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D338" s="14" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E338" s="16">
-        <v>1</v>
-      </c>
-      <c r="F338" s="16">
-        <v>1</v>
-      </c>
-      <c r="G338" s="16">
-        <v>1</v>
-      </c>
-      <c r="I338" s="14" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" s="16" customFormat="1">
-      <c r="A339" s="15">
-        <v>338</v>
-      </c>
-      <c r="B339" s="17" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C339" s="14" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E339" s="16">
-        <v>0</v>
-      </c>
-      <c r="F339" s="16">
-        <v>1</v>
-      </c>
-      <c r="G339" s="16">
-        <v>1</v>
-      </c>
-      <c r="I339" s="14" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" s="16" customFormat="1">
-      <c r="A340" s="15">
-        <v>339</v>
-      </c>
-      <c r="B340" s="17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C340" s="14" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E340" s="16">
-        <v>0</v>
-      </c>
-      <c r="F340" s="16">
-        <v>1</v>
-      </c>
-      <c r="G340" s="16">
-        <v>1</v>
-      </c>
-      <c r="I340" s="14" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" s="16" customFormat="1">
-      <c r="A341" s="15">
-        <v>340</v>
-      </c>
-      <c r="B341" s="17" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C341" s="18" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E341" s="16">
-        <v>0</v>
-      </c>
-      <c r="F341" s="16">
-        <v>1</v>
-      </c>
-      <c r="G341" s="16">
-        <v>1</v>
-      </c>
-      <c r="I341" s="14" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" s="16" customFormat="1">
-      <c r="A342" s="15">
-        <v>341</v>
-      </c>
-      <c r="B342" s="23" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C342" s="18" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D342" s="16" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E342" s="16">
-        <v>1</v>
-      </c>
-      <c r="F342" s="16">
-        <v>1</v>
-      </c>
-      <c r="G342" s="16">
-        <v>1</v>
-      </c>
-      <c r="I342" s="14" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" s="46" customFormat="1">
-      <c r="A343" s="15">
-        <v>342</v>
-      </c>
-      <c r="B343" s="44" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C343" s="45" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E343" s="46">
-        <v>1</v>
-      </c>
-      <c r="F343" s="46">
-        <v>1</v>
-      </c>
-      <c r="G343" s="46">
-        <v>1</v>
-      </c>
-      <c r="I343" s="45" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9">
-      <c r="A344" s="15">
-        <v>343</v>
-      </c>
-      <c r="B344" s="38" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C344" s="18" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D344" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E344" s="16">
-        <v>1</v>
-      </c>
-      <c r="F344" s="16">
-        <v>1</v>
-      </c>
-      <c r="G344" s="16">
-        <v>1</v>
-      </c>
-      <c r="I344" s="14" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9">
-      <c r="A345" s="15">
-        <v>344</v>
-      </c>
-      <c r="B345" s="38" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C345" s="18" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E345" s="16">
-        <v>1</v>
-      </c>
-      <c r="F345" s="16">
-        <v>1</v>
-      </c>
-      <c r="G345" s="16">
-        <v>1</v>
-      </c>
-      <c r="I345" s="14" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" s="46" customFormat="1">
-      <c r="A346" s="15">
-        <v>345</v>
-      </c>
-      <c r="B346" s="44" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C346" s="45" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E346" s="46">
-        <v>1</v>
-      </c>
-      <c r="F346" s="46">
-        <v>1</v>
-      </c>
-      <c r="G346" s="46">
-        <v>1</v>
-      </c>
-      <c r="I346" s="45" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" s="46" customFormat="1">
-      <c r="A347" s="15">
-        <v>346</v>
-      </c>
-      <c r="B347" s="44" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C347" s="45" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E347" s="46">
-        <v>1</v>
-      </c>
-      <c r="F347" s="46">
-        <v>1</v>
-      </c>
-      <c r="G347" s="46">
-        <v>1</v>
-      </c>
-      <c r="I347" s="45" t="s">
-        <v>1035</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4263,10 +4263,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_009</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_lb1_style/act_002_tylb1</t>
   </si>
   <si>
@@ -4274,10 +4270,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_010_taohua</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落排行榜皮肤（桃花）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4286,19 +4278,27 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_006_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>扩展活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3月22日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_008_dlphb</t>
+    <t>act_ty_by_hhl_style/act_007_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月29日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_011_boss</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_009_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_010</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4930,10 +4930,10 @@
   <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C302" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C322" sqref="C322"/>
+      <selection pane="bottomRight" activeCell="I320" sqref="I320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12245,29 +12245,29 @@
         <v>850</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="16" customFormat="1">
-      <c r="A288" s="15">
+    <row r="288" spans="1:9" s="45" customFormat="1">
+      <c r="A288" s="42">
         <v>287</v>
       </c>
-      <c r="B288" s="23" t="s">
+      <c r="B288" s="46" t="s">
         <v>851</v>
       </c>
-      <c r="C288" s="14" t="s">
+      <c r="C288" s="44" t="s">
         <v>852</v>
       </c>
-      <c r="D288" s="14" t="s">
+      <c r="D288" s="44" t="s">
         <v>853</v>
       </c>
-      <c r="E288" s="16">
-        <v>0</v>
-      </c>
-      <c r="F288" s="16">
-        <v>0</v>
-      </c>
-      <c r="G288" s="16">
-        <v>0</v>
-      </c>
-      <c r="I288" s="14" t="s">
+      <c r="E288" s="45">
+        <v>1</v>
+      </c>
+      <c r="F288" s="45">
+        <v>1</v>
+      </c>
+      <c r="G288" s="45">
+        <v>1</v>
+      </c>
+      <c r="I288" s="44" t="s">
         <v>946</v>
       </c>
     </row>
@@ -12817,29 +12817,29 @@
         <v>919</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="45" customFormat="1">
-      <c r="A310" s="42">
+    <row r="310" spans="1:9" s="16" customFormat="1">
+      <c r="A310" s="15">
         <v>309</v>
       </c>
-      <c r="B310" s="43" t="s">
+      <c r="B310" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="C310" s="44" t="s">
+      <c r="C310" s="14" t="s">
         <v>922</v>
       </c>
-      <c r="D310" s="43" t="s">
+      <c r="D310" s="17" t="s">
         <v>921</v>
       </c>
-      <c r="E310" s="45">
-        <v>1</v>
-      </c>
-      <c r="F310" s="45">
-        <v>1</v>
-      </c>
-      <c r="G310" s="45">
-        <v>1</v>
-      </c>
-      <c r="I310" s="44" t="s">
+      <c r="E310" s="16">
+        <v>0</v>
+      </c>
+      <c r="F310" s="16">
+        <v>0</v>
+      </c>
+      <c r="G310" s="16">
+        <v>0</v>
+      </c>
+      <c r="I310" s="14" t="s">
         <v>927</v>
       </c>
     </row>
@@ -13001,10 +13001,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="43" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C317" s="44" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E317" s="45">
         <v>1</v>
@@ -13016,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="44" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="45" customFormat="1">
@@ -13024,11 +13024,11 @@
         <v>317</v>
       </c>
       <c r="B318" s="43" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C318" s="44" t="s">
         <v>1016</v>
       </c>
-      <c r="C318" s="44" t="s">
-        <v>1018</v>
-      </c>
       <c r="E318" s="45">
         <v>1</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="44" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="45" customFormat="1">
@@ -13047,7 +13047,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="43" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C319" s="44" t="s">
         <v>1010</v>
@@ -13062,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="44" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="45" customFormat="1">
@@ -13093,10 +13093,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="49" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="C321" s="44" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E321" s="45">
         <v>1</v>
@@ -13142,10 +13142,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="50" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C323" s="14" t="s">
         <v>1014</v>
-      </c>
-      <c r="C323" s="14" t="s">
-        <v>1015</v>
       </c>
       <c r="D323" s="17"/>
       <c r="E323" s="16">

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1024">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4270,10 +4270,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>掉落排行榜皮肤（桃花）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>活动boss皮肤（桃花）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4282,23 +4278,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_007_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3月29日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_011_boss</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_009_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_010</t>
+    <t>act_ty_sjb_style/act_010_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_008_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_012_hedeng</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_011</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（河灯）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（河灯）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4930,10 +4934,10 @@
   <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C313" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I320" sqref="I320"/>
+      <selection pane="bottomRight" activeCell="C318" sqref="C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13001,10 +13005,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="43" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C317" s="44" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="E317" s="45">
         <v>1</v>
@@ -13016,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="44" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="45" customFormat="1">
@@ -13027,7 +13031,7 @@
         <v>1020</v>
       </c>
       <c r="C318" s="44" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="E318" s="45">
         <v>1</v>
@@ -13039,7 +13043,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="44" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="45" customFormat="1">
@@ -13047,7 +13051,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="43" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C319" s="44" t="s">
         <v>1010</v>
@@ -13062,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="44" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="45" customFormat="1">
@@ -13093,10 +13097,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="49" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C321" s="44" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E321" s="45">
         <v>1</v>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1034">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4255,54 +4255,95 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>周常活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月29日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1_style/act_003_tylb1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_011_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_008_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>sys_act_base_style/sys_act_base_normal_001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>周常活动皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_lb1_style/act_002_tylb1</t>
-  </si>
-  <si>
-    <t>通用礼包皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动boss皮肤（桃花）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展活动皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月29日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_010_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_008_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_012_hedeng</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_011</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（河灯）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动boss皮肤（河灯）</t>
+    <t>sys_act_base_style/sys_act_base_weekly_012</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_052_qfhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_052_QFHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾祈福</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年4月16日 23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_GiftsManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包皮肤配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_001_ltlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_013_long</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（龙）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（福袋）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4591,9 +4632,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4653,6 +4691,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4931,19 +4972,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I332"/>
+  <dimension ref="A1:I335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C313" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C318" sqref="C318"/>
+      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
@@ -4957,7 +4998,7 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>974</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -5428,7 +5469,7 @@
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
@@ -6362,7 +6403,7 @@
       <c r="A55" s="15">
         <v>54</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="37" t="s">
         <v>973</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -6388,7 +6429,7 @@
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="37" t="s">
         <v>162</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -6495,7 +6536,7 @@
       <c r="B60" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="33" t="s">
         <v>971</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -6510,7 +6551,7 @@
       <c r="G60" s="2">
         <v>1</v>
       </c>
-      <c r="I60" s="33" t="s">
+      <c r="I60" s="32" t="s">
         <v>972</v>
       </c>
     </row>
@@ -6874,8 +6915,8 @@
       <c r="G74" s="29">
         <v>0</v>
       </c>
-      <c r="I74" s="30" t="s">
-        <v>641</v>
+      <c r="I74" s="50">
+        <v>44298</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -6908,16 +6949,16 @@
       <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="31">
+      <c r="E76" s="30">
         <v>0</v>
       </c>
       <c r="F76" s="22">
@@ -6926,7 +6967,7 @@
       <c r="G76" s="22">
         <v>1</v>
       </c>
-      <c r="I76" s="32" t="s">
+      <c r="I76" s="31" t="s">
         <v>955</v>
       </c>
     </row>
@@ -8044,7 +8085,7 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="41" t="s">
+      <c r="I119" s="40" t="s">
         <v>641</v>
       </c>
     </row>
@@ -9668,7 +9709,7 @@
       <c r="A183" s="15">
         <v>182</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="B183" s="37" t="s">
         <v>520</v>
       </c>
       <c r="C183" t="s">
@@ -9691,7 +9732,7 @@
       <c r="A184" s="15">
         <v>183</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" s="37" t="s">
         <v>522</v>
       </c>
       <c r="C184" t="s">
@@ -9714,7 +9755,7 @@
       <c r="A185" s="15">
         <v>184</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="B185" s="37" t="s">
         <v>524</v>
       </c>
       <c r="C185" t="s">
@@ -9737,7 +9778,7 @@
       <c r="A186" s="15">
         <v>185</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="B186" s="37" t="s">
         <v>526</v>
       </c>
       <c r="C186" t="s">
@@ -9760,7 +9801,7 @@
       <c r="A187" s="15">
         <v>186</v>
       </c>
-      <c r="B187" s="38" t="s">
+      <c r="B187" s="37" t="s">
         <v>528</v>
       </c>
       <c r="C187" t="s">
@@ -9783,7 +9824,7 @@
       <c r="A188" s="15">
         <v>187</v>
       </c>
-      <c r="B188" s="38" t="s">
+      <c r="B188" s="37" t="s">
         <v>530</v>
       </c>
       <c r="C188" t="s">
@@ -9806,7 +9847,7 @@
       <c r="A189" s="15">
         <v>188</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="B189" s="37" t="s">
         <v>532</v>
       </c>
       <c r="C189" t="s">
@@ -9829,7 +9870,7 @@
       <c r="A190" s="15">
         <v>189</v>
       </c>
-      <c r="B190" s="38" t="s">
+      <c r="B190" s="37" t="s">
         <v>534</v>
       </c>
       <c r="C190" t="s">
@@ -9852,7 +9893,7 @@
       <c r="A191" s="15">
         <v>190</v>
       </c>
-      <c r="B191" s="38" t="s">
+      <c r="B191" s="37" t="s">
         <v>536</v>
       </c>
       <c r="C191" t="s">
@@ -9875,7 +9916,7 @@
       <c r="A192" s="15">
         <v>191</v>
       </c>
-      <c r="B192" s="38" t="s">
+      <c r="B192" s="37" t="s">
         <v>538</v>
       </c>
       <c r="C192" t="s">
@@ -9898,7 +9939,7 @@
       <c r="A193" s="15">
         <v>192</v>
       </c>
-      <c r="B193" s="38" t="s">
+      <c r="B193" s="37" t="s">
         <v>540</v>
       </c>
       <c r="C193" t="s">
@@ -9921,7 +9962,7 @@
       <c r="A194" s="15">
         <v>193</v>
       </c>
-      <c r="B194" s="38" t="s">
+      <c r="B194" s="37" t="s">
         <v>542</v>
       </c>
       <c r="C194" t="s">
@@ -9944,7 +9985,7 @@
       <c r="A195" s="15">
         <v>194</v>
       </c>
-      <c r="B195" s="38" t="s">
+      <c r="B195" s="37" t="s">
         <v>544</v>
       </c>
       <c r="C195" t="s">
@@ -9967,7 +10008,7 @@
       <c r="A196" s="15">
         <v>195</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="37" t="s">
         <v>546</v>
       </c>
       <c r="C196" t="s">
@@ -9990,7 +10031,7 @@
       <c r="A197" s="15">
         <v>196</v>
       </c>
-      <c r="B197" s="38" t="s">
+      <c r="B197" s="37" t="s">
         <v>548</v>
       </c>
       <c r="C197" t="s">
@@ -10013,7 +10054,7 @@
       <c r="A198" s="15">
         <v>197</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B198" s="37" t="s">
         <v>550</v>
       </c>
       <c r="C198" t="s">
@@ -10036,7 +10077,7 @@
       <c r="A199" s="15">
         <v>198</v>
       </c>
-      <c r="B199" s="38" t="s">
+      <c r="B199" s="37" t="s">
         <v>552</v>
       </c>
       <c r="C199" t="s">
@@ -10059,7 +10100,7 @@
       <c r="A200" s="15">
         <v>199</v>
       </c>
-      <c r="B200" s="38" t="s">
+      <c r="B200" s="37" t="s">
         <v>554</v>
       </c>
       <c r="C200" t="s">
@@ -10082,7 +10123,7 @@
       <c r="A201" s="15">
         <v>200</v>
       </c>
-      <c r="B201" s="38" t="s">
+      <c r="B201" s="37" t="s">
         <v>556</v>
       </c>
       <c r="C201" t="s">
@@ -10105,7 +10146,7 @@
       <c r="A202" s="15">
         <v>201</v>
       </c>
-      <c r="B202" s="38" t="s">
+      <c r="B202" s="37" t="s">
         <v>558</v>
       </c>
       <c r="C202" t="s">
@@ -10128,7 +10169,7 @@
       <c r="A203" s="15">
         <v>202</v>
       </c>
-      <c r="B203" s="38" t="s">
+      <c r="B203" s="37" t="s">
         <v>560</v>
       </c>
       <c r="C203" t="s">
@@ -10151,7 +10192,7 @@
       <c r="A204" s="15">
         <v>203</v>
       </c>
-      <c r="B204" s="38" t="s">
+      <c r="B204" s="37" t="s">
         <v>604</v>
       </c>
       <c r="C204" t="s">
@@ -10177,7 +10218,7 @@
       <c r="A205" s="15">
         <v>204</v>
       </c>
-      <c r="B205" s="38" t="s">
+      <c r="B205" s="37" t="s">
         <v>606</v>
       </c>
       <c r="C205" t="s">
@@ -10203,7 +10244,7 @@
       <c r="A206" s="15">
         <v>205</v>
       </c>
-      <c r="B206" s="38" t="s">
+      <c r="B206" s="37" t="s">
         <v>608</v>
       </c>
       <c r="C206" t="s">
@@ -10229,7 +10270,7 @@
       <c r="A207" s="15">
         <v>206</v>
       </c>
-      <c r="B207" s="38" t="s">
+      <c r="B207" s="37" t="s">
         <v>565</v>
       </c>
       <c r="C207" t="s">
@@ -10252,7 +10293,7 @@
       <c r="A208" s="15">
         <v>207</v>
       </c>
-      <c r="B208" s="38" t="s">
+      <c r="B208" s="37" t="s">
         <v>567</v>
       </c>
       <c r="C208" t="s">
@@ -10275,7 +10316,7 @@
       <c r="A209" s="15">
         <v>208</v>
       </c>
-      <c r="B209" s="38" t="s">
+      <c r="B209" s="37" t="s">
         <v>569</v>
       </c>
       <c r="C209" t="s">
@@ -10298,7 +10339,7 @@
       <c r="A210" s="15">
         <v>209</v>
       </c>
-      <c r="B210" s="38" t="s">
+      <c r="B210" s="37" t="s">
         <v>571</v>
       </c>
       <c r="C210" t="s">
@@ -10321,7 +10362,7 @@
       <c r="A211" s="15">
         <v>210</v>
       </c>
-      <c r="B211" s="38" t="s">
+      <c r="B211" s="37" t="s">
         <v>573</v>
       </c>
       <c r="C211" t="s">
@@ -10344,7 +10385,7 @@
       <c r="A212" s="15">
         <v>211</v>
       </c>
-      <c r="B212" s="38" t="s">
+      <c r="B212" s="37" t="s">
         <v>575</v>
       </c>
       <c r="C212" t="s">
@@ -10367,7 +10408,7 @@
       <c r="A213" s="15">
         <v>212</v>
       </c>
-      <c r="B213" s="38" t="s">
+      <c r="B213" s="37" t="s">
         <v>577</v>
       </c>
       <c r="C213" t="s">
@@ -10390,7 +10431,7 @@
       <c r="A214" s="15">
         <v>213</v>
       </c>
-      <c r="B214" s="38" t="s">
+      <c r="B214" s="37" t="s">
         <v>579</v>
       </c>
       <c r="C214" t="s">
@@ -10413,7 +10454,7 @@
       <c r="A215" s="15">
         <v>214</v>
       </c>
-      <c r="B215" s="38" t="s">
+      <c r="B215" s="37" t="s">
         <v>581</v>
       </c>
       <c r="C215" t="s">
@@ -10436,7 +10477,7 @@
       <c r="A216" s="15">
         <v>215</v>
       </c>
-      <c r="B216" s="38" t="s">
+      <c r="B216" s="37" t="s">
         <v>583</v>
       </c>
       <c r="C216" t="s">
@@ -10459,7 +10500,7 @@
       <c r="A217" s="15">
         <v>216</v>
       </c>
-      <c r="B217" s="38" t="s">
+      <c r="B217" s="37" t="s">
         <v>585</v>
       </c>
       <c r="C217" t="s">
@@ -10482,7 +10523,7 @@
       <c r="A218" s="15">
         <v>217</v>
       </c>
-      <c r="B218" s="38" t="s">
+      <c r="B218" s="37" t="s">
         <v>587</v>
       </c>
       <c r="C218" t="s">
@@ -10505,7 +10546,7 @@
       <c r="A219" s="15">
         <v>218</v>
       </c>
-      <c r="B219" s="38" t="s">
+      <c r="B219" s="37" t="s">
         <v>589</v>
       </c>
       <c r="C219" t="s">
@@ -10528,7 +10569,7 @@
       <c r="A220" s="15">
         <v>219</v>
       </c>
-      <c r="B220" s="38" t="s">
+      <c r="B220" s="37" t="s">
         <v>591</v>
       </c>
       <c r="C220" t="s">
@@ -10551,7 +10592,7 @@
       <c r="A221" s="15">
         <v>220</v>
       </c>
-      <c r="B221" s="38" t="s">
+      <c r="B221" s="37" t="s">
         <v>593</v>
       </c>
       <c r="C221" t="s">
@@ -10574,7 +10615,7 @@
       <c r="A222" s="15">
         <v>221</v>
       </c>
-      <c r="B222" s="38" t="s">
+      <c r="B222" s="37" t="s">
         <v>595</v>
       </c>
       <c r="C222" t="s">
@@ -10597,7 +10638,7 @@
       <c r="A223" s="15">
         <v>222</v>
       </c>
-      <c r="B223" s="38" t="s">
+      <c r="B223" s="37" t="s">
         <v>597</v>
       </c>
       <c r="C223" t="s">
@@ -10620,7 +10661,7 @@
       <c r="A224" s="15">
         <v>223</v>
       </c>
-      <c r="B224" s="38" t="s">
+      <c r="B224" s="37" t="s">
         <v>599</v>
       </c>
       <c r="C224" t="s">
@@ -10643,7 +10684,7 @@
       <c r="A225" s="15">
         <v>224</v>
       </c>
-      <c r="B225" s="38" t="s">
+      <c r="B225" s="37" t="s">
         <v>647</v>
       </c>
       <c r="C225" t="s">
@@ -10666,7 +10707,7 @@
       <c r="A226" s="15">
         <v>225</v>
       </c>
-      <c r="B226" s="38" t="s">
+      <c r="B226" s="37" t="s">
         <v>613</v>
       </c>
       <c r="C226" s="8" t="s">
@@ -10689,7 +10730,7 @@
       <c r="A227" s="15">
         <v>226</v>
       </c>
-      <c r="B227" s="38" t="s">
+      <c r="B227" s="37" t="s">
         <v>614</v>
       </c>
       <c r="C227" s="8" t="s">
@@ -10712,7 +10753,7 @@
       <c r="A228" s="15">
         <v>227</v>
       </c>
-      <c r="B228" s="38" t="s">
+      <c r="B228" s="37" t="s">
         <v>617</v>
       </c>
       <c r="C228" s="8" t="s">
@@ -10735,7 +10776,7 @@
       <c r="A229" s="15">
         <v>228</v>
       </c>
-      <c r="B229" s="38" t="s">
+      <c r="B229" s="37" t="s">
         <v>620</v>
       </c>
       <c r="C229" s="8" t="s">
@@ -10758,7 +10799,7 @@
       <c r="A230" s="15">
         <v>229</v>
       </c>
-      <c r="B230" s="38" t="s">
+      <c r="B230" s="37" t="s">
         <v>626</v>
       </c>
       <c r="C230" s="8" t="s">
@@ -10781,7 +10822,7 @@
       <c r="A231" s="15">
         <v>230</v>
       </c>
-      <c r="B231" s="38" t="s">
+      <c r="B231" s="37" t="s">
         <v>624</v>
       </c>
       <c r="C231" s="8" t="s">
@@ -10804,7 +10845,7 @@
       <c r="A232" s="15">
         <v>231</v>
       </c>
-      <c r="B232" s="38" t="s">
+      <c r="B232" s="37" t="s">
         <v>634</v>
       </c>
       <c r="C232" s="8" t="s">
@@ -10827,7 +10868,7 @@
       <c r="A233" s="15">
         <v>232</v>
       </c>
-      <c r="B233" s="38" t="s">
+      <c r="B233" s="37" t="s">
         <v>648</v>
       </c>
       <c r="C233" s="8" t="s">
@@ -10850,7 +10891,7 @@
       <c r="A234" s="15">
         <v>233</v>
       </c>
-      <c r="B234" s="38" t="s">
+      <c r="B234" s="37" t="s">
         <v>655</v>
       </c>
       <c r="C234" s="8" t="s">
@@ -10873,7 +10914,7 @@
       <c r="A235" s="15">
         <v>234</v>
       </c>
-      <c r="B235" s="38" t="s">
+      <c r="B235" s="37" t="s">
         <v>659</v>
       </c>
       <c r="C235" s="8" t="s">
@@ -10899,7 +10940,7 @@
       <c r="A236" s="15">
         <v>235</v>
       </c>
-      <c r="B236" s="38" t="s">
+      <c r="B236" s="37" t="s">
         <v>661</v>
       </c>
       <c r="C236" s="8" t="s">
@@ -10925,7 +10966,7 @@
       <c r="A237" s="15">
         <v>236</v>
       </c>
-      <c r="B237" s="38" t="s">
+      <c r="B237" s="37" t="s">
         <v>664</v>
       </c>
       <c r="C237" s="8" t="s">
@@ -10951,7 +10992,7 @@
       <c r="A238" s="15">
         <v>237</v>
       </c>
-      <c r="B238" s="38" t="s">
+      <c r="B238" s="37" t="s">
         <v>668</v>
       </c>
       <c r="C238" s="8" t="s">
@@ -10977,7 +11018,7 @@
       <c r="A239" s="15">
         <v>238</v>
       </c>
-      <c r="B239" s="38" t="s">
+      <c r="B239" s="37" t="s">
         <v>675</v>
       </c>
       <c r="C239" s="8" t="s">
@@ -11003,7 +11044,7 @@
       <c r="A240" s="15">
         <v>239</v>
       </c>
-      <c r="B240" s="38" t="s">
+      <c r="B240" s="37" t="s">
         <v>677</v>
       </c>
       <c r="C240" s="8" t="s">
@@ -11029,7 +11070,7 @@
       <c r="A241" s="15">
         <v>240</v>
       </c>
-      <c r="B241" s="38" t="s">
+      <c r="B241" s="37" t="s">
         <v>681</v>
       </c>
       <c r="C241" s="8" t="s">
@@ -11055,7 +11096,7 @@
       <c r="A242" s="15">
         <v>241</v>
       </c>
-      <c r="B242" s="38" t="s">
+      <c r="B242" s="37" t="s">
         <v>689</v>
       </c>
       <c r="C242" s="8" t="s">
@@ -11081,7 +11122,7 @@
       <c r="A243" s="15">
         <v>242</v>
       </c>
-      <c r="B243" s="38" t="s">
+      <c r="B243" s="37" t="s">
         <v>693</v>
       </c>
       <c r="C243" s="8" t="s">
@@ -11107,7 +11148,7 @@
       <c r="A244" s="15">
         <v>243</v>
       </c>
-      <c r="B244" s="38" t="s">
+      <c r="B244" s="37" t="s">
         <v>697</v>
       </c>
       <c r="C244" s="8" t="s">
@@ -11133,7 +11174,7 @@
       <c r="A245" s="15">
         <v>244</v>
       </c>
-      <c r="B245" s="38" t="s">
+      <c r="B245" s="37" t="s">
         <v>698</v>
       </c>
       <c r="C245" s="8" t="s">
@@ -11159,7 +11200,7 @@
       <c r="A246" s="15">
         <v>245</v>
       </c>
-      <c r="B246" s="38" t="s">
+      <c r="B246" s="37" t="s">
         <v>699</v>
       </c>
       <c r="C246" s="8" t="s">
@@ -11185,7 +11226,7 @@
       <c r="A247" s="15">
         <v>246</v>
       </c>
-      <c r="B247" s="38" t="s">
+      <c r="B247" s="37" t="s">
         <v>710</v>
       </c>
       <c r="C247" s="8" t="s">
@@ -11211,7 +11252,7 @@
       <c r="A248" s="15">
         <v>247</v>
       </c>
-      <c r="B248" s="38" t="s">
+      <c r="B248" s="37" t="s">
         <v>714</v>
       </c>
       <c r="C248" s="8" t="s">
@@ -11237,7 +11278,7 @@
       <c r="A249" s="15">
         <v>248</v>
       </c>
-      <c r="B249" s="38" t="s">
+      <c r="B249" s="37" t="s">
         <v>717</v>
       </c>
       <c r="C249" s="8" t="s">
@@ -11263,7 +11304,7 @@
       <c r="A250" s="15">
         <v>249</v>
       </c>
-      <c r="B250" s="38" t="s">
+      <c r="B250" s="37" t="s">
         <v>722</v>
       </c>
       <c r="C250" s="8" t="s">
@@ -11289,7 +11330,7 @@
       <c r="A251" s="15">
         <v>250</v>
       </c>
-      <c r="B251" s="38" t="s">
+      <c r="B251" s="37" t="s">
         <v>725</v>
       </c>
       <c r="C251" s="8" t="s">
@@ -11315,7 +11356,7 @@
       <c r="A252" s="15">
         <v>251</v>
       </c>
-      <c r="B252" s="38" t="s">
+      <c r="B252" s="37" t="s">
         <v>730</v>
       </c>
       <c r="C252" t="s">
@@ -11341,7 +11382,7 @@
       <c r="A253" s="15">
         <v>252</v>
       </c>
-      <c r="B253" s="39" t="s">
+      <c r="B253" s="38" t="s">
         <v>947</v>
       </c>
       <c r="C253" s="22" t="s">
@@ -11368,7 +11409,7 @@
       <c r="A254" s="15">
         <v>253</v>
       </c>
-      <c r="B254" s="38" t="s">
+      <c r="B254" s="37" t="s">
         <v>735</v>
       </c>
       <c r="C254" s="8" t="s">
@@ -11394,7 +11435,7 @@
       <c r="A255" s="15">
         <v>254</v>
       </c>
-      <c r="B255" s="38" t="s">
+      <c r="B255" s="37" t="s">
         <v>739</v>
       </c>
       <c r="C255" s="8" t="s">
@@ -11550,7 +11591,7 @@
       <c r="A261" s="15">
         <v>260</v>
       </c>
-      <c r="B261" s="38" t="s">
+      <c r="B261" s="37" t="s">
         <v>758</v>
       </c>
       <c r="C261" s="8" t="s">
@@ -11942,26 +11983,26 @@
         <v>996</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="45" customFormat="1">
-      <c r="A276" s="42">
+    <row r="276" spans="1:9" s="44" customFormat="1">
+      <c r="A276" s="41">
         <v>275</v>
       </c>
-      <c r="B276" s="46" t="s">
+      <c r="B276" s="45" t="s">
         <v>810</v>
       </c>
-      <c r="C276" s="44" t="s">
+      <c r="C276" s="43" t="s">
         <v>811</v>
       </c>
-      <c r="E276" s="45">
-        <v>1</v>
-      </c>
-      <c r="F276" s="45">
-        <v>1</v>
-      </c>
-      <c r="G276" s="45">
-        <v>1</v>
-      </c>
-      <c r="I276" s="44" t="s">
+      <c r="E276" s="44">
+        <v>1</v>
+      </c>
+      <c r="F276" s="44">
+        <v>1</v>
+      </c>
+      <c r="G276" s="44">
+        <v>1</v>
+      </c>
+      <c r="I276" s="43" t="s">
         <v>1009</v>
       </c>
     </row>
@@ -12201,7 +12242,7 @@
       <c r="A286" s="15">
         <v>285</v>
       </c>
-      <c r="B286" s="40" t="s">
+      <c r="B286" s="39" t="s">
         <v>845</v>
       </c>
       <c r="C286" s="24" t="s">
@@ -12227,7 +12268,7 @@
       <c r="A287" s="15">
         <v>286</v>
       </c>
-      <c r="B287" s="40" t="s">
+      <c r="B287" s="39" t="s">
         <v>847</v>
       </c>
       <c r="C287" s="24" t="s">
@@ -12249,29 +12290,29 @@
         <v>850</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="45" customFormat="1">
-      <c r="A288" s="42">
+    <row r="288" spans="1:9" s="44" customFormat="1">
+      <c r="A288" s="41">
         <v>287</v>
       </c>
-      <c r="B288" s="46" t="s">
+      <c r="B288" s="45" t="s">
         <v>851</v>
       </c>
-      <c r="C288" s="44" t="s">
+      <c r="C288" s="43" t="s">
         <v>852</v>
       </c>
-      <c r="D288" s="44" t="s">
+      <c r="D288" s="43" t="s">
         <v>853</v>
       </c>
-      <c r="E288" s="45">
-        <v>1</v>
-      </c>
-      <c r="F288" s="45">
-        <v>1</v>
-      </c>
-      <c r="G288" s="45">
-        <v>1</v>
-      </c>
-      <c r="I288" s="44" t="s">
+      <c r="E288" s="44">
+        <v>1</v>
+      </c>
+      <c r="F288" s="44">
+        <v>1</v>
+      </c>
+      <c r="G288" s="44">
+        <v>1</v>
+      </c>
+      <c r="I288" s="43" t="s">
         <v>946</v>
       </c>
     </row>
@@ -12279,7 +12320,7 @@
       <c r="A289" s="15">
         <v>288</v>
       </c>
-      <c r="B289" s="40" t="s">
+      <c r="B289" s="39" t="s">
         <v>854</v>
       </c>
       <c r="C289" s="24" t="s">
@@ -12900,7 +12941,7 @@
       <c r="A313" s="15">
         <v>312</v>
       </c>
-      <c r="B313" s="36" t="s">
+      <c r="B313" s="35" t="s">
         <v>933</v>
       </c>
       <c r="C313" s="14" t="s">
@@ -12926,13 +12967,13 @@
       <c r="A314" s="15">
         <v>313</v>
       </c>
-      <c r="B314" s="36" t="s">
+      <c r="B314" s="35" t="s">
         <v>934</v>
       </c>
       <c r="C314" s="14" t="s">
         <v>936</v>
       </c>
-      <c r="D314" s="35" t="s">
+      <c r="D314" s="34" t="s">
         <v>941</v>
       </c>
       <c r="E314" s="16">
@@ -12978,13 +13019,13 @@
       <c r="A316" s="15">
         <v>315</v>
       </c>
-      <c r="B316" s="36" t="s">
+      <c r="B316" s="35" t="s">
         <v>945</v>
       </c>
       <c r="C316" s="14" t="s">
         <v>943</v>
       </c>
-      <c r="D316" s="35" t="s">
+      <c r="D316" s="34" t="s">
         <v>942</v>
       </c>
       <c r="E316" s="16">
@@ -13000,144 +13041,144 @@
         <v>672</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="45" customFormat="1">
+    <row r="317" spans="1:9" s="44" customFormat="1">
       <c r="A317" s="15">
         <v>316</v>
       </c>
-      <c r="B317" s="43" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C317" s="44" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E317" s="45">
-        <v>1</v>
-      </c>
-      <c r="F317" s="45">
-        <v>1</v>
-      </c>
-      <c r="G317" s="45">
-        <v>1</v>
-      </c>
-      <c r="I317" s="44" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" s="45" customFormat="1">
+      <c r="B317" s="42" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C317" s="43" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E317" s="44">
+        <v>1</v>
+      </c>
+      <c r="F317" s="44">
+        <v>1</v>
+      </c>
+      <c r="G317" s="44">
+        <v>1</v>
+      </c>
+      <c r="I317" s="43" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" s="44" customFormat="1">
       <c r="A318" s="15">
         <v>317</v>
       </c>
-      <c r="B318" s="43" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C318" s="44" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E318" s="45">
-        <v>1</v>
-      </c>
-      <c r="F318" s="45">
-        <v>1</v>
-      </c>
-      <c r="G318" s="45">
-        <v>1</v>
-      </c>
-      <c r="I318" s="44" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="45" customFormat="1">
+      <c r="B318" s="42" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C318" s="43" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E318" s="44">
+        <v>1</v>
+      </c>
+      <c r="F318" s="44">
+        <v>1</v>
+      </c>
+      <c r="G318" s="44">
+        <v>1</v>
+      </c>
+      <c r="I318" s="43" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="44" customFormat="1">
       <c r="A319" s="15">
         <v>318</v>
       </c>
-      <c r="B319" s="43" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C319" s="44" t="s">
+      <c r="B319" s="42" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C319" s="43" t="s">
         <v>1010</v>
       </c>
-      <c r="E319" s="45">
-        <v>1</v>
-      </c>
-      <c r="F319" s="45">
-        <v>1</v>
-      </c>
-      <c r="G319" s="45">
-        <v>1</v>
-      </c>
-      <c r="I319" s="44" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" s="45" customFormat="1">
+      <c r="E319" s="44">
+        <v>1</v>
+      </c>
+      <c r="F319" s="44">
+        <v>1</v>
+      </c>
+      <c r="G319" s="44">
+        <v>1</v>
+      </c>
+      <c r="I319" s="43" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" s="44" customFormat="1">
       <c r="A320" s="15">
         <v>319</v>
       </c>
-      <c r="B320" s="47" t="s">
+      <c r="B320" s="46" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C320" s="43" t="s">
         <v>1011</v>
       </c>
-      <c r="C320" s="44" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E320" s="45">
-        <v>1</v>
-      </c>
-      <c r="F320" s="45">
-        <v>1</v>
-      </c>
-      <c r="G320" s="45">
-        <v>1</v>
-      </c>
-      <c r="I320" s="48" t="s">
+      <c r="E320" s="44">
+        <v>1</v>
+      </c>
+      <c r="F320" s="44">
+        <v>1</v>
+      </c>
+      <c r="G320" s="44">
+        <v>1</v>
+      </c>
+      <c r="I320" s="47" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="45" customFormat="1">
+    <row r="321" spans="1:9" s="44" customFormat="1">
       <c r="A321" s="15">
         <v>320</v>
       </c>
-      <c r="B321" s="49" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C321" s="44" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E321" s="45">
-        <v>1</v>
-      </c>
-      <c r="F321" s="45">
-        <v>1</v>
-      </c>
-      <c r="G321" s="45">
-        <v>1</v>
-      </c>
-      <c r="I321" s="48" t="s">
+      <c r="B321" s="48" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C321" s="43" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E321" s="44">
+        <v>1</v>
+      </c>
+      <c r="F321" s="44">
+        <v>1</v>
+      </c>
+      <c r="G321" s="44">
+        <v>1</v>
+      </c>
+      <c r="I321" s="47" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="45" customFormat="1">
+    <row r="322" spans="1:9" s="44" customFormat="1">
       <c r="A322" s="15">
         <v>321</v>
       </c>
-      <c r="B322" s="43" t="s">
+      <c r="B322" s="42" t="s">
         <v>956</v>
       </c>
-      <c r="C322" s="44" t="s">
+      <c r="C322" s="43" t="s">
         <v>1008</v>
       </c>
-      <c r="D322" s="43" t="s">
+      <c r="D322" s="42" t="s">
         <v>957</v>
       </c>
-      <c r="E322" s="45">
-        <v>1</v>
-      </c>
-      <c r="F322" s="45">
-        <v>1</v>
-      </c>
-      <c r="G322" s="45">
-        <v>1</v>
-      </c>
-      <c r="I322" s="44" t="s">
+      <c r="E322" s="44">
+        <v>1</v>
+      </c>
+      <c r="F322" s="44">
+        <v>1</v>
+      </c>
+      <c r="G322" s="44">
+        <v>1</v>
+      </c>
+      <c r="I322" s="43" t="s">
         <v>996</v>
       </c>
     </row>
@@ -13145,11 +13186,11 @@
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="50" t="s">
-        <v>1013</v>
+      <c r="B323" s="49" t="s">
+        <v>1015</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D323" s="17"/>
       <c r="E323" s="16">
@@ -13351,7 +13392,7 @@
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="38" t="s">
+      <c r="B331" s="37" t="s">
         <v>997</v>
       </c>
       <c r="C331" s="18" t="s">
@@ -13377,7 +13418,7 @@
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="38" t="s">
+      <c r="B332" s="37" t="s">
         <v>1001</v>
       </c>
       <c r="C332" s="18" t="s">
@@ -13397,6 +13438,81 @@
       </c>
       <c r="I332" s="14" t="s">
         <v>1004</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" s="15">
+        <v>332</v>
+      </c>
+      <c r="B333" s="37" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C333" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D333" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E333" s="16">
+        <v>1</v>
+      </c>
+      <c r="F333" s="16">
+        <v>1</v>
+      </c>
+      <c r="G333" s="16">
+        <v>1</v>
+      </c>
+      <c r="I333" s="14" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="15">
+        <v>333</v>
+      </c>
+      <c r="B334" s="37" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C334" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E334" s="16">
+        <v>1</v>
+      </c>
+      <c r="F334" s="16">
+        <v>1</v>
+      </c>
+      <c r="G334" s="16">
+        <v>1</v>
+      </c>
+      <c r="I334" s="14" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" s="15">
+        <v>334</v>
+      </c>
+      <c r="B335" s="37" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C335" s="18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E335" s="16">
+        <v>1</v>
+      </c>
+      <c r="F335" s="16">
+        <v>1</v>
+      </c>
+      <c r="G335" s="16">
+        <v>1</v>
+      </c>
+      <c r="I335" s="14" t="s">
+        <v>1029</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1042">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4275,22 +4275,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_011_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_008_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_normal_001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_012</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_052_qfhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4303,10 +4291,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2021年4月16日 23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_gifts</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4323,27 +4307,75 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>龙腾礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用礼包皮肤配置</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_001_ltlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_013_long</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动boss皮肤（龙）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（福袋）</t>
+    <t>sys_lwgp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王贡品</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSLWGPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_053_xcns</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除达人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_053_XCNSManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年4月12日 23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年4月19日 23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_012_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_013</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_014_caiqiu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（彩球）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（彩球）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_009_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4972,10 +5004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I335"/>
+  <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C322" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
@@ -5219,13 +5251,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>639</v>
@@ -5245,13 +5277,13 @@
         <v>32</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>640</v>
@@ -5271,13 +5303,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>638</v>
@@ -5297,13 +5329,13 @@
         <v>38</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>639</v>
@@ -5323,13 +5355,13 @@
         <v>41</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>638</v>
@@ -5739,13 +5771,13 @@
         <v>88</v>
       </c>
       <c r="E29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>639</v>
@@ -5765,13 +5797,13 @@
         <v>91</v>
       </c>
       <c r="E30" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>638</v>
@@ -6025,13 +6057,13 @@
         <v>121</v>
       </c>
       <c r="E40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>639</v>
@@ -6233,13 +6265,13 @@
         <v>145</v>
       </c>
       <c r="E48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>639</v>
@@ -6465,13 +6497,13 @@
         <v>167</v>
       </c>
       <c r="E57" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>639</v>
@@ -6543,13 +6575,13 @@
         <v>174</v>
       </c>
       <c r="E60" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="32" t="s">
         <v>972</v>
@@ -6569,13 +6601,13 @@
         <v>177</v>
       </c>
       <c r="E61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>638</v>
@@ -6881,13 +6913,13 @@
         <v>213</v>
       </c>
       <c r="E73" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>639</v>
@@ -13046,10 +13078,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>1016</v>
+        <v>1034</v>
       </c>
       <c r="C317" s="43" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="E317" s="44">
         <v>1</v>
@@ -13069,10 +13101,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="E318" s="44">
         <v>1</v>
@@ -13092,7 +13124,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>1017</v>
+        <v>1039</v>
       </c>
       <c r="C319" s="43" t="s">
         <v>1010</v>
@@ -13115,7 +13147,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="46" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C320" s="43" t="s">
         <v>1011</v>
@@ -13138,7 +13170,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="C321" s="43" t="s">
         <v>1013</v>
@@ -13445,13 +13477,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="37" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C333" s="18" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E333" s="16">
         <v>1</v>
@@ -13463,7 +13495,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="14" t="s">
-        <v>1023</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13471,13 +13503,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C334" s="18" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D334" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E334" s="16">
         <v>1</v>
@@ -13489,7 +13521,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="14" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13497,22 +13529,74 @@
         <v>334</v>
       </c>
       <c r="B335" s="37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C335" s="14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E335" s="16">
+        <v>1</v>
+      </c>
+      <c r="F335" s="16">
+        <v>1</v>
+      </c>
+      <c r="G335" s="16">
+        <v>1</v>
+      </c>
+      <c r="I335" s="14" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="15">
+        <v>335</v>
+      </c>
+      <c r="B336" s="37" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C336" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D336" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E336" s="16">
+        <v>1</v>
+      </c>
+      <c r="F336" s="16">
+        <v>1</v>
+      </c>
+      <c r="G336" s="16">
+        <v>1</v>
+      </c>
+      <c r="I336" s="14" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="15">
+        <v>336</v>
+      </c>
+      <c r="B337" s="37" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C337" s="18" t="s">
         <v>1030</v>
       </c>
-      <c r="C335" s="18" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E335" s="16">
-        <v>1</v>
-      </c>
-      <c r="F335" s="16">
-        <v>1</v>
-      </c>
-      <c r="G335" s="16">
-        <v>1</v>
-      </c>
-      <c r="I335" s="14" t="s">
-        <v>1029</v>
+      <c r="D337" s="8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E337" s="16">
+        <v>1</v>
+      </c>
+      <c r="F337" s="16">
+        <v>1</v>
+      </c>
+      <c r="G337" s="16">
+        <v>1</v>
+      </c>
+      <c r="I337" s="14" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="1046">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3281,10 +3281,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>金秋送豪礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_027_mfflq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4372,6 +4368,26 @@
   </si>
   <si>
     <t>欢乐礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值消耗模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值消耗模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_jqshl_style/act_027_style_002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐豪礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值消耗模板皮肤配置，永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -5004,10 +5020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I337"/>
+  <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C322" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
@@ -5031,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -6282,7 +6298,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>631</v>
@@ -6436,7 +6452,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>160</v>
@@ -6540,7 +6556,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>171</v>
@@ -6569,7 +6585,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>174</v>
@@ -6584,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7000,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="31" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -8950,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -10950,7 +10966,7 @@
         <v>659</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>660</v>
@@ -10991,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -11415,13 +11431,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C253" s="22" t="s">
         <v>732</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E253" s="22">
         <v>1</v>
@@ -11494,14 +11510,14 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C256" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="C256" s="14" t="s">
+      <c r="D256" s="14" t="s">
         <v>1006</v>
       </c>
-      <c r="D256" s="14" t="s">
-        <v>1007</v>
-      </c>
       <c r="E256" s="16">
         <v>0</v>
       </c>
@@ -11512,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="I256" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
@@ -11835,23 +11851,23 @@
         <v>787</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>788</v>
+        <v>1041</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E269" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F269" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269" s="16"/>
-      <c r="I269" s="18" t="s">
-        <v>727</v>
+      <c r="I269" s="14" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -11859,13 +11875,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="C270" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="C270" s="14" t="s">
+      <c r="D270" s="17" t="s">
         <v>790</v>
-      </c>
-      <c r="D270" s="17" t="s">
-        <v>791</v>
       </c>
       <c r="E270" s="16">
         <v>0</v>
@@ -11886,13 +11902,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="C271" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="D271" s="17" t="s">
         <v>793</v>
-      </c>
-      <c r="C271" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="D271" s="17" t="s">
-        <v>794</v>
       </c>
       <c r="E271" s="16">
         <v>1</v>
@@ -11905,7 +11921,7 @@
       </c>
       <c r="H271" s="16"/>
       <c r="I271" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11913,13 +11929,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="C272" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="C272" s="14" t="s">
+      <c r="D272" s="17" t="s">
         <v>798</v>
-      </c>
-      <c r="D272" s="17" t="s">
-        <v>799</v>
       </c>
       <c r="E272" s="16">
         <v>1</v>
@@ -11932,7 +11948,7 @@
       </c>
       <c r="H272" s="16"/>
       <c r="I272" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11940,13 +11956,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="D273" s="17" t="s">
         <v>801</v>
-      </c>
-      <c r="C273" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="D273" s="17" t="s">
-        <v>802</v>
       </c>
       <c r="E273" s="16">
         <v>0</v>
@@ -11959,7 +11975,7 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11967,13 +11983,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C274" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="D274" s="17" t="s">
         <v>804</v>
-      </c>
-      <c r="D274" s="17" t="s">
-        <v>805</v>
       </c>
       <c r="E274" s="16">
         <v>0</v>
@@ -11986,7 +12002,7 @@
       </c>
       <c r="H274" s="16"/>
       <c r="I274" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="16" customFormat="1">
@@ -11994,14 +12010,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="23" t="s">
+        <v>807</v>
+      </c>
+      <c r="C275" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="D275" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="C275" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="D275" s="17" t="s">
-        <v>809</v>
-      </c>
       <c r="E275" s="16">
         <v>0</v>
       </c>
@@ -12012,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="14" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="44" customFormat="1">
@@ -12020,11 +12036,11 @@
         <v>275</v>
       </c>
       <c r="B276" s="45" t="s">
+        <v>809</v>
+      </c>
+      <c r="C276" s="43" t="s">
         <v>810</v>
       </c>
-      <c r="C276" s="43" t="s">
-        <v>811</v>
-      </c>
       <c r="E276" s="44">
         <v>1</v>
       </c>
@@ -12035,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="43" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -12043,13 +12059,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="C277" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="D277" s="23" t="s">
         <v>812</v>
-      </c>
-      <c r="C277" s="14" t="s">
-        <v>915</v>
-      </c>
-      <c r="D277" s="23" t="s">
-        <v>813</v>
       </c>
       <c r="E277" s="14">
         <v>0</v>
@@ -12062,7 +12078,7 @@
       </c>
       <c r="H277" s="14"/>
       <c r="I277" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -12070,25 +12086,25 @@
         <v>277</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D278" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="I278" s="18" t="s">
         <v>814</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-      <c r="I278" s="18" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -12096,22 +12112,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="C279" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="18" t="s">
         <v>817</v>
-      </c>
-      <c r="C279" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="18" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -12119,13 +12135,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12137,7 +12153,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -12145,13 +12161,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12163,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="I281" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -12171,25 +12187,25 @@
         <v>281</v>
       </c>
       <c r="B282" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C282" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="D282" s="17" t="s">
         <v>833</v>
       </c>
-      <c r="C282" s="14" t="s">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="18" t="s">
         <v>827</v>
-      </c>
-      <c r="D282" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="18" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="26" customFormat="1" ht="17.25" customHeight="1">
@@ -12197,25 +12213,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="C283" s="24" t="s">
         <v>829</v>
       </c>
-      <c r="C283" s="24" t="s">
+      <c r="D283" s="25" t="s">
         <v>830</v>
       </c>
-      <c r="D283" s="25" t="s">
+      <c r="E283" s="26">
+        <v>1</v>
+      </c>
+      <c r="F283" s="26">
+        <v>1</v>
+      </c>
+      <c r="G283" s="26">
+        <v>1</v>
+      </c>
+      <c r="I283" s="27" t="s">
         <v>831</v>
-      </c>
-      <c r="E283" s="26">
-        <v>1</v>
-      </c>
-      <c r="F283" s="26">
-        <v>1</v>
-      </c>
-      <c r="G283" s="26">
-        <v>1</v>
-      </c>
-      <c r="I283" s="27" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="26" customFormat="1">
@@ -12223,13 +12239,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
+        <v>836</v>
+      </c>
+      <c r="C284" s="24" t="s">
         <v>837</v>
       </c>
-      <c r="C284" s="24" t="s">
-        <v>838</v>
-      </c>
       <c r="D284" s="25" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E284" s="26">
         <v>1</v>
@@ -12249,25 +12265,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="C285" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="D285" s="17" t="s">
         <v>841</v>
       </c>
-      <c r="D285" s="17" t="s">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="18" t="s">
         <v>842</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285">
-        <v>0</v>
-      </c>
-      <c r="I285" s="18" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="26" customFormat="1">
@@ -12275,13 +12291,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="39" t="s">
+        <v>844</v>
+      </c>
+      <c r="C286" s="24" t="s">
         <v>845</v>
       </c>
-      <c r="C286" s="24" t="s">
-        <v>846</v>
-      </c>
       <c r="D286" s="25" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E286" s="26">
         <v>1</v>
@@ -12301,25 +12317,25 @@
         <v>286</v>
       </c>
       <c r="B287" s="39" t="s">
+        <v>846</v>
+      </c>
+      <c r="C287" s="24" t="s">
         <v>847</v>
       </c>
-      <c r="C287" s="24" t="s">
+      <c r="D287" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="D287" s="25" t="s">
+      <c r="E287" s="26">
+        <v>1</v>
+      </c>
+      <c r="F287" s="26">
+        <v>1</v>
+      </c>
+      <c r="G287" s="26">
+        <v>1</v>
+      </c>
+      <c r="I287" s="27" t="s">
         <v>849</v>
-      </c>
-      <c r="E287" s="26">
-        <v>1</v>
-      </c>
-      <c r="F287" s="26">
-        <v>1</v>
-      </c>
-      <c r="G287" s="26">
-        <v>1</v>
-      </c>
-      <c r="I287" s="27" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="44" customFormat="1">
@@ -12327,14 +12343,14 @@
         <v>287</v>
       </c>
       <c r="B288" s="45" t="s">
+        <v>850</v>
+      </c>
+      <c r="C288" s="43" t="s">
         <v>851</v>
       </c>
-      <c r="C288" s="43" t="s">
+      <c r="D288" s="43" t="s">
         <v>852</v>
       </c>
-      <c r="D288" s="43" t="s">
-        <v>853</v>
-      </c>
       <c r="E288" s="44">
         <v>1</v>
       </c>
@@ -12345,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="43" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="26" customFormat="1">
@@ -12353,25 +12369,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="39" t="s">
+        <v>853</v>
+      </c>
+      <c r="C289" s="24" t="s">
         <v>854</v>
       </c>
-      <c r="C289" s="24" t="s">
+      <c r="D289" s="25" t="s">
         <v>855</v>
       </c>
-      <c r="D289" s="25" t="s">
+      <c r="E289" s="26">
+        <v>1</v>
+      </c>
+      <c r="F289" s="26">
+        <v>1</v>
+      </c>
+      <c r="G289" s="26">
+        <v>1</v>
+      </c>
+      <c r="I289" s="27" t="s">
         <v>856</v>
-      </c>
-      <c r="E289" s="26">
-        <v>1</v>
-      </c>
-      <c r="F289" s="26">
-        <v>1</v>
-      </c>
-      <c r="G289" s="26">
-        <v>1</v>
-      </c>
-      <c r="I289" s="27" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="26" customFormat="1">
@@ -12379,25 +12395,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="25" t="s">
+        <v>857</v>
+      </c>
+      <c r="C290" s="24" t="s">
         <v>858</v>
       </c>
-      <c r="C290" s="24" t="s">
+      <c r="D290" s="25" t="s">
         <v>859</v>
       </c>
-      <c r="D290" s="25" t="s">
+      <c r="E290" s="26">
+        <v>1</v>
+      </c>
+      <c r="F290" s="26">
+        <v>1</v>
+      </c>
+      <c r="G290" s="26">
+        <v>1</v>
+      </c>
+      <c r="I290" s="27" t="s">
         <v>860</v>
-      </c>
-      <c r="E290" s="26">
-        <v>1</v>
-      </c>
-      <c r="F290" s="26">
-        <v>1</v>
-      </c>
-      <c r="G290" s="26">
-        <v>1</v>
-      </c>
-      <c r="I290" s="27" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="26" customFormat="1">
@@ -12405,13 +12421,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="25" t="s">
+        <v>861</v>
+      </c>
+      <c r="C291" s="24" t="s">
         <v>862</v>
       </c>
-      <c r="C291" s="24" t="s">
+      <c r="D291" s="25" t="s">
         <v>863</v>
-      </c>
-      <c r="D291" s="25" t="s">
-        <v>864</v>
       </c>
       <c r="E291" s="26">
         <v>1</v>
@@ -12431,13 +12447,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="25" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C292" s="24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E292" s="26">
         <v>1</v>
@@ -12457,25 +12473,25 @@
         <v>292</v>
       </c>
       <c r="B293" s="25" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C293" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D293" s="25" t="s">
+        <v>867</v>
+      </c>
+      <c r="E293" s="26">
+        <v>1</v>
+      </c>
+      <c r="F293" s="26">
+        <v>1</v>
+      </c>
+      <c r="G293" s="26">
+        <v>1</v>
+      </c>
+      <c r="I293" s="27" t="s">
         <v>868</v>
-      </c>
-      <c r="E293" s="26">
-        <v>1</v>
-      </c>
-      <c r="F293" s="26">
-        <v>1</v>
-      </c>
-      <c r="G293" s="26">
-        <v>1</v>
-      </c>
-      <c r="I293" s="27" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="294" spans="1:9" s="26" customFormat="1">
@@ -12483,13 +12499,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="C294" s="24" t="s">
         <v>872</v>
       </c>
-      <c r="C294" s="24" t="s">
+      <c r="D294" s="25" t="s">
         <v>873</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>874</v>
       </c>
       <c r="E294" s="26">
         <v>1</v>
@@ -12509,13 +12525,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
+        <v>874</v>
+      </c>
+      <c r="C295" s="24" t="s">
         <v>875</v>
       </c>
-      <c r="C295" s="24" t="s">
+      <c r="D295" s="25" t="s">
         <v>876</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>877</v>
       </c>
       <c r="E295" s="26">
         <v>1</v>
@@ -12535,13 +12551,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="C296" s="14" t="s">
         <v>878</v>
       </c>
-      <c r="C296" s="14" t="s">
-        <v>879</v>
-      </c>
       <c r="D296" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -12553,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="14" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -12561,13 +12577,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D297" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -12579,7 +12595,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -12587,14 +12603,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="19" t="s">
+        <v>883</v>
+      </c>
+      <c r="C298" s="14" t="s">
         <v>884</v>
       </c>
-      <c r="C298" s="14" t="s">
+      <c r="D298" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="D298" s="19" t="s">
-        <v>886</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12605,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="16" customFormat="1">
@@ -12613,25 +12629,25 @@
         <v>298</v>
       </c>
       <c r="B299" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="C299" s="14" t="s">
         <v>887</v>
       </c>
-      <c r="C299" s="14" t="s">
+      <c r="D299" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="D299" s="17" t="s">
+      <c r="E299" s="16">
+        <v>1</v>
+      </c>
+      <c r="F299" s="16">
+        <v>1</v>
+      </c>
+      <c r="G299" s="16">
+        <v>1</v>
+      </c>
+      <c r="I299" s="18" t="s">
         <v>889</v>
-      </c>
-      <c r="E299" s="16">
-        <v>1</v>
-      </c>
-      <c r="F299" s="16">
-        <v>1</v>
-      </c>
-      <c r="G299" s="16">
-        <v>1</v>
-      </c>
-      <c r="I299" s="18" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="16" customFormat="1">
@@ -12639,25 +12655,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="C300" s="14" t="s">
         <v>893</v>
       </c>
-      <c r="C300" s="14" t="s">
+      <c r="D300" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="D300" s="17" t="s">
+      <c r="E300" s="16">
+        <v>0</v>
+      </c>
+      <c r="F300" s="16">
+        <v>0</v>
+      </c>
+      <c r="G300" s="16">
+        <v>0</v>
+      </c>
+      <c r="I300" s="18" t="s">
         <v>895</v>
-      </c>
-      <c r="E300" s="16">
-        <v>0</v>
-      </c>
-      <c r="F300" s="16">
-        <v>0</v>
-      </c>
-      <c r="G300" s="16">
-        <v>0</v>
-      </c>
-      <c r="I300" s="18" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="16" customFormat="1">
@@ -12665,14 +12681,14 @@
         <v>300</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C301" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="D301" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="D301" s="17" t="s">
-        <v>898</v>
-      </c>
       <c r="E301" s="16">
         <v>0</v>
       </c>
@@ -12683,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="16" customFormat="1">
@@ -12691,14 +12707,14 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="C302" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="D302" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="C302" s="14" t="s">
-        <v>900</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>902</v>
-      </c>
       <c r="E302" s="16">
         <v>0</v>
       </c>
@@ -12709,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="16" customFormat="1">
@@ -12717,25 +12733,25 @@
         <v>302</v>
       </c>
       <c r="B303" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="C303" s="14" t="s">
+        <v>905</v>
+      </c>
+      <c r="D303" s="17" t="s">
         <v>903</v>
       </c>
-      <c r="C303" s="14" t="s">
-        <v>906</v>
-      </c>
-      <c r="D303" s="17" t="s">
+      <c r="E303" s="16">
+        <v>1</v>
+      </c>
+      <c r="F303" s="16">
+        <v>1</v>
+      </c>
+      <c r="G303" s="16">
+        <v>1</v>
+      </c>
+      <c r="I303" s="18" t="s">
         <v>904</v>
-      </c>
-      <c r="E303" s="16">
-        <v>1</v>
-      </c>
-      <c r="F303" s="16">
-        <v>1</v>
-      </c>
-      <c r="G303" s="16">
-        <v>1</v>
-      </c>
-      <c r="I303" s="18" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="16" customFormat="1">
@@ -12743,13 +12759,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E304" s="16">
         <v>1</v>
@@ -12761,7 +12777,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="16" customFormat="1">
@@ -12769,25 +12785,25 @@
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C305" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="D305" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="E305" s="16">
+        <v>1</v>
+      </c>
+      <c r="F305" s="16">
+        <v>1</v>
+      </c>
+      <c r="G305" s="16">
+        <v>1</v>
+      </c>
+      <c r="I305" s="14" t="s">
         <v>926</v>
-      </c>
-      <c r="D305" s="17" t="s">
-        <v>953</v>
-      </c>
-      <c r="E305" s="16">
-        <v>1</v>
-      </c>
-      <c r="F305" s="16">
-        <v>1</v>
-      </c>
-      <c r="G305" s="16">
-        <v>1</v>
-      </c>
-      <c r="I305" s="14" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="16" customFormat="1">
@@ -12795,13 +12811,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="C306" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="D306" s="17" t="s">
         <v>949</v>
-      </c>
-      <c r="C306" s="17" t="s">
-        <v>932</v>
-      </c>
-      <c r="D306" s="17" t="s">
-        <v>950</v>
       </c>
       <c r="E306" s="16">
         <v>1</v>
@@ -12821,25 +12837,25 @@
         <v>306</v>
       </c>
       <c r="B307" s="23" t="s">
+        <v>908</v>
+      </c>
+      <c r="C307" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="D307" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="E307" s="16">
+        <v>1</v>
+      </c>
+      <c r="F307" s="16">
+        <v>1</v>
+      </c>
+      <c r="G307" s="16">
+        <v>1</v>
+      </c>
+      <c r="I307" s="18" t="s">
         <v>909</v>
-      </c>
-      <c r="C307" s="16" t="s">
-        <v>908</v>
-      </c>
-      <c r="D307" s="16" t="s">
-        <v>907</v>
-      </c>
-      <c r="E307" s="16">
-        <v>1</v>
-      </c>
-      <c r="F307" s="16">
-        <v>1</v>
-      </c>
-      <c r="G307" s="16">
-        <v>1</v>
-      </c>
-      <c r="I307" s="18" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="16" customFormat="1">
@@ -12847,13 +12863,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E308" s="16">
         <v>1</v>
@@ -12865,7 +12881,7 @@
         <v>1</v>
       </c>
       <c r="I308" s="14" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="16" customFormat="1">
@@ -12873,25 +12889,25 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="C309" s="14" t="s">
         <v>917</v>
       </c>
-      <c r="C309" s="14" t="s">
+      <c r="D309" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="E309" s="16">
+        <v>1</v>
+      </c>
+      <c r="F309" s="16">
+        <v>1</v>
+      </c>
+      <c r="G309" s="16">
+        <v>1</v>
+      </c>
+      <c r="I309" s="14" t="s">
         <v>918</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>916</v>
-      </c>
-      <c r="E309" s="16">
-        <v>1</v>
-      </c>
-      <c r="F309" s="16">
-        <v>1</v>
-      </c>
-      <c r="G309" s="16">
-        <v>1</v>
-      </c>
-      <c r="I309" s="14" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="16" customFormat="1">
@@ -12899,14 +12915,14 @@
         <v>309</v>
       </c>
       <c r="B310" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="C310" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="D310" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="C310" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="D310" s="17" t="s">
-        <v>921</v>
-      </c>
       <c r="E310" s="16">
         <v>0</v>
       </c>
@@ -12917,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="I310" s="14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="16" customFormat="1">
@@ -12925,14 +12941,14 @@
         <v>310</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C311" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="D311" s="17" t="s">
         <v>923</v>
       </c>
-      <c r="D311" s="17" t="s">
-        <v>924</v>
-      </c>
       <c r="E311" s="16">
         <v>0</v>
       </c>
@@ -12943,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="14" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="16" customFormat="1">
@@ -12951,13 +12967,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="C312" s="14" t="s">
         <v>929</v>
       </c>
-      <c r="C312" s="14" t="s">
+      <c r="D312" s="17" t="s">
         <v>930</v>
-      </c>
-      <c r="D312" s="17" t="s">
-        <v>931</v>
       </c>
       <c r="E312" s="16">
         <v>0</v>
@@ -12974,13 +12990,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E313" s="16">
         <v>0</v>
@@ -12992,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="I313" s="14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13000,13 +13016,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="35" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D314" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E314" s="16">
         <v>1</v>
@@ -13026,13 +13042,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E315" s="16">
         <v>0</v>
@@ -13044,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13052,13 +13068,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="35" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E316" s="16">
         <v>0</v>
@@ -13078,10 +13094,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C317" s="43" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E317" s="44">
         <v>1</v>
@@ -13093,7 +13109,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="43" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="44" customFormat="1">
@@ -13101,10 +13117,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E318" s="44">
         <v>1</v>
@@ -13116,7 +13132,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="43" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="44" customFormat="1">
@@ -13124,10 +13140,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C319" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E319" s="44">
         <v>1</v>
@@ -13139,7 +13155,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="43" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="44" customFormat="1">
@@ -13147,10 +13163,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="46" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C320" s="43" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E320" s="44">
         <v>1</v>
@@ -13162,7 +13178,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="47" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="44" customFormat="1">
@@ -13170,10 +13186,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C321" s="43" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E321" s="44">
         <v>1</v>
@@ -13193,14 +13209,14 @@
         <v>321</v>
       </c>
       <c r="B322" s="42" t="s">
+        <v>955</v>
+      </c>
+      <c r="C322" s="43" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D322" s="42" t="s">
         <v>956</v>
       </c>
-      <c r="C322" s="43" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D322" s="42" t="s">
-        <v>957</v>
-      </c>
       <c r="E322" s="44">
         <v>1</v>
       </c>
@@ -13211,7 +13227,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="43" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
@@ -13219,10 +13235,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="49" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D323" s="17"/>
       <c r="E323" s="16">
@@ -13235,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="14" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="16" customFormat="1">
@@ -13243,14 +13259,14 @@
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="C324" s="14" t="s">
         <v>959</v>
       </c>
-      <c r="C324" s="14" t="s">
+      <c r="D324" s="17" t="s">
         <v>960</v>
       </c>
-      <c r="D324" s="17" t="s">
-        <v>961</v>
-      </c>
       <c r="E324" s="16">
         <v>0</v>
       </c>
@@ -13261,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13269,11 +13285,11 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="C325" s="14" t="s">
         <v>962</v>
       </c>
-      <c r="C325" s="14" t="s">
-        <v>963</v>
-      </c>
       <c r="E325" s="16">
         <v>0</v>
       </c>
@@ -13284,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="16" customFormat="1">
@@ -13292,14 +13308,14 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="C326" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="D326" s="17" t="s">
         <v>967</v>
       </c>
-      <c r="C326" s="17" t="s">
-        <v>966</v>
-      </c>
-      <c r="D326" s="17" t="s">
-        <v>968</v>
-      </c>
       <c r="E326" s="16">
         <v>0</v>
       </c>
@@ -13310,10 +13326,10 @@
         <v>0</v>
       </c>
       <c r="H326" s="16" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="16" customFormat="1">
@@ -13321,14 +13337,14 @@
         <v>326</v>
       </c>
       <c r="B327" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="C327" s="18" t="s">
+        <v>984</v>
+      </c>
+      <c r="D327" s="17" t="s">
         <v>983</v>
       </c>
-      <c r="C327" s="18" t="s">
-        <v>985</v>
-      </c>
-      <c r="D327" s="17" t="s">
-        <v>984</v>
-      </c>
       <c r="E327" s="16">
         <v>0</v>
       </c>
@@ -13339,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="I327" s="14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="16" customFormat="1">
@@ -13347,25 +13363,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="C328" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="D328" s="17" t="s">
         <v>980</v>
       </c>
-      <c r="C328" s="18" t="s">
-        <v>979</v>
-      </c>
-      <c r="D328" s="17" t="s">
+      <c r="E328" s="16">
+        <v>0</v>
+      </c>
+      <c r="F328" s="16">
+        <v>0</v>
+      </c>
+      <c r="G328" s="16">
+        <v>0</v>
+      </c>
+      <c r="I328" s="14" t="s">
         <v>981</v>
-      </c>
-      <c r="E328" s="16">
-        <v>0</v>
-      </c>
-      <c r="F328" s="16">
-        <v>0</v>
-      </c>
-      <c r="G328" s="16">
-        <v>0</v>
-      </c>
-      <c r="I328" s="14" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
@@ -13373,25 +13389,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C329" s="14" t="s">
+        <v>985</v>
+      </c>
+      <c r="D329" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="D329" s="14" t="s">
+      <c r="E329" s="16">
+        <v>1</v>
+      </c>
+      <c r="F329" s="16">
+        <v>1</v>
+      </c>
+      <c r="G329" s="16">
+        <v>1</v>
+      </c>
+      <c r="I329" s="14" t="s">
         <v>987</v>
-      </c>
-      <c r="E329" s="16">
-        <v>1</v>
-      </c>
-      <c r="F329" s="16">
-        <v>1</v>
-      </c>
-      <c r="G329" s="16">
-        <v>1</v>
-      </c>
-      <c r="I329" s="14" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
@@ -13399,25 +13415,25 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
+        <v>990</v>
+      </c>
+      <c r="C330" s="18" t="s">
         <v>991</v>
       </c>
-      <c r="C330" s="18" t="s">
+      <c r="D330" s="16" t="s">
         <v>992</v>
       </c>
-      <c r="D330" s="16" t="s">
+      <c r="E330" s="16">
+        <v>1</v>
+      </c>
+      <c r="F330" s="16">
+        <v>1</v>
+      </c>
+      <c r="G330" s="16">
+        <v>1</v>
+      </c>
+      <c r="I330" s="14" t="s">
         <v>993</v>
-      </c>
-      <c r="E330" s="16">
-        <v>1</v>
-      </c>
-      <c r="F330" s="16">
-        <v>1</v>
-      </c>
-      <c r="G330" s="16">
-        <v>1</v>
-      </c>
-      <c r="I330" s="14" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -13425,25 +13441,25 @@
         <v>330</v>
       </c>
       <c r="B331" s="37" t="s">
+        <v>996</v>
+      </c>
+      <c r="C331" s="18" t="s">
         <v>997</v>
       </c>
-      <c r="C331" s="18" t="s">
+      <c r="D331" t="s">
         <v>998</v>
       </c>
-      <c r="D331" t="s">
+      <c r="E331" s="16">
+        <v>1</v>
+      </c>
+      <c r="F331" s="16">
+        <v>1</v>
+      </c>
+      <c r="G331" s="16">
+        <v>1</v>
+      </c>
+      <c r="I331" s="14" t="s">
         <v>999</v>
-      </c>
-      <c r="E331" s="16">
-        <v>1</v>
-      </c>
-      <c r="F331" s="16">
-        <v>1</v>
-      </c>
-      <c r="G331" s="16">
-        <v>1</v>
-      </c>
-      <c r="I331" s="14" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -13451,25 +13467,25 @@
         <v>331</v>
       </c>
       <c r="B332" s="37" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C332" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D332" t="s">
         <v>1001</v>
       </c>
-      <c r="C332" s="18" t="s">
+      <c r="E332" s="16">
+        <v>1</v>
+      </c>
+      <c r="F332" s="16">
+        <v>1</v>
+      </c>
+      <c r="G332" s="16">
+        <v>1</v>
+      </c>
+      <c r="I332" s="14" t="s">
         <v>1003</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E332" s="16">
-        <v>1</v>
-      </c>
-      <c r="F332" s="16">
-        <v>1</v>
-      </c>
-      <c r="G332" s="16">
-        <v>1</v>
-      </c>
-      <c r="I332" s="14" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -13477,14 +13493,14 @@
         <v>332</v>
       </c>
       <c r="B333" s="37" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C333" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D333" s="8" t="s">
         <v>1017</v>
       </c>
-      <c r="C333" s="18" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D333" s="8" t="s">
-        <v>1018</v>
-      </c>
       <c r="E333" s="16">
         <v>1</v>
       </c>
@@ -13495,7 +13511,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="14" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13503,25 +13519,25 @@
         <v>333</v>
       </c>
       <c r="B334" s="37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C334" s="18" t="s">
         <v>1020</v>
       </c>
-      <c r="C334" s="18" t="s">
+      <c r="D334" t="s">
         <v>1021</v>
       </c>
-      <c r="D334" t="s">
+      <c r="E334" s="16">
+        <v>1</v>
+      </c>
+      <c r="F334" s="16">
+        <v>1</v>
+      </c>
+      <c r="G334" s="16">
+        <v>1</v>
+      </c>
+      <c r="I334" s="14" t="s">
         <v>1022</v>
-      </c>
-      <c r="E334" s="16">
-        <v>1</v>
-      </c>
-      <c r="F334" s="16">
-        <v>1</v>
-      </c>
-      <c r="G334" s="16">
-        <v>1</v>
-      </c>
-      <c r="I334" s="14" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13529,10 +13545,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="37" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E335" s="16">
         <v>1</v>
@@ -13544,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13552,25 +13568,25 @@
         <v>335</v>
       </c>
       <c r="B336" s="37" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C336" s="18" t="s">
         <v>1025</v>
       </c>
-      <c r="C336" s="18" t="s">
+      <c r="D336" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="D336" s="8" t="s">
+      <c r="E336" s="16">
+        <v>1</v>
+      </c>
+      <c r="F336" s="16">
+        <v>1</v>
+      </c>
+      <c r="G336" s="16">
+        <v>1</v>
+      </c>
+      <c r="I336" s="14" t="s">
         <v>1027</v>
-      </c>
-      <c r="E336" s="16">
-        <v>1</v>
-      </c>
-      <c r="F336" s="16">
-        <v>1</v>
-      </c>
-      <c r="G336" s="16">
-        <v>1</v>
-      </c>
-      <c r="I336" s="14" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -13578,14 +13594,14 @@
         <v>336</v>
       </c>
       <c r="B337" s="37" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C337" s="18" t="s">
         <v>1029</v>
       </c>
-      <c r="C337" s="18" t="s">
+      <c r="D337" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="D337" s="8" t="s">
-        <v>1031</v>
-      </c>
       <c r="E337" s="16">
         <v>1</v>
       </c>
@@ -13596,7 +13612,30 @@
         <v>1</v>
       </c>
       <c r="I337" s="14" t="s">
-        <v>1033</v>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" s="15">
+        <v>337</v>
+      </c>
+      <c r="B338" s="37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C338" s="18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E338" s="16">
+        <v>1</v>
+      </c>
+      <c r="F338" s="16">
+        <v>1</v>
+      </c>
+      <c r="G338" s="16">
+        <v>1</v>
+      </c>
+      <c r="I338" s="14" t="s">
+        <v>1044</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$337</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -28,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -37,6 +42,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值和活动是对应的</t>
@@ -501,7 +507,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -512,7 +518,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -521,6 +527,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -530,7 +537,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -539,6 +546,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -548,7 +556,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -557,6 +565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -566,7 +575,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -664,7 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -750,6 +759,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -767,6 +777,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -784,6 +795,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -846,6 +858,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -863,6 +876,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1132,6 +1146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,6 +1157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,6 +1168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1248,6 +1265,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1257,7 +1275,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1266,6 +1284,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1292,6 +1311,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1309,6 +1329,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1326,6 +1347,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1343,6 +1365,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1352,7 +1375,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1361,6 +1384,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1378,6 +1402,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1387,7 +1412,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1396,6 +1421,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1413,6 +1439,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1422,7 +1449,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1431,6 +1458,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1440,7 +1468,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1457,6 +1485,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1466,7 +1495,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1475,6 +1504,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1492,6 +1522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1501,7 +1532,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1510,6 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1527,6 +1559,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1536,7 +1569,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1545,6 +1578,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1562,6 +1596,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1579,6 +1614,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1596,6 +1632,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1613,6 +1650,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1630,6 +1668,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1639,7 +1678,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1648,6 +1687,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1665,6 +1705,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1674,7 +1715,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1683,6 +1724,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1700,6 +1742,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1709,7 +1752,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1718,6 +1761,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1735,6 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1744,7 +1789,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1753,6 +1798,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1770,6 +1816,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1779,7 +1826,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1788,6 +1835,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1805,6 +1853,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1814,7 +1863,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1823,6 +1872,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1840,6 +1890,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1849,7 +1900,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1858,6 +1909,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1884,6 +1936,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1901,6 +1954,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1918,6 +1972,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1935,6 +1990,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -1952,6 +2008,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -1978,7 +2035,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1987,6 +2044,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2004,7 +2062,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2013,6 +2071,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2039,6 +2098,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2065,6 +2125,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2082,6 +2143,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2114,6 +2176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2124,6 +2187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2799,6 +2863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2809,6 +2874,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3130,6 +3196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3140,6 +3207,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3461,6 +3529,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通用活动</t>
@@ -3470,7 +3539,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3479,6 +3548,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落活动</t>
@@ -3559,6 +3629,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3569,6 +3640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3606,49 +3678,28 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_014_dlphb</t>
-  </si>
-  <si>
     <t>掉落排行榜皮肤（铁锤）</t>
   </si>
   <si>
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_015_gongju</t>
-  </si>
-  <si>
     <t>活动boss皮肤（铁锤）</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
-  </si>
-  <si>
     <t>换好礼皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_normal_001</t>
-  </si>
-  <si>
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_015</t>
-  </si>
-  <si>
     <t>扩展活动皮肤</t>
   </si>
   <si>
-    <t>act_045_xxlbd</t>
-  </si>
-  <si>
     <t>消消乐争霸</t>
   </si>
   <si>
     <t>Act_045_XXLBDManger</t>
-  </si>
-  <si>
-    <t>act_ty_lb1_style/act_003_tylb1</t>
   </si>
   <si>
     <t>通用礼包皮肤</t>
@@ -3692,6 +3743,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3702,6 +3754,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3778,9 +3831,6 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-  </si>
-  <si>
     <t>欢乐礼包</t>
   </si>
   <si>
@@ -3814,16 +3864,7 @@
     <t>秒杀礼包</t>
   </si>
   <si>
-    <t>Act_040_MSLBManager</t>
-  </si>
-  <si>
     <t>5月10日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3833,18 +3874,56 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>Act_040_MSLBManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_015_gongju</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_013_dlphb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_010_hhl</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_normal_001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_014</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_045_xxlbd</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1_style/act_003_tylb1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3856,49 +3935,60 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3908,179 +3998,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4095,13 +4044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4123,182 +4072,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4321,257 +4096,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4599,16 +4132,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4629,13 +4162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4647,31 +4180,31 @@
     <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4680,35 +4213,41 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4723,63 +4262,19 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5037,20 +4532,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5066,7 +4560,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5095,7 +4589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -6419,7 +5913,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6601,7 +6095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="2" customFormat="1">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6965,7 +6459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -7017,7 +6511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="4" customFormat="1">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -8135,7 +7629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:9">
+    <row r="119" spans="1:9" s="2" customFormat="1">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9705,7 +9199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:9">
+    <row r="180" spans="1:9" s="2" customFormat="1">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9729,7 +9223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:9">
+    <row r="181" spans="1:9" s="2" customFormat="1">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9753,7 +9247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:9">
+    <row r="182" spans="1:9" s="2" customFormat="1">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10775,7 +10269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10798,7 +10292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10821,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10844,7 +10338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:9">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10867,7 +10361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10890,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:9">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10913,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10936,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10959,7 +10453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:9">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11529,7 +11023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:9">
+    <row r="256" spans="1:9" s="5" customFormat="1">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11555,7 +11049,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11581,7 +11075,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11607,7 +11101,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11633,7 +11127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11711,7 +11205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11737,7 +11231,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11763,7 +11257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11789,7 +11283,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11811,11 +11305,11 @@
       <c r="G266" s="5">
         <v>0</v>
       </c>
-      <c r="I266" s="32" t="s">
+      <c r="I266" s="45" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11837,11 +11331,11 @@
       <c r="G267" s="5">
         <v>0</v>
       </c>
-      <c r="I267" s="32" t="s">
+      <c r="I267" s="45" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" spans="1:9">
+    <row r="268" spans="1:9" s="5" customFormat="1">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -11863,7 +11357,7 @@
       <c r="G268" s="5">
         <v>1</v>
       </c>
-      <c r="I268" s="32" t="s">
+      <c r="I268" s="45" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11917,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="5"/>
-      <c r="I270" s="32" t="s">
+      <c r="I270" s="45" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11944,7 +11438,7 @@
         <v>1</v>
       </c>
       <c r="H271" s="5"/>
-      <c r="I271" s="32" t="s">
+      <c r="I271" s="45" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11971,7 +11465,7 @@
         <v>1</v>
       </c>
       <c r="H272" s="5"/>
-      <c r="I272" s="32" t="s">
+      <c r="I272" s="45" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12025,11 +11519,11 @@
         <v>0</v>
       </c>
       <c r="H274" s="5"/>
-      <c r="I274" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="275" s="5" customFormat="1" spans="1:9">
+      <c r="I274" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="5" customFormat="1">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -12055,7 +11549,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1">
       <c r="A276" s="34">
         <v>275</v>
       </c>
@@ -12078,7 +11572,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -12127,7 +11621,7 @@
       <c r="G278">
         <v>1</v>
       </c>
-      <c r="I278" s="32" t="s">
+      <c r="I278" s="45" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12150,7 +11644,7 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="I279" s="32" t="s">
+      <c r="I279" s="45" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12176,7 +11670,7 @@
       <c r="G280">
         <v>0</v>
       </c>
-      <c r="I280" s="32" t="s">
+      <c r="I280" s="45" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12202,7 +11696,7 @@
       <c r="G281">
         <v>1</v>
       </c>
-      <c r="I281" s="32" t="s">
+      <c r="I281" s="45" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12228,11 +11722,11 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="I282" s="32" t="s">
+      <c r="I282" s="45" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -12254,11 +11748,11 @@
       <c r="G283" s="7">
         <v>1</v>
       </c>
-      <c r="I283" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="284" s="7" customFormat="1" spans="1:9">
+      <c r="I283" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="7" customFormat="1">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -12280,7 +11774,7 @@
       <c r="G284" s="7">
         <v>1</v>
       </c>
-      <c r="I284" s="38" t="s">
+      <c r="I284" s="46" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12306,11 +11800,11 @@
       <c r="G285">
         <v>0</v>
       </c>
-      <c r="I285" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="286" s="7" customFormat="1" spans="1:9">
+      <c r="I285" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="7" customFormat="1">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -12332,11 +11826,11 @@
       <c r="G286" s="7">
         <v>1</v>
       </c>
-      <c r="I286" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="287" s="7" customFormat="1" spans="1:9">
+      <c r="I286" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="7" customFormat="1">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -12358,11 +11852,11 @@
       <c r="G287" s="7">
         <v>1</v>
       </c>
-      <c r="I287" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="288" s="6" customFormat="1" spans="1:9">
+      <c r="I287" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="6" customFormat="1">
       <c r="A288" s="34">
         <v>287</v>
       </c>
@@ -12388,7 +11882,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="289" s="7" customFormat="1" spans="1:9">
+    <row r="289" spans="1:9" s="7" customFormat="1">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -12410,11 +11904,11 @@
       <c r="G289" s="7">
         <v>1</v>
       </c>
-      <c r="I289" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="290" s="7" customFormat="1" spans="1:9">
+      <c r="I289" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" s="7" customFormat="1">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -12436,11 +11930,11 @@
       <c r="G290" s="7">
         <v>1</v>
       </c>
-      <c r="I290" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="291" s="7" customFormat="1" spans="1:9">
+      <c r="I290" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" s="7" customFormat="1">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -12462,11 +11956,11 @@
       <c r="G291" s="7">
         <v>1</v>
       </c>
-      <c r="I291" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="292" s="7" customFormat="1" spans="1:9">
+      <c r="I291" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" s="7" customFormat="1">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -12488,11 +11982,11 @@
       <c r="G292" s="7">
         <v>1</v>
       </c>
-      <c r="I292" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="293" s="7" customFormat="1" spans="1:9">
+      <c r="I292" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" s="7" customFormat="1">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12514,11 +12008,11 @@
       <c r="G293" s="7">
         <v>1</v>
       </c>
-      <c r="I293" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="294" s="7" customFormat="1" spans="1:9">
+      <c r="I293" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" s="7" customFormat="1">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12540,11 +12034,11 @@
       <c r="G294" s="7">
         <v>1</v>
       </c>
-      <c r="I294" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="295" s="7" customFormat="1" spans="1:9">
+      <c r="I294" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" s="7" customFormat="1">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12566,7 +12060,7 @@
       <c r="G295" s="7">
         <v>1</v>
       </c>
-      <c r="I295" s="38" t="s">
+      <c r="I295" s="46" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12648,7 +12142,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:9">
+    <row r="299" spans="1:9" s="5" customFormat="1">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12670,11 +12164,11 @@
       <c r="G299" s="5">
         <v>1</v>
       </c>
-      <c r="I299" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="300" s="5" customFormat="1" spans="1:9">
+      <c r="I299" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" s="5" customFormat="1">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12696,11 +12190,11 @@
       <c r="G300" s="5">
         <v>0</v>
       </c>
-      <c r="I300" s="32" t="s">
+      <c r="I300" s="45" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:9">
+    <row r="301" spans="1:9" s="5" customFormat="1">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12722,11 +12216,11 @@
       <c r="G301" s="5">
         <v>0</v>
       </c>
-      <c r="I301" s="32" t="s">
+      <c r="I301" s="45" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:9">
+    <row r="302" spans="1:9" s="5" customFormat="1">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12748,11 +12242,11 @@
       <c r="G302" s="5">
         <v>0</v>
       </c>
-      <c r="I302" s="32" t="s">
+      <c r="I302" s="45" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="303" s="5" customFormat="1" spans="1:9">
+    <row r="303" spans="1:9" s="5" customFormat="1">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12774,11 +12268,11 @@
       <c r="G303" s="5">
         <v>1</v>
       </c>
-      <c r="I303" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="304" s="5" customFormat="1" spans="1:9">
+      <c r="I303" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="5" customFormat="1">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12804,7 +12298,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12830,7 +12324,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12852,11 +12346,11 @@
       <c r="G306" s="5">
         <v>1</v>
       </c>
-      <c r="I306" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="307" s="5" customFormat="1" spans="1:9">
+      <c r="I306" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" s="5" customFormat="1">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12878,11 +12372,11 @@
       <c r="G307" s="5">
         <v>1</v>
       </c>
-      <c r="I307" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="308" s="5" customFormat="1" spans="1:9">
+      <c r="I307" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" s="5" customFormat="1">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12908,7 +12402,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12934,7 +12428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12960,7 +12454,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -12986,7 +12480,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:7">
+    <row r="312" spans="1:9" s="5" customFormat="1">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -13009,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -13035,7 +12529,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -13057,11 +12551,11 @@
       <c r="G314" s="5">
         <v>1</v>
       </c>
-      <c r="I314" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="315" s="5" customFormat="1" spans="1:9">
+      <c r="I314" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" s="5" customFormat="1">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -13087,7 +12581,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -13113,38 +12607,38 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1">
       <c r="A317" s="13">
         <v>316</v>
       </c>
       <c r="B317" s="43" t="s">
+        <v>992</v>
+      </c>
+      <c r="C317" s="36" t="s">
         <v>931</v>
       </c>
-      <c r="C317" s="36" t="s">
+      <c r="E317" s="6">
+        <v>1</v>
+      </c>
+      <c r="F317" s="6">
+        <v>1</v>
+      </c>
+      <c r="G317" s="6">
+        <v>1</v>
+      </c>
+      <c r="I317" s="36" t="s">
         <v>932</v>
       </c>
-      <c r="E317" s="6">
-        <v>1</v>
-      </c>
-      <c r="F317" s="6">
-        <v>1</v>
-      </c>
-      <c r="G317" s="6">
-        <v>1</v>
-      </c>
-      <c r="I317" s="36" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="318" s="6" customFormat="1" spans="1:9">
+    </row>
+    <row r="318" spans="1:9" s="6" customFormat="1">
       <c r="A318" s="13">
         <v>317</v>
       </c>
-      <c r="B318" s="44" t="s">
-        <v>934</v>
+      <c r="B318" s="43" t="s">
+        <v>991</v>
       </c>
       <c r="C318" s="36" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E318" s="6">
         <v>1</v>
@@ -13156,18 +12650,18 @@
         <v>1</v>
       </c>
       <c r="I318" s="36" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="319" s="6" customFormat="1" spans="1:9">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="6" customFormat="1">
       <c r="A319" s="13">
         <v>318</v>
       </c>
-      <c r="B319" s="44" t="s">
-        <v>936</v>
+      <c r="B319" s="43" t="s">
+        <v>993</v>
       </c>
       <c r="C319" s="36" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E319" s="6">
         <v>1</v>
@@ -13179,18 +12673,18 @@
         <v>1</v>
       </c>
       <c r="I319" s="36" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="320" s="6" customFormat="1" spans="1:9">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" s="6" customFormat="1">
       <c r="A320" s="13">
         <v>319</v>
       </c>
-      <c r="B320" s="45" t="s">
-        <v>938</v>
+      <c r="B320" s="44" t="s">
+        <v>994</v>
       </c>
       <c r="C320" s="36" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E320" s="6">
         <v>1</v>
@@ -13201,19 +12695,19 @@
       <c r="G320" s="6">
         <v>1</v>
       </c>
-      <c r="I320" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="321" s="6" customFormat="1" spans="1:9">
+      <c r="I320" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" s="6" customFormat="1">
       <c r="A321" s="13">
         <v>320</v>
       </c>
-      <c r="B321" s="46" t="s">
-        <v>940</v>
+      <c r="B321" s="48" t="s">
+        <v>995</v>
       </c>
       <c r="C321" s="36" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="E321" s="6">
         <v>1</v>
@@ -13224,22 +12718,22 @@
       <c r="G321" s="6">
         <v>1</v>
       </c>
-      <c r="I321" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="322" s="6" customFormat="1" spans="1:9">
+      <c r="I321" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" s="6" customFormat="1">
       <c r="A322" s="13">
         <v>321</v>
       </c>
-      <c r="B322" s="44" t="s">
-        <v>942</v>
+      <c r="B322" s="43" t="s">
+        <v>996</v>
       </c>
       <c r="C322" s="36" t="s">
-        <v>943</v>
-      </c>
-      <c r="D322" s="44" t="s">
-        <v>944</v>
+        <v>937</v>
+      </c>
+      <c r="D322" s="43" t="s">
+        <v>938</v>
       </c>
       <c r="E322" s="6">
         <v>1</v>
@@ -13254,15 +12748,15 @@
         <v>799</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1">
       <c r="A323" s="13">
         <v>322</v>
       </c>
-      <c r="B323" s="47" t="s">
-        <v>945</v>
+      <c r="B323" s="49" t="s">
+        <v>997</v>
       </c>
       <c r="C323" s="32" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="D323" s="33"/>
       <c r="E323" s="5">
@@ -13278,18 +12772,18 @@
         <v>799</v>
       </c>
     </row>
-    <row r="324" s="5" customFormat="1" spans="1:9">
+    <row r="324" spans="1:9" s="5" customFormat="1">
       <c r="A324" s="13">
         <v>323</v>
       </c>
       <c r="B324" s="33" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="C324" s="32" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="D324" s="33" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="E324" s="5">
         <v>0</v>
@@ -13304,15 +12798,15 @@
         <v>927</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:9">
+    <row r="325" spans="1:9" s="5" customFormat="1">
       <c r="A325" s="13">
         <v>324</v>
       </c>
       <c r="B325" s="33" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="C325" s="32" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="E325" s="5">
         <v>0</v>
@@ -13327,18 +12821,18 @@
         <v>927</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:9">
+    <row r="326" spans="1:9" s="5" customFormat="1">
       <c r="A326" s="13">
         <v>325</v>
       </c>
       <c r="B326" s="33" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="C326" s="33" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="D326" s="33" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="E326" s="5">
         <v>0</v>
@@ -13350,24 +12844,24 @@
         <v>0</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="I326" s="32" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" spans="1:9">
+    <row r="327" spans="1:9" s="5" customFormat="1">
       <c r="A327" s="13">
         <v>326</v>
       </c>
       <c r="B327" s="33" t="s">
-        <v>956</v>
-      </c>
-      <c r="C327" s="32" t="s">
+        <v>949</v>
+      </c>
+      <c r="C327" s="45" t="s">
         <v>477</v>
       </c>
       <c r="D327" s="33" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="E327" s="5">
         <v>0</v>
@@ -13379,21 +12873,21 @@
         <v>0</v>
       </c>
       <c r="I327" s="32" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="328" s="5" customFormat="1" spans="1:9">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" s="5" customFormat="1">
       <c r="A328" s="13">
         <v>327</v>
       </c>
       <c r="B328" s="33" t="s">
-        <v>959</v>
-      </c>
-      <c r="C328" s="32" t="s">
-        <v>960</v>
+        <v>952</v>
+      </c>
+      <c r="C328" s="45" t="s">
+        <v>953</v>
       </c>
       <c r="D328" s="33" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="E328" s="5">
         <v>0</v>
@@ -13405,21 +12899,21 @@
         <v>0</v>
       </c>
       <c r="I328" s="32" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="329" s="5" customFormat="1" spans="1:9">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" s="5" customFormat="1">
       <c r="A329" s="13">
         <v>328</v>
       </c>
       <c r="B329" s="31" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="C329" s="32" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="D329" s="32" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="E329" s="5">
         <v>1</v>
@@ -13434,18 +12928,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" s="5" customFormat="1" spans="1:9">
+    <row r="330" spans="1:9" s="5" customFormat="1">
       <c r="A330" s="13">
         <v>329</v>
       </c>
       <c r="B330" s="31" t="s">
-        <v>966</v>
-      </c>
-      <c r="C330" s="32" t="s">
-        <v>967</v>
+        <v>959</v>
+      </c>
+      <c r="C330" s="45" t="s">
+        <v>960</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13465,13 +12959,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>969</v>
-      </c>
-      <c r="C331" s="32" t="s">
-        <v>970</v>
+        <v>962</v>
+      </c>
+      <c r="C331" s="45" t="s">
+        <v>963</v>
       </c>
       <c r="D331" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13491,13 +12985,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>972</v>
-      </c>
-      <c r="C332" s="32" t="s">
-        <v>973</v>
+        <v>965</v>
+      </c>
+      <c r="C332" s="45" t="s">
+        <v>966</v>
       </c>
       <c r="D332" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="E332" s="5">
         <v>1</v>
@@ -13517,13 +13011,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>975</v>
-      </c>
-      <c r="C333" s="32" t="s">
-        <v>976</v>
+        <v>968</v>
+      </c>
+      <c r="C333" s="45" t="s">
+        <v>969</v>
       </c>
       <c r="D333" s="28" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="E333" s="5">
         <v>1</v>
@@ -13535,7 +13029,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="32" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13543,13 +13037,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="C334" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="C334" s="45" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="E334" s="5">
         <v>1</v>
@@ -13561,7 +13055,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="32" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13569,10 +13063,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>982</v>
+        <v>998</v>
       </c>
       <c r="C335" s="32" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="E335" s="5">
         <v>1</v>
@@ -13584,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="32" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13592,13 +13086,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="C336" s="32" t="s">
-        <v>986</v>
+        <v>977</v>
+      </c>
+      <c r="C336" s="45" t="s">
+        <v>978</v>
       </c>
       <c r="D336" s="28" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -13618,13 +13112,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>988</v>
-      </c>
-      <c r="C337" s="32" t="s">
-        <v>989</v>
+        <v>980</v>
+      </c>
+      <c r="C337" s="45" t="s">
+        <v>981</v>
       </c>
       <c r="D337" s="28" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="E337" s="5">
         <v>1</v>
@@ -13636,21 +13130,21 @@
         <v>1</v>
       </c>
       <c r="I337" s="32" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="13">
         <v>337</v>
       </c>
-      <c r="B338" s="48" t="s">
-        <v>992</v>
+      <c r="B338" s="50" t="s">
+        <v>984</v>
       </c>
       <c r="C338" t="s">
-        <v>993</v>
-      </c>
-      <c r="D338" s="49" t="s">
-        <v>994</v>
+        <v>985</v>
+      </c>
+      <c r="D338" s="51" t="s">
+        <v>988</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -13662,7 +13156,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13670,10 +13164,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="C339" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -13685,43 +13179,40 @@
         <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H339">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H337"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$340</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1004">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -42,7 +42,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值和活动是对应的</t>
@@ -527,7 +526,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -546,7 +544,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -565,7 +562,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -759,7 +755,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -777,7 +772,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -795,7 +789,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -858,7 +851,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -876,7 +868,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1146,7 +1137,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1157,7 +1147,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,7 +1157,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1265,7 +1253,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1284,7 +1271,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1311,7 +1297,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1329,7 +1314,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1347,7 +1331,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1365,7 +1348,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1384,7 +1366,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1402,7 +1383,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1421,7 +1401,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1439,7 +1418,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1458,7 +1436,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1485,7 +1462,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1504,7 +1480,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1522,7 +1497,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1541,7 +1515,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1559,7 +1532,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1578,7 +1550,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1596,7 +1567,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1614,7 +1584,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1632,7 +1601,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1650,7 +1618,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1668,7 +1635,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1687,7 +1653,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1705,7 +1670,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1724,7 +1688,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1742,7 +1705,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1761,7 +1723,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1779,7 +1740,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1798,7 +1758,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1816,7 +1775,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1835,7 +1793,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1853,7 +1810,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1872,7 +1828,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1890,7 +1845,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1909,7 +1863,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1936,7 +1889,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1954,7 +1906,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1972,7 +1923,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1990,7 +1940,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -2008,7 +1957,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2044,7 +1992,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2071,7 +2018,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2098,7 +2044,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2125,7 +2070,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2143,7 +2087,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2176,7 +2119,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2187,7 +2129,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2863,7 +2804,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2874,7 +2814,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3196,7 +3135,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3207,7 +3145,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3224,16 +3161,16 @@
     <t>BYTaskManager</t>
   </si>
   <si>
-    <t>act_029_hlqjd</t>
+    <t>act_ty_hlqjd</t>
   </si>
   <si>
     <t>欢乐敲金蛋</t>
   </si>
   <si>
-    <t>Act_029_HLQJDManager</t>
-  </si>
-  <si>
-    <t>3月15日23:59:59</t>
+    <t>Act_ty_HLQJDManager</t>
+  </si>
+  <si>
+    <t>5月17日23:59:59</t>
   </si>
   <si>
     <t>act_030_hd_zjm</t>
@@ -3529,7 +3466,6 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通用活动</t>
@@ -3548,7 +3484,6 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落活动</t>
@@ -3629,7 +3564,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3640,7 +3574,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3678,31 +3611,55 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>掉落排行榜皮肤（铁锤）</t>
+    <t>act_ty_sjb_style/act_014_dlphb</t>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（财力）</t>
   </si>
   <si>
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>活动boss皮肤（铁锤）</t>
+    <t>act_ty_by_drop_style/act_015_gongju</t>
+  </si>
+  <si>
+    <t>活动boss皮肤（五星）</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_010_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
   </si>
   <si>
+    <t>sys_act_base_style/sys_act_base_normal_001</t>
+  </si>
+  <si>
     <t>周常活动皮肤</t>
   </si>
   <si>
+    <t>sys_act_base_style/sys_act_base_weekly_015</t>
+  </si>
+  <si>
     <t>扩展活动皮肤</t>
   </si>
   <si>
+    <t>act_045_xxlbd</t>
+  </si>
+  <si>
     <t>消消乐争霸</t>
   </si>
   <si>
     <t>Act_045_XXLBDManger</t>
   </si>
   <si>
+    <t>act_ty_lb1_style/act_003_tylb1</t>
+  </si>
+  <si>
     <t>通用礼包皮肤</t>
+  </si>
+  <si>
+    <t>3月15日23:59:59</t>
   </si>
   <si>
     <t>act_ty_universal_dh</t>
@@ -3743,7 +3700,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3754,7 +3710,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3831,7 +3786,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>欢乐礼包</t>
+    <t>act_ty_gifts_style/act_002_hllb</t>
+  </si>
+  <si>
+    <t>龙腾礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3855,9 +3813,6 @@
     <t>Act_053_XCNSManager</t>
   </si>
   <si>
-    <t>2021年4月19日 23:59:59</t>
-  </si>
-  <si>
     <t>act_040_mslb</t>
   </si>
   <si>
@@ -3865,6 +3820,24 @@
   </si>
   <si>
     <t>5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+  </si>
+  <si>
+    <t>act_054_byns</t>
+  </si>
+  <si>
+    <t>捕鱼能手</t>
+  </si>
+  <si>
+    <t>Act_054_BYNSManager</t>
+  </si>
+  <si>
+    <t>2021年5月17日 23:59:59</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3876,54 +3849,18 @@
   </si>
   <si>
     <t>Act_040_MSLBManager</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_015_gongju</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_013_dlphb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_normal_001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_014</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_045_xxlbd</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_lb1_style/act_003_tylb1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买后180天领取奖励</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3941,7 +3878,6 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3960,22 +3896,12 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4010,21 +3936,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4101,10 +4038,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4162,13 +4099,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4180,31 +4117,34 @@
     <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4213,53 +4153,47 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4538,13 +4472,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I339"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C327" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
+      <selection pane="bottomRight" activeCell="D347" sqref="D347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11305,7 +11239,7 @@
       <c r="G266" s="5">
         <v>0</v>
       </c>
-      <c r="I266" s="45" t="s">
+      <c r="I266" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11331,7 +11265,7 @@
       <c r="G267" s="5">
         <v>0</v>
       </c>
-      <c r="I267" s="45" t="s">
+      <c r="I267" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11357,7 +11291,7 @@
       <c r="G268" s="5">
         <v>1</v>
       </c>
-      <c r="I268" s="45" t="s">
+      <c r="I268" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11411,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="5"/>
-      <c r="I270" s="45" t="s">
+      <c r="I270" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11438,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="H271" s="5"/>
-      <c r="I271" s="45" t="s">
+      <c r="I271" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11465,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="H272" s="5"/>
-      <c r="I272" s="45" t="s">
+      <c r="I272" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11519,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="H274" s="5"/>
-      <c r="I274" s="45" t="s">
+      <c r="I274" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11530,33 +11464,33 @@
       <c r="B275" s="31" t="s">
         <v>796</v>
       </c>
-      <c r="C275" s="32" t="s">
+      <c r="C275" s="34" t="s">
         <v>797</v>
       </c>
       <c r="D275" s="33" t="s">
         <v>798</v>
       </c>
       <c r="E275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" s="32" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="6" customFormat="1">
-      <c r="A276" s="34">
+      <c r="A276" s="35">
         <v>275</v>
       </c>
-      <c r="B276" s="35" t="s">
+      <c r="B276" s="36" t="s">
         <v>800</v>
       </c>
-      <c r="C276" s="36" t="s">
+      <c r="C276" s="37" t="s">
         <v>801</v>
       </c>
       <c r="E276" s="6">
@@ -11568,7 +11502,7 @@
       <c r="G276" s="6">
         <v>1</v>
       </c>
-      <c r="I276" s="36" t="s">
+      <c r="I276" s="37" t="s">
         <v>802</v>
       </c>
     </row>
@@ -11621,7 +11555,7 @@
       <c r="G278">
         <v>1</v>
       </c>
-      <c r="I278" s="45" t="s">
+      <c r="I278" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11644,7 +11578,7 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="I279" s="45" t="s">
+      <c r="I279" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11670,7 +11604,7 @@
       <c r="G280">
         <v>0</v>
       </c>
-      <c r="I280" s="45" t="s">
+      <c r="I280" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11696,7 +11630,7 @@
       <c r="G281">
         <v>1</v>
       </c>
-      <c r="I281" s="45" t="s">
+      <c r="I281" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11722,7 +11656,7 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="I282" s="45" t="s">
+      <c r="I282" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11730,13 +11664,13 @@
       <c r="A283" s="13">
         <v>282</v>
       </c>
-      <c r="B283" s="37" t="s">
+      <c r="B283" s="38" t="s">
         <v>821</v>
       </c>
-      <c r="C283" s="38" t="s">
+      <c r="C283" s="39" t="s">
         <v>822</v>
       </c>
-      <c r="D283" s="37" t="s">
+      <c r="D283" s="38" t="s">
         <v>823</v>
       </c>
       <c r="E283" s="7">
@@ -11748,7 +11682,7 @@
       <c r="G283" s="7">
         <v>1</v>
       </c>
-      <c r="I283" s="46" t="s">
+      <c r="I283" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11756,13 +11690,13 @@
       <c r="A284" s="13">
         <v>283</v>
       </c>
-      <c r="B284" s="37" t="s">
+      <c r="B284" s="38" t="s">
         <v>824</v>
       </c>
-      <c r="C284" s="38" t="s">
+      <c r="C284" s="39" t="s">
         <v>825</v>
       </c>
-      <c r="D284" s="37" t="s">
+      <c r="D284" s="38" t="s">
         <v>826</v>
       </c>
       <c r="E284" s="7">
@@ -11774,7 +11708,7 @@
       <c r="G284" s="7">
         <v>1</v>
       </c>
-      <c r="I284" s="46" t="s">
+      <c r="I284" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11800,7 +11734,7 @@
       <c r="G285">
         <v>0</v>
       </c>
-      <c r="I285" s="45" t="s">
+      <c r="I285" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11808,13 +11742,13 @@
       <c r="A286" s="13">
         <v>285</v>
       </c>
-      <c r="B286" s="39" t="s">
+      <c r="B286" s="40" t="s">
         <v>830</v>
       </c>
-      <c r="C286" s="38" t="s">
+      <c r="C286" s="39" t="s">
         <v>831</v>
       </c>
-      <c r="D286" s="37" t="s">
+      <c r="D286" s="38" t="s">
         <v>832</v>
       </c>
       <c r="E286" s="7">
@@ -11826,7 +11760,7 @@
       <c r="G286" s="7">
         <v>1</v>
       </c>
-      <c r="I286" s="46" t="s">
+      <c r="I286" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11834,13 +11768,13 @@
       <c r="A287" s="13">
         <v>286</v>
       </c>
-      <c r="B287" s="39" t="s">
+      <c r="B287" s="40" t="s">
         <v>833</v>
       </c>
-      <c r="C287" s="38" t="s">
+      <c r="C287" s="39" t="s">
         <v>834</v>
       </c>
-      <c r="D287" s="37" t="s">
+      <c r="D287" s="38" t="s">
         <v>835</v>
       </c>
       <c r="E287" s="7">
@@ -11852,21 +11786,21 @@
       <c r="G287" s="7">
         <v>1</v>
       </c>
-      <c r="I287" s="46" t="s">
+      <c r="I287" s="39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="6" customFormat="1">
-      <c r="A288" s="34">
+      <c r="A288" s="35">
         <v>287</v>
       </c>
-      <c r="B288" s="35" t="s">
+      <c r="B288" s="36" t="s">
         <v>836</v>
       </c>
-      <c r="C288" s="36" t="s">
+      <c r="C288" s="37" t="s">
         <v>837</v>
       </c>
-      <c r="D288" s="36" t="s">
+      <c r="D288" s="37" t="s">
         <v>838</v>
       </c>
       <c r="E288" s="6">
@@ -11878,7 +11812,7 @@
       <c r="G288" s="6">
         <v>1</v>
       </c>
-      <c r="I288" s="36" t="s">
+      <c r="I288" s="37" t="s">
         <v>839</v>
       </c>
     </row>
@@ -11886,13 +11820,13 @@
       <c r="A289" s="13">
         <v>288</v>
       </c>
-      <c r="B289" s="39" t="s">
+      <c r="B289" s="40" t="s">
         <v>840</v>
       </c>
-      <c r="C289" s="38" t="s">
+      <c r="C289" s="39" t="s">
         <v>841</v>
       </c>
-      <c r="D289" s="37" t="s">
+      <c r="D289" s="38" t="s">
         <v>842</v>
       </c>
       <c r="E289" s="7">
@@ -11904,7 +11838,7 @@
       <c r="G289" s="7">
         <v>1</v>
       </c>
-      <c r="I289" s="46" t="s">
+      <c r="I289" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11912,13 +11846,13 @@
       <c r="A290" s="13">
         <v>289</v>
       </c>
-      <c r="B290" s="37" t="s">
+      <c r="B290" s="38" t="s">
         <v>843</v>
       </c>
-      <c r="C290" s="38" t="s">
+      <c r="C290" s="39" t="s">
         <v>844</v>
       </c>
-      <c r="D290" s="37" t="s">
+      <c r="D290" s="38" t="s">
         <v>845</v>
       </c>
       <c r="E290" s="7">
@@ -11930,7 +11864,7 @@
       <c r="G290" s="7">
         <v>1</v>
       </c>
-      <c r="I290" s="46" t="s">
+      <c r="I290" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11938,13 +11872,13 @@
       <c r="A291" s="13">
         <v>290</v>
       </c>
-      <c r="B291" s="37" t="s">
+      <c r="B291" s="38" t="s">
         <v>846</v>
       </c>
-      <c r="C291" s="38" t="s">
+      <c r="C291" s="39" t="s">
         <v>847</v>
       </c>
-      <c r="D291" s="37" t="s">
+      <c r="D291" s="38" t="s">
         <v>848</v>
       </c>
       <c r="E291" s="7">
@@ -11956,7 +11890,7 @@
       <c r="G291" s="7">
         <v>1</v>
       </c>
-      <c r="I291" s="46" t="s">
+      <c r="I291" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11964,13 +11898,13 @@
       <c r="A292" s="13">
         <v>291</v>
       </c>
-      <c r="B292" s="37" t="s">
+      <c r="B292" s="38" t="s">
         <v>849</v>
       </c>
-      <c r="C292" s="38" t="s">
+      <c r="C292" s="39" t="s">
         <v>850</v>
       </c>
-      <c r="D292" s="37" t="s">
+      <c r="D292" s="38" t="s">
         <v>851</v>
       </c>
       <c r="E292" s="7">
@@ -11982,7 +11916,7 @@
       <c r="G292" s="7">
         <v>1</v>
       </c>
-      <c r="I292" s="46" t="s">
+      <c r="I292" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11990,13 +11924,13 @@
       <c r="A293" s="13">
         <v>292</v>
       </c>
-      <c r="B293" s="37" t="s">
+      <c r="B293" s="38" t="s">
         <v>852</v>
       </c>
-      <c r="C293" s="38" t="s">
+      <c r="C293" s="39" t="s">
         <v>853</v>
       </c>
-      <c r="D293" s="37" t="s">
+      <c r="D293" s="38" t="s">
         <v>854</v>
       </c>
       <c r="E293" s="7">
@@ -12008,7 +11942,7 @@
       <c r="G293" s="7">
         <v>1</v>
       </c>
-      <c r="I293" s="46" t="s">
+      <c r="I293" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12016,13 +11950,13 @@
       <c r="A294" s="13">
         <v>293</v>
       </c>
-      <c r="B294" s="37" t="s">
+      <c r="B294" s="38" t="s">
         <v>855</v>
       </c>
-      <c r="C294" s="38" t="s">
+      <c r="C294" s="39" t="s">
         <v>856</v>
       </c>
-      <c r="D294" s="37" t="s">
+      <c r="D294" s="38" t="s">
         <v>857</v>
       </c>
       <c r="E294" s="7">
@@ -12034,7 +11968,7 @@
       <c r="G294" s="7">
         <v>1</v>
       </c>
-      <c r="I294" s="46" t="s">
+      <c r="I294" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12042,13 +11976,13 @@
       <c r="A295" s="13">
         <v>294</v>
       </c>
-      <c r="B295" s="37" t="s">
+      <c r="B295" s="38" t="s">
         <v>858</v>
       </c>
-      <c r="C295" s="38" t="s">
+      <c r="C295" s="39" t="s">
         <v>859</v>
       </c>
-      <c r="D295" s="37" t="s">
+      <c r="D295" s="38" t="s">
         <v>860</v>
       </c>
       <c r="E295" s="7">
@@ -12060,7 +11994,7 @@
       <c r="G295" s="7">
         <v>1</v>
       </c>
-      <c r="I295" s="46" t="s">
+      <c r="I295" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12068,13 +12002,13 @@
       <c r="A296" s="13">
         <v>295</v>
       </c>
-      <c r="B296" s="40" t="s">
+      <c r="B296" s="41" t="s">
         <v>861</v>
       </c>
       <c r="C296" s="32" t="s">
         <v>862</v>
       </c>
-      <c r="D296" s="40" t="s">
+      <c r="D296" s="41" t="s">
         <v>863</v>
       </c>
       <c r="E296">
@@ -12094,13 +12028,13 @@
       <c r="A297" s="13">
         <v>296</v>
       </c>
-      <c r="B297" s="40" t="s">
+      <c r="B297" s="41" t="s">
         <v>865</v>
       </c>
       <c r="C297" s="32" t="s">
         <v>866</v>
       </c>
-      <c r="D297" s="40" t="s">
+      <c r="D297" s="41" t="s">
         <v>867</v>
       </c>
       <c r="E297">
@@ -12120,13 +12054,13 @@
       <c r="A298" s="13">
         <v>297</v>
       </c>
-      <c r="B298" s="40" t="s">
+      <c r="B298" s="41" t="s">
         <v>869</v>
       </c>
       <c r="C298" s="32" t="s">
         <v>870</v>
       </c>
-      <c r="D298" s="40" t="s">
+      <c r="D298" s="41" t="s">
         <v>871</v>
       </c>
       <c r="E298">
@@ -12164,7 +12098,7 @@
       <c r="G299" s="5">
         <v>1</v>
       </c>
-      <c r="I299" s="45" t="s">
+      <c r="I299" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12190,7 +12124,7 @@
       <c r="G300" s="5">
         <v>0</v>
       </c>
-      <c r="I300" s="45" t="s">
+      <c r="I300" s="32" t="s">
         <v>878</v>
       </c>
     </row>
@@ -12216,7 +12150,7 @@
       <c r="G301" s="5">
         <v>0</v>
       </c>
-      <c r="I301" s="45" t="s">
+      <c r="I301" s="32" t="s">
         <v>878</v>
       </c>
     </row>
@@ -12242,7 +12176,7 @@
       <c r="G302" s="5">
         <v>0</v>
       </c>
-      <c r="I302" s="45" t="s">
+      <c r="I302" s="32" t="s">
         <v>878</v>
       </c>
     </row>
@@ -12268,7 +12202,7 @@
       <c r="G303" s="5">
         <v>1</v>
       </c>
-      <c r="I303" s="45" t="s">
+      <c r="I303" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12346,7 +12280,7 @@
       <c r="G306" s="5">
         <v>1</v>
       </c>
-      <c r="I306" s="45" t="s">
+      <c r="I306" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12372,7 +12306,7 @@
       <c r="G307" s="5">
         <v>1</v>
       </c>
-      <c r="I307" s="45" t="s">
+      <c r="I307" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12442,13 +12376,13 @@
         <v>910</v>
       </c>
       <c r="E310" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F310" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G310" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" s="32" t="s">
         <v>891</v>
@@ -12507,7 +12441,7 @@
       <c r="A313" s="13">
         <v>312</v>
       </c>
-      <c r="B313" s="41" t="s">
+      <c r="B313" s="42" t="s">
         <v>917</v>
       </c>
       <c r="C313" s="32" t="s">
@@ -12533,13 +12467,13 @@
       <c r="A314" s="13">
         <v>313</v>
       </c>
-      <c r="B314" s="41" t="s">
+      <c r="B314" s="42" t="s">
         <v>921</v>
       </c>
       <c r="C314" s="32" t="s">
         <v>922</v>
       </c>
-      <c r="D314" s="42" t="s">
+      <c r="D314" s="43" t="s">
         <v>923</v>
       </c>
       <c r="E314" s="5">
@@ -12551,7 +12485,7 @@
       <c r="G314" s="5">
         <v>1</v>
       </c>
-      <c r="I314" s="45" t="s">
+      <c r="I314" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12585,13 +12519,13 @@
       <c r="A316" s="13">
         <v>315</v>
       </c>
-      <c r="B316" s="41" t="s">
+      <c r="B316" s="42" t="s">
         <v>928</v>
       </c>
       <c r="C316" s="32" t="s">
         <v>929</v>
       </c>
-      <c r="D316" s="42" t="s">
+      <c r="D316" s="43" t="s">
         <v>930</v>
       </c>
       <c r="E316" s="5">
@@ -12611,12 +12545,12 @@
       <c r="A317" s="13">
         <v>316</v>
       </c>
-      <c r="B317" s="43" t="s">
-        <v>992</v>
-      </c>
-      <c r="C317" s="36" t="s">
+      <c r="B317" s="44" t="s">
         <v>931</v>
       </c>
+      <c r="C317" s="37" t="s">
+        <v>932</v>
+      </c>
       <c r="E317" s="6">
         <v>1</v>
       </c>
@@ -12626,65 +12560,65 @@
       <c r="G317" s="6">
         <v>1</v>
       </c>
-      <c r="I317" s="36" t="s">
-        <v>932</v>
+      <c r="I317" s="37" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="6" customFormat="1">
       <c r="A318" s="13">
         <v>317</v>
       </c>
-      <c r="B318" s="43" t="s">
-        <v>991</v>
-      </c>
-      <c r="C318" s="36" t="s">
+      <c r="B318" s="44" t="s">
+        <v>934</v>
+      </c>
+      <c r="C318" s="37" t="s">
+        <v>935</v>
+      </c>
+      <c r="E318" s="6">
+        <v>0</v>
+      </c>
+      <c r="F318" s="6">
+        <v>0</v>
+      </c>
+      <c r="G318" s="6">
+        <v>0</v>
+      </c>
+      <c r="I318" s="37" t="s">
         <v>933</v>
-      </c>
-      <c r="E318" s="6">
-        <v>1</v>
-      </c>
-      <c r="F318" s="6">
-        <v>1</v>
-      </c>
-      <c r="G318" s="6">
-        <v>1</v>
-      </c>
-      <c r="I318" s="36" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="6" customFormat="1">
       <c r="A319" s="13">
         <v>318</v>
       </c>
-      <c r="B319" s="43" t="s">
-        <v>993</v>
-      </c>
-      <c r="C319" s="36" t="s">
-        <v>934</v>
+      <c r="B319" s="44" t="s">
+        <v>936</v>
+      </c>
+      <c r="C319" s="37" t="s">
+        <v>937</v>
       </c>
       <c r="E319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G319" s="6">
-        <v>1</v>
-      </c>
-      <c r="I319" s="36" t="s">
-        <v>932</v>
+        <v>0</v>
+      </c>
+      <c r="I319" s="37" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="6" customFormat="1">
       <c r="A320" s="13">
         <v>319</v>
       </c>
-      <c r="B320" s="44" t="s">
-        <v>994</v>
-      </c>
-      <c r="C320" s="36" t="s">
-        <v>935</v>
+      <c r="B320" s="45" t="s">
+        <v>938</v>
+      </c>
+      <c r="C320" s="37" t="s">
+        <v>939</v>
       </c>
       <c r="E320" s="6">
         <v>1</v>
@@ -12695,7 +12629,7 @@
       <c r="G320" s="6">
         <v>1</v>
       </c>
-      <c r="I320" s="47" t="s">
+      <c r="I320" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12703,11 +12637,11 @@
       <c r="A321" s="13">
         <v>320</v>
       </c>
-      <c r="B321" s="48" t="s">
-        <v>995</v>
-      </c>
-      <c r="C321" s="36" t="s">
-        <v>936</v>
+      <c r="B321" s="46" t="s">
+        <v>940</v>
+      </c>
+      <c r="C321" s="37" t="s">
+        <v>941</v>
       </c>
       <c r="E321" s="6">
         <v>1</v>
@@ -12718,7 +12652,7 @@
       <c r="G321" s="6">
         <v>1</v>
       </c>
-      <c r="I321" s="47" t="s">
+      <c r="I321" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12726,14 +12660,14 @@
       <c r="A322" s="13">
         <v>321</v>
       </c>
-      <c r="B322" s="43" t="s">
-        <v>996</v>
-      </c>
-      <c r="C322" s="36" t="s">
-        <v>937</v>
-      </c>
-      <c r="D322" s="43" t="s">
-        <v>938</v>
+      <c r="B322" s="44" t="s">
+        <v>942</v>
+      </c>
+      <c r="C322" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="D322" s="44" t="s">
+        <v>944</v>
       </c>
       <c r="E322" s="6">
         <v>1</v>
@@ -12744,19 +12678,19 @@
       <c r="G322" s="6">
         <v>1</v>
       </c>
-      <c r="I322" s="36" t="s">
-        <v>799</v>
+      <c r="I322" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="5" customFormat="1">
       <c r="A323" s="13">
         <v>322</v>
       </c>
-      <c r="B323" s="49" t="s">
-        <v>997</v>
+      <c r="B323" s="47" t="s">
+        <v>945</v>
       </c>
       <c r="C323" s="32" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="D323" s="33"/>
       <c r="E323" s="5">
@@ -12769,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="32" t="s">
-        <v>799</v>
+        <v>947</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="5" customFormat="1">
@@ -12777,13 +12711,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="33" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="C324" s="32" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="D324" s="33" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="E324" s="5">
         <v>0</v>
@@ -12803,10 +12737,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="33" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="C325" s="32" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="E325" s="5">
         <v>0</v>
@@ -12826,13 +12760,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="33" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="C326" s="33" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="D326" s="33" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="E326" s="5">
         <v>0</v>
@@ -12844,7 +12778,7 @@
         <v>0</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="I326" s="32" t="s">
         <v>927</v>
@@ -12855,13 +12789,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="33" t="s">
-        <v>949</v>
-      </c>
-      <c r="C327" s="45" t="s">
+        <v>957</v>
+      </c>
+      <c r="C327" s="32" t="s">
         <v>477</v>
       </c>
       <c r="D327" s="33" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="E327" s="5">
         <v>0</v>
@@ -12873,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="I327" s="32" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="5" customFormat="1">
@@ -12881,13 +12815,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="33" t="s">
-        <v>952</v>
-      </c>
-      <c r="C328" s="45" t="s">
-        <v>953</v>
+        <v>960</v>
+      </c>
+      <c r="C328" s="32" t="s">
+        <v>961</v>
       </c>
       <c r="D328" s="33" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="E328" s="5">
         <v>0</v>
@@ -12899,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="I328" s="32" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="5" customFormat="1">
@@ -12907,13 +12841,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="31" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="C329" s="32" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="D329" s="32" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="E329" s="5">
         <v>1</v>
@@ -12933,13 +12867,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="31" t="s">
-        <v>959</v>
-      </c>
-      <c r="C330" s="45" t="s">
-        <v>960</v>
+        <v>967</v>
+      </c>
+      <c r="C330" s="32" t="s">
+        <v>968</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -12959,13 +12893,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="C331" s="45" t="s">
-        <v>963</v>
+        <v>970</v>
+      </c>
+      <c r="C331" s="32" t="s">
+        <v>971</v>
       </c>
       <c r="D331" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -12985,13 +12919,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="C332" s="45" t="s">
-        <v>966</v>
+        <v>973</v>
+      </c>
+      <c r="C332" s="32" t="s">
+        <v>974</v>
       </c>
       <c r="D332" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="E332" s="5">
         <v>1</v>
@@ -13011,25 +12945,25 @@
         <v>332</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>968</v>
-      </c>
-      <c r="C333" s="45" t="s">
-        <v>969</v>
+        <v>976</v>
+      </c>
+      <c r="C333" s="32" t="s">
+        <v>977</v>
       </c>
       <c r="D333" s="28" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="E333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" s="32" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13037,13 +12971,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>972</v>
-      </c>
-      <c r="C334" s="45" t="s">
+        <v>980</v>
+      </c>
+      <c r="C334" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="E334" s="5">
         <v>1</v>
@@ -13055,7 +12989,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="32" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13063,10 +12997,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="C335" s="32" t="s">
-        <v>975</v>
+        <v>984</v>
       </c>
       <c r="E335" s="5">
         <v>1</v>
@@ -13078,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="32" t="s">
-        <v>976</v>
+        <v>985</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13086,13 +13020,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>977</v>
-      </c>
-      <c r="C336" s="45" t="s">
-        <v>978</v>
+        <v>986</v>
+      </c>
+      <c r="C336" s="32" t="s">
+        <v>987</v>
       </c>
       <c r="D336" s="28" t="s">
-        <v>979</v>
+        <v>988</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -13112,13 +13046,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>980</v>
-      </c>
-      <c r="C337" s="45" t="s">
-        <v>981</v>
+        <v>989</v>
+      </c>
+      <c r="C337" s="32" t="s">
+        <v>990</v>
       </c>
       <c r="D337" s="28" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="E337" s="5">
         <v>1</v>
@@ -13129,22 +13063,22 @@
       <c r="G337" s="5">
         <v>1</v>
       </c>
-      <c r="I337" s="32" t="s">
-        <v>983</v>
+      <c r="I337" s="32">
+        <v>5.18</v>
       </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="13">
         <v>337</v>
       </c>
-      <c r="B338" s="50" t="s">
-        <v>984</v>
+      <c r="B338" s="48" t="s">
+        <v>992</v>
       </c>
       <c r="C338" t="s">
-        <v>985</v>
-      </c>
-      <c r="D338" s="51" t="s">
-        <v>988</v>
+        <v>993</v>
+      </c>
+      <c r="D338" s="50" t="s">
+        <v>1002</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -13156,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>986</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13164,27 +13098,53 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="C339" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="E339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="s">
-        <v>986</v>
+        <v>994</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="15.75">
+      <c r="A340" s="5">
+        <v>339</v>
+      </c>
+      <c r="B340" s="48" t="s">
+        <v>997</v>
+      </c>
+      <c r="C340" t="s">
+        <v>998</v>
+      </c>
+      <c r="D340" s="48" t="s">
+        <v>999</v>
+      </c>
+      <c r="E340" s="5">
+        <v>1</v>
+      </c>
+      <c r="F340" s="5">
+        <v>1</v>
+      </c>
+      <c r="G340" s="5">
+        <v>1</v>
+      </c>
+      <c r="I340" s="32" t="s">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H337"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <autoFilter ref="A1:H340"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -13206,13 +13166,13 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>987</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
     <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10380"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$339</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -33,7 +28,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -42,7 +37,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值和活动是对应的</t>
@@ -507,7 +501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -518,7 +512,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -527,7 +521,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -537,7 +530,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -546,7 +539,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -556,7 +548,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -565,7 +557,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -575,7 +566,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -673,7 +664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -759,7 +750,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -777,7 +767,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -795,7 +784,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -858,7 +846,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -876,7 +863,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1146,7 +1132,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1157,7 +1142,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,7 +1152,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1265,7 +1248,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1275,7 +1257,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1284,7 +1266,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1311,7 +1292,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1329,7 +1309,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1347,7 +1326,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1365,7 +1343,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1375,7 +1352,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1384,7 +1361,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1402,7 +1378,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1412,7 +1387,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1421,7 +1396,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1439,7 +1413,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1449,7 +1422,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1458,7 +1431,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1468,7 +1440,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1485,7 +1457,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1495,7 +1466,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1504,7 +1475,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1522,7 +1492,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1532,7 +1501,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1541,7 +1510,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1559,7 +1527,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1569,7 +1536,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1578,7 +1545,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1596,7 +1562,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1614,7 +1579,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1632,7 +1596,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1650,7 +1613,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1668,7 +1630,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1678,7 +1639,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1687,7 +1648,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1705,7 +1665,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1715,7 +1674,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1724,7 +1683,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1742,7 +1700,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1752,7 +1709,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1761,7 +1718,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1779,7 +1735,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1789,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1798,7 +1753,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1816,7 +1770,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1826,7 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1835,7 +1788,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1853,7 +1805,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1863,7 +1814,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1872,7 +1823,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1890,7 +1840,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1900,7 +1849,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1909,7 +1858,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1936,7 +1884,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1954,7 +1901,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1972,7 +1918,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1990,7 +1935,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -2008,7 +1952,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2035,7 +1978,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2044,7 +1987,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2062,7 +2004,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2071,7 +2013,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2098,7 +2039,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2125,7 +2065,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2143,7 +2082,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2176,7 +2114,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2187,7 +2124,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2863,7 +2799,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2874,7 +2809,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3196,7 +3130,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3207,7 +3140,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3529,7 +3461,6 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通用活动</t>
@@ -3539,7 +3470,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3548,7 +3479,6 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落活动</t>
@@ -3629,7 +3559,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3640,7 +3569,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3678,28 +3606,49 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
+    <t>act_ty_sjb_style/act_014_dlphb</t>
+  </si>
+  <si>
     <t>掉落排行榜皮肤（铁锤）</t>
   </si>
   <si>
     <t>3月29日23:59:59</t>
   </si>
   <si>
+    <t>act_ty_by_drop_style/act_015_gongju</t>
+  </si>
+  <si>
     <t>活动boss皮肤（铁锤）</t>
   </si>
   <si>
+    <t>act_ty_by_hhl_style/act_010_hhl</t>
+  </si>
+  <si>
     <t>换好礼皮肤</t>
   </si>
   <si>
+    <t>sys_act_base_style/sys_act_base_normal_001</t>
+  </si>
+  <si>
     <t>周常活动皮肤</t>
   </si>
   <si>
+    <t>sys_act_base_style/sys_act_base_weekly_014</t>
+  </si>
+  <si>
     <t>扩展活动皮肤</t>
   </si>
   <si>
+    <t>act_045_xxlbd</t>
+  </si>
+  <si>
     <t>消消乐争霸</t>
   </si>
   <si>
     <t>Act_045_XXLBDManger</t>
+  </si>
+  <si>
+    <t>act_ty_lb1_style/act_003_tylb1</t>
   </si>
   <si>
     <t>通用礼包皮肤</t>
@@ -3743,7 +3692,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3754,7 +3702,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3831,6 +3778,9 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
+  </si>
+  <si>
     <t>欢乐礼包</t>
   </si>
   <si>
@@ -3864,7 +3814,16 @@
     <t>秒杀礼包</t>
   </si>
   <si>
+    <t>Act_040_MSLBManager</t>
+  </si>
+  <si>
     <t>5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3874,56 +3833,18 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
-  <si>
-    <t>Act_040_MSLBManager</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_015_gongju</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_013_dlphb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_normal_001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_014</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_045_xxlbd</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_lb1_style/act_003_tylb1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3935,39 +3856,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3975,20 +3893,19 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3998,38 +3915,179 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4044,13 +4102,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4072,8 +4130,194 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4096,15 +4340,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4132,16 +4618,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4234,6 +4720,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4252,29 +4741,73 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4532,19 +5065,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
+      <selection pane="bottomRight" activeCell="C327" sqref="C327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4560,7 +5094,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4589,7 +5123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -5913,7 +6447,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6095,7 +6629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="2" customFormat="1">
+    <row r="60" s="2" customFormat="1" spans="1:9">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6459,7 +6993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1">
+    <row r="74" s="3" customFormat="1" spans="1:9">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -6511,7 +7045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="4" customFormat="1">
+    <row r="76" s="4" customFormat="1" spans="1:9">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -7629,7 +8163,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="2" customFormat="1">
+    <row r="119" s="2" customFormat="1" spans="1:9">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9199,7 +9733,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="2" customFormat="1">
+    <row r="180" s="2" customFormat="1" spans="1:9">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9223,7 +9757,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1">
+    <row r="181" s="2" customFormat="1" spans="1:9">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9247,7 +9781,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1">
+    <row r="182" s="2" customFormat="1" spans="1:9">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10269,7 +10803,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:7">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10292,7 +10826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:7">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10315,7 +10849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:7">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10338,7 +10872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:7">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10361,7 +10895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:7">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10384,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:7">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10407,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:7">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10430,7 +10964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:7">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10453,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:7">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11023,7 +11557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="5" customFormat="1">
+    <row r="256" s="5" customFormat="1" spans="1:9">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11049,7 +11583,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1">
+    <row r="257" s="5" customFormat="1" spans="1:9">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11075,7 +11609,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1">
+    <row r="258" s="5" customFormat="1" spans="1:9">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11101,7 +11635,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1">
+    <row r="259" s="5" customFormat="1" spans="1:9">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11127,7 +11661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1">
+    <row r="260" s="5" customFormat="1" spans="1:9">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11205,7 +11739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1">
+    <row r="263" s="5" customFormat="1" spans="1:9">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11231,7 +11765,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1">
+    <row r="264" s="5" customFormat="1" spans="1:9">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11257,7 +11791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1">
+    <row r="265" s="5" customFormat="1" spans="1:9">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11283,7 +11817,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1">
+    <row r="266" s="5" customFormat="1" spans="1:9">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11305,11 +11839,11 @@
       <c r="G266" s="5">
         <v>0</v>
       </c>
-      <c r="I266" s="45" t="s">
+      <c r="I266" s="46" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1">
+    <row r="267" s="5" customFormat="1" spans="1:9">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11331,11 +11865,11 @@
       <c r="G267" s="5">
         <v>0</v>
       </c>
-      <c r="I267" s="45" t="s">
+      <c r="I267" s="46" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="5" customFormat="1">
+    <row r="268" s="5" customFormat="1" spans="1:9">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -11357,7 +11891,7 @@
       <c r="G268" s="5">
         <v>1</v>
       </c>
-      <c r="I268" s="45" t="s">
+      <c r="I268" s="46" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11411,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="5"/>
-      <c r="I270" s="45" t="s">
+      <c r="I270" s="46" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11438,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="H271" s="5"/>
-      <c r="I271" s="45" t="s">
+      <c r="I271" s="46" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11465,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="H272" s="5"/>
-      <c r="I272" s="45" t="s">
+      <c r="I272" s="46" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11519,11 +12053,11 @@
         <v>0</v>
       </c>
       <c r="H274" s="5"/>
-      <c r="I274" s="45" t="s">
+      <c r="I274" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1">
+    <row r="275" s="5" customFormat="1" spans="1:9">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -11549,7 +12083,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1">
+    <row r="276" s="6" customFormat="1" spans="1:9">
       <c r="A276" s="34">
         <v>275</v>
       </c>
@@ -11572,7 +12106,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -11621,7 +12155,7 @@
       <c r="G278">
         <v>1</v>
       </c>
-      <c r="I278" s="45" t="s">
+      <c r="I278" s="46" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11644,7 +12178,7 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="I279" s="45" t="s">
+      <c r="I279" s="46" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11670,7 +12204,7 @@
       <c r="G280">
         <v>0</v>
       </c>
-      <c r="I280" s="45" t="s">
+      <c r="I280" s="46" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11696,7 +12230,7 @@
       <c r="G281">
         <v>1</v>
       </c>
-      <c r="I281" s="45" t="s">
+      <c r="I281" s="46" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11722,11 +12256,11 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="I282" s="45" t="s">
+      <c r="I282" s="46" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
+    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -11748,11 +12282,11 @@
       <c r="G283" s="7">
         <v>1</v>
       </c>
-      <c r="I283" s="46" t="s">
+      <c r="I283" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1">
+    <row r="284" s="7" customFormat="1" spans="1:9">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -11774,7 +12308,7 @@
       <c r="G284" s="7">
         <v>1</v>
       </c>
-      <c r="I284" s="46" t="s">
+      <c r="I284" s="47" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11800,11 +12334,11 @@
       <c r="G285">
         <v>0</v>
       </c>
-      <c r="I285" s="45" t="s">
+      <c r="I285" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1">
+    <row r="286" s="7" customFormat="1" spans="1:9">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -11826,11 +12360,11 @@
       <c r="G286" s="7">
         <v>1</v>
       </c>
-      <c r="I286" s="46" t="s">
+      <c r="I286" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="7" customFormat="1">
+    <row r="287" s="7" customFormat="1" spans="1:9">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -11852,11 +12386,11 @@
       <c r="G287" s="7">
         <v>1</v>
       </c>
-      <c r="I287" s="46" t="s">
+      <c r="I287" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1">
+    <row r="288" s="6" customFormat="1" spans="1:9">
       <c r="A288" s="34">
         <v>287</v>
       </c>
@@ -11882,7 +12416,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="7" customFormat="1">
+    <row r="289" s="7" customFormat="1" spans="1:9">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -11904,11 +12438,11 @@
       <c r="G289" s="7">
         <v>1</v>
       </c>
-      <c r="I289" s="46" t="s">
+      <c r="I289" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="7" customFormat="1">
+    <row r="290" s="7" customFormat="1" spans="1:9">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -11930,11 +12464,11 @@
       <c r="G290" s="7">
         <v>1</v>
       </c>
-      <c r="I290" s="46" t="s">
+      <c r="I290" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="7" customFormat="1">
+    <row r="291" s="7" customFormat="1" spans="1:9">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -11956,11 +12490,11 @@
       <c r="G291" s="7">
         <v>1</v>
       </c>
-      <c r="I291" s="46" t="s">
+      <c r="I291" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="7" customFormat="1">
+    <row r="292" s="7" customFormat="1" spans="1:9">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -11982,11 +12516,11 @@
       <c r="G292" s="7">
         <v>1</v>
       </c>
-      <c r="I292" s="46" t="s">
+      <c r="I292" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="7" customFormat="1">
+    <row r="293" s="7" customFormat="1" spans="1:9">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12008,11 +12542,11 @@
       <c r="G293" s="7">
         <v>1</v>
       </c>
-      <c r="I293" s="46" t="s">
+      <c r="I293" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="7" customFormat="1">
+    <row r="294" s="7" customFormat="1" spans="1:9">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12034,11 +12568,11 @@
       <c r="G294" s="7">
         <v>1</v>
       </c>
-      <c r="I294" s="46" t="s">
+      <c r="I294" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="7" customFormat="1">
+    <row r="295" s="7" customFormat="1" spans="1:9">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12060,7 +12594,7 @@
       <c r="G295" s="7">
         <v>1</v>
       </c>
-      <c r="I295" s="46" t="s">
+      <c r="I295" s="47" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12142,7 +12676,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="5" customFormat="1">
+    <row r="299" s="5" customFormat="1" spans="1:9">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12164,11 +12698,11 @@
       <c r="G299" s="5">
         <v>1</v>
       </c>
-      <c r="I299" s="45" t="s">
+      <c r="I299" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="5" customFormat="1">
+    <row r="300" s="5" customFormat="1" spans="1:9">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12190,11 +12724,11 @@
       <c r="G300" s="5">
         <v>0</v>
       </c>
-      <c r="I300" s="45" t="s">
+      <c r="I300" s="46" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="5" customFormat="1">
+    <row r="301" s="5" customFormat="1" spans="1:9">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12216,11 +12750,11 @@
       <c r="G301" s="5">
         <v>0</v>
       </c>
-      <c r="I301" s="45" t="s">
+      <c r="I301" s="46" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="5" customFormat="1">
+    <row r="302" s="5" customFormat="1" spans="1:9">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12242,11 +12776,11 @@
       <c r="G302" s="5">
         <v>0</v>
       </c>
-      <c r="I302" s="45" t="s">
+      <c r="I302" s="46" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="5" customFormat="1">
+    <row r="303" s="5" customFormat="1" spans="1:9">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12268,11 +12802,11 @@
       <c r="G303" s="5">
         <v>1</v>
       </c>
-      <c r="I303" s="45" t="s">
+      <c r="I303" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="5" customFormat="1">
+    <row r="304" s="5" customFormat="1" spans="1:9">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12298,7 +12832,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="5" customFormat="1">
+    <row r="305" s="5" customFormat="1" spans="1:9">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12324,7 +12858,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="5" customFormat="1">
+    <row r="306" s="5" customFormat="1" spans="1:9">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12346,11 +12880,11 @@
       <c r="G306" s="5">
         <v>1</v>
       </c>
-      <c r="I306" s="45" t="s">
+      <c r="I306" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:9" s="5" customFormat="1">
+    <row r="307" s="5" customFormat="1" spans="1:9">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12372,11 +12906,11 @@
       <c r="G307" s="5">
         <v>1</v>
       </c>
-      <c r="I307" s="45" t="s">
+      <c r="I307" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1">
+    <row r="308" s="5" customFormat="1" spans="1:9">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12402,7 +12936,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="5" customFormat="1">
+    <row r="309" s="5" customFormat="1" spans="1:9">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12428,7 +12962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1">
+    <row r="310" s="5" customFormat="1" spans="1:9">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12454,7 +12988,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="5" customFormat="1">
+    <row r="311" s="5" customFormat="1" spans="1:9">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -12480,7 +13014,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="5" customFormat="1">
+    <row r="312" s="5" customFormat="1" spans="1:7">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -12503,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -12529,7 +13063,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -12551,11 +13085,11 @@
       <c r="G314" s="5">
         <v>1</v>
       </c>
-      <c r="I314" s="45" t="s">
+      <c r="I314" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="5" customFormat="1">
+    <row r="315" s="5" customFormat="1" spans="1:9">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -12581,7 +13115,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -12607,15 +13141,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1">
+    <row r="317" s="6" customFormat="1" spans="1:9">
       <c r="A317" s="13">
         <v>316</v>
       </c>
       <c r="B317" s="43" t="s">
-        <v>992</v>
+        <v>931</v>
       </c>
       <c r="C317" s="36" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E317" s="6">
         <v>1</v>
@@ -12627,41 +13161,41 @@
         <v>1</v>
       </c>
       <c r="I317" s="36" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" s="6" customFormat="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="318" s="6" customFormat="1" spans="1:9">
       <c r="A318" s="13">
         <v>317</v>
       </c>
-      <c r="B318" s="43" t="s">
-        <v>991</v>
+      <c r="B318" s="44" t="s">
+        <v>934</v>
       </c>
       <c r="C318" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="E318" s="6">
+        <v>1</v>
+      </c>
+      <c r="F318" s="6">
+        <v>1</v>
+      </c>
+      <c r="G318" s="6">
+        <v>1</v>
+      </c>
+      <c r="I318" s="36" t="s">
         <v>933</v>
       </c>
-      <c r="E318" s="6">
-        <v>1</v>
-      </c>
-      <c r="F318" s="6">
-        <v>1</v>
-      </c>
-      <c r="G318" s="6">
-        <v>1</v>
-      </c>
-      <c r="I318" s="36" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="6" customFormat="1">
+    </row>
+    <row r="319" s="6" customFormat="1" spans="1:9">
       <c r="A319" s="13">
         <v>318</v>
       </c>
-      <c r="B319" s="43" t="s">
-        <v>993</v>
+      <c r="B319" s="44" t="s">
+        <v>936</v>
       </c>
       <c r="C319" s="36" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="E319" s="6">
         <v>1</v>
@@ -12673,18 +13207,18 @@
         <v>1</v>
       </c>
       <c r="I319" s="36" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" s="6" customFormat="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="320" s="6" customFormat="1" spans="1:9">
       <c r="A320" s="13">
         <v>319</v>
       </c>
-      <c r="B320" s="44" t="s">
-        <v>994</v>
+      <c r="B320" s="45" t="s">
+        <v>938</v>
       </c>
       <c r="C320" s="36" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="E320" s="6">
         <v>1</v>
@@ -12695,19 +13229,19 @@
       <c r="G320" s="6">
         <v>1</v>
       </c>
-      <c r="I320" s="47" t="s">
+      <c r="I320" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="6" customFormat="1">
+    <row r="321" s="6" customFormat="1" spans="1:9">
       <c r="A321" s="13">
         <v>320</v>
       </c>
-      <c r="B321" s="48" t="s">
-        <v>995</v>
+      <c r="B321" s="49" t="s">
+        <v>940</v>
       </c>
       <c r="C321" s="36" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="E321" s="6">
         <v>1</v>
@@ -12718,22 +13252,22 @@
       <c r="G321" s="6">
         <v>1</v>
       </c>
-      <c r="I321" s="47" t="s">
+      <c r="I321" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="6" customFormat="1">
+    <row r="322" s="6" customFormat="1" spans="1:9">
       <c r="A322" s="13">
         <v>321</v>
       </c>
-      <c r="B322" s="43" t="s">
-        <v>996</v>
+      <c r="B322" s="44" t="s">
+        <v>942</v>
       </c>
       <c r="C322" s="36" t="s">
-        <v>937</v>
-      </c>
-      <c r="D322" s="43" t="s">
-        <v>938</v>
+        <v>943</v>
+      </c>
+      <c r="D322" s="44" t="s">
+        <v>944</v>
       </c>
       <c r="E322" s="6">
         <v>1</v>
@@ -12748,15 +13282,15 @@
         <v>799</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="5" customFormat="1">
+    <row r="323" s="5" customFormat="1" spans="1:9">
       <c r="A323" s="13">
         <v>322</v>
       </c>
-      <c r="B323" s="49" t="s">
-        <v>997</v>
+      <c r="B323" s="50" t="s">
+        <v>945</v>
       </c>
       <c r="C323" s="32" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="D323" s="33"/>
       <c r="E323" s="5">
@@ -12772,18 +13306,18 @@
         <v>799</v>
       </c>
     </row>
-    <row r="324" spans="1:9" s="5" customFormat="1">
+    <row r="324" s="5" customFormat="1" spans="1:9">
       <c r="A324" s="13">
         <v>323</v>
       </c>
       <c r="B324" s="33" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="C324" s="32" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="D324" s="33" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="E324" s="5">
         <v>0</v>
@@ -12798,15 +13332,15 @@
         <v>927</v>
       </c>
     </row>
-    <row r="325" spans="1:9" s="5" customFormat="1">
+    <row r="325" s="5" customFormat="1" spans="1:9">
       <c r="A325" s="13">
         <v>324</v>
       </c>
       <c r="B325" s="33" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="C325" s="32" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="E325" s="5">
         <v>0</v>
@@ -12821,18 +13355,18 @@
         <v>927</v>
       </c>
     </row>
-    <row r="326" spans="1:9" s="5" customFormat="1">
+    <row r="326" s="5" customFormat="1" spans="1:9">
       <c r="A326" s="13">
         <v>325</v>
       </c>
       <c r="B326" s="33" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="C326" s="33" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="D326" s="33" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="E326" s="5">
         <v>0</v>
@@ -12844,24 +13378,24 @@
         <v>0</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="I326" s="32" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="5" customFormat="1">
+    <row r="327" s="5" customFormat="1" spans="1:9">
       <c r="A327" s="13">
         <v>326</v>
       </c>
       <c r="B327" s="33" t="s">
-        <v>949</v>
-      </c>
-      <c r="C327" s="45" t="s">
+        <v>956</v>
+      </c>
+      <c r="C327" s="46" t="s">
         <v>477</v>
       </c>
       <c r="D327" s="33" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="E327" s="5">
         <v>0</v>
@@ -12873,21 +13407,21 @@
         <v>0</v>
       </c>
       <c r="I327" s="32" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" s="5" customFormat="1">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="328" s="5" customFormat="1" spans="1:9">
       <c r="A328" s="13">
         <v>327</v>
       </c>
       <c r="B328" s="33" t="s">
-        <v>952</v>
-      </c>
-      <c r="C328" s="45" t="s">
-        <v>953</v>
+        <v>959</v>
+      </c>
+      <c r="C328" s="46" t="s">
+        <v>960</v>
       </c>
       <c r="D328" s="33" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="E328" s="5">
         <v>0</v>
@@ -12899,21 +13433,21 @@
         <v>0</v>
       </c>
       <c r="I328" s="32" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" s="5" customFormat="1">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="329" s="5" customFormat="1" spans="1:9">
       <c r="A329" s="13">
         <v>328</v>
       </c>
       <c r="B329" s="31" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="C329" s="32" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="D329" s="32" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="E329" s="5">
         <v>1</v>
@@ -12928,18 +13462,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:9" s="5" customFormat="1">
+    <row r="330" s="5" customFormat="1" spans="1:9">
       <c r="A330" s="13">
         <v>329</v>
       </c>
       <c r="B330" s="31" t="s">
-        <v>959</v>
-      </c>
-      <c r="C330" s="45" t="s">
-        <v>960</v>
+        <v>966</v>
+      </c>
+      <c r="C330" s="46" t="s">
+        <v>967</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -12959,13 +13493,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="C331" s="45" t="s">
-        <v>963</v>
+        <v>969</v>
+      </c>
+      <c r="C331" s="46" t="s">
+        <v>970</v>
       </c>
       <c r="D331" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -12985,13 +13519,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="C332" s="45" t="s">
-        <v>966</v>
+        <v>972</v>
+      </c>
+      <c r="C332" s="46" t="s">
+        <v>973</v>
       </c>
       <c r="D332" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="E332" s="5">
         <v>1</v>
@@ -13011,13 +13545,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>968</v>
-      </c>
-      <c r="C333" s="45" t="s">
-        <v>969</v>
+        <v>975</v>
+      </c>
+      <c r="C333" s="46" t="s">
+        <v>976</v>
       </c>
       <c r="D333" s="28" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="E333" s="5">
         <v>1</v>
@@ -13029,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="32" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13037,13 +13571,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>972</v>
-      </c>
-      <c r="C334" s="45" t="s">
+        <v>979</v>
+      </c>
+      <c r="C334" s="46" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="E334" s="5">
         <v>1</v>
@@ -13055,7 +13589,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="32" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13063,10 +13597,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
       <c r="C335" s="32" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="E335" s="5">
         <v>1</v>
@@ -13078,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="32" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13086,13 +13620,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>977</v>
-      </c>
-      <c r="C336" s="45" t="s">
-        <v>978</v>
+        <v>985</v>
+      </c>
+      <c r="C336" s="46" t="s">
+        <v>986</v>
       </c>
       <c r="D336" s="28" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -13112,13 +13646,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>980</v>
-      </c>
-      <c r="C337" s="45" t="s">
-        <v>981</v>
+        <v>988</v>
+      </c>
+      <c r="C337" s="46" t="s">
+        <v>989</v>
       </c>
       <c r="D337" s="28" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="E337" s="5">
         <v>1</v>
@@ -13130,21 +13664,21 @@
         <v>1</v>
       </c>
       <c r="I337" s="32" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="13">
         <v>337</v>
       </c>
-      <c r="B338" s="50" t="s">
-        <v>984</v>
+      <c r="B338" s="51" t="s">
+        <v>992</v>
       </c>
       <c r="C338" t="s">
-        <v>985</v>
-      </c>
-      <c r="D338" s="51" t="s">
-        <v>988</v>
+        <v>993</v>
+      </c>
+      <c r="D338" s="52" t="s">
+        <v>994</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -13156,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>986</v>
+        <v>995</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13164,10 +13698,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="C339" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -13179,40 +13713,43 @@
         <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>986</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H337"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <autoFilter ref="A1:H339">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -3633,7 +3633,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_014</t>
+    <t>sys_act_base_style/sys_act_base_weekly_015</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3839,12 +3839,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3881,13 +3881,6 @@
       <color rgb="FF191F25"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3932,69 +3925,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4014,9 +3946,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4030,26 +4008,41 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4063,7 +4056,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4087,7 +4080,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4132,91 +4125,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4234,7 +4155,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4246,13 +4245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4264,19 +4263,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4288,31 +4281,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4341,6 +4322,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4358,8 +4348,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4369,16 +4361,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4400,11 +4383,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4423,21 +4419,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4446,10 +4427,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4458,139 +4439,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4648,13 +4629,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4666,31 +4647,31 @@
     <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4699,55 +4680,46 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -5078,7 +5050,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C327" sqref="C327"/>
+      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11839,7 +11811,7 @@
       <c r="G266" s="5">
         <v>0</v>
       </c>
-      <c r="I266" s="46" t="s">
+      <c r="I266" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11865,7 +11837,7 @@
       <c r="G267" s="5">
         <v>0</v>
       </c>
-      <c r="I267" s="46" t="s">
+      <c r="I267" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11891,7 +11863,7 @@
       <c r="G268" s="5">
         <v>1</v>
       </c>
-      <c r="I268" s="46" t="s">
+      <c r="I268" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11945,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="5"/>
-      <c r="I270" s="46" t="s">
+      <c r="I270" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11972,7 +11944,7 @@
         <v>1</v>
       </c>
       <c r="H271" s="5"/>
-      <c r="I271" s="46" t="s">
+      <c r="I271" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11999,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="H272" s="5"/>
-      <c r="I272" s="46" t="s">
+      <c r="I272" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12053,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="H274" s="5"/>
-      <c r="I274" s="46" t="s">
+      <c r="I274" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12155,7 +12127,7 @@
       <c r="G278">
         <v>1</v>
       </c>
-      <c r="I278" s="46" t="s">
+      <c r="I278" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12178,7 +12150,7 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="I279" s="46" t="s">
+      <c r="I279" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12204,7 +12176,7 @@
       <c r="G280">
         <v>0</v>
       </c>
-      <c r="I280" s="46" t="s">
+      <c r="I280" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12230,7 +12202,7 @@
       <c r="G281">
         <v>1</v>
       </c>
-      <c r="I281" s="46" t="s">
+      <c r="I281" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12256,7 +12228,7 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="I282" s="46" t="s">
+      <c r="I282" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12282,7 +12254,7 @@
       <c r="G283" s="7">
         <v>1</v>
       </c>
-      <c r="I283" s="47" t="s">
+      <c r="I283" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12308,7 +12280,7 @@
       <c r="G284" s="7">
         <v>1</v>
       </c>
-      <c r="I284" s="47" t="s">
+      <c r="I284" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12334,7 +12306,7 @@
       <c r="G285">
         <v>0</v>
       </c>
-      <c r="I285" s="46" t="s">
+      <c r="I285" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12360,7 +12332,7 @@
       <c r="G286" s="7">
         <v>1</v>
       </c>
-      <c r="I286" s="47" t="s">
+      <c r="I286" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12386,7 +12358,7 @@
       <c r="G287" s="7">
         <v>1</v>
       </c>
-      <c r="I287" s="47" t="s">
+      <c r="I287" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12438,7 +12410,7 @@
       <c r="G289" s="7">
         <v>1</v>
       </c>
-      <c r="I289" s="47" t="s">
+      <c r="I289" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12464,7 +12436,7 @@
       <c r="G290" s="7">
         <v>1</v>
       </c>
-      <c r="I290" s="47" t="s">
+      <c r="I290" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12490,7 +12462,7 @@
       <c r="G291" s="7">
         <v>1</v>
       </c>
-      <c r="I291" s="47" t="s">
+      <c r="I291" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12516,7 +12488,7 @@
       <c r="G292" s="7">
         <v>1</v>
       </c>
-      <c r="I292" s="47" t="s">
+      <c r="I292" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12542,7 +12514,7 @@
       <c r="G293" s="7">
         <v>1</v>
       </c>
-      <c r="I293" s="47" t="s">
+      <c r="I293" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12568,7 +12540,7 @@
       <c r="G294" s="7">
         <v>1</v>
       </c>
-      <c r="I294" s="47" t="s">
+      <c r="I294" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12594,7 +12566,7 @@
       <c r="G295" s="7">
         <v>1</v>
       </c>
-      <c r="I295" s="47" t="s">
+      <c r="I295" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12698,7 +12670,7 @@
       <c r="G299" s="5">
         <v>1</v>
       </c>
-      <c r="I299" s="46" t="s">
+      <c r="I299" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12724,7 +12696,7 @@
       <c r="G300" s="5">
         <v>0</v>
       </c>
-      <c r="I300" s="46" t="s">
+      <c r="I300" s="32" t="s">
         <v>878</v>
       </c>
     </row>
@@ -12750,7 +12722,7 @@
       <c r="G301" s="5">
         <v>0</v>
       </c>
-      <c r="I301" s="46" t="s">
+      <c r="I301" s="32" t="s">
         <v>878</v>
       </c>
     </row>
@@ -12776,7 +12748,7 @@
       <c r="G302" s="5">
         <v>0</v>
       </c>
-      <c r="I302" s="46" t="s">
+      <c r="I302" s="32" t="s">
         <v>878</v>
       </c>
     </row>
@@ -12802,7 +12774,7 @@
       <c r="G303" s="5">
         <v>1</v>
       </c>
-      <c r="I303" s="46" t="s">
+      <c r="I303" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12880,7 +12852,7 @@
       <c r="G306" s="5">
         <v>1</v>
       </c>
-      <c r="I306" s="46" t="s">
+      <c r="I306" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12906,7 +12878,7 @@
       <c r="G307" s="5">
         <v>1</v>
       </c>
-      <c r="I307" s="46" t="s">
+      <c r="I307" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13085,7 +13057,7 @@
       <c r="G314" s="5">
         <v>1</v>
       </c>
-      <c r="I314" s="46" t="s">
+      <c r="I314" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13229,7 +13201,7 @@
       <c r="G320" s="6">
         <v>1</v>
       </c>
-      <c r="I320" s="48" t="s">
+      <c r="I320" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13237,7 +13209,7 @@
       <c r="A321" s="13">
         <v>320</v>
       </c>
-      <c r="B321" s="49" t="s">
+      <c r="B321" s="46" t="s">
         <v>940</v>
       </c>
       <c r="C321" s="36" t="s">
@@ -13252,7 +13224,7 @@
       <c r="G321" s="6">
         <v>1</v>
       </c>
-      <c r="I321" s="48" t="s">
+      <c r="I321" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13286,7 +13258,7 @@
       <c r="A323" s="13">
         <v>322</v>
       </c>
-      <c r="B323" s="50" t="s">
+      <c r="B323" s="47" t="s">
         <v>945</v>
       </c>
       <c r="C323" s="32" t="s">
@@ -13391,7 +13363,7 @@
       <c r="B327" s="33" t="s">
         <v>956</v>
       </c>
-      <c r="C327" s="46" t="s">
+      <c r="C327" s="32" t="s">
         <v>477</v>
       </c>
       <c r="D327" s="33" t="s">
@@ -13417,7 +13389,7 @@
       <c r="B328" s="33" t="s">
         <v>959</v>
       </c>
-      <c r="C328" s="46" t="s">
+      <c r="C328" s="32" t="s">
         <v>960</v>
       </c>
       <c r="D328" s="33" t="s">
@@ -13469,7 +13441,7 @@
       <c r="B330" s="31" t="s">
         <v>966</v>
       </c>
-      <c r="C330" s="46" t="s">
+      <c r="C330" s="32" t="s">
         <v>967</v>
       </c>
       <c r="D330" s="5" t="s">
@@ -13495,7 +13467,7 @@
       <c r="B331" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C331" s="46" t="s">
+      <c r="C331" s="32" t="s">
         <v>970</v>
       </c>
       <c r="D331" t="s">
@@ -13521,7 +13493,7 @@
       <c r="B332" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C332" s="46" t="s">
+      <c r="C332" s="32" t="s">
         <v>973</v>
       </c>
       <c r="D332" t="s">
@@ -13547,7 +13519,7 @@
       <c r="B333" s="8" t="s">
         <v>975</v>
       </c>
-      <c r="C333" s="46" t="s">
+      <c r="C333" s="32" t="s">
         <v>976</v>
       </c>
       <c r="D333" s="28" t="s">
@@ -13573,7 +13545,7 @@
       <c r="B334" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C334" s="46" t="s">
+      <c r="C334" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
@@ -13622,7 +13594,7 @@
       <c r="B336" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="C336" s="46" t="s">
+      <c r="C336" s="32" t="s">
         <v>986</v>
       </c>
       <c r="D336" s="28" t="s">
@@ -13648,7 +13620,7 @@
       <c r="B337" s="8" t="s">
         <v>988</v>
       </c>
-      <c r="C337" s="46" t="s">
+      <c r="C337" s="32" t="s">
         <v>989</v>
       </c>
       <c r="D337" s="28" t="s">
@@ -13671,13 +13643,13 @@
       <c r="A338" s="13">
         <v>337</v>
       </c>
-      <c r="B338" s="51" t="s">
+      <c r="B338" s="48" t="s">
         <v>992</v>
       </c>
       <c r="C338" t="s">
         <v>993</v>
       </c>
-      <c r="D338" s="52" t="s">
+      <c r="D338" s="49" t="s">
         <v>994</v>
       </c>
       <c r="E338">

--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1004">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -33,7 +28,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -506,7 +501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -517,7 +512,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -535,7 +530,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -553,7 +548,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -571,7 +566,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -669,7 +664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -1262,7 +1257,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1357,7 +1352,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1392,7 +1387,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1427,7 +1422,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1445,7 +1440,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1471,7 +1466,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1506,7 +1501,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1541,7 +1536,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1644,7 +1639,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1679,7 +1674,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1714,7 +1709,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1749,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1784,7 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1819,7 +1814,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1854,7 +1849,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1983,7 +1978,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2009,7 +2004,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3281,16 +3276,13 @@
     <t>XRZXGiftManager</t>
   </si>
   <si>
-    <t>act_034_ldfd</t>
-  </si>
-  <si>
-    <t>立冬福袋</t>
-  </si>
-  <si>
-    <t>Act_034_LDFDManager</t>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
+    <t>act_ty_ldfd</t>
+  </si>
+  <si>
+    <t>幸运福袋</t>
+  </si>
+  <si>
+    <t>Act_ty_LDFDManager</t>
   </si>
   <si>
     <t>by3d_shtx</t>
@@ -3475,7 +3467,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3611,34 +3603,37 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_014_dlphb</t>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（财力）</t>
+    <t>act_ty_sjb_style/act_015_dlphb</t>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（福气）</t>
+  </si>
+  <si>
+    <t>5月24日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_011_boss</t>
+  </si>
+  <si>
+    <t>活动boss皮肤（五星）</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_010_hhl</t>
+  </si>
+  <si>
+    <t>换好礼皮肤</t>
   </si>
   <si>
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_015_gongju</t>
-  </si>
-  <si>
-    <t>活动boss皮肤（五星）</t>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
-  </si>
-  <si>
-    <t>换好礼皮肤</t>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_normal_001</t>
   </si>
   <si>
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_015</t>
+    <t>sys_act_base_style/sys_act_base_weekly_016</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3653,13 +3648,13 @@
     <t>Act_045_XXLBDManger</t>
   </si>
   <si>
+    <t>3月15日23:59:59</t>
+  </si>
+  <si>
     <t>act_ty_lb1_style/act_003_tylb1</t>
   </si>
   <si>
     <t>通用礼包皮肤</t>
-  </si>
-  <si>
-    <t>3月15日23:59:59</t>
   </si>
   <si>
     <t>act_ty_universal_dh</t>
@@ -3768,13 +3763,13 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>龙腾祈福</t>
+    <t>祈福好礼</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
   </si>
   <si>
-    <t>2021年4月12日 23:59:59</t>
+    <t>2021年5月24日 23:59:59</t>
   </si>
   <si>
     <t>act_ty_gifts</t>
@@ -3807,7 +3802,7 @@
     <t>act_053_xcns</t>
   </si>
   <si>
-    <t>消除达人</t>
+    <t>爱消福利</t>
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
@@ -3819,13 +3814,19 @@
     <t>秒杀礼包</t>
   </si>
   <si>
+    <t>Act_040_MSLBManager</t>
+  </si>
+  <si>
+    <t>（180天领取）5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+  </si>
+  <si>
     <t>5月10日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
   </si>
   <si>
     <t>act_054_byns</t>
@@ -3847,20 +3848,18 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
-  <si>
-    <t>Act_040_MSLBManager</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买后180天领取奖励</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3872,7 +3871,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3884,13 +3883,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3908,13 +3907,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3926,26 +3925,147 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3954,19 +4074,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3981,13 +4110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4009,8 +4138,182 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4033,13 +4336,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4069,16 +4614,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4186,29 +4731,73 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4466,19 +5055,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C327" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D323" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D347" sqref="D347"/>
+      <selection pane="bottomRight" activeCell="I345" sqref="I345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4494,7 +5084,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4523,7 +5113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -5847,7 +6437,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6029,7 +6619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="2" customFormat="1">
+    <row r="60" s="2" customFormat="1" spans="1:9">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6393,7 +6983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1">
+    <row r="74" s="3" customFormat="1" spans="1:9">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -6407,16 +6997,16 @@
         <v>232</v>
       </c>
       <c r="E74" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="24">
-        <v>44298</v>
+        <v>44340</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -6445,7 +7035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="4" customFormat="1">
+    <row r="76" s="4" customFormat="1" spans="1:9">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -7563,7 +8153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="2" customFormat="1">
+    <row r="119" s="2" customFormat="1" spans="1:9">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9133,7 +9723,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="2" customFormat="1">
+    <row r="180" s="2" customFormat="1" spans="1:9">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9157,7 +9747,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1">
+    <row r="181" s="2" customFormat="1" spans="1:9">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9181,7 +9771,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1">
+    <row r="182" s="2" customFormat="1" spans="1:9">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10203,7 +10793,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:7">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10226,7 +10816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:7">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10249,7 +10839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:7">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10272,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:7">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10295,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:7">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10318,7 +10908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:7">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10341,7 +10931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:7">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10364,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:7">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10387,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:7">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -10957,7 +11547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="5" customFormat="1">
+    <row r="256" s="5" customFormat="1" spans="1:9">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -10983,7 +11573,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1">
+    <row r="257" s="5" customFormat="1" spans="1:9">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11009,7 +11599,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1">
+    <row r="258" s="5" customFormat="1" spans="1:9">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11035,7 +11625,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1">
+    <row r="259" s="5" customFormat="1" spans="1:9">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11061,7 +11651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1">
+    <row r="260" s="5" customFormat="1" spans="1:9">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11139,7 +11729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1">
+    <row r="263" s="5" customFormat="1" spans="1:9">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11165,7 +11755,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1">
+    <row r="264" s="5" customFormat="1" spans="1:9">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11191,7 +11781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1">
+    <row r="265" s="5" customFormat="1" spans="1:9">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11217,7 +11807,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1">
+    <row r="266" s="5" customFormat="1" spans="1:9">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11243,7 +11833,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1">
+    <row r="267" s="5" customFormat="1" spans="1:9">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11269,7 +11859,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="5" customFormat="1">
+    <row r="268" s="5" customFormat="1" spans="1:9">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -11457,7 +12047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1">
+    <row r="275" s="5" customFormat="1" spans="1:9">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -11471,19 +12061,19 @@
         <v>798</v>
       </c>
       <c r="E275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="32" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1">
+    <row r="276" s="6" customFormat="1" spans="1:9">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -11506,7 +12096,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -11660,7 +12250,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
+    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -11686,7 +12276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1">
+    <row r="284" s="7" customFormat="1" spans="1:9">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -11738,7 +12328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1">
+    <row r="286" s="7" customFormat="1" spans="1:9">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -11764,7 +12354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="7" customFormat="1">
+    <row r="287" s="7" customFormat="1" spans="1:9">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -11790,7 +12380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1">
+    <row r="288" s="6" customFormat="1" spans="1:9">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -11813,21 +12403,21 @@
         <v>1</v>
       </c>
       <c r="I288" s="37" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="7" customFormat="1">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="289" s="7" customFormat="1" spans="1:9">
       <c r="A289" s="13">
         <v>288</v>
       </c>
       <c r="B289" s="40" t="s">
+        <v>839</v>
+      </c>
+      <c r="C289" s="39" t="s">
         <v>840</v>
       </c>
-      <c r="C289" s="39" t="s">
+      <c r="D289" s="38" t="s">
         <v>841</v>
-      </c>
-      <c r="D289" s="38" t="s">
-        <v>842</v>
       </c>
       <c r="E289" s="7">
         <v>1</v>
@@ -11842,18 +12432,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="7" customFormat="1">
+    <row r="290" s="7" customFormat="1" spans="1:9">
       <c r="A290" s="13">
         <v>289</v>
       </c>
       <c r="B290" s="38" t="s">
+        <v>842</v>
+      </c>
+      <c r="C290" s="39" t="s">
         <v>843</v>
       </c>
-      <c r="C290" s="39" t="s">
+      <c r="D290" s="38" t="s">
         <v>844</v>
-      </c>
-      <c r="D290" s="38" t="s">
-        <v>845</v>
       </c>
       <c r="E290" s="7">
         <v>1</v>
@@ -11868,18 +12458,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="7" customFormat="1">
+    <row r="291" s="7" customFormat="1" spans="1:9">
       <c r="A291" s="13">
         <v>290</v>
       </c>
       <c r="B291" s="38" t="s">
+        <v>845</v>
+      </c>
+      <c r="C291" s="39" t="s">
         <v>846</v>
       </c>
-      <c r="C291" s="39" t="s">
+      <c r="D291" s="38" t="s">
         <v>847</v>
-      </c>
-      <c r="D291" s="38" t="s">
-        <v>848</v>
       </c>
       <c r="E291" s="7">
         <v>1</v>
@@ -11894,18 +12484,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="7" customFormat="1">
+    <row r="292" s="7" customFormat="1" spans="1:9">
       <c r="A292" s="13">
         <v>291</v>
       </c>
       <c r="B292" s="38" t="s">
+        <v>848</v>
+      </c>
+      <c r="C292" s="39" t="s">
         <v>849</v>
       </c>
-      <c r="C292" s="39" t="s">
+      <c r="D292" s="38" t="s">
         <v>850</v>
-      </c>
-      <c r="D292" s="38" t="s">
-        <v>851</v>
       </c>
       <c r="E292" s="7">
         <v>1</v>
@@ -11920,18 +12510,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="7" customFormat="1">
+    <row r="293" s="7" customFormat="1" spans="1:9">
       <c r="A293" s="13">
         <v>292</v>
       </c>
       <c r="B293" s="38" t="s">
+        <v>851</v>
+      </c>
+      <c r="C293" s="39" t="s">
         <v>852</v>
       </c>
-      <c r="C293" s="39" t="s">
+      <c r="D293" s="38" t="s">
         <v>853</v>
-      </c>
-      <c r="D293" s="38" t="s">
-        <v>854</v>
       </c>
       <c r="E293" s="7">
         <v>1</v>
@@ -11946,18 +12536,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="7" customFormat="1">
+    <row r="294" s="7" customFormat="1" spans="1:9">
       <c r="A294" s="13">
         <v>293</v>
       </c>
       <c r="B294" s="38" t="s">
+        <v>854</v>
+      </c>
+      <c r="C294" s="39" t="s">
         <v>855</v>
       </c>
-      <c r="C294" s="39" t="s">
+      <c r="D294" s="38" t="s">
         <v>856</v>
-      </c>
-      <c r="D294" s="38" t="s">
-        <v>857</v>
       </c>
       <c r="E294" s="7">
         <v>1</v>
@@ -11972,18 +12562,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="7" customFormat="1">
+    <row r="295" s="7" customFormat="1" spans="1:9">
       <c r="A295" s="13">
         <v>294</v>
       </c>
       <c r="B295" s="38" t="s">
+        <v>857</v>
+      </c>
+      <c r="C295" s="39" t="s">
         <v>858</v>
       </c>
-      <c r="C295" s="39" t="s">
+      <c r="D295" s="38" t="s">
         <v>859</v>
-      </c>
-      <c r="D295" s="38" t="s">
-        <v>860</v>
       </c>
       <c r="E295" s="7">
         <v>1</v>
@@ -12003,25 +12593,25 @@
         <v>295</v>
       </c>
       <c r="B296" s="41" t="s">
+        <v>860</v>
+      </c>
+      <c r="C296" s="32" t="s">
         <v>861</v>
       </c>
-      <c r="C296" s="32" t="s">
+      <c r="D296" s="41" t="s">
         <v>862</v>
       </c>
-      <c r="D296" s="41" t="s">
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="I296" s="32" t="s">
         <v>863</v>
-      </c>
-      <c r="E296">
-        <v>0</v>
-      </c>
-      <c r="F296">
-        <v>0</v>
-      </c>
-      <c r="G296">
-        <v>0</v>
-      </c>
-      <c r="I296" s="32" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -12029,25 +12619,25 @@
         <v>296</v>
       </c>
       <c r="B297" s="41" t="s">
+        <v>864</v>
+      </c>
+      <c r="C297" s="32" t="s">
         <v>865</v>
       </c>
-      <c r="C297" s="32" t="s">
+      <c r="D297" s="41" t="s">
         <v>866</v>
       </c>
-      <c r="D297" s="41" t="s">
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="I297" s="32" t="s">
         <v>867</v>
-      </c>
-      <c r="E297">
-        <v>0</v>
-      </c>
-      <c r="F297">
-        <v>0</v>
-      </c>
-      <c r="G297">
-        <v>0</v>
-      </c>
-      <c r="I297" s="32" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -12055,14 +12645,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="C298" s="32" t="s">
         <v>869</v>
       </c>
-      <c r="C298" s="32" t="s">
+      <c r="D298" s="41" t="s">
         <v>870</v>
       </c>
-      <c r="D298" s="41" t="s">
-        <v>871</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12073,21 +12663,21 @@
         <v>0</v>
       </c>
       <c r="I298" s="32" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" s="5" customFormat="1">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="299" s="5" customFormat="1" spans="1:9">
       <c r="A299" s="13">
         <v>298</v>
       </c>
       <c r="B299" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="C299" s="32" t="s">
         <v>872</v>
       </c>
-      <c r="C299" s="32" t="s">
+      <c r="D299" s="33" t="s">
         <v>873</v>
-      </c>
-      <c r="D299" s="33" t="s">
-        <v>874</v>
       </c>
       <c r="E299" s="5">
         <v>1</v>
@@ -12102,45 +12692,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="5" customFormat="1">
+    <row r="300" s="5" customFormat="1" spans="1:9">
       <c r="A300" s="13">
         <v>299</v>
       </c>
       <c r="B300" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="C300" s="32" t="s">
         <v>875</v>
       </c>
-      <c r="C300" s="32" t="s">
+      <c r="D300" s="33" t="s">
         <v>876</v>
       </c>
-      <c r="D300" s="33" t="s">
+      <c r="E300" s="5">
+        <v>0</v>
+      </c>
+      <c r="F300" s="5">
+        <v>0</v>
+      </c>
+      <c r="G300" s="5">
+        <v>0</v>
+      </c>
+      <c r="I300" s="32" t="s">
         <v>877</v>
       </c>
-      <c r="E300" s="5">
-        <v>0</v>
-      </c>
-      <c r="F300" s="5">
-        <v>0</v>
-      </c>
-      <c r="G300" s="5">
-        <v>0</v>
-      </c>
-      <c r="I300" s="32" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" s="5" customFormat="1">
+    </row>
+    <row r="301" s="5" customFormat="1" spans="1:9">
       <c r="A301" s="13">
         <v>300</v>
       </c>
       <c r="B301" s="33" t="s">
+        <v>878</v>
+      </c>
+      <c r="C301" s="32" t="s">
         <v>879</v>
       </c>
-      <c r="C301" s="32" t="s">
+      <c r="D301" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="D301" s="33" t="s">
-        <v>881</v>
-      </c>
       <c r="E301" s="5">
         <v>0</v>
       </c>
@@ -12151,22 +12741,22 @@
         <v>0</v>
       </c>
       <c r="I301" s="32" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" s="5" customFormat="1">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="302" s="5" customFormat="1" spans="1:9">
       <c r="A302" s="13">
         <v>301</v>
       </c>
       <c r="B302" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="C302" s="32" t="s">
         <v>882</v>
       </c>
-      <c r="C302" s="32" t="s">
+      <c r="D302" s="33" t="s">
         <v>883</v>
       </c>
-      <c r="D302" s="33" t="s">
-        <v>884</v>
-      </c>
       <c r="E302" s="5">
         <v>0</v>
       </c>
@@ -12177,21 +12767,21 @@
         <v>0</v>
       </c>
       <c r="I302" s="32" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" s="5" customFormat="1">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="303" s="5" customFormat="1" spans="1:9">
       <c r="A303" s="13">
         <v>302</v>
       </c>
       <c r="B303" s="33" t="s">
+        <v>884</v>
+      </c>
+      <c r="C303" s="32" t="s">
         <v>885</v>
       </c>
-      <c r="C303" s="32" t="s">
+      <c r="D303" s="33" t="s">
         <v>886</v>
-      </c>
-      <c r="D303" s="33" t="s">
-        <v>887</v>
       </c>
       <c r="E303" s="5">
         <v>1</v>
@@ -12206,45 +12796,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="5" customFormat="1">
+    <row r="304" s="5" customFormat="1" spans="1:9">
       <c r="A304" s="13">
         <v>303</v>
       </c>
       <c r="B304" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="C304" s="32" t="s">
         <v>888</v>
       </c>
-      <c r="C304" s="32" t="s">
+      <c r="D304" s="33" t="s">
         <v>889</v>
       </c>
-      <c r="D304" s="33" t="s">
+      <c r="E304" s="5">
+        <v>1</v>
+      </c>
+      <c r="F304" s="5">
+        <v>1</v>
+      </c>
+      <c r="G304" s="5">
+        <v>1</v>
+      </c>
+      <c r="I304" s="32" t="s">
         <v>890</v>
       </c>
-      <c r="E304" s="5">
-        <v>1</v>
-      </c>
-      <c r="F304" s="5">
-        <v>1</v>
-      </c>
-      <c r="G304" s="5">
-        <v>1</v>
-      </c>
-      <c r="I304" s="32" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" s="5" customFormat="1">
+    </row>
+    <row r="305" s="5" customFormat="1" spans="1:9">
       <c r="A305" s="13">
         <v>304</v>
       </c>
       <c r="B305" s="33" t="s">
+        <v>891</v>
+      </c>
+      <c r="C305" s="32" t="s">
         <v>892</v>
       </c>
-      <c r="C305" s="32" t="s">
+      <c r="D305" s="33" t="s">
         <v>893</v>
       </c>
-      <c r="D305" s="33" t="s">
-        <v>894</v>
-      </c>
       <c r="E305" s="5">
         <v>1</v>
       </c>
@@ -12255,21 +12845,21 @@
         <v>1</v>
       </c>
       <c r="I305" s="32" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" s="5" customFormat="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="306" s="5" customFormat="1" spans="1:9">
       <c r="A306" s="13">
         <v>305</v>
       </c>
       <c r="B306" s="33" t="s">
+        <v>894</v>
+      </c>
+      <c r="C306" s="33" t="s">
         <v>895</v>
       </c>
-      <c r="C306" s="33" t="s">
+      <c r="D306" s="33" t="s">
         <v>896</v>
-      </c>
-      <c r="D306" s="33" t="s">
-        <v>897</v>
       </c>
       <c r="E306" s="5">
         <v>1</v>
@@ -12284,18 +12874,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:9" s="5" customFormat="1">
+    <row r="307" s="5" customFormat="1" spans="1:9">
       <c r="A307" s="13">
         <v>306</v>
       </c>
       <c r="B307" s="31" t="s">
+        <v>897</v>
+      </c>
+      <c r="C307" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="C307" s="5" t="s">
+      <c r="D307" s="5" t="s">
         <v>899</v>
-      </c>
-      <c r="D307" s="5" t="s">
-        <v>900</v>
       </c>
       <c r="E307" s="5">
         <v>1</v>
@@ -12310,44 +12900,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1">
+    <row r="308" s="5" customFormat="1" spans="1:9">
       <c r="A308" s="13">
         <v>307</v>
       </c>
       <c r="B308" s="33" t="s">
+        <v>900</v>
+      </c>
+      <c r="C308" s="32" t="s">
         <v>901</v>
       </c>
-      <c r="C308" s="32" t="s">
+      <c r="D308" s="33" t="s">
         <v>902</v>
       </c>
-      <c r="D308" s="33" t="s">
+      <c r="E308" s="5">
+        <v>1</v>
+      </c>
+      <c r="F308" s="5">
+        <v>1</v>
+      </c>
+      <c r="G308" s="5">
+        <v>1</v>
+      </c>
+      <c r="I308" s="32" t="s">
         <v>903</v>
       </c>
-      <c r="E308" s="5">
-        <v>1</v>
-      </c>
-      <c r="F308" s="5">
-        <v>1</v>
-      </c>
-      <c r="G308" s="5">
-        <v>1</v>
-      </c>
-      <c r="I308" s="32" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" s="5" customFormat="1">
+    </row>
+    <row r="309" s="5" customFormat="1" spans="1:9">
       <c r="A309" s="13">
         <v>308</v>
       </c>
       <c r="B309" s="33" t="s">
+        <v>904</v>
+      </c>
+      <c r="C309" s="32" t="s">
         <v>905</v>
       </c>
-      <c r="C309" s="32" t="s">
+      <c r="D309" s="33" t="s">
         <v>906</v>
-      </c>
-      <c r="D309" s="33" t="s">
-        <v>907</v>
       </c>
       <c r="E309" s="5">
         <v>1</v>
@@ -12362,45 +12952,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1">
+    <row r="310" s="5" customFormat="1" spans="1:9">
       <c r="A310" s="13">
         <v>309</v>
       </c>
       <c r="B310" s="33" t="s">
+        <v>907</v>
+      </c>
+      <c r="C310" s="32" t="s">
         <v>908</v>
       </c>
-      <c r="C310" s="32" t="s">
+      <c r="D310" s="33" t="s">
         <v>909</v>
       </c>
-      <c r="D310" s="33" t="s">
-        <v>910</v>
-      </c>
       <c r="E310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" s="32" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="5" customFormat="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="311" s="5" customFormat="1" spans="1:9">
       <c r="A311" s="13">
         <v>310</v>
       </c>
       <c r="B311" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="C311" s="32" t="s">
         <v>911</v>
       </c>
-      <c r="C311" s="32" t="s">
+      <c r="D311" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="D311" s="33" t="s">
-        <v>913</v>
-      </c>
       <c r="E311" s="5">
         <v>0</v>
       </c>
@@ -12411,22 +13001,22 @@
         <v>0</v>
       </c>
       <c r="I311" s="32" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" s="5" customFormat="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="312" s="5" customFormat="1" spans="1:7">
       <c r="A312" s="13">
         <v>311</v>
       </c>
       <c r="B312" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="C312" s="32" t="s">
         <v>914</v>
       </c>
-      <c r="C312" s="32" t="s">
+      <c r="D312" s="33" t="s">
         <v>915</v>
       </c>
-      <c r="D312" s="33" t="s">
-        <v>916</v>
-      </c>
       <c r="E312" s="5">
         <v>0</v>
       </c>
@@ -12437,44 +13027,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A313" s="13">
         <v>312</v>
       </c>
       <c r="B313" s="42" t="s">
+        <v>916</v>
+      </c>
+      <c r="C313" s="32" t="s">
         <v>917</v>
       </c>
-      <c r="C313" s="32" t="s">
+      <c r="D313" s="33" t="s">
         <v>918</v>
       </c>
-      <c r="D313" s="33" t="s">
+      <c r="E313" s="5">
+        <v>0</v>
+      </c>
+      <c r="F313" s="5">
+        <v>0</v>
+      </c>
+      <c r="G313" s="5">
+        <v>0</v>
+      </c>
+      <c r="I313" s="32" t="s">
         <v>919</v>
       </c>
-      <c r="E313" s="5">
-        <v>0</v>
-      </c>
-      <c r="F313" s="5">
-        <v>0</v>
-      </c>
-      <c r="G313" s="5">
-        <v>0</v>
-      </c>
-      <c r="I313" s="32" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
+    </row>
+    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A314" s="13">
         <v>313</v>
       </c>
       <c r="B314" s="42" t="s">
+        <v>920</v>
+      </c>
+      <c r="C314" s="32" t="s">
         <v>921</v>
       </c>
-      <c r="C314" s="32" t="s">
+      <c r="D314" s="43" t="s">
         <v>922</v>
-      </c>
-      <c r="D314" s="43" t="s">
-        <v>923</v>
       </c>
       <c r="E314" s="5">
         <v>1</v>
@@ -12489,44 +13079,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="5" customFormat="1">
+    <row r="315" s="5" customFormat="1" spans="1:9">
       <c r="A315" s="13">
         <v>314</v>
       </c>
       <c r="B315" s="33" t="s">
+        <v>923</v>
+      </c>
+      <c r="C315" s="32" t="s">
         <v>924</v>
       </c>
-      <c r="C315" s="32" t="s">
+      <c r="D315" s="33" t="s">
         <v>925</v>
       </c>
-      <c r="D315" s="33" t="s">
+      <c r="E315" s="5">
+        <v>0</v>
+      </c>
+      <c r="F315" s="5">
+        <v>0</v>
+      </c>
+      <c r="G315" s="5">
+        <v>0</v>
+      </c>
+      <c r="I315" s="32" t="s">
         <v>926</v>
       </c>
-      <c r="E315" s="5">
-        <v>0</v>
-      </c>
-      <c r="F315" s="5">
-        <v>0</v>
-      </c>
-      <c r="G315" s="5">
-        <v>0</v>
-      </c>
-      <c r="I315" s="32" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
+    </row>
+    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A316" s="13">
         <v>315</v>
       </c>
       <c r="B316" s="42" t="s">
+        <v>927</v>
+      </c>
+      <c r="C316" s="32" t="s">
         <v>928</v>
       </c>
-      <c r="C316" s="32" t="s">
+      <c r="D316" s="43" t="s">
         <v>929</v>
-      </c>
-      <c r="D316" s="43" t="s">
-        <v>930</v>
       </c>
       <c r="E316" s="5">
         <v>0</v>
@@ -12541,76 +13131,76 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1">
+    <row r="317" s="6" customFormat="1" spans="1:9">
       <c r="A317" s="13">
         <v>316</v>
       </c>
       <c r="B317" s="44" t="s">
+        <v>930</v>
+      </c>
+      <c r="C317" s="37" t="s">
         <v>931</v>
       </c>
-      <c r="C317" s="37" t="s">
+      <c r="E317" s="6">
+        <v>1</v>
+      </c>
+      <c r="F317" s="6">
+        <v>1</v>
+      </c>
+      <c r="G317" s="6">
+        <v>1</v>
+      </c>
+      <c r="I317" s="37" t="s">
         <v>932</v>
       </c>
-      <c r="E317" s="6">
-        <v>1</v>
-      </c>
-      <c r="F317" s="6">
-        <v>1</v>
-      </c>
-      <c r="G317" s="6">
-        <v>1</v>
-      </c>
-      <c r="I317" s="37" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" s="6" customFormat="1">
+    </row>
+    <row r="318" s="6" customFormat="1" spans="1:9">
       <c r="A318" s="13">
         <v>317</v>
       </c>
       <c r="B318" s="44" t="s">
+        <v>933</v>
+      </c>
+      <c r="C318" s="37" t="s">
         <v>934</v>
       </c>
-      <c r="C318" s="37" t="s">
-        <v>935</v>
-      </c>
       <c r="E318" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G318" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318" s="37" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="6" customFormat="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="319" s="6" customFormat="1" spans="1:9">
       <c r="A319" s="13">
         <v>318</v>
       </c>
       <c r="B319" s="44" t="s">
+        <v>935</v>
+      </c>
+      <c r="C319" s="37" t="s">
         <v>936</v>
       </c>
-      <c r="C319" s="37" t="s">
+      <c r="E319" s="6">
+        <v>0</v>
+      </c>
+      <c r="F319" s="6">
+        <v>0</v>
+      </c>
+      <c r="G319" s="6">
+        <v>0</v>
+      </c>
+      <c r="I319" s="37" t="s">
         <v>937</v>
       </c>
-      <c r="E319" s="6">
-        <v>0</v>
-      </c>
-      <c r="F319" s="6">
-        <v>0</v>
-      </c>
-      <c r="G319" s="6">
-        <v>0</v>
-      </c>
-      <c r="I319" s="37" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" s="6" customFormat="1">
+    </row>
+    <row r="320" s="6" customFormat="1" spans="1:9">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -12633,7 +13223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="6" customFormat="1">
+    <row r="321" s="6" customFormat="1" spans="1:9">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -12656,7 +13246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="6" customFormat="1">
+    <row r="322" s="6" customFormat="1" spans="1:9">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -12678,19 +13268,19 @@
       <c r="G322" s="6">
         <v>1</v>
       </c>
-      <c r="I322" s="49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" s="5" customFormat="1">
+      <c r="I322" s="37" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="323" s="5" customFormat="1" spans="1:9">
       <c r="A323" s="13">
         <v>322</v>
       </c>
       <c r="B323" s="47" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C323" s="32" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D323" s="33"/>
       <c r="E323" s="5">
@@ -12703,10 +13293,10 @@
         <v>0</v>
       </c>
       <c r="I323" s="32" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" s="5" customFormat="1">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="324" s="5" customFormat="1" spans="1:9">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -12729,10 +13319,10 @@
         <v>0</v>
       </c>
       <c r="I324" s="32" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" s="5" customFormat="1">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="325" s="5" customFormat="1" spans="1:9">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -12752,10 +13342,10 @@
         <v>0</v>
       </c>
       <c r="I325" s="32" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" s="5" customFormat="1">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="326" s="5" customFormat="1" spans="1:9">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -12781,10 +13371,10 @@
         <v>956</v>
       </c>
       <c r="I326" s="32" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" s="5" customFormat="1">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="327" s="5" customFormat="1" spans="1:9">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -12810,7 +13400,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="328" spans="1:9" s="5" customFormat="1">
+    <row r="328" s="5" customFormat="1" spans="1:9">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -12836,7 +13426,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="329" spans="1:9" s="5" customFormat="1">
+    <row r="329" s="5" customFormat="1" spans="1:9">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -12862,7 +13452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:9" s="5" customFormat="1">
+    <row r="330" s="5" customFormat="1" spans="1:9">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -12954,13 +13544,13 @@
         <v>978</v>
       </c>
       <c r="E333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I333" s="32" t="s">
         <v>979</v>
@@ -13042,7 +13632,7 @@
       </c>
     </row>
     <row r="337" spans="1:9">
-      <c r="A337" s="13">
+      <c r="A337" s="48">
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
@@ -13055,30 +13645,30 @@
         <v>991</v>
       </c>
       <c r="E337" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F337" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G337" s="5">
-        <v>1</v>
-      </c>
-      <c r="I337" s="32">
-        <v>5.18</v>
+        <v>0</v>
+      </c>
+      <c r="I337" s="32" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="13">
         <v>337</v>
       </c>
-      <c r="B338" s="48" t="s">
+      <c r="B338" s="49" t="s">
         <v>992</v>
       </c>
       <c r="C338" t="s">
         <v>993</v>
       </c>
       <c r="D338" s="50" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -13090,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13098,10 +13688,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C339" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -13113,66 +13703,69 @@
         <v>0</v>
       </c>
       <c r="I339" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" ht="15.75">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="340" ht="15.75" spans="1:9">
       <c r="A340" s="5">
         <v>339</v>
       </c>
-      <c r="B340" s="48" t="s">
-        <v>997</v>
+      <c r="B340" s="49" t="s">
+        <v>999</v>
       </c>
       <c r="C340" t="s">
-        <v>998</v>
-      </c>
-      <c r="D340" s="48" t="s">
-        <v>999</v>
+        <v>1000</v>
+      </c>
+      <c r="D340" s="49" t="s">
+        <v>1001</v>
       </c>
       <c r="E340" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F340" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G340" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" s="32" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340"/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <autoFilter ref="A1:H340">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/game_module_config.xlsx
+++ b/config_Release/game_module_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1005">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -28,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -37,6 +42,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值和活动是对应的</t>
@@ -501,7 +507,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -512,7 +518,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -521,6 +527,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -530,7 +537,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -539,6 +546,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -548,7 +556,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -557,6 +565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -566,7 +575,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -664,7 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -750,6 +759,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -767,6 +777,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -784,6 +795,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -846,6 +858,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -863,6 +876,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1132,6 +1146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,6 +1157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,6 +1168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1248,6 +1265,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1257,7 +1275,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1266,6 +1284,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1292,6 +1311,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1309,6 +1329,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1326,6 +1347,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1343,6 +1365,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1352,7 +1375,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1361,6 +1384,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1378,6 +1402,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1387,7 +1412,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1396,6 +1421,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1413,6 +1439,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1422,7 +1449,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1431,6 +1458,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1440,7 +1468,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1457,6 +1485,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1466,7 +1495,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1475,6 +1504,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1492,6 +1522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1501,7 +1532,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1510,6 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1527,6 +1559,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1536,7 +1569,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1545,6 +1578,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1562,6 +1596,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1579,6 +1614,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1596,6 +1632,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1613,6 +1650,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1630,6 +1668,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1639,7 +1678,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1648,6 +1687,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1665,6 +1705,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1674,7 +1715,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1683,6 +1724,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1700,6 +1742,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1709,7 +1752,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1718,6 +1761,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1735,6 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1744,7 +1789,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1753,6 +1798,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1770,6 +1816,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1779,7 +1826,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1788,6 +1835,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1805,6 +1853,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1814,7 +1863,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1823,6 +1872,7 @@
         <sz val="11"/>
         <c